--- a/data/data_20070521.xlsx
+++ b/data/data_20070521.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
-    <t>c_winf_obs</t>
+    <t>CES2000000008_20110304</t>
   </si>
   <si>
     <t>1965Q1</t>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.720346465554962</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -902,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.721727176434205</v>
+        <v>3.213333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1.720543474952948</v>
+        <v>3.233333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -918,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1.719396291163032</v>
+        <v>3.276666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -926,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1.723233125215376</v>
+        <v>3.316666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1.720831401446052</v>
+        <v>3.396666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1.718500573323148</v>
+        <v>3.443333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -950,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1.721045590584804</v>
+        <v>3.476666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -958,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1.721137828610861</v>
+        <v>3.523333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -966,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1.721228320078566</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.716660528300582</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -982,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.718000926935717</v>
+        <v>3.736666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -990,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.714768319720864</v>
+        <v>3.823333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -998,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-1.716129762550426</v>
+        <v>3.876666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-1.716338890814255</v>
+        <v>3.943333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-1.714382270925442</v>
+        <v>4.026666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-1.715706272397441</v>
+        <v>4.100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1.714881072950944</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-1.714097955007928</v>
+        <v>4.343333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-1.715381611443923</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-1.718611107201894</v>
+        <v>4.566666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-1.716779120816836</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-1.7150246148316</v>
+        <v>4.803333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-1.717182127250243</v>
+        <v>4.883333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-1.712643099615854</v>
+        <v>4.996666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-1.714815082960716</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-1.715063344167139</v>
+        <v>5.226666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.718003019618547</v>
+        <v>5.303333333333334</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.698778243448661</v>
+        <v>5.419999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-1.717691761993759</v>
+        <v>5.503333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-1.717858699656285</v>
+        <v>5.553333333333334</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-1.713832040364961</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-1.716581871983493</v>
+        <v>5.803333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-1.716778306994552</v>
+        <v>5.829999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-1.714566464487082</v>
+        <v>5.896666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-1.715610208998925</v>
+        <v>6.003333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-1.717388409333789</v>
+        <v>6.066666666666666</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-1.707635639329268</v>
+        <v>6.176666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-1.707412781891864</v>
+        <v>6.363333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-1.710849550045036</v>
+        <v>6.509999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-1.719118293074523</v>
+        <v>6.636666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-1.719250800171093</v>
+        <v>6.756666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-1.714469740857709</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-1.71404036077655</v>
+        <v>6.859999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-1.712284143229088</v>
+        <v>6.946666666666668</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1.714609708665341</v>
+        <v>7.099999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1.710945368999549</v>
+        <v>7.226666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1.713247907828735</v>
+        <v>7.346666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1.712917600395682</v>
+        <v>7.453333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.711374584727252</v>
+        <v>7.496666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.715381611443923</v>
+        <v>7.573333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.71202622857441</v>
+        <v>7.686666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-1.711782753110479</v>
+        <v>7.830000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-1.70754666455</v>
+        <v>8.016666666666666</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-1.712554759346316</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-1.709022311184974</v>
+        <v>8.306666666666667</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-1.711637278809287</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-1.715706272397441</v>
+        <v>8.626666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-1.710185003793734</v>
+        <v>8.786666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-1.713151536766056</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1.712951401117894</v>
+        <v>9.026666666666667</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1.710794692099671</v>
+        <v>9.273333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1.710217315073425</v>
+        <v>9.466666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1.70590906743451</v>
+        <v>9.683333333333332</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1.708809058900503</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1.711986653653032</v>
+        <v>10.07666666666667</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1.710999596441241</v>
+        <v>10.35666666666667</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1.717048265012134</v>
+        <v>10.60333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1.71593863416531</v>
+        <v>10.88666666666666</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1.720408571811023</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1.717142059937152</v>
+        <v>11.08666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1.722734354541819</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1.718252716148311</v>
+        <v>11.35666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1.721259878968793</v>
+        <v>11.33333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1.722562414023954</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1.719819606272827</v>
+        <v>11.41666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-1.722714958085953</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-1.722383904638015</v>
+        <v>11.55333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1.721670868542639</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1.72563057160883</v>
+        <v>11.59333333333333</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1.723338601226545</v>
+        <v>11.71666666666667</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1.722626638368518</v>
+        <v>11.71666666666667</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1.723830830897286</v>
+        <v>11.76666666666667</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-1.72425521040036</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-1.725422764518807</v>
+        <v>11.76666666666667</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-1.727695093977728</v>
+        <v>11.85333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-1.726957524306359</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-1.724372596782138</v>
+        <v>12.10666666666667</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-1.724412329161881</v>
+        <v>12.04666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-1.724817798632775</v>
+        <v>12.14333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-1.723760246430726</v>
+        <v>12.15333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-1.720561847275412</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-1.726383946096276</v>
+        <v>12.35666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-1.719996742930342</v>
+        <v>12.45666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-1.722570028874032</v>
+        <v>12.57666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-1.719499088435042</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-1.720655949031306</v>
+        <v>12.80333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-1.723146050775639</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-1.72150742036256</v>
+        <v>13.01333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-1.719914070813677</v>
+        <v>13.16666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-1.718703697371702</v>
+        <v>13.33666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-1.721139009797626</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-1.722204613164602</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-1.723566846684381</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-1.724258746622831</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-1.72143504256608</v>
+        <v>13.63666666666666</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-1.723727177100872</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-1.725658052387009</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-1.725058499824579</v>
+        <v>13.73333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-1.724158858158188</v>
+        <v>13.80666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-1.724509621925086</v>
+        <v>13.79333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-1.724854169543324</v>
+        <v>13.87333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-1.723061055933706</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-1.725537285440316</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-1.72496171270324</v>
+        <v>14.04666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-1.723798233224791</v>
+        <v>14.11666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-1.723252012729675</v>
+        <v>14.19333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-1.725665505879081</v>
+        <v>14.29333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-1.724516630051008</v>
+        <v>14.41666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-1.722806835450723</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-1.724602689599487</v>
+        <v>14.52666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-1.724352111186648</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-1.722109645985693</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-1.723313643669508</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-1.723086960898032</v>
+        <v>14.92333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-1.720917866570949</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-1.722114478877562</v>
+        <v>15.17666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-1.721641044531756</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-1.720640047590132</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-1.722616082558554</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-1.720288814530407</v>
+        <v>15.70666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-1.718558494251443</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-1.7210389789927</v>
+        <v>16.01666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-1.721131342846572</v>
+        <v>16.13333333333334</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-1.721986774976857</v>
+        <v>16.27666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-1.722567785412612</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.721379399829742</v>
+        <v>16.50666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>-1.721217102462421</v>
+        <v>16.71666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-1.720814343086968</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-1.722860350893017</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-1.720987032290005</v>
+        <v>17.19333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-1.720362941794127</v>
+        <v>17.38333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-1.72117876292522</v>
+        <v>17.55666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-1.719627795128239</v>
+        <v>17.74333333333334</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-1.721603815023798</v>
+        <v>17.89333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>-1.720996001312123</v>
+        <v>17.90666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-1.724052825767154</v>
+        <v>18.00333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>-1.72318984051791</v>
+        <v>18.14333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-1.725497507216255</v>
+        <v>18.31</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-1.723955762487121</v>
+        <v>18.42333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-1.72155725612642</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-1.721640014237187</v>
+        <v>18.72333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>-1.723902788630297</v>
+        <v>18.81666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-1.726337591534138</v>
+        <v>18.95666666666666</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-1.724842171165505</v>
+        <v>18.98333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-1.727889584456606</v>
+        <v>19.01333333333334</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-1.725964654795968</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-1.72406693301634</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-1.723475598443479</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>-1.72478865624368</v>
+        <v>19.28666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-1.724823346318835</v>
+        <v>19.30333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>-1.723611007446579</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-1.722630452680197</v>
+        <v>19.50666666666666</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-1.721877989630278</v>
+        <v>19.59333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-1.72074147270137</v>
+        <v>19.64666666666666</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-1.71963934620711</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-1.720947435386478</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-1.721041550172601</v>
+        <v>20.38</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_20070521.xlsx
+++ b/data/data_20070521.xlsx
@@ -14,9 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
-  <si>
-    <t>CES2000000008_20110304</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+  <si>
+    <t>hwr_pd_obs</t>
+  </si>
+  <si>
+    <t>rri_obs</t>
+  </si>
+  <si>
+    <t>rc_obs</t>
+  </si>
+  <si>
+    <t>i_nom_obs</t>
+  </si>
+  <si>
+    <t>c_winf_obs</t>
+  </si>
+  <si>
+    <t>rbi_obs</t>
+  </si>
+  <si>
+    <t>pi_dm_obs</t>
+  </si>
+  <si>
+    <t>hwc_pd_obs</t>
   </si>
   <si>
     <t>1965Q1</t>
@@ -878,1359 +899,4908 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.05974195605997308</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-0.00487721893491124</v>
+      </c>
+      <c r="F2">
+        <v>-1.720346465554962</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-0.005070171983789834</v>
+      </c>
+      <c r="I2">
+        <v>-0.1378916811257551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>3.213333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-0.06118443043085142</v>
+      </c>
+      <c r="C3">
+        <v>0.004013873191387241</v>
+      </c>
+      <c r="D3">
+        <v>0.006975044395717056</v>
+      </c>
+      <c r="E3">
+        <v>-0.004918885601577907</v>
+      </c>
+      <c r="F3">
+        <v>-1.721727176434205</v>
+      </c>
+      <c r="G3">
+        <v>0.03310989323116154</v>
+      </c>
+      <c r="H3">
+        <v>-0.008270685490852131</v>
+      </c>
+      <c r="I3">
+        <v>-0.131823052952579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>3.233333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.0483510384067827</v>
+      </c>
+      <c r="C4">
+        <v>0.004700013105478185</v>
+      </c>
+      <c r="D4">
+        <v>0.02066179358093212</v>
+      </c>
+      <c r="E4">
+        <v>-0.004935552268244573</v>
+      </c>
+      <c r="F4">
+        <v>-1.720543474952948</v>
+      </c>
+      <c r="G4">
+        <v>0.06655510364400818</v>
+      </c>
+      <c r="H4">
+        <v>-0.005197139405548829</v>
+      </c>
+      <c r="I4">
+        <v>-0.1253182811366025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>3.276666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>-0.02952782989373259</v>
+      </c>
+      <c r="C5">
+        <v>-0.02088793357275698</v>
+      </c>
+      <c r="D5">
+        <v>0.04503967656677421</v>
+      </c>
+      <c r="E5">
+        <v>-0.004185552268244573</v>
+      </c>
+      <c r="F5">
+        <v>-1.719396291163032</v>
+      </c>
+      <c r="G5">
+        <v>0.1049907028122163</v>
+      </c>
+      <c r="H5">
+        <v>-0.006457685284641241</v>
+      </c>
+      <c r="I5">
+        <v>-0.1133235973856395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>3.316666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01405061028272684</v>
+      </c>
+      <c r="C6">
+        <v>-0.0008281674284029705</v>
+      </c>
+      <c r="D6">
+        <v>0.05696184797496961</v>
+      </c>
+      <c r="E6">
+        <v>-0.00307721893491124</v>
+      </c>
+      <c r="F6">
+        <v>-1.723233125215376</v>
+      </c>
+      <c r="G6">
+        <v>0.1449957358715634</v>
+      </c>
+      <c r="H6">
+        <v>-0.00571953761772242</v>
+      </c>
+      <c r="I6">
+        <v>-0.09411148718533147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>3.396666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.03477406579487759</v>
+      </c>
+      <c r="C7">
+        <v>-0.08750809738398146</v>
+      </c>
+      <c r="D7">
+        <v>0.05693311421725777</v>
+      </c>
+      <c r="E7">
+        <v>-0.003135552268244574</v>
+      </c>
+      <c r="F7">
+        <v>-1.720831401446052</v>
+      </c>
+      <c r="G7">
+        <v>0.1575887865583807</v>
+      </c>
+      <c r="H7">
+        <v>0.001315115869377997</v>
+      </c>
+      <c r="I7">
+        <v>-0.08267759164871169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>3.443333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.02920719399818843</v>
+      </c>
+      <c r="C8">
+        <v>-0.1235107297039058</v>
+      </c>
+      <c r="D8">
+        <v>0.0654605562091346</v>
+      </c>
+      <c r="E8">
+        <v>-0.001993885601577908</v>
+      </c>
+      <c r="F8">
+        <v>-1.718500573323148</v>
+      </c>
+      <c r="G8">
+        <v>0.1665478619416669</v>
+      </c>
+      <c r="H8">
+        <v>-0.00119325630990424</v>
+      </c>
+      <c r="I8">
+        <v>-0.08074456592972235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>3.476666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.05205733338636261</v>
+      </c>
+      <c r="C9">
+        <v>-0.2368623890378379</v>
+      </c>
+      <c r="D9">
+        <v>0.06659251728977633</v>
+      </c>
+      <c r="E9">
+        <v>-0.00157721893491124</v>
+      </c>
+      <c r="F9">
+        <v>-1.721045590584804</v>
+      </c>
+      <c r="G9">
+        <v>0.1610440935242217</v>
+      </c>
+      <c r="H9">
+        <v>0.002710368808246993</v>
+      </c>
+      <c r="I9">
+        <v>-0.07704085865848764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>3.523333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.05461327890611833</v>
+      </c>
+      <c r="C10">
+        <v>-0.2707498717028072</v>
+      </c>
+      <c r="D10">
+        <v>0.06914587528597416</v>
+      </c>
+      <c r="E10">
+        <v>-0.003318885601577908</v>
+      </c>
+      <c r="F10">
+        <v>-1.721137828610861</v>
+      </c>
+      <c r="G10">
+        <v>0.1364910006434288</v>
+      </c>
+      <c r="H10">
+        <v>-0.004049847712216665</v>
+      </c>
+      <c r="I10">
+        <v>-0.08461389187546331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.0867731811838397</v>
+      </c>
+      <c r="C11">
+        <v>-0.1672538098798002</v>
+      </c>
+      <c r="D11">
+        <v>0.07871631091914288</v>
+      </c>
+      <c r="E11">
+        <v>-0.00545221893491124</v>
+      </c>
+      <c r="F11">
+        <v>-1.721228320078566</v>
+      </c>
+      <c r="G11">
+        <v>0.1293116317923602</v>
+      </c>
+      <c r="H11">
+        <v>-0.003258125008858187</v>
+      </c>
+      <c r="I11">
+        <v>-0.09169674856798382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>3.666666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.06747169285322252</v>
+      </c>
+      <c r="C12">
+        <v>-0.1228567096467623</v>
+      </c>
+      <c r="D12">
+        <v>0.07888371361715496</v>
+      </c>
+      <c r="E12">
+        <v>-0.003852218934911241</v>
+      </c>
+      <c r="F12">
+        <v>-1.716660528300582</v>
+      </c>
+      <c r="G12">
+        <v>0.1192093903648743</v>
+      </c>
+      <c r="H12">
+        <v>-0.0003183346312108318</v>
+      </c>
+      <c r="I12">
+        <v>-0.08593827052604608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>3.736666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.05944139117232416</v>
+      </c>
+      <c r="C13">
+        <v>-0.07094047108654333</v>
+      </c>
+      <c r="D13">
+        <v>0.08031516464530153</v>
+      </c>
+      <c r="E13">
+        <v>-0.002718885601577908</v>
+      </c>
+      <c r="F13">
+        <v>-1.718000926935717</v>
+      </c>
+      <c r="G13">
+        <v>0.1348249358539428</v>
+      </c>
+      <c r="H13">
+        <v>0.0002735085344833296</v>
+      </c>
+      <c r="I13">
+        <v>-0.08056348226536825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>3.823333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.08773183384580763</v>
+      </c>
+      <c r="C14">
+        <v>-0.0685774226470377</v>
+      </c>
+      <c r="D14">
+        <v>0.1000007281969575</v>
+      </c>
+      <c r="E14">
+        <v>-0.001977218934911242</v>
+      </c>
+      <c r="F14">
+        <v>-1.714768319720864</v>
+      </c>
+      <c r="G14">
+        <v>0.1622721365564637</v>
+      </c>
+      <c r="H14">
+        <v>0.001212087458664029</v>
+      </c>
+      <c r="I14">
+        <v>-0.07579937400353431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>3.876666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.05775203815216469</v>
+      </c>
+      <c r="C15">
+        <v>-0.04733499799507612</v>
+      </c>
+      <c r="D15">
+        <v>0.1118777906738044</v>
+      </c>
+      <c r="E15">
+        <v>-0.0008022189349112408</v>
+      </c>
+      <c r="F15">
+        <v>-1.716129762550426</v>
+      </c>
+      <c r="G15">
+        <v>0.1414574749173809</v>
+      </c>
+      <c r="H15">
+        <v>0.002120914560766301</v>
+      </c>
+      <c r="I15">
+        <v>-0.06984169806798191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>3.943333333333333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.05495259024215023</v>
+      </c>
+      <c r="C16">
+        <v>-0.03332695839862421</v>
+      </c>
+      <c r="D16">
+        <v>0.1264086908093631</v>
+      </c>
+      <c r="E16">
+        <v>-0.001610552268244575</v>
+      </c>
+      <c r="F16">
+        <v>-1.716338890814255</v>
+      </c>
+      <c r="G16">
+        <v>0.1502763275464361</v>
+      </c>
+      <c r="H16">
+        <v>-0.002154206480636184</v>
+      </c>
+      <c r="I16">
+        <v>-0.06256657287002243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>4.026666666666666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>-0.04700228844775231</v>
+      </c>
+      <c r="C17">
+        <v>-0.02571214117168363</v>
+      </c>
+      <c r="D17">
+        <v>0.1260942364739881</v>
+      </c>
+      <c r="E17">
+        <v>-0.0006355522682445734</v>
+      </c>
+      <c r="F17">
+        <v>-1.714382270925442</v>
+      </c>
+      <c r="G17">
+        <v>0.1748419937364174</v>
+      </c>
+      <c r="H17">
+        <v>0.004838491504195413</v>
+      </c>
+      <c r="I17">
+        <v>-0.05665087035422056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>4.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>-0.01368334572099198</v>
+      </c>
+      <c r="C18">
+        <v>0.005073474931147182</v>
+      </c>
+      <c r="D18">
+        <v>0.1327547835977203</v>
+      </c>
+      <c r="E18">
+        <v>0.0006311143984220943</v>
+      </c>
+      <c r="F18">
+        <v>-1.715706272397441</v>
+      </c>
+      <c r="G18">
+        <v>0.1992396503410898</v>
+      </c>
+      <c r="H18">
+        <v>0.002209896940407801</v>
+      </c>
+      <c r="I18">
+        <v>-0.05637652233143964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.0008782995136361951</v>
+      </c>
+      <c r="C19">
+        <v>-0.00997237933479056</v>
+      </c>
+      <c r="D19">
+        <v>0.134994992190288</v>
+      </c>
+      <c r="E19">
+        <v>0.0008894477317554252</v>
+      </c>
+      <c r="F19">
+        <v>-1.714881072950944</v>
+      </c>
+      <c r="G19">
+        <v>0.2060268349398795</v>
+      </c>
+      <c r="H19">
+        <v>0.002301960571042766</v>
+      </c>
+      <c r="I19">
+        <v>-0.04817425688323151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>4.343333333333334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008805955745319512</v>
+      </c>
+      <c r="C20">
+        <v>-0.02244196221151196</v>
+      </c>
+      <c r="D20">
+        <v>0.1353082676987745</v>
+      </c>
+      <c r="E20">
+        <v>0.002956114398422091</v>
+      </c>
+      <c r="F20">
+        <v>-1.714097955007928</v>
+      </c>
+      <c r="G20">
+        <v>0.2287613413762619</v>
+      </c>
+      <c r="H20">
+        <v>0.001212361001790402</v>
+      </c>
+      <c r="I20">
+        <v>-0.04984095582755232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.006660803999882205</v>
+      </c>
+      <c r="C21">
+        <v>-0.1031305656494172</v>
+      </c>
+      <c r="D21">
+        <v>0.1383054986468437</v>
+      </c>
+      <c r="E21">
+        <v>0.003781114398422094</v>
+      </c>
+      <c r="F21">
+        <v>-1.715381611443923</v>
+      </c>
+      <c r="G21">
+        <v>0.2179072244859377</v>
+      </c>
+      <c r="H21">
+        <v>0.001229176015870198</v>
+      </c>
+      <c r="I21">
+        <v>-0.05272067197434271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>4.566666666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.008026242074173257</v>
+      </c>
+      <c r="C22">
+        <v>-0.1062295066469767</v>
+      </c>
+      <c r="D22">
+        <v>0.1391227034853921</v>
+      </c>
+      <c r="E22">
+        <v>0.003422781065088759</v>
+      </c>
+      <c r="F22">
+        <v>-1.718611107201894</v>
+      </c>
+      <c r="G22">
+        <v>0.2066621523856664</v>
+      </c>
+      <c r="H22">
+        <v>0.001760338322890525</v>
+      </c>
+      <c r="I22">
+        <v>-0.06271368458419868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.01503838981498011</v>
+      </c>
+      <c r="C23">
+        <v>-0.180555698025378</v>
+      </c>
+      <c r="D23">
+        <v>0.138447702867734</v>
+      </c>
+      <c r="E23">
+        <v>0.002089447731755427</v>
+      </c>
+      <c r="F23">
+        <v>-1.716779120816836</v>
+      </c>
+      <c r="G23">
+        <v>0.1959954865188545</v>
+      </c>
+      <c r="H23">
+        <v>0.005418051949499464</v>
+      </c>
+      <c r="I23">
+        <v>-0.08063682978820141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>4.803333333333334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.04256230315297482</v>
+      </c>
+      <c r="C24">
+        <v>-0.1340557716654045</v>
+      </c>
+      <c r="D24">
+        <v>0.1414330977400358</v>
+      </c>
+      <c r="E24">
+        <v>0.001214447731755426</v>
+      </c>
+      <c r="F24">
+        <v>-1.7150246148316</v>
+      </c>
+      <c r="G24">
+        <v>0.1956430056836203</v>
+      </c>
+      <c r="H24">
+        <v>-0.004387538380722639</v>
+      </c>
+      <c r="I24">
+        <v>-0.08896735650875609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>4.883333333333334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.0398468012981018</v>
+      </c>
+      <c r="C25">
+        <v>-0.03968072682879242</v>
+      </c>
+      <c r="D25">
+        <v>0.1327571714956477</v>
+      </c>
+      <c r="E25">
+        <v>-0.001218885601577905</v>
+      </c>
+      <c r="F25">
+        <v>-1.717182127250243</v>
+      </c>
+      <c r="G25">
+        <v>0.1514688477049448</v>
+      </c>
+      <c r="H25">
+        <v>0.005494056321506185</v>
+      </c>
+      <c r="I25">
+        <v>-0.108639468805781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>4.996666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.04694894262323809</v>
+      </c>
+      <c r="C26">
+        <v>0.006561772449908077</v>
+      </c>
+      <c r="D26">
+        <v>0.1462240586681922</v>
+      </c>
+      <c r="E26">
+        <v>-0.005002218934911241</v>
+      </c>
+      <c r="F26">
+        <v>-1.712643099615854</v>
+      </c>
+      <c r="G26">
+        <v>0.1553214443867903</v>
+      </c>
+      <c r="H26">
+        <v>0.001227498947704081</v>
+      </c>
+      <c r="I26">
+        <v>-0.1025797779496531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>-0.02880671934747077</v>
+      </c>
+      <c r="C27">
+        <v>0.09708923858109131</v>
+      </c>
+      <c r="D27">
+        <v>0.1497156866559273</v>
+      </c>
+      <c r="E27">
+        <v>-0.00397721893491124</v>
+      </c>
+      <c r="F27">
+        <v>-1.714815082960716</v>
+      </c>
+      <c r="G27">
+        <v>0.1639956159160114</v>
+      </c>
+      <c r="H27">
+        <v>0.002958478901443356</v>
+      </c>
+      <c r="I27">
+        <v>-0.1013966947106102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>5.226666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.02037192981896647</v>
+      </c>
+      <c r="C28">
+        <v>0.1395623836980668</v>
+      </c>
+      <c r="D28">
+        <v>0.152123920456857</v>
+      </c>
+      <c r="E28">
+        <v>-0.002077218934911239</v>
+      </c>
+      <c r="F28">
+        <v>-1.715063344167139</v>
+      </c>
+      <c r="G28">
+        <v>0.1623136369311107</v>
+      </c>
+      <c r="H28">
+        <v>0.0004307483100873307</v>
+      </c>
+      <c r="I28">
+        <v>-0.1063783804386529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>5.303333333333334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.004952898529332499</v>
+      </c>
+      <c r="C29">
+        <v>0.1717673935921544</v>
+      </c>
+      <c r="D29">
+        <v>0.1630209050433273</v>
+      </c>
+      <c r="E29">
+        <v>-0.004027218934911241</v>
+      </c>
+      <c r="F29">
+        <v>-1.718003019618547</v>
+      </c>
+      <c r="G29">
+        <v>0.1783003098258193</v>
+      </c>
+      <c r="H29">
+        <v>-0.00496396868828391</v>
+      </c>
+      <c r="I29">
+        <v>-0.1018998176840671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>5.419999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01775787478838047</v>
+      </c>
+      <c r="C30">
+        <v>0.2250996304129833</v>
+      </c>
+      <c r="D30">
+        <v>0.164908745280083</v>
+      </c>
+      <c r="E30">
+        <v>-0.006010552268244573</v>
+      </c>
+      <c r="F30">
+        <v>-1.698778243448661</v>
+      </c>
+      <c r="G30">
+        <v>0.199921844193006</v>
+      </c>
+      <c r="H30">
+        <v>0.003099364062254256</v>
+      </c>
+      <c r="I30">
+        <v>-0.09418736540015615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>5.503333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.02318218339909851</v>
+      </c>
+      <c r="C31">
+        <v>0.2392089815291891</v>
+      </c>
+      <c r="D31">
+        <v>0.1783799593678062</v>
+      </c>
+      <c r="E31">
+        <v>-0.005177218934911241</v>
+      </c>
+      <c r="F31">
+        <v>-1.717691761993759</v>
+      </c>
+      <c r="G31">
+        <v>0.2112567147726416</v>
+      </c>
+      <c r="H31">
+        <v>-0.004642053646442041</v>
+      </c>
+      <c r="I31">
+        <v>-0.08383088988324205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>5.553333333333334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.01579530338454953</v>
+      </c>
+      <c r="C32">
+        <v>0.23634634276039</v>
+      </c>
+      <c r="D32">
+        <v>0.1883142170180419</v>
+      </c>
+      <c r="E32">
+        <v>-0.004052218934911242</v>
+      </c>
+      <c r="F32">
+        <v>-1.717858699656285</v>
+      </c>
+      <c r="G32">
+        <v>0.2212183776111729</v>
+      </c>
+      <c r="H32">
+        <v>-0.002642387148418518</v>
+      </c>
+      <c r="I32">
+        <v>-0.08038515307165506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>5.69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.03137746962107446</v>
+      </c>
+      <c r="C33">
+        <v>0.2667665579286602</v>
+      </c>
+      <c r="D33">
+        <v>0.2065659348437499</v>
+      </c>
+      <c r="E33">
+        <v>-0.002443885601577907</v>
+      </c>
+      <c r="F33">
+        <v>-1.713832040364961</v>
+      </c>
+      <c r="G33">
+        <v>0.2669221543931037</v>
+      </c>
+      <c r="H33">
+        <v>-0.003233608861822607</v>
+      </c>
+      <c r="I33">
+        <v>-0.06976007870495859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>5.803333333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.01920692253323707</v>
+      </c>
+      <c r="C34">
+        <v>0.2946477622969903</v>
+      </c>
+      <c r="D34">
+        <v>0.2193279792832108</v>
+      </c>
+      <c r="E34">
+        <v>-0.0003522189349112401</v>
+      </c>
+      <c r="F34">
+        <v>-1.716581871983493</v>
+      </c>
+      <c r="G34">
+        <v>0.3079146369652701</v>
+      </c>
+      <c r="H34">
+        <v>-0.003377456623643355</v>
+      </c>
+      <c r="I34">
+        <v>-0.06007040264421848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>5.829999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.0167085563102039</v>
+      </c>
+      <c r="C35">
+        <v>0.2371323133081447</v>
+      </c>
+      <c r="D35">
+        <v>0.2136249644168449</v>
+      </c>
+      <c r="E35">
+        <v>0.001906114398422096</v>
+      </c>
+      <c r="F35">
+        <v>-1.716778306994552</v>
+      </c>
+      <c r="G35">
+        <v>0.3425641303086486</v>
+      </c>
+      <c r="H35">
+        <v>0.002034657056205485</v>
+      </c>
+      <c r="I35">
+        <v>-0.05695598124999934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>5.896666666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.03092447899041369</v>
+      </c>
+      <c r="C36">
+        <v>0.1889536304155524</v>
+      </c>
+      <c r="D36">
+        <v>0.212017658713064</v>
+      </c>
+      <c r="E36">
+        <v>0.006206114398422091</v>
+      </c>
+      <c r="F36">
+        <v>-1.714566464487082</v>
+      </c>
+      <c r="G36">
+        <v>0.3541676147210007</v>
+      </c>
+      <c r="H36">
+        <v>0.003379847229984584</v>
+      </c>
+      <c r="I36">
+        <v>-0.05868970279947838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>6.003333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.03308922742713213</v>
+      </c>
+      <c r="C37">
+        <v>0.1348206431142032</v>
+      </c>
+      <c r="D37">
+        <v>0.2040109923314084</v>
+      </c>
+      <c r="E37">
+        <v>0.004147781065088759</v>
+      </c>
+      <c r="F37">
+        <v>-1.715610208998925</v>
+      </c>
+      <c r="G37">
+        <v>0.3569374014129103</v>
+      </c>
+      <c r="H37">
+        <v>0.01384148499553323</v>
+      </c>
+      <c r="I37">
+        <v>-0.05542134855360947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>6.066666666666666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.01508640307204537</v>
+      </c>
+      <c r="C38">
+        <v>0.05368642038724669</v>
+      </c>
+      <c r="D38">
+        <v>0.190239673390117</v>
+      </c>
+      <c r="E38">
+        <v>0.004439447731755428</v>
+      </c>
+      <c r="F38">
+        <v>-1.717388409333789</v>
+      </c>
+      <c r="G38">
+        <v>0.3506186008450092</v>
+      </c>
+      <c r="H38">
+        <v>0.01210105576433169</v>
+      </c>
+      <c r="I38">
+        <v>-0.05970310785280786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>6.176666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.004770751529072938</v>
+      </c>
+      <c r="C39">
+        <v>0.003870307183637678</v>
+      </c>
+      <c r="D39">
+        <v>0.1891561622378259</v>
+      </c>
+      <c r="E39">
+        <v>0.005781114398422096</v>
+      </c>
+      <c r="F39">
+        <v>-1.707635639329268</v>
+      </c>
+      <c r="G39">
+        <v>0.3434267576827263</v>
+      </c>
+      <c r="H39">
+        <v>0.02667211247564211</v>
+      </c>
+      <c r="I39">
+        <v>-0.07097210499054585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>6.363333333333333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.04131460238669143</v>
+      </c>
+      <c r="C40">
+        <v>-0.03472940100943944</v>
+      </c>
+      <c r="D40">
+        <v>0.1886227744701223</v>
+      </c>
+      <c r="E40">
+        <v>0.00587278106508876</v>
+      </c>
+      <c r="F40">
+        <v>-1.707412781891864</v>
+      </c>
+      <c r="G40">
+        <v>0.3266197149887384</v>
+      </c>
+      <c r="H40">
+        <v>0.02133381728900336</v>
+      </c>
+      <c r="I40">
+        <v>-0.06994313178968703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>6.509999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.06748837995630455</v>
+      </c>
+      <c r="C41">
+        <v>-0.1806130553803431</v>
+      </c>
+      <c r="D41">
+        <v>0.1690695206585495</v>
+      </c>
+      <c r="E41">
+        <v>0.003797781065088759</v>
+      </c>
+      <c r="F41">
+        <v>-1.710849550045036</v>
+      </c>
+      <c r="G41">
+        <v>0.2935229764840814</v>
+      </c>
+      <c r="H41">
+        <v>0.02045627555547864</v>
+      </c>
+      <c r="I41">
+        <v>-0.09176721023969359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>6.636666666666667</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>-0.1470231589960968</v>
+      </c>
+      <c r="C42">
+        <v>-0.2494906698084307</v>
+      </c>
+      <c r="D42">
+        <v>0.1727419175571683</v>
+      </c>
+      <c r="E42">
+        <v>-0.00022721893491124</v>
+      </c>
+      <c r="F42">
+        <v>-1.719118293074523</v>
+      </c>
+      <c r="G42">
+        <v>0.2253510737561282</v>
+      </c>
+      <c r="H42">
+        <v>0.02320527467137618</v>
+      </c>
+      <c r="I42">
+        <v>-0.1268446715321585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>6.756666666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.1952174134940718</v>
+      </c>
+      <c r="C43">
+        <v>-0.2329415056631579</v>
+      </c>
+      <c r="D43">
+        <v>0.1841664664200104</v>
+      </c>
+      <c r="E43">
+        <v>-0.001118885601577907</v>
+      </c>
+      <c r="F43">
+        <v>-1.719250800171093</v>
+      </c>
+      <c r="G43">
+        <v>0.1942610560539002</v>
+      </c>
+      <c r="H43">
+        <v>0.006421150302684036</v>
+      </c>
+      <c r="I43">
+        <v>-0.13227453621688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>6.82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.19392647796783</v>
+      </c>
+      <c r="C44">
+        <v>-0.171464536393489</v>
+      </c>
+      <c r="D44">
+        <v>0.1926049654042279</v>
+      </c>
+      <c r="E44">
+        <v>0.001222781065088762</v>
+      </c>
+      <c r="F44">
+        <v>-1.714469740857709</v>
+      </c>
+      <c r="G44">
+        <v>0.1977754692550961</v>
+      </c>
+      <c r="H44">
+        <v>0.007314520434264565</v>
+      </c>
+      <c r="I44">
+        <v>-0.1164141391634272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B45">
-        <v>6.859999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>-0.1782735508614764</v>
+      </c>
+      <c r="C45">
+        <v>-0.1335165015845918</v>
+      </c>
+      <c r="D45">
+        <v>0.198041652819736</v>
+      </c>
+      <c r="E45">
+        <v>-0.0005355522682445706</v>
+      </c>
+      <c r="F45">
+        <v>-1.71404036077655</v>
+      </c>
+      <c r="G45">
+        <v>0.2019765024800888</v>
+      </c>
+      <c r="H45">
+        <v>0.005506512259928214</v>
+      </c>
+      <c r="I45">
+        <v>-0.1036985887250159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>6.946666666666668</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.155937074046849</v>
+      </c>
+      <c r="C46">
+        <v>-0.04088298130231749</v>
+      </c>
+      <c r="D46">
+        <v>0.21298242946837</v>
+      </c>
+      <c r="E46">
+        <v>-0.002310552268244573</v>
+      </c>
+      <c r="F46">
+        <v>-1.712284143229088</v>
+      </c>
+      <c r="G46">
+        <v>0.2155265193021689</v>
+      </c>
+      <c r="H46">
+        <v>0.002312253721415697</v>
+      </c>
+      <c r="I46">
+        <v>-0.08798819869808971</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>7.099999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.1681648618550096</v>
+      </c>
+      <c r="C47">
+        <v>-0.01670845498041107</v>
+      </c>
+      <c r="D47">
+        <v>0.2173560206232175</v>
+      </c>
+      <c r="E47">
+        <v>-0.001710552268244573</v>
+      </c>
+      <c r="F47">
+        <v>-1.714609708665341</v>
+      </c>
+      <c r="G47">
+        <v>0.2228463284645397</v>
+      </c>
+      <c r="H47">
+        <v>0.00167986131849091</v>
+      </c>
+      <c r="I47">
+        <v>-0.09159246915690877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>7.226666666666667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.1813640623283937</v>
+      </c>
+      <c r="C48">
+        <v>-0.03829559743781896</v>
+      </c>
+      <c r="D48">
+        <v>0.2229335424646628</v>
+      </c>
+      <c r="E48">
+        <v>-0.00172721893491124</v>
+      </c>
+      <c r="F48">
+        <v>-1.710945368999549</v>
+      </c>
+      <c r="G48">
+        <v>0.2396482467438048</v>
+      </c>
+      <c r="H48">
+        <v>0.005290021055279264</v>
+      </c>
+      <c r="I48">
+        <v>-0.08601031688942085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>7.346666666666667</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.1696649444395617</v>
+      </c>
+      <c r="C49">
+        <v>0.07740033524780721</v>
+      </c>
+      <c r="D49">
+        <v>0.2315611213969033</v>
+      </c>
+      <c r="E49">
+        <v>-0.002918885601577909</v>
+      </c>
+      <c r="F49">
+        <v>-1.713247907828735</v>
+      </c>
+      <c r="G49">
+        <v>0.2548180885965126</v>
+      </c>
+      <c r="H49">
+        <v>0.008440202723775275</v>
+      </c>
+      <c r="I49">
+        <v>-0.09044907347914544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>7.453333333333333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.1621058467227806</v>
+      </c>
+      <c r="C50">
+        <v>0.1025739285833369</v>
+      </c>
+      <c r="D50">
+        <v>0.2389732377012557</v>
+      </c>
+      <c r="E50">
+        <v>-0.00302721893491124</v>
+      </c>
+      <c r="F50">
+        <v>-1.712917600395682</v>
+      </c>
+      <c r="G50">
+        <v>0.288535577600749</v>
+      </c>
+      <c r="H50">
+        <v>0.005339461121625927</v>
+      </c>
+      <c r="I50">
+        <v>-0.08612921603374746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>7.496666666666667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.1161084444509172</v>
+      </c>
+      <c r="C51">
+        <v>0.2064096290093236</v>
+      </c>
+      <c r="D51">
+        <v>0.2396922705909845</v>
+      </c>
+      <c r="E51">
+        <v>-0.002502218934911241</v>
+      </c>
+      <c r="F51">
+        <v>-1.711374584727252</v>
+      </c>
+      <c r="G51">
+        <v>0.3120793026925179</v>
+      </c>
+      <c r="H51">
+        <v>0.007221760502728663</v>
+      </c>
+      <c r="I51">
+        <v>-0.06665104541754374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>7.573333333333333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>-0.1183739448635322</v>
+      </c>
+      <c r="C52">
+        <v>0.1982518766243837</v>
+      </c>
+      <c r="D52">
+        <v>0.2442878807663718</v>
+      </c>
+      <c r="E52">
+        <v>-0.0008605522682445747</v>
+      </c>
+      <c r="F52">
+        <v>-1.715381611443923</v>
+      </c>
+      <c r="G52">
+        <v>0.3283549415787341</v>
+      </c>
+      <c r="H52">
+        <v>0.004146028884767844</v>
+      </c>
+      <c r="I52">
+        <v>-0.06076238912642173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>7.686666666666667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.1024920279639792</v>
+      </c>
+      <c r="C53">
+        <v>0.1806157725008202</v>
+      </c>
+      <c r="D53">
+        <v>0.254748051391843</v>
+      </c>
+      <c r="E53">
+        <v>0.0006727810650887581</v>
+      </c>
+      <c r="F53">
+        <v>-1.71202622857441</v>
+      </c>
+      <c r="G53">
+        <v>0.3571966837080094</v>
+      </c>
+      <c r="H53">
+        <v>0.008848947560124059</v>
+      </c>
+      <c r="I53">
+        <v>-0.05121018845222469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>7.830000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.1226079737931705</v>
+      </c>
+      <c r="C54">
+        <v>0.1812927459362594</v>
+      </c>
+      <c r="D54">
+        <v>0.2561277290688779</v>
+      </c>
+      <c r="E54">
+        <v>0.001381114398422095</v>
+      </c>
+      <c r="F54">
+        <v>-1.711782753110479</v>
+      </c>
+      <c r="G54">
+        <v>0.362572160600342</v>
+      </c>
+      <c r="H54">
+        <v>0.003099484019333193</v>
+      </c>
+      <c r="I54">
+        <v>-0.05822395587328622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>8.016666666666666</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.0323509145952478</v>
+      </c>
+      <c r="C55">
+        <v>0.2237455460019104</v>
+      </c>
+      <c r="D55">
+        <v>0.272915175595037</v>
+      </c>
+      <c r="E55">
+        <v>0.001589447731755426</v>
+      </c>
+      <c r="F55">
+        <v>-1.70754666455</v>
+      </c>
+      <c r="G55">
+        <v>0.439243272610538</v>
+      </c>
+      <c r="H55">
+        <v>0.008985044360656008</v>
+      </c>
+      <c r="I55">
+        <v>-0.03419485194939087</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>8.18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01369273382906751</v>
+      </c>
+      <c r="C56">
+        <v>0.2329484735299499</v>
+      </c>
+      <c r="D56">
+        <v>0.2726920572927187</v>
+      </c>
+      <c r="E56">
+        <v>0.003681114398422091</v>
+      </c>
+      <c r="F56">
+        <v>-1.712554759346316</v>
+      </c>
+      <c r="G56">
+        <v>0.4695385532777534</v>
+      </c>
+      <c r="H56">
+        <v>0.009843802975208987</v>
+      </c>
+      <c r="I56">
+        <v>-0.02734123956807233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>8.306666666666667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>-0.009726383342795492</v>
+      </c>
+      <c r="C57">
+        <v>0.2248566514624191</v>
+      </c>
+      <c r="D57">
+        <v>0.2761230442708489</v>
+      </c>
+      <c r="E57">
+        <v>0.006822781065088759</v>
+      </c>
+      <c r="F57">
+        <v>-1.709022311184974</v>
+      </c>
+      <c r="G57">
+        <v>0.4969035620265219</v>
+      </c>
+      <c r="H57">
+        <v>0.01100445695723357</v>
+      </c>
+      <c r="I57">
+        <v>-0.02157492143512751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>8.460000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.02940893915505932</v>
+      </c>
+      <c r="C58">
+        <v>0.1967029182390414</v>
+      </c>
+      <c r="D58">
+        <v>0.2768545695969546</v>
+      </c>
+      <c r="E58">
+        <v>0.008856114398422097</v>
+      </c>
+      <c r="F58">
+        <v>-1.711637278809287</v>
+      </c>
+      <c r="G58">
+        <v>0.5144570251697411</v>
+      </c>
+      <c r="H58">
+        <v>0.00674299509255411</v>
+      </c>
+      <c r="I58">
+        <v>-0.01753817481251785</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>8.626666666666667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.002548068270258899</v>
+      </c>
+      <c r="C59">
+        <v>0.1737939528201338</v>
+      </c>
+      <c r="D59">
+        <v>0.2722573971435143</v>
+      </c>
+      <c r="E59">
+        <v>0.008839447731755426</v>
+      </c>
+      <c r="F59">
+        <v>-1.715706272397441</v>
+      </c>
+      <c r="G59">
+        <v>0.5069949387951933</v>
+      </c>
+      <c r="H59">
+        <v>0.01881887578001513</v>
+      </c>
+      <c r="I59">
+        <v>-0.03039593966340526</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>8.786666666666667</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.01772182290283263</v>
+      </c>
+      <c r="C60">
+        <v>0.1571160427117837</v>
+      </c>
+      <c r="D60">
+        <v>0.2775430699115331</v>
+      </c>
+      <c r="E60">
+        <v>0.00958111439842209</v>
+      </c>
+      <c r="F60">
+        <v>-1.710185003793734</v>
+      </c>
+      <c r="G60">
+        <v>0.5331245705505792</v>
+      </c>
+      <c r="H60">
+        <v>0.01195606933328892</v>
+      </c>
+      <c r="I60">
+        <v>-0.02397131545692854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>8.92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.0107364444202409</v>
+      </c>
+      <c r="C61">
+        <v>0.1133389985000015</v>
+      </c>
+      <c r="D61">
+        <v>0.2752613246928846</v>
+      </c>
+      <c r="E61">
+        <v>0.01500611439842209</v>
+      </c>
+      <c r="F61">
+        <v>-1.713151536766056</v>
+      </c>
+      <c r="G61">
+        <v>0.5306656756695283</v>
+      </c>
+      <c r="H61">
+        <v>0.01042527083676243</v>
+      </c>
+      <c r="I61">
+        <v>-0.02562542276536472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>9.026666666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.01334202962944691</v>
+      </c>
+      <c r="C62">
+        <v>0.02967113921345721</v>
+      </c>
+      <c r="D62">
+        <v>0.26943236251517</v>
+      </c>
+      <c r="E62">
+        <v>0.0187811143984221</v>
+      </c>
+      <c r="F62">
+        <v>-1.712951401117894</v>
+      </c>
+      <c r="G62">
+        <v>0.5371538431251777</v>
+      </c>
+      <c r="H62">
+        <v>0.01614504272567347</v>
+      </c>
+      <c r="I62">
+        <v>-0.02919610977472331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>9.273333333333333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.04346624028436758</v>
+      </c>
+      <c r="C63">
+        <v>-0.1787470038085273</v>
+      </c>
+      <c r="D63">
+        <v>0.2429376078619598</v>
+      </c>
+      <c r="E63">
+        <v>0.009439447731755429</v>
+      </c>
+      <c r="F63">
+        <v>-1.710794692099671</v>
+      </c>
+      <c r="G63">
+        <v>0.4811652971717528</v>
+      </c>
+      <c r="H63">
+        <v>0.01878417121890581</v>
+      </c>
+      <c r="I63">
+        <v>-0.05061629935365319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>9.466666666666667</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.0615907356567971</v>
+      </c>
+      <c r="C64">
+        <v>-0.1662039108946711</v>
+      </c>
+      <c r="D64">
+        <v>0.2496206453703351</v>
+      </c>
+      <c r="E64">
+        <v>0.008281114398422095</v>
+      </c>
+      <c r="F64">
+        <v>-1.710217315073425</v>
+      </c>
+      <c r="G64">
+        <v>0.4842647226283026</v>
+      </c>
+      <c r="H64">
+        <v>0.006427293902910363</v>
+      </c>
+      <c r="I64">
+        <v>-0.05969749662367096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>9.683333333333332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.04637297988959402</v>
+      </c>
+      <c r="C65">
+        <v>-0.07622765910598339</v>
+      </c>
+      <c r="D65">
+        <v>0.2593765216065602</v>
+      </c>
+      <c r="E65">
+        <v>0.0194311143984221</v>
+      </c>
+      <c r="F65">
+        <v>-1.70590906743451</v>
+      </c>
+      <c r="G65">
+        <v>0.5017640334408719</v>
+      </c>
+      <c r="H65">
+        <v>0.01238034871045097</v>
+      </c>
+      <c r="I65">
+        <v>-0.04224378628490122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>9.890000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.06156400474932951</v>
+      </c>
+      <c r="C66">
+        <v>-0.09777661557406336</v>
+      </c>
+      <c r="D66">
+        <v>0.2601794576057661</v>
+      </c>
+      <c r="E66">
+        <v>0.02137278106508876</v>
+      </c>
+      <c r="F66">
+        <v>-1.708809058900503</v>
+      </c>
+      <c r="G66">
+        <v>0.5141305108005838</v>
+      </c>
+      <c r="H66">
+        <v>0.02184347303112406</v>
+      </c>
+      <c r="I66">
+        <v>-0.03995343429258824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>10.07666666666667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.08003782176279997</v>
+      </c>
+      <c r="C67">
+        <v>-0.1356720988105762</v>
+      </c>
+      <c r="D67">
+        <v>0.2571203845784793</v>
+      </c>
+      <c r="E67">
+        <v>0.02266444773175542</v>
+      </c>
+      <c r="F67">
+        <v>-1.711986653653032</v>
+      </c>
+      <c r="G67">
+        <v>0.5308294167393557</v>
+      </c>
+      <c r="H67">
+        <v>0.0107377660025802</v>
+      </c>
+      <c r="I67">
+        <v>-0.03695323796383754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>10.35666666666667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.1053062611275826</v>
+      </c>
+      <c r="C68">
+        <v>-0.2190250778842335</v>
+      </c>
+      <c r="D68">
+        <v>0.2576951439341757</v>
+      </c>
+      <c r="E68">
+        <v>0.02303111439842209</v>
+      </c>
+      <c r="F68">
+        <v>-1.710999596441241</v>
+      </c>
+      <c r="G68">
+        <v>0.551351375585698</v>
+      </c>
+      <c r="H68">
+        <v>0.0118261759094675</v>
+      </c>
+      <c r="I68">
+        <v>-0.04388547362431705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>10.60333333333333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.1098096374676044</v>
+      </c>
+      <c r="C69">
+        <v>-0.3308752642597623</v>
+      </c>
+      <c r="D69">
+        <v>0.2467341652570951</v>
+      </c>
+      <c r="E69">
+        <v>0.01477278106508876</v>
+      </c>
+      <c r="F69">
+        <v>-1.717048265012134</v>
+      </c>
+      <c r="G69">
+        <v>0.5719421383261576</v>
+      </c>
+      <c r="H69">
+        <v>0.009008406896813653</v>
+      </c>
+      <c r="I69">
+        <v>-0.06203112431323454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>10.88666666666666</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.1640941795658708</v>
+      </c>
+      <c r="C70">
+        <v>-0.3930987514793509</v>
+      </c>
+      <c r="D70">
+        <v>0.2503427843228629</v>
+      </c>
+      <c r="E70">
+        <v>0.01743111439842209</v>
+      </c>
+      <c r="F70">
+        <v>-1.71593863416531</v>
+      </c>
+      <c r="G70">
+        <v>0.544578995103655</v>
+      </c>
+      <c r="H70">
+        <v>0.00393730145030608</v>
+      </c>
+      <c r="I70">
+        <v>-0.08981993901211904</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.1584484752031511</v>
+      </c>
+      <c r="C71">
+        <v>-0.4279988931022771</v>
+      </c>
+      <c r="D71">
+        <v>0.2508170447408276</v>
+      </c>
+      <c r="E71">
+        <v>0.01644778106508876</v>
+      </c>
+      <c r="F71">
+        <v>-1.720408571811023</v>
+      </c>
+      <c r="G71">
+        <v>0.5052220687927118</v>
+      </c>
+      <c r="H71">
+        <v>0.002783341042460868</v>
+      </c>
+      <c r="I71">
+        <v>-0.08603928640822023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>11.08666666666667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.1788617687814531</v>
+      </c>
+      <c r="C72">
+        <v>-0.4343239490238275</v>
+      </c>
+      <c r="D72">
+        <v>0.2555885932500499</v>
+      </c>
+      <c r="E72">
+        <v>0.008689447731755428</v>
+      </c>
+      <c r="F72">
+        <v>-1.717142059937152</v>
+      </c>
+      <c r="G72">
+        <v>0.4680934380722892</v>
+      </c>
+      <c r="H72">
+        <v>0.00314326200375698</v>
+      </c>
+      <c r="I72">
+        <v>-0.09762948934320326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>11.23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.1996499221971698</v>
+      </c>
+      <c r="C73">
+        <v>-0.366430252446313</v>
+      </c>
+      <c r="D73">
+        <v>0.2705422924262799</v>
+      </c>
+      <c r="E73">
+        <v>0.005164447731755428</v>
+      </c>
+      <c r="F73">
+        <v>-1.722734354541819</v>
+      </c>
+      <c r="G73">
+        <v>0.4445643859451032</v>
+      </c>
+      <c r="H73">
+        <v>0.001589293964903099</v>
+      </c>
+      <c r="I73">
+        <v>-0.1091330119847167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>11.35666666666667</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.1838601007578393</v>
+      </c>
+      <c r="C74">
+        <v>-0.2117488820096778</v>
+      </c>
+      <c r="D74">
+        <v>0.2776460250919324</v>
+      </c>
+      <c r="E74">
+        <v>0.005664447731755428</v>
+      </c>
+      <c r="F74">
+        <v>-1.718252716148311</v>
+      </c>
+      <c r="G74">
+        <v>0.4233919778393016</v>
+      </c>
+      <c r="H74">
+        <v>-0.00448085026636052</v>
+      </c>
+      <c r="I74">
+        <v>-0.09896455768970247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>11.33333333333333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.1911067017542623</v>
+      </c>
+      <c r="C75">
+        <v>-0.1024826271683539</v>
+      </c>
+      <c r="D75">
+        <v>0.2947341954279326</v>
+      </c>
+      <c r="E75">
+        <v>0.006389447731755425</v>
+      </c>
+      <c r="F75">
+        <v>-1.721259878968793</v>
+      </c>
+      <c r="G75">
+        <v>0.4327017491248855</v>
+      </c>
+      <c r="H75">
+        <v>-0.00594815177771762</v>
+      </c>
+      <c r="I75">
+        <v>-0.08015158534022815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.1581766402531699</v>
+      </c>
+      <c r="C76">
+        <v>-0.01095568469253827</v>
+      </c>
+      <c r="D76">
+        <v>0.3095130712469576</v>
+      </c>
+      <c r="E76">
+        <v>0.008247781065088762</v>
+      </c>
+      <c r="F76">
+        <v>-1.722562414023954</v>
+      </c>
+      <c r="G76">
+        <v>0.4738966134163709</v>
+      </c>
+      <c r="H76">
+        <v>0.000331724268201888</v>
+      </c>
+      <c r="I76">
+        <v>-0.06204183790744411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>11.41666666666667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.1418675664733751</v>
+      </c>
+      <c r="C77">
+        <v>0.02773626698723142</v>
+      </c>
+      <c r="D77">
+        <v>0.3223063275936751</v>
+      </c>
+      <c r="E77">
+        <v>0.007397781065088758</v>
+      </c>
+      <c r="F77">
+        <v>-1.719819606272827</v>
+      </c>
+      <c r="G77">
+        <v>0.5338376202348112</v>
+      </c>
+      <c r="H77">
+        <v>-0.003185643039401548</v>
+      </c>
+      <c r="I77">
+        <v>-0.04761110427585358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.09218772744874579</v>
+      </c>
+      <c r="C78">
+        <v>0.05081814281388564</v>
+      </c>
+      <c r="D78">
+        <v>0.3267173780620305</v>
+      </c>
+      <c r="E78">
+        <v>0.00832278106508876</v>
+      </c>
+      <c r="F78">
+        <v>-1.722714958085953</v>
+      </c>
+      <c r="G78">
+        <v>0.5617311586437346</v>
+      </c>
+      <c r="H78">
+        <v>-0.002146484918040642</v>
+      </c>
+      <c r="I78">
+        <v>-0.03403424652596287</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>11.55333333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.06936015919098201</v>
+      </c>
+      <c r="C79">
+        <v>0.06670940456505292</v>
+      </c>
+      <c r="D79">
+        <v>0.3384285322650338</v>
+      </c>
+      <c r="E79">
+        <v>0.009889447731755428</v>
+      </c>
+      <c r="F79">
+        <v>-1.722383904638015</v>
+      </c>
+      <c r="G79">
+        <v>0.6078740432064427</v>
+      </c>
+      <c r="H79">
+        <v>-0.0005529253342917931</v>
+      </c>
+      <c r="I79">
+        <v>-0.0284298343695446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>11.58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.05373211483930689</v>
+      </c>
+      <c r="C80">
+        <v>0.05453023159793524</v>
+      </c>
+      <c r="D80">
+        <v>0.3434236287816033</v>
+      </c>
+      <c r="E80">
+        <v>0.01119778106508876</v>
+      </c>
+      <c r="F80">
+        <v>-1.721670868542639</v>
+      </c>
+      <c r="G80">
+        <v>0.6376631181102717</v>
+      </c>
+      <c r="H80">
+        <v>-0.001209702544341213</v>
+      </c>
+      <c r="I80">
+        <v>-0.02585670723868594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>11.59333333333333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0394621950987534</v>
+      </c>
+      <c r="C81">
+        <v>0.05251771135453431</v>
+      </c>
+      <c r="D81">
+        <v>0.3535088003697147</v>
+      </c>
+      <c r="E81">
+        <v>0.007406114398422097</v>
+      </c>
+      <c r="F81">
+        <v>-1.72563057160883</v>
+      </c>
+      <c r="G81">
+        <v>0.6586655978907512</v>
+      </c>
+      <c r="H81">
+        <v>-0.00414852049481867</v>
+      </c>
+      <c r="I81">
+        <v>-0.02194115380110873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>11.71666666666667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02638949193653879</v>
+      </c>
+      <c r="C82">
+        <v>0.04724409003925523</v>
+      </c>
+      <c r="D82">
+        <v>0.3679629312882158</v>
+      </c>
+      <c r="E82">
+        <v>0.005856114398422095</v>
+      </c>
+      <c r="F82">
+        <v>-1.723338601226545</v>
+      </c>
+      <c r="G82">
+        <v>0.6679055136015526</v>
+      </c>
+      <c r="H82">
+        <v>0.001983585975351814</v>
+      </c>
+      <c r="I82">
+        <v>-0.0225641912047374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>11.71666666666667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009929108542133063</v>
+      </c>
+      <c r="C83">
+        <v>0.05269633784237993</v>
+      </c>
+      <c r="D83">
+        <v>0.3746364255952139</v>
+      </c>
+      <c r="E83">
+        <v>0.004047781065088759</v>
+      </c>
+      <c r="F83">
+        <v>-1.722626638368518</v>
+      </c>
+      <c r="G83">
+        <v>0.6797278187669997</v>
+      </c>
+      <c r="H83">
+        <v>-0.003352242254161248</v>
+      </c>
+      <c r="I83">
+        <v>-0.01343457999500153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>11.76666666666667</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.003248956333303292</v>
+      </c>
+      <c r="C84">
+        <v>0.06255657627092059</v>
+      </c>
+      <c r="D84">
+        <v>0.3908162857800375</v>
+      </c>
+      <c r="E84">
+        <v>0.003164447731755426</v>
+      </c>
+      <c r="F84">
+        <v>-1.723830830897286</v>
+      </c>
+      <c r="G84">
+        <v>0.661613987136791</v>
+      </c>
+      <c r="H84">
+        <v>-0.002974578938602918</v>
+      </c>
+      <c r="I84">
+        <v>-0.008704903819212184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>11.79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.003097945010080566</v>
+      </c>
+      <c r="C85">
+        <v>0.08312795354731328</v>
+      </c>
+      <c r="D85">
+        <v>0.3901094679511297</v>
+      </c>
+      <c r="E85">
+        <v>0.003314447731755427</v>
+      </c>
+      <c r="F85">
+        <v>-1.72425521040036</v>
+      </c>
+      <c r="G85">
+        <v>0.675782003108905</v>
+      </c>
+      <c r="H85">
+        <v>-0.006018793835489917</v>
+      </c>
+      <c r="I85">
+        <v>-0.0002404135023343912</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>11.76666666666667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.007058311749706905</v>
+      </c>
+      <c r="C86">
+        <v>0.120196306125397</v>
+      </c>
+      <c r="D86">
+        <v>0.3935038992035866</v>
+      </c>
+      <c r="E86">
+        <v>0.002639447731755425</v>
+      </c>
+      <c r="F86">
+        <v>-1.725422764518807</v>
+      </c>
+      <c r="G86">
+        <v>0.6570318717620456</v>
+      </c>
+      <c r="H86">
+        <v>-0.004205054820925419</v>
+      </c>
+      <c r="I86">
+        <v>-0.00279309933218963</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>11.85333333333333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0009897828078230739</v>
+      </c>
+      <c r="C87">
+        <v>0.1715293140777536</v>
+      </c>
+      <c r="D87">
+        <v>0.4012768005482457</v>
+      </c>
+      <c r="E87">
+        <v>0.0007477810650887602</v>
+      </c>
+      <c r="F87">
+        <v>-1.727695093977728</v>
+      </c>
+      <c r="G87">
+        <v>0.6288788222960804</v>
+      </c>
+      <c r="H87">
+        <v>-0.00690430898355659</v>
+      </c>
+      <c r="I87">
+        <v>-0.003820142784805469</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>11.93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.001095073612582022</v>
+      </c>
+      <c r="C88">
+        <v>0.1837329965424921</v>
+      </c>
+      <c r="D88">
+        <v>0.4156229348398579</v>
+      </c>
+      <c r="E88">
+        <v>-0.0007938856015779067</v>
+      </c>
+      <c r="F88">
+        <v>-1.726957524306359</v>
+      </c>
+      <c r="G88">
+        <v>0.6112706429317596</v>
+      </c>
+      <c r="H88">
+        <v>-0.006026685881876987</v>
+      </c>
+      <c r="I88">
+        <v>-0.00075648064170597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>12.10666666666667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.005140932857569287</v>
+      </c>
+      <c r="C89">
+        <v>0.1790487519788515</v>
+      </c>
+      <c r="D89">
+        <v>0.419025460172449</v>
+      </c>
+      <c r="E89">
+        <v>-0.001218885601577908</v>
+      </c>
+      <c r="F89">
+        <v>-1.724372596782138</v>
+      </c>
+      <c r="G89">
+        <v>0.6183962654673607</v>
+      </c>
+      <c r="H89">
+        <v>-0.001802491195862338</v>
+      </c>
+      <c r="I89">
+        <v>0.003618241583406068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>12.04666666666667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.02768176257424626</v>
+      </c>
+      <c r="C90">
+        <v>0.1729030366994415</v>
+      </c>
+      <c r="D90">
+        <v>0.4159824783121744</v>
+      </c>
+      <c r="E90">
+        <v>-0.0007605522682445753</v>
+      </c>
+      <c r="F90">
+        <v>-1.724412329161881</v>
+      </c>
+      <c r="G90">
+        <v>0.5871559625278868</v>
+      </c>
+      <c r="H90">
+        <v>-0.004196504169096166</v>
+      </c>
+      <c r="I90">
+        <v>0.01319091183926169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>12.14333333333333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.02502141046073959</v>
+      </c>
+      <c r="C91">
+        <v>0.174425415361851</v>
+      </c>
+      <c r="D91">
+        <v>0.4266787213677925</v>
+      </c>
+      <c r="E91">
+        <v>-0.0004605522682445753</v>
+      </c>
+      <c r="F91">
+        <v>-1.724817798632775</v>
+      </c>
+      <c r="G91">
+        <v>0.6080432628880219</v>
+      </c>
+      <c r="H91">
+        <v>-0.003927817751569635</v>
+      </c>
+      <c r="I91">
+        <v>0.01560452042759808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>12.15333333333333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.01999320091686407</v>
+      </c>
+      <c r="C92">
+        <v>0.1688138413122742</v>
+      </c>
+      <c r="D92">
+        <v>0.4351688573967296</v>
+      </c>
+      <c r="E92">
+        <v>0.0005061143984220941</v>
+      </c>
+      <c r="F92">
+        <v>-1.723760246430726</v>
+      </c>
+      <c r="G92">
+        <v>0.6370613830037293</v>
+      </c>
+      <c r="H92">
+        <v>-0.0004645088376387611</v>
+      </c>
+      <c r="I92">
+        <v>0.02016390109234267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>12.23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.03824310520003464</v>
+      </c>
+      <c r="C93">
+        <v>0.1713357627716627</v>
+      </c>
+      <c r="D93">
+        <v>0.4351481139695847</v>
+      </c>
+      <c r="E93">
+        <v>5.61143984220934e-05</v>
+      </c>
+      <c r="F93">
+        <v>-1.720561847275412</v>
+      </c>
+      <c r="G93">
+        <v>0.6323954814701951</v>
+      </c>
+      <c r="H93">
+        <v>-0.005201685556723007</v>
+      </c>
+      <c r="I93">
+        <v>0.03008207804424945</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>12.35666666666667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02215040084529848</v>
+      </c>
+      <c r="C94">
+        <v>0.1467374234559404</v>
+      </c>
+      <c r="D94">
+        <v>0.4489426434642043</v>
+      </c>
+      <c r="E94">
+        <v>-0.000293885601577908</v>
+      </c>
+      <c r="F94">
+        <v>-1.726383946096276</v>
+      </c>
+      <c r="G94">
+        <v>0.6371847233414574</v>
+      </c>
+      <c r="H94">
+        <v>-0.001123223123000778</v>
+      </c>
+      <c r="I94">
+        <v>0.03512859223207254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>12.45666666666667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.05048720587113553</v>
+      </c>
+      <c r="C95">
+        <v>0.152186602461124</v>
+      </c>
+      <c r="D95">
+        <v>0.4537815398790022</v>
+      </c>
+      <c r="E95">
+        <v>0.00092278106508876</v>
+      </c>
+      <c r="F95">
+        <v>-1.719996742930342</v>
+      </c>
+      <c r="G95">
+        <v>0.6592387298908395</v>
+      </c>
+      <c r="H95">
+        <v>-0.001004692110399269</v>
+      </c>
+      <c r="I95">
+        <v>0.04054399020347255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B96">
-        <v>12.57666666666667</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.04690028886266125</v>
+      </c>
+      <c r="C96">
+        <v>0.1503366212688588</v>
+      </c>
+      <c r="D96">
+        <v>0.459639671187801</v>
+      </c>
+      <c r="E96">
+        <v>0.002922781065088762</v>
+      </c>
+      <c r="F96">
+        <v>-1.722570028874032</v>
+      </c>
+      <c r="G96">
+        <v>0.6619490813341491</v>
+      </c>
+      <c r="H96">
+        <v>0.0009827971327531267</v>
+      </c>
+      <c r="I96">
+        <v>0.04432232015984638</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.05190225607831815</v>
+      </c>
+      <c r="C97">
+        <v>0.156956979501599</v>
+      </c>
+      <c r="D97">
+        <v>0.4690852294769114</v>
+      </c>
+      <c r="E97">
+        <v>0.004714447731755425</v>
+      </c>
+      <c r="F97">
+        <v>-1.719499088435042</v>
+      </c>
+      <c r="G97">
+        <v>0.6701201984491787</v>
+      </c>
+      <c r="H97">
+        <v>-0.001251607107350112</v>
+      </c>
+      <c r="I97">
+        <v>0.0513896313165958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>12.80333333333333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.04131732677454206</v>
+      </c>
+      <c r="C98">
+        <v>0.1476735730151315</v>
+      </c>
+      <c r="D98">
+        <v>0.4699922153083453</v>
+      </c>
+      <c r="E98">
+        <v>0.006747781065088757</v>
+      </c>
+      <c r="F98">
+        <v>-1.720655949031306</v>
+      </c>
+      <c r="G98">
+        <v>0.6841921846474692</v>
+      </c>
+      <c r="H98">
+        <v>0.0008254749597904117</v>
+      </c>
+      <c r="I98">
+        <v>0.05887792995158803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>12.92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.04235874306439377</v>
+      </c>
+      <c r="C99">
+        <v>0.1151750751477119</v>
+      </c>
+      <c r="D99">
+        <v>0.4725160706026936</v>
+      </c>
+      <c r="E99">
+        <v>0.006422781065088755</v>
+      </c>
+      <c r="F99">
+        <v>-1.723146050775639</v>
+      </c>
+      <c r="G99">
+        <v>0.6960564146885453</v>
+      </c>
+      <c r="H99">
+        <v>0.001822801306255733</v>
+      </c>
+      <c r="I99">
+        <v>0.05817148176857456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B100">
-        <v>13.01333333333333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.05719483669813501</v>
+      </c>
+      <c r="C100">
+        <v>0.1021737027984431</v>
+      </c>
+      <c r="D100">
+        <v>0.479708089538029</v>
+      </c>
+      <c r="E100">
+        <v>0.005006114398422095</v>
+      </c>
+      <c r="F100">
+        <v>-1.72150742036256</v>
+      </c>
+      <c r="G100">
+        <v>0.7221160344400834</v>
+      </c>
+      <c r="H100">
+        <v>-0.00228959762009145</v>
+      </c>
+      <c r="I100">
+        <v>0.05501993788725557</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>13.16666666666667</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.05983062505372369</v>
+      </c>
+      <c r="C101">
+        <v>0.07846429524888432</v>
+      </c>
+      <c r="D101">
+        <v>0.4820656104363508</v>
+      </c>
+      <c r="E101">
+        <v>0.004531114398422091</v>
+      </c>
+      <c r="F101">
+        <v>-1.719914070813677</v>
+      </c>
+      <c r="G101">
+        <v>0.7050702526480261</v>
+      </c>
+      <c r="H101">
+        <v>-0.004152223472631051</v>
+      </c>
+      <c r="I101">
+        <v>0.05266749475058496</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>13.33666666666667</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>0.06658492182830136</v>
+      </c>
+      <c r="C102">
+        <v>0.08079862975393759</v>
+      </c>
+      <c r="D102">
+        <v>0.4821430080649427</v>
+      </c>
+      <c r="E102">
+        <v>0.00479778106508876</v>
+      </c>
+      <c r="F102">
+        <v>-1.718703697371702</v>
+      </c>
+      <c r="G102">
+        <v>0.7102389595470395</v>
+      </c>
+      <c r="H102">
+        <v>0.001973475263865992</v>
+      </c>
+      <c r="I102">
+        <v>0.04942442539472358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>13.38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.03497162075085915</v>
+      </c>
+      <c r="C103">
+        <v>0.03930154417638931</v>
+      </c>
+      <c r="D103">
+        <v>0.4833779048306144</v>
+      </c>
+      <c r="E103">
+        <v>0.004764447731755427</v>
+      </c>
+      <c r="F103">
+        <v>-1.721139009797626</v>
+      </c>
+      <c r="G103">
+        <v>0.6907656499063144</v>
+      </c>
+      <c r="H103">
+        <v>0.002285359499561273</v>
+      </c>
+      <c r="I103">
+        <v>0.05250965322053691</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>13.44</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.01624443269371075</v>
+      </c>
+      <c r="C104">
+        <v>-0.02138454624548025</v>
+      </c>
+      <c r="D104">
+        <v>0.4851689272187993</v>
+      </c>
+      <c r="E104">
+        <v>0.004089447731755425</v>
+      </c>
+      <c r="F104">
+        <v>-1.722204613164602</v>
+      </c>
+      <c r="G104">
+        <v>0.6946735002772408</v>
+      </c>
+      <c r="H104">
+        <v>-0.0003991226882816227</v>
+      </c>
+      <c r="I104">
+        <v>0.04718942917464464</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B105">
-        <v>13.51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>-0.01241102750402576</v>
+      </c>
+      <c r="C105">
+        <v>-0.08098937762466996</v>
+      </c>
+      <c r="D105">
+        <v>0.4752702435362197</v>
+      </c>
+      <c r="E105">
+        <v>0.002872781065088757</v>
+      </c>
+      <c r="F105">
+        <v>-1.723566846684381</v>
+      </c>
+      <c r="G105">
+        <v>0.6726907907116537</v>
+      </c>
+      <c r="H105">
+        <v>-0.0003915384586088925</v>
+      </c>
+      <c r="I105">
+        <v>0.03620018277495163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B106">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>-0.0544339048491939</v>
+      </c>
+      <c r="C106">
+        <v>-0.1446105686394317</v>
+      </c>
+      <c r="D106">
+        <v>0.4688834038545262</v>
+      </c>
+      <c r="E106">
+        <v>0.0004561143984220927</v>
+      </c>
+      <c r="F106">
+        <v>-1.724258746622831</v>
+      </c>
+      <c r="G106">
+        <v>0.6444434741747367</v>
+      </c>
+      <c r="H106">
+        <v>0.002095725939262166</v>
+      </c>
+      <c r="I106">
+        <v>0.02626462993225376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B107">
-        <v>13.63666666666666</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>-0.07657502597353988</v>
+      </c>
+      <c r="C107">
+        <v>-0.1233120589877794</v>
+      </c>
+      <c r="D107">
+        <v>0.4755600843026522</v>
+      </c>
+      <c r="E107">
+        <v>-0.0007022189349112414</v>
+      </c>
+      <c r="F107">
+        <v>-1.72143504256608</v>
+      </c>
+      <c r="G107">
+        <v>0.6329202270696728</v>
+      </c>
+      <c r="H107">
+        <v>-0.003677036365615166</v>
+      </c>
+      <c r="I107">
+        <v>0.02412983155609005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B108">
-        <v>13.65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>-0.09375094379087112</v>
+      </c>
+      <c r="C108">
+        <v>-0.08503532086427334</v>
+      </c>
+      <c r="D108">
+        <v>0.4774423189713297</v>
+      </c>
+      <c r="E108">
+        <v>-0.001160552268244576</v>
+      </c>
+      <c r="F108">
+        <v>-1.723727177100872</v>
+      </c>
+      <c r="G108">
+        <v>0.6208823890700854</v>
+      </c>
+      <c r="H108">
+        <v>-0.001390841581055341</v>
+      </c>
+      <c r="I108">
+        <v>0.03048878618913742</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B109">
-        <v>13.68</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>-0.1074436795974745</v>
+      </c>
+      <c r="C109">
+        <v>-0.06627175498264393</v>
+      </c>
+      <c r="D109">
+        <v>0.4738011692905939</v>
+      </c>
+      <c r="E109">
+        <v>-0.00325221893491124</v>
+      </c>
+      <c r="F109">
+        <v>-1.725658052387009</v>
+      </c>
+      <c r="G109">
+        <v>0.6127440923399146</v>
+      </c>
+      <c r="H109">
+        <v>-0.005889856352204121</v>
+      </c>
+      <c r="I109">
+        <v>0.03016006073052502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B110">
-        <v>13.73333333333333</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>-0.1174952821909001</v>
+      </c>
+      <c r="C110">
+        <v>-0.01862710969254344</v>
+      </c>
+      <c r="D110">
+        <v>0.4879293469020656</v>
+      </c>
+      <c r="E110">
+        <v>-0.004868885601577907</v>
+      </c>
+      <c r="F110">
+        <v>-1.725058499824579</v>
+      </c>
+      <c r="G110">
+        <v>0.606215293599595</v>
+      </c>
+      <c r="H110">
+        <v>-0.004429768912785065</v>
+      </c>
+      <c r="I110">
+        <v>0.02925908868833726</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B111">
-        <v>13.80666666666667</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>-0.1205794039693008</v>
+      </c>
+      <c r="C111">
+        <v>0.01657888646059558</v>
+      </c>
+      <c r="D111">
+        <v>0.4914303791203181</v>
+      </c>
+      <c r="E111">
+        <v>-0.005402218934911241</v>
+      </c>
+      <c r="F111">
+        <v>-1.724158858158188</v>
+      </c>
+      <c r="G111">
+        <v>0.642877226674476</v>
+      </c>
+      <c r="H111">
+        <v>-0.005313681120976682</v>
+      </c>
+      <c r="I111">
+        <v>0.03491439982076372</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B112">
-        <v>13.79333333333333</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>-0.1361171300597162</v>
+      </c>
+      <c r="C112">
+        <v>0.01649250300004823</v>
+      </c>
+      <c r="D112">
+        <v>0.4986487210543529</v>
+      </c>
+      <c r="E112">
+        <v>-0.006893885601577907</v>
+      </c>
+      <c r="F112">
+        <v>-1.724509621925086</v>
+      </c>
+      <c r="G112">
+        <v>0.6602834378431899</v>
+      </c>
+      <c r="H112">
+        <v>-0.004898784206946389</v>
+      </c>
+      <c r="I112">
+        <v>0.03325074184366317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B113">
-        <v>13.87333333333333</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>-0.1362334416691145</v>
+      </c>
+      <c r="C113">
+        <v>0.0466211435614321</v>
+      </c>
+      <c r="D113">
+        <v>0.5071481560908828</v>
+      </c>
+      <c r="E113">
+        <v>-0.00692721893491124</v>
+      </c>
+      <c r="F113">
+        <v>-1.724854169543324</v>
+      </c>
+      <c r="G113">
+        <v>0.6870375637640613</v>
+      </c>
+      <c r="H113">
+        <v>-0.003476034837060432</v>
+      </c>
+      <c r="I113">
+        <v>0.03543152754463197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B114">
-        <v>13.94</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>-0.1187455380303678</v>
+      </c>
+      <c r="C114">
+        <v>0.04878888589643005</v>
+      </c>
+      <c r="D114">
+        <v>0.5081857621501342</v>
+      </c>
+      <c r="E114">
+        <v>-0.007202218934911242</v>
+      </c>
+      <c r="F114">
+        <v>-1.723061055933706</v>
+      </c>
+      <c r="G114">
+        <v>0.6904312749023118</v>
+      </c>
+      <c r="H114">
+        <v>-0.001761970463668711</v>
+      </c>
+      <c r="I114">
+        <v>0.04156473893310508</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B115">
-        <v>14.01</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>-0.09920220661011298</v>
+      </c>
+      <c r="C115">
+        <v>0.05796926901790567</v>
+      </c>
+      <c r="D115">
+        <v>0.5147059911861285</v>
+      </c>
+      <c r="E115">
+        <v>-0.007185552268244574</v>
+      </c>
+      <c r="F115">
+        <v>-1.725537285440316</v>
+      </c>
+      <c r="G115">
+        <v>0.7145066733142889</v>
+      </c>
+      <c r="H115">
+        <v>-0.004686471916230112</v>
+      </c>
+      <c r="I115">
+        <v>0.04926156333798781</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B116">
-        <v>14.04666666666667</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>-0.08377159173513621</v>
+      </c>
+      <c r="C116">
+        <v>0.08934215661946965</v>
+      </c>
+      <c r="D116">
+        <v>0.5229315910257766</v>
+      </c>
+      <c r="E116">
+        <v>-0.007093885601577906</v>
+      </c>
+      <c r="F116">
+        <v>-1.72496171270324</v>
+      </c>
+      <c r="G116">
+        <v>0.7228388728571105</v>
+      </c>
+      <c r="H116">
+        <v>-0.005136023671042317</v>
+      </c>
+      <c r="I116">
+        <v>0.05244573966843147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B117">
-        <v>14.11666666666667</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>-0.06904010027180393</v>
+      </c>
+      <c r="C117">
+        <v>0.1357277710454117</v>
+      </c>
+      <c r="D117">
+        <v>0.5289678927874188</v>
+      </c>
+      <c r="E117">
+        <v>-0.00695221893491124</v>
+      </c>
+      <c r="F117">
+        <v>-1.723798233224791</v>
+      </c>
+      <c r="G117">
+        <v>0.7610322244463887</v>
+      </c>
+      <c r="H117">
+        <v>-0.005171387451263826</v>
+      </c>
+      <c r="I117">
+        <v>0.05920750890472837</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B118">
-        <v>14.19333333333333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>-0.06923134970234518</v>
+      </c>
+      <c r="C118">
+        <v>0.1527750320711858</v>
+      </c>
+      <c r="D118">
+        <v>0.5376258022544742</v>
+      </c>
+      <c r="E118">
+        <v>-0.006493885601577907</v>
+      </c>
+      <c r="F118">
+        <v>-1.723252012729675</v>
+      </c>
+      <c r="G118">
+        <v>0.7686222426123832</v>
+      </c>
+      <c r="H118">
+        <v>-0.004983424496079409</v>
+      </c>
+      <c r="I118">
+        <v>0.0641480373975174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B119">
-        <v>14.29333333333333</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>-0.03268077051514135</v>
+      </c>
+      <c r="C119">
+        <v>0.1837179406845664</v>
+      </c>
+      <c r="D119">
+        <v>0.542577175097541</v>
+      </c>
+      <c r="E119">
+        <v>-0.004635552268244574</v>
+      </c>
+      <c r="F119">
+        <v>-1.725665505879081</v>
+      </c>
+      <c r="G119">
+        <v>0.78632114399554</v>
+      </c>
+      <c r="H119">
+        <v>-0.00476890277658098</v>
+      </c>
+      <c r="I119">
+        <v>0.08100993785159494</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B120">
-        <v>14.41666666666667</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>-0.02246242845945984</v>
+      </c>
+      <c r="C120">
+        <v>0.1704641849324533</v>
+      </c>
+      <c r="D120">
+        <v>0.5470313137882221</v>
+      </c>
+      <c r="E120">
+        <v>-0.003410552268244575</v>
+      </c>
+      <c r="F120">
+        <v>-1.724516630051008</v>
+      </c>
+      <c r="G120">
+        <v>0.8021611241048152</v>
+      </c>
+      <c r="H120">
+        <v>-0.001277019882313596</v>
+      </c>
+      <c r="I120">
+        <v>0.08523006246669818</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B121">
-        <v>14.53</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>-0.01232774556495604</v>
+      </c>
+      <c r="C121">
+        <v>0.1547842792926879</v>
+      </c>
+      <c r="D121">
+        <v>0.5541865726983382</v>
+      </c>
+      <c r="E121">
+        <v>-0.001402218934911241</v>
+      </c>
+      <c r="F121">
+        <v>-1.722806835450723</v>
+      </c>
+      <c r="G121">
+        <v>0.8426403317144588</v>
+      </c>
+      <c r="H121">
+        <v>-0.005498927529911818</v>
+      </c>
+      <c r="I121">
+        <v>0.09263054126617654</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B122">
-        <v>14.52666666666667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>-0.0171246034437084</v>
+      </c>
+      <c r="C122">
+        <v>0.1307506724235603</v>
+      </c>
+      <c r="D122">
+        <v>0.5543549879496035</v>
+      </c>
+      <c r="E122">
+        <v>-0.0002605522682445731</v>
+      </c>
+      <c r="F122">
+        <v>-1.724602689599487</v>
+      </c>
+      <c r="G122">
+        <v>0.8812310725164467</v>
+      </c>
+      <c r="H122">
+        <v>-0.004362455624508372</v>
+      </c>
+      <c r="I122">
+        <v>0.09556896489175015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B123">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>-0.0192355102310899</v>
+      </c>
+      <c r="C123">
+        <v>0.09623951711295753</v>
+      </c>
+      <c r="D123">
+        <v>0.5604988775394633</v>
+      </c>
+      <c r="E123">
+        <v>-0.0006105522682445744</v>
+      </c>
+      <c r="F123">
+        <v>-1.724352111186648</v>
+      </c>
+      <c r="G123">
+        <v>0.8861650047210405</v>
+      </c>
+      <c r="H123">
+        <v>-0.005491412836018001</v>
+      </c>
+      <c r="I123">
+        <v>0.08608601774150815</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B124">
-        <v>14.78</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>-0.003679654805896711</v>
+      </c>
+      <c r="C124">
+        <v>0.1243916664122073</v>
+      </c>
+      <c r="D124">
+        <v>0.5666076899195822</v>
+      </c>
+      <c r="E124">
+        <v>-0.001185552268244574</v>
+      </c>
+      <c r="F124">
+        <v>-1.722109645985693</v>
+      </c>
+      <c r="G124">
+        <v>0.8903006757395477</v>
+      </c>
+      <c r="H124">
+        <v>-0.006051513338180265</v>
+      </c>
+      <c r="I124">
+        <v>0.08657869353772174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B125">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>0.006766406246987662</v>
+      </c>
+      <c r="C125">
+        <v>0.1440280347395282</v>
+      </c>
+      <c r="D125">
+        <v>0.5706754185864993</v>
+      </c>
+      <c r="E125">
+        <v>-0.001452218934911239</v>
+      </c>
+      <c r="F125">
+        <v>-1.723313643669508</v>
+      </c>
+      <c r="G125">
+        <v>0.9075602190434973</v>
+      </c>
+      <c r="H125">
+        <v>-0.007058183211618158</v>
+      </c>
+      <c r="I125">
+        <v>0.08732402466158096</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B126">
-        <v>14.92333333333333</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>0.008591475406404939</v>
+      </c>
+      <c r="C126">
+        <v>0.1678346697061146</v>
+      </c>
+      <c r="D126">
+        <v>0.577334845339001</v>
+      </c>
+      <c r="E126">
+        <v>-0.002277218934911241</v>
+      </c>
+      <c r="F126">
+        <v>-1.723086960898032</v>
+      </c>
+      <c r="G126">
+        <v>0.9298160746827024</v>
+      </c>
+      <c r="H126">
+        <v>-0.005129396180564122</v>
+      </c>
+      <c r="I126">
+        <v>0.07854421184211535</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B127">
-        <v>15.02</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>0.02982740539037931</v>
+      </c>
+      <c r="C127">
+        <v>0.2067545453150226</v>
+      </c>
+      <c r="D127">
+        <v>0.5856412066066614</v>
+      </c>
+      <c r="E127">
+        <v>-0.002052218934911242</v>
+      </c>
+      <c r="F127">
+        <v>-1.720917866570949</v>
+      </c>
+      <c r="G127">
+        <v>0.9556239536034443</v>
+      </c>
+      <c r="H127">
+        <v>-0.00566838263779706</v>
+      </c>
+      <c r="I127">
+        <v>0.09757438296966026</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B128">
-        <v>15.17666666666667</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>0.04355242481044631</v>
+      </c>
+      <c r="C128">
+        <v>0.2010630045424744</v>
+      </c>
+      <c r="D128">
+        <v>0.589158573171523</v>
+      </c>
+      <c r="E128">
+        <v>-0.001860552268244574</v>
+      </c>
+      <c r="F128">
+        <v>-1.722114478877562</v>
+      </c>
+      <c r="G128">
+        <v>0.9855307941419733</v>
+      </c>
+      <c r="H128">
+        <v>-0.005270766158521895</v>
+      </c>
+      <c r="I128">
+        <v>0.1043952876797776</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B129">
-        <v>15.26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>0.05861897877632925</v>
+      </c>
+      <c r="C129">
+        <v>0.1878791380889986</v>
+      </c>
+      <c r="D129">
+        <v>0.5944237165826012</v>
+      </c>
+      <c r="E129">
+        <v>-0.002160552268244574</v>
+      </c>
+      <c r="F129">
+        <v>-1.721641044531756</v>
+      </c>
+      <c r="G129">
+        <v>1.009063205978593</v>
+      </c>
+      <c r="H129">
+        <v>-0.004331186688213024</v>
+      </c>
+      <c r="I129">
+        <v>0.1076383728693378</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B130">
-        <v>15.47</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>0.05144682643732247</v>
+      </c>
+      <c r="C130">
+        <v>0.1866313647910518</v>
+      </c>
+      <c r="D130">
+        <v>0.6005316944554524</v>
+      </c>
+      <c r="E130">
+        <v>-0.001952218934911241</v>
+      </c>
+      <c r="F130">
+        <v>-1.720640047590132</v>
+      </c>
+      <c r="G130">
+        <v>1.029498467387875</v>
+      </c>
+      <c r="H130">
+        <v>-0.003119706572793085</v>
+      </c>
+      <c r="I130">
+        <v>0.110588138763438</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B131">
-        <v>15.57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>0.07641229783143641</v>
+      </c>
+      <c r="C131">
+        <v>0.196912930941715</v>
+      </c>
+      <c r="D131">
+        <v>0.60300093635355</v>
+      </c>
+      <c r="E131">
+        <v>-0.001985552268244574</v>
+      </c>
+      <c r="F131">
+        <v>-1.722616082558554</v>
+      </c>
+      <c r="G131">
+        <v>1.051796933275437</v>
+      </c>
+      <c r="H131">
+        <v>-0.005501153310185686</v>
+      </c>
+      <c r="I131">
+        <v>0.1176141933419603</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B132">
-        <v>15.70666666666667</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>0.08196234085403319</v>
+      </c>
+      <c r="C132">
+        <v>0.198926463373863</v>
+      </c>
+      <c r="D132">
+        <v>0.6166647128141229</v>
+      </c>
+      <c r="E132">
+        <v>-0.001985552268244574</v>
+      </c>
+      <c r="F132">
+        <v>-1.720288814530407</v>
+      </c>
+      <c r="G132">
+        <v>1.0991005444677</v>
+      </c>
+      <c r="H132">
+        <v>-0.006373796920946135</v>
+      </c>
+      <c r="I132">
+        <v>0.1187777629894455</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B133">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.07926812375080952</v>
+      </c>
+      <c r="C133">
+        <v>0.2060920555698784</v>
+      </c>
+      <c r="D133">
+        <v>0.6241644257863403</v>
+      </c>
+      <c r="E133">
+        <v>-0.00187721893491124</v>
+      </c>
+      <c r="F133">
+        <v>-1.718558494251443</v>
+      </c>
+      <c r="G133">
+        <v>1.104494333891809</v>
+      </c>
+      <c r="H133">
+        <v>-0.00659122006270701</v>
+      </c>
+      <c r="I133">
+        <v>0.1293656147375981</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B134">
-        <v>16.01666666666667</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0.09415452079871779</v>
+      </c>
+      <c r="C134">
+        <v>0.2244598967089066</v>
+      </c>
+      <c r="D134">
+        <v>0.6328953759307732</v>
+      </c>
+      <c r="E134">
+        <v>-0.001968885601577906</v>
+      </c>
+      <c r="F134">
+        <v>-1.7210389789927</v>
+      </c>
+      <c r="G134">
+        <v>1.13533227628317</v>
+      </c>
+      <c r="H134">
+        <v>-0.008036713333206486</v>
+      </c>
+      <c r="I134">
+        <v>0.1287406375629856</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B135">
-        <v>16.13333333333334</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.1057330355899271</v>
+      </c>
+      <c r="C135">
+        <v>0.2492188163164251</v>
+      </c>
+      <c r="D135">
+        <v>0.6461480242705795</v>
+      </c>
+      <c r="E135">
+        <v>-0.002160552268244574</v>
+      </c>
+      <c r="F135">
+        <v>-1.721131342846572</v>
+      </c>
+      <c r="G135">
+        <v>1.163224539868831</v>
+      </c>
+      <c r="H135">
+        <v>-0.008775651513184763</v>
+      </c>
+      <c r="I135">
+        <v>0.1246373861195886</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B136">
-        <v>16.27666666666667</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>0.1276889591995423</v>
+      </c>
+      <c r="C136">
+        <v>0.2731674337414134</v>
+      </c>
+      <c r="D136">
+        <v>0.6553362816279833</v>
+      </c>
+      <c r="E136">
+        <v>-0.002543885601577908</v>
+      </c>
+      <c r="F136">
+        <v>-1.721986774976857</v>
+      </c>
+      <c r="G136">
+        <v>1.169952014680766</v>
+      </c>
+      <c r="H136">
+        <v>-0.00627419593117034</v>
+      </c>
+      <c r="I136">
+        <v>0.1259117710650677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B137">
-        <v>16.42</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>0.1481929936689827</v>
+      </c>
+      <c r="C137">
+        <v>0.2939452135923792</v>
+      </c>
+      <c r="D137">
+        <v>0.6657410475533219</v>
+      </c>
+      <c r="E137">
+        <v>-0.003968885601577906</v>
+      </c>
+      <c r="F137">
+        <v>-1.722567785412612</v>
+      </c>
+      <c r="G137">
+        <v>1.197479337507973</v>
+      </c>
+      <c r="H137">
+        <v>-0.008195707208688724</v>
+      </c>
+      <c r="I137">
+        <v>0.1307586237232825</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B138">
-        <v>16.50666666666667</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.1471232789777973</v>
+      </c>
+      <c r="C138">
+        <v>0.2988874553822463</v>
+      </c>
+      <c r="D138">
+        <v>0.6719292006423898</v>
+      </c>
+      <c r="E138">
+        <v>-0.003585552268244573</v>
+      </c>
+      <c r="F138">
+        <v>-1.721379399829742</v>
+      </c>
+      <c r="G138">
+        <v>1.211509075153582</v>
+      </c>
+      <c r="H138">
+        <v>-0.005941114882622551</v>
+      </c>
+      <c r="I138">
+        <v>0.1284166003306635</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B139">
-        <v>16.71666666666667</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>0.1679143726780035</v>
+      </c>
+      <c r="C139">
+        <v>0.3046151633400758</v>
+      </c>
+      <c r="D139">
+        <v>0.6847072019219591</v>
+      </c>
+      <c r="E139">
+        <v>-0.003468885601577907</v>
+      </c>
+      <c r="F139">
+        <v>-1.721217102462421</v>
+      </c>
+      <c r="G139">
+        <v>1.238811376013807</v>
+      </c>
+      <c r="H139">
+        <v>-0.005220972550670716</v>
+      </c>
+      <c r="I139">
+        <v>0.1323457417278298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B140">
-        <v>16.85</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>0.1790776392738031</v>
+      </c>
+      <c r="C140">
+        <v>0.3077619019075586</v>
+      </c>
+      <c r="D140">
+        <v>0.6921753775421702</v>
+      </c>
+      <c r="E140">
+        <v>-0.002977218934911242</v>
+      </c>
+      <c r="F140">
+        <v>-1.720814343086968</v>
+      </c>
+      <c r="G140">
+        <v>1.259620686022522</v>
+      </c>
+      <c r="H140">
+        <v>-0.005631291878223138</v>
+      </c>
+      <c r="I140">
+        <v>0.1387579967968287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B141">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0.1962798881621568</v>
+      </c>
+      <c r="C141">
+        <v>0.3168774458323478</v>
+      </c>
+      <c r="D141">
+        <v>0.7015020516071906</v>
+      </c>
+      <c r="E141">
+        <v>-0.001993885601577908</v>
+      </c>
+      <c r="F141">
+        <v>-1.722860350893017</v>
+      </c>
+      <c r="G141">
+        <v>1.259169926448515</v>
+      </c>
+      <c r="H141">
+        <v>-0.005759852037626573</v>
+      </c>
+      <c r="I141">
+        <v>0.1400196812952381</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B142">
-        <v>17.19333333333333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>0.1959478087395578</v>
+      </c>
+      <c r="C142">
+        <v>0.3131262189120134</v>
+      </c>
+      <c r="D142">
+        <v>0.7033802204468289</v>
+      </c>
+      <c r="E142">
+        <v>-0.0008022189349112391</v>
+      </c>
+      <c r="F142">
+        <v>-1.720987032290005</v>
+      </c>
+      <c r="G142">
+        <v>1.278724184483213</v>
+      </c>
+      <c r="H142">
+        <v>-0.001009879611215731</v>
+      </c>
+      <c r="I142">
+        <v>0.1332923282198535</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B143">
-        <v>17.38333333333333</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>0.1876205767805101</v>
+      </c>
+      <c r="C143">
+        <v>0.3009687842649074</v>
+      </c>
+      <c r="D143">
+        <v>0.7065898577534631</v>
+      </c>
+      <c r="E143">
+        <v>-0.0003188856015779052</v>
+      </c>
+      <c r="F143">
+        <v>-1.720362941794127</v>
+      </c>
+      <c r="G143">
+        <v>1.31004252755265</v>
+      </c>
+      <c r="H143">
+        <v>-0.004710482658327792</v>
+      </c>
+      <c r="I143">
+        <v>0.1338667186620057</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B144">
-        <v>17.55666666666667</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>0.1845767598552662</v>
+      </c>
+      <c r="C144">
+        <v>0.2771478817461768</v>
+      </c>
+      <c r="D144">
+        <v>0.7129975540802449</v>
+      </c>
+      <c r="E144">
+        <v>0.0004394477317554261</v>
+      </c>
+      <c r="F144">
+        <v>-1.72117876292522</v>
+      </c>
+      <c r="G144">
+        <v>1.312173864543545</v>
+      </c>
+      <c r="H144">
+        <v>-0.005557526826288012</v>
+      </c>
+      <c r="I144">
+        <v>0.1285191655168663</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B145">
-        <v>17.74333333333334</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0.1819864407378151</v>
+      </c>
+      <c r="C145">
+        <v>0.2750449510094084</v>
+      </c>
+      <c r="D145">
+        <v>0.7183702916195971</v>
+      </c>
+      <c r="E145">
+        <v>0.0004394477317554261</v>
+      </c>
+      <c r="F145">
+        <v>-1.719627795128239</v>
+      </c>
+      <c r="G145">
+        <v>1.311330705169594</v>
+      </c>
+      <c r="H145">
+        <v>-0.005859916996109377</v>
+      </c>
+      <c r="I145">
+        <v>0.1193885243140724</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B146">
-        <v>17.89333333333333</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>0.1768086575392023</v>
+      </c>
+      <c r="C146">
+        <v>0.2779365366517723</v>
+      </c>
+      <c r="D146">
+        <v>0.7199554774350578</v>
+      </c>
+      <c r="E146">
+        <v>-0.002560552268244573</v>
+      </c>
+      <c r="F146">
+        <v>-1.721603815023798</v>
+      </c>
+      <c r="G146">
+        <v>1.297925106877761</v>
+      </c>
+      <c r="H146">
+        <v>-0.002838781197333213</v>
+      </c>
+      <c r="I146">
+        <v>0.1100024443609389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B147">
-        <v>17.90666666666667</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>0.1784420466156853</v>
+      </c>
+      <c r="C147">
+        <v>0.2886218064572068</v>
+      </c>
+      <c r="D147">
+        <v>0.7194973584704365</v>
+      </c>
+      <c r="E147">
+        <v>-0.00545221893491124</v>
+      </c>
+      <c r="F147">
+        <v>-1.720996001312123</v>
+      </c>
+      <c r="G147">
+        <v>1.258501496978334</v>
+      </c>
+      <c r="H147">
+        <v>-0.002358087620792532</v>
+      </c>
+      <c r="I147">
+        <v>0.1016529583631831</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B148">
-        <v>18.00333333333333</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>0.1642913332409436</v>
+      </c>
+      <c r="C148">
+        <v>0.2898658871025726</v>
+      </c>
+      <c r="D148">
+        <v>0.7207084586636623</v>
+      </c>
+      <c r="E148">
+        <v>-0.006677218934911241</v>
+      </c>
+      <c r="F148">
+        <v>-1.724052825767154</v>
+      </c>
+      <c r="G148">
+        <v>1.237595882557548</v>
+      </c>
+      <c r="H148">
+        <v>-0.007364942888491705</v>
+      </c>
+      <c r="I148">
+        <v>0.09372789823558669</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B149">
-        <v>18.14333333333333</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>0.1590682357355045</v>
+      </c>
+      <c r="C149">
+        <v>0.2771112952764403</v>
+      </c>
+      <c r="D149">
+        <v>0.734328382939462</v>
+      </c>
+      <c r="E149">
+        <v>-0.009835552268244573</v>
+      </c>
+      <c r="F149">
+        <v>-1.72318984051791</v>
+      </c>
+      <c r="G149">
+        <v>1.198616144026924</v>
+      </c>
+      <c r="H149">
+        <v>-0.005418553219751538</v>
+      </c>
+      <c r="I149">
+        <v>0.07852270959129459</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B150">
-        <v>18.31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>0.1510019300402314</v>
+      </c>
+      <c r="C150">
+        <v>0.2992622841259163</v>
+      </c>
+      <c r="D150">
+        <v>0.7352799579768932</v>
+      </c>
+      <c r="E150">
+        <v>-0.01029388560157791</v>
+      </c>
+      <c r="F150">
+        <v>-1.725497507216255</v>
+      </c>
+      <c r="G150">
+        <v>1.161893072386969</v>
+      </c>
+      <c r="H150">
+        <v>-0.009165526251971251</v>
+      </c>
+      <c r="I150">
+        <v>0.07683857408689931</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B151">
-        <v>18.42333333333333</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>0.1342305467204045</v>
+      </c>
+      <c r="C151">
+        <v>0.3193926697275185</v>
+      </c>
+      <c r="D151">
+        <v>0.7386350636932941</v>
+      </c>
+      <c r="E151">
+        <v>-0.01031055226824457</v>
+      </c>
+      <c r="F151">
+        <v>-1.723955762487121</v>
+      </c>
+      <c r="G151">
+        <v>1.143690496175942</v>
+      </c>
+      <c r="H151">
+        <v>-0.004213660375242562</v>
+      </c>
+      <c r="I151">
+        <v>0.08025353201693264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B152">
-        <v>18.59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>0.1309790970245285</v>
+      </c>
+      <c r="C152">
+        <v>0.3212271626620407</v>
+      </c>
+      <c r="D152">
+        <v>0.7411716413513032</v>
+      </c>
+      <c r="E152">
+        <v>-0.01049388560157791</v>
+      </c>
+      <c r="F152">
+        <v>-1.72155725612642</v>
+      </c>
+      <c r="G152">
+        <v>1.135687846817869</v>
+      </c>
+      <c r="H152">
+        <v>-0.006852505560648809</v>
+      </c>
+      <c r="I152">
+        <v>0.07401299671708106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B153">
-        <v>18.72333333333333</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>0.1223365840815287</v>
+      </c>
+      <c r="C153">
+        <v>0.333903755172023</v>
+      </c>
+      <c r="D153">
+        <v>0.7415895514939574</v>
+      </c>
+      <c r="E153">
+        <v>-0.01126888560157791</v>
+      </c>
+      <c r="F153">
+        <v>-1.721640014237187</v>
+      </c>
+      <c r="G153">
+        <v>1.11987188053453</v>
+      </c>
+      <c r="H153">
+        <v>-0.005254054856794583</v>
+      </c>
+      <c r="I153">
+        <v>0.06862455452951233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B154">
-        <v>18.81666666666667</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>0.1122800809626051</v>
+      </c>
+      <c r="C154">
+        <v>0.3367269448637549</v>
+      </c>
+      <c r="D154">
+        <v>0.7395735907030319</v>
+      </c>
+      <c r="E154">
+        <v>-0.01171055226824457</v>
+      </c>
+      <c r="F154">
+        <v>-1.723902788630297</v>
+      </c>
+      <c r="G154">
+        <v>1.106069931323661</v>
+      </c>
+      <c r="H154">
+        <v>-0.004276160394020729</v>
+      </c>
+      <c r="I154">
+        <v>0.05928840320488549</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B155">
-        <v>18.95666666666666</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>0.117356566949991</v>
+      </c>
+      <c r="C155">
+        <v>0.3586008692660414</v>
+      </c>
+      <c r="D155">
+        <v>0.7454678635575203</v>
+      </c>
+      <c r="E155">
+        <v>-0.01200221893491124</v>
+      </c>
+      <c r="F155">
+        <v>-1.726337591534138</v>
+      </c>
+      <c r="G155">
+        <v>1.128503834364474</v>
+      </c>
+      <c r="H155">
+        <v>-0.00818154006896959</v>
+      </c>
+      <c r="I155">
+        <v>0.04995310996550284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B156">
-        <v>18.98333333333333</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>0.1271179770616426</v>
+      </c>
+      <c r="C156">
+        <v>0.4053644395173572</v>
+      </c>
+      <c r="D156">
+        <v>0.7563130558461166</v>
+      </c>
+      <c r="E156">
+        <v>-0.01227721893491124</v>
+      </c>
+      <c r="F156">
+        <v>-1.724842171165505</v>
+      </c>
+      <c r="G156">
+        <v>1.14752685264511</v>
+      </c>
+      <c r="H156">
+        <v>-0.005890849755452671</v>
+      </c>
+      <c r="I156">
+        <v>0.04873393202940512</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B157">
-        <v>19.01333333333334</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>0.1191448224807946</v>
+      </c>
+      <c r="C157">
+        <v>0.4272819960425407</v>
+      </c>
+      <c r="D157">
+        <v>0.7584981829173314</v>
+      </c>
+      <c r="E157">
+        <v>-0.01231055226824457</v>
+      </c>
+      <c r="F157">
+        <v>-1.727889584456606</v>
+      </c>
+      <c r="G157">
+        <v>1.151071478328889</v>
+      </c>
+      <c r="H157">
+        <v>-0.006322360330883342</v>
+      </c>
+      <c r="I157">
+        <v>0.05899824881379567</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B158">
-        <v>19.15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>0.1328488056442542</v>
+      </c>
+      <c r="C158">
+        <v>0.4343666990404405</v>
+      </c>
+      <c r="D158">
+        <v>0.7696423685174394</v>
+      </c>
+      <c r="E158">
+        <v>-0.01231055226824457</v>
+      </c>
+      <c r="F158">
+        <v>-1.725964654795968</v>
+      </c>
+      <c r="G158">
+        <v>1.15494876249174</v>
+      </c>
+      <c r="H158">
+        <v>-0.0002760222905520641</v>
+      </c>
+      <c r="I158">
+        <v>0.06611728538820483</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B159">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>0.1336221946673009</v>
+      </c>
+      <c r="C159">
+        <v>0.476739198420014</v>
+      </c>
+      <c r="D159">
+        <v>0.7741296965786435</v>
+      </c>
+      <c r="E159">
+        <v>-0.01191055226824457</v>
+      </c>
+      <c r="F159">
+        <v>-1.72406693301634</v>
+      </c>
+      <c r="G159">
+        <v>1.169572678224545</v>
+      </c>
+      <c r="H159">
+        <v>-0.001604124114637223</v>
+      </c>
+      <c r="I159">
+        <v>0.06704202201419962</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B160">
-        <v>19.24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>0.1437742565161401</v>
+      </c>
+      <c r="C160">
+        <v>0.4815205806903498</v>
+      </c>
+      <c r="D160">
+        <v>0.7805726657485108</v>
+      </c>
+      <c r="E160">
+        <v>-0.01088555226824457</v>
+      </c>
+      <c r="F160">
+        <v>-1.723475598443479</v>
+      </c>
+      <c r="G160">
+        <v>1.190956478977909</v>
+      </c>
+      <c r="H160">
+        <v>-0.003232404942724415</v>
+      </c>
+      <c r="I160">
+        <v>0.06614568174653979</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B161">
-        <v>19.28666666666667</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>0.1577004118517223</v>
+      </c>
+      <c r="C161">
+        <v>0.4766425663602556</v>
+      </c>
+      <c r="D161">
+        <v>0.7877359817232841</v>
+      </c>
+      <c r="E161">
+        <v>-0.009585552268244575</v>
+      </c>
+      <c r="F161">
+        <v>-1.72478865624368</v>
+      </c>
+      <c r="G161">
+        <v>1.207739260661905</v>
+      </c>
+      <c r="H161">
+        <v>-0.0001110513578819698</v>
+      </c>
+      <c r="I161">
+        <v>0.05945027615641063</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B162">
-        <v>19.30333333333333</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>0.153019459827782</v>
+      </c>
+      <c r="C162">
+        <v>0.5001346380067595</v>
+      </c>
+      <c r="D162">
+        <v>0.7917619914622445</v>
+      </c>
+      <c r="E162">
+        <v>-0.008260552268244573</v>
+      </c>
+      <c r="F162">
+        <v>-1.724823346318835</v>
+      </c>
+      <c r="G162">
+        <v>1.219590199815855</v>
+      </c>
+      <c r="H162">
+        <v>-0.0009605765441263407</v>
+      </c>
+      <c r="I162">
+        <v>0.05975825470438201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B163">
-        <v>19.38</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>0.1875397857687762</v>
+      </c>
+      <c r="C163">
+        <v>0.5427633697978971</v>
+      </c>
+      <c r="D163">
+        <v>0.7992746018376042</v>
+      </c>
+      <c r="E163">
+        <v>-0.007443885601577907</v>
+      </c>
+      <c r="F163">
+        <v>-1.723611007446579</v>
+      </c>
+      <c r="G163">
+        <v>1.229275925276343</v>
+      </c>
+      <c r="H163">
+        <v>-0.002899851263923609</v>
+      </c>
+      <c r="I163">
+        <v>0.05900440721736366</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B164">
-        <v>19.50666666666666</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>0.1903013415006559</v>
+      </c>
+      <c r="C164">
+        <v>0.5565222848921429</v>
+      </c>
+      <c r="D164">
+        <v>0.8055769837804783</v>
+      </c>
+      <c r="E164">
+        <v>-0.006202218934911241</v>
+      </c>
+      <c r="F164">
+        <v>-1.722630452680197</v>
+      </c>
+      <c r="G164">
+        <v>1.240349451921534</v>
+      </c>
+      <c r="H164">
+        <v>-0.0005582460213054367</v>
+      </c>
+      <c r="I164">
+        <v>0.06405191311467417</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B165">
-        <v>19.59333333333333</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>0.2121910122350699</v>
+      </c>
+      <c r="C165">
+        <v>0.5506904682059997</v>
+      </c>
+      <c r="D165">
+        <v>0.804051301889773</v>
+      </c>
+      <c r="E165">
+        <v>-0.005035552268244575</v>
+      </c>
+      <c r="F165">
+        <v>-1.721877989630278</v>
+      </c>
+      <c r="G165">
+        <v>1.249677383569889</v>
+      </c>
+      <c r="H165">
+        <v>-0.001050443508258831</v>
+      </c>
+      <c r="I165">
+        <v>0.07122255049241621</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B166">
-        <v>19.64666666666666</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>0.2361973013789854</v>
+      </c>
+      <c r="C166">
+        <v>0.5475484906937726</v>
+      </c>
+      <c r="D166">
+        <v>0.8133149903238031</v>
+      </c>
+      <c r="E166">
+        <v>-0.003618885601577906</v>
+      </c>
+      <c r="F166">
+        <v>-1.72074147270137</v>
+      </c>
+      <c r="G166">
+        <v>1.279190962333257</v>
+      </c>
+      <c r="H166">
+        <v>-0.002041986297046933</v>
+      </c>
+      <c r="I166">
+        <v>0.07591410437396018</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B167">
-        <v>19.85</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>0.2347460244555269</v>
+      </c>
+      <c r="C167">
+        <v>0.5150809905494098</v>
+      </c>
+      <c r="D167">
+        <v>0.8167544899928441</v>
+      </c>
+      <c r="E167">
+        <v>-0.002843885601577908</v>
+      </c>
+      <c r="F167">
+        <v>-1.71963934620711</v>
+      </c>
+      <c r="G167">
+        <v>1.287062254040712</v>
+      </c>
+      <c r="H167">
+        <v>-0.0008130951472625162</v>
+      </c>
+      <c r="I167">
+        <v>0.08080690044971472</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B168">
-        <v>20.15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>0.2323748714703296</v>
+      </c>
+      <c r="C168">
+        <v>0.4602742923552849</v>
+      </c>
+      <c r="D168">
+        <v>0.8205048394085508</v>
+      </c>
+      <c r="E168">
+        <v>-0.002335552268244575</v>
+      </c>
+      <c r="F168">
+        <v>-1.720947435386478</v>
+      </c>
+      <c r="G168">
+        <v>1.307671726077469</v>
+      </c>
+      <c r="H168">
+        <v>-0.007044833979557958</v>
+      </c>
+      <c r="I168">
+        <v>0.08479850105760267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B169">
-        <v>20.38</v>
+        <v>0.2396892742192072</v>
+      </c>
+      <c r="C169">
+        <v>0.4019462373947933</v>
+      </c>
+      <c r="D169">
+        <v>0.8277140995582468</v>
+      </c>
+      <c r="E169">
+        <v>-0.002343885601577908</v>
+      </c>
+      <c r="F169">
+        <v>-1.721041550172601</v>
+      </c>
+      <c r="G169">
+        <v>1.296591764099183</v>
+      </c>
+      <c r="H169">
+        <v>-0.007833256586015353</v>
+      </c>
+      <c r="I169">
+        <v>0.08008841427209168</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_20070521.xlsx
+++ b/data/data_20070521.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
+    <t>hwc_pd_obs</t>
+  </si>
+  <si>
     <t>hwr_pd_obs</t>
   </si>
   <si>
+    <t>rc_obs</t>
+  </si>
+  <si>
+    <t>c_winf_obs</t>
+  </si>
+  <si>
     <t>rri_obs</t>
   </si>
   <si>
-    <t>rc_obs</t>
-  </si>
-  <si>
     <t>i_nom_obs</t>
   </si>
   <si>
-    <t>c_winf_obs</t>
-  </si>
-  <si>
     <t>rbi_obs</t>
   </si>
   <si>
     <t>pi_dm_obs</t>
-  </si>
-  <si>
-    <t>hwc_pd_obs</t>
   </si>
   <si>
     <t>1965Q1</t>
@@ -936,28 +936,28 @@
         <v>8</v>
       </c>
       <c r="B2">
+        <v>-0.1378916811257551</v>
+      </c>
+      <c r="C2">
         <v>-0.05974195605997308</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>-0.0009119575261320127</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>-0.00487721893491124</v>
       </c>
-      <c r="F2">
-        <v>-1.720346465554962</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.005070171983789834</v>
-      </c>
-      <c r="I2">
-        <v>-0.1378916811257551</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -965,28 +965,28 @@
         <v>9</v>
       </c>
       <c r="B3">
+        <v>-0.131823052952579</v>
+      </c>
+      <c r="C3">
         <v>-0.06118443043085142</v>
-      </c>
-      <c r="C3">
-        <v>0.004013873191387241</v>
       </c>
       <c r="D3">
         <v>0.006975044395717056</v>
       </c>
       <c r="E3">
+        <v>-0.002292668405374976</v>
+      </c>
+      <c r="F3">
+        <v>0.004013873191387241</v>
+      </c>
+      <c r="G3">
         <v>-0.004918885601577907</v>
       </c>
-      <c r="F3">
-        <v>-1.721727176434205</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.03310989323116154</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.008270685490852131</v>
-      </c>
-      <c r="I3">
-        <v>-0.131823052952579</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -994,28 +994,28 @@
         <v>10</v>
       </c>
       <c r="B4">
+        <v>-0.1253182811366025</v>
+      </c>
+      <c r="C4">
         <v>-0.0483510384067827</v>
-      </c>
-      <c r="C4">
-        <v>0.004700013105478185</v>
       </c>
       <c r="D4">
         <v>0.02066179358093212</v>
       </c>
       <c r="E4">
+        <v>-0.001108966924117627</v>
+      </c>
+      <c r="F4">
+        <v>0.004700013105478185</v>
+      </c>
+      <c r="G4">
         <v>-0.004935552268244573</v>
       </c>
-      <c r="F4">
-        <v>-1.720543474952948</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.06655510364400818</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.005197139405548829</v>
-      </c>
-      <c r="I4">
-        <v>-0.1253182811366025</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>11</v>
       </c>
       <c r="B5">
+        <v>-0.1133235973856395</v>
+      </c>
+      <c r="C5">
         <v>-0.02952782989373259</v>
-      </c>
-      <c r="C5">
-        <v>-0.02088793357275698</v>
       </c>
       <c r="D5">
         <v>0.04503967656677421</v>
       </c>
       <c r="E5">
+        <v>3.82168657977796e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.02088793357275698</v>
+      </c>
+      <c r="G5">
         <v>-0.004185552268244573</v>
       </c>
-      <c r="F5">
-        <v>-1.719396291163032</v>
-      </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1049907028122163</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.006457685284641241</v>
-      </c>
-      <c r="I5">
-        <v>-0.1133235973856395</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>12</v>
       </c>
       <c r="B6">
+        <v>-0.09411148718533147</v>
+      </c>
+      <c r="C6">
         <v>-0.01405061028272684</v>
-      </c>
-      <c r="C6">
-        <v>-0.0008281674284029705</v>
       </c>
       <c r="D6">
         <v>0.05696184797496961</v>
       </c>
       <c r="E6">
+        <v>-0.003798617186546028</v>
+      </c>
+      <c r="F6">
+        <v>-0.0008281674284029705</v>
+      </c>
+      <c r="G6">
         <v>-0.00307721893491124</v>
       </c>
-      <c r="F6">
-        <v>-1.723233125215376</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.1449957358715634</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.00571953761772242</v>
-      </c>
-      <c r="I6">
-        <v>-0.09411148718533147</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>13</v>
       </c>
       <c r="B7">
+        <v>-0.08267759164871169</v>
+      </c>
+      <c r="C7">
         <v>-0.03477406579487759</v>
-      </c>
-      <c r="C7">
-        <v>-0.08750809738398146</v>
       </c>
       <c r="D7">
         <v>0.05693311421725777</v>
       </c>
       <c r="E7">
+        <v>-0.001396893417221568</v>
+      </c>
+      <c r="F7">
+        <v>-0.08750809738398146</v>
+      </c>
+      <c r="G7">
         <v>-0.003135552268244574</v>
       </c>
-      <c r="F7">
-        <v>-1.720831401446052</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.1575887865583807</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.001315115869377997</v>
-      </c>
-      <c r="I7">
-        <v>-0.08267759164871169</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>14</v>
       </c>
       <c r="B8">
+        <v>-0.08074456592972235</v>
+      </c>
+      <c r="C8">
         <v>-0.02920719399818843</v>
-      </c>
-      <c r="C8">
-        <v>-0.1235107297039058</v>
       </c>
       <c r="D8">
         <v>0.0654605562091346</v>
       </c>
       <c r="E8">
+        <v>0.000933934705682626</v>
+      </c>
+      <c r="F8">
+        <v>-0.1235107297039058</v>
+      </c>
+      <c r="G8">
         <v>-0.001993885601577908</v>
       </c>
-      <c r="F8">
-        <v>-1.718500573323148</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.1665478619416669</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.00119325630990424</v>
-      </c>
-      <c r="I8">
-        <v>-0.08074456592972235</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>15</v>
       </c>
       <c r="B9">
+        <v>-0.07704085865848764</v>
+      </c>
+      <c r="C9">
         <v>-0.05205733338636261</v>
-      </c>
-      <c r="C9">
-        <v>-0.2368623890378379</v>
       </c>
       <c r="D9">
         <v>0.06659251728977633</v>
       </c>
       <c r="E9">
+        <v>-0.00161108255597372</v>
+      </c>
+      <c r="F9">
+        <v>-0.2368623890378379</v>
+      </c>
+      <c r="G9">
         <v>-0.00157721893491124</v>
       </c>
-      <c r="F9">
-        <v>-1.721045590584804</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1610440935242217</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.002710368808246993</v>
-      </c>
-      <c r="I9">
-        <v>-0.07704085865848764</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>16</v>
       </c>
       <c r="B10">
+        <v>-0.08461389187546331</v>
+      </c>
+      <c r="C10">
         <v>-0.05461327890611833</v>
-      </c>
-      <c r="C10">
-        <v>-0.2707498717028072</v>
       </c>
       <c r="D10">
         <v>0.06914587528597416</v>
       </c>
       <c r="E10">
+        <v>-0.001703320582030344</v>
+      </c>
+      <c r="F10">
+        <v>-0.2707498717028072</v>
+      </c>
+      <c r="G10">
         <v>-0.003318885601577908</v>
       </c>
-      <c r="F10">
-        <v>-1.721137828610861</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1364910006434288</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.004049847712216665</v>
-      </c>
-      <c r="I10">
-        <v>-0.08461389187546331</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>17</v>
       </c>
       <c r="B11">
+        <v>-0.09169674856798382</v>
+      </c>
+      <c r="C11">
         <v>-0.0867731811838397</v>
-      </c>
-      <c r="C11">
-        <v>-0.1672538098798002</v>
       </c>
       <c r="D11">
         <v>0.07871631091914288</v>
       </c>
       <c r="E11">
+        <v>-0.001793812049736132</v>
+      </c>
+      <c r="F11">
+        <v>-0.1672538098798002</v>
+      </c>
+      <c r="G11">
         <v>-0.00545221893491124</v>
       </c>
-      <c r="F11">
-        <v>-1.721228320078566</v>
-      </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.1293116317923602</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.003258125008858187</v>
-      </c>
-      <c r="I11">
-        <v>-0.09169674856798382</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>18</v>
       </c>
       <c r="B12">
+        <v>-0.08593827052604608</v>
+      </c>
+      <c r="C12">
         <v>-0.06747169285322252</v>
-      </c>
-      <c r="C12">
-        <v>-0.1228567096467623</v>
       </c>
       <c r="D12">
         <v>0.07888371361715496</v>
       </c>
       <c r="E12">
+        <v>0.002773979728247699</v>
+      </c>
+      <c r="F12">
+        <v>-0.1228567096467623</v>
+      </c>
+      <c r="G12">
         <v>-0.003852218934911241</v>
       </c>
-      <c r="F12">
-        <v>-1.716660528300582</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.1192093903648743</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.0003183346312108318</v>
-      </c>
-      <c r="I12">
-        <v>-0.08593827052604608</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>19</v>
       </c>
       <c r="B13">
+        <v>-0.08056348226536825</v>
+      </c>
+      <c r="C13">
         <v>-0.05944139117232416</v>
-      </c>
-      <c r="C13">
-        <v>-0.07094047108654333</v>
       </c>
       <c r="D13">
         <v>0.08031516464530153</v>
       </c>
       <c r="E13">
+        <v>0.001433581093113345</v>
+      </c>
+      <c r="F13">
+        <v>-0.07094047108654333</v>
+      </c>
+      <c r="G13">
         <v>-0.002718885601577908</v>
       </c>
-      <c r="F13">
-        <v>-1.718000926935717</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.1348249358539428</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.0002735085344833296</v>
-      </c>
-      <c r="I13">
-        <v>-0.08056348226536825</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>20</v>
       </c>
       <c r="B14">
+        <v>-0.07579937400353431</v>
+      </c>
+      <c r="C14">
         <v>-0.08773183384580763</v>
-      </c>
-      <c r="C14">
-        <v>-0.0685774226470377</v>
       </c>
       <c r="D14">
         <v>0.1000007281969575</v>
       </c>
       <c r="E14">
+        <v>0.004666188307965868</v>
+      </c>
+      <c r="F14">
+        <v>-0.0685774226470377</v>
+      </c>
+      <c r="G14">
         <v>-0.001977218934911242</v>
       </c>
-      <c r="F14">
-        <v>-1.714768319720864</v>
-      </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.1622721365564637</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.001212087458664029</v>
-      </c>
-      <c r="I14">
-        <v>-0.07579937400353431</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>21</v>
       </c>
       <c r="B15">
+        <v>-0.06984169806798191</v>
+      </c>
+      <c r="C15">
         <v>-0.05775203815216469</v>
-      </c>
-      <c r="C15">
-        <v>-0.04733499799507612</v>
       </c>
       <c r="D15">
         <v>0.1118777906738044</v>
       </c>
       <c r="E15">
+        <v>0.003304745478403792</v>
+      </c>
+      <c r="F15">
+        <v>-0.04733499799507612</v>
+      </c>
+      <c r="G15">
         <v>-0.0008022189349112408</v>
       </c>
-      <c r="F15">
-        <v>-1.716129762550426</v>
-      </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.1414574749173809</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.002120914560766301</v>
-      </c>
-      <c r="I15">
-        <v>-0.06984169806798191</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>22</v>
       </c>
       <c r="B16">
+        <v>-0.06256657287002243</v>
+      </c>
+      <c r="C16">
         <v>-0.05495259024215023</v>
-      </c>
-      <c r="C16">
-        <v>-0.03332695839862421</v>
       </c>
       <c r="D16">
         <v>0.1264086908093631</v>
       </c>
       <c r="E16">
+        <v>0.003095617214575441</v>
+      </c>
+      <c r="F16">
+        <v>-0.03332695839862421</v>
+      </c>
+      <c r="G16">
         <v>-0.001610552268244575</v>
       </c>
-      <c r="F16">
-        <v>-1.716338890814255</v>
-      </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.1502763275464361</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.002154206480636184</v>
-      </c>
-      <c r="I16">
-        <v>-0.06256657287002243</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>23</v>
       </c>
       <c r="B17">
+        <v>-0.05665087035422056</v>
+      </c>
+      <c r="C17">
         <v>-0.04700228844775231</v>
-      </c>
-      <c r="C17">
-        <v>-0.02571214117168363</v>
       </c>
       <c r="D17">
         <v>0.1260942364739881</v>
       </c>
       <c r="E17">
+        <v>0.005052237103388235</v>
+      </c>
+      <c r="F17">
+        <v>-0.02571214117168363</v>
+      </c>
+      <c r="G17">
         <v>-0.0006355522682445734</v>
       </c>
-      <c r="F17">
-        <v>-1.714382270925442</v>
-      </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.1748419937364174</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.004838491504195413</v>
-      </c>
-      <c r="I17">
-        <v>-0.05665087035422056</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>24</v>
       </c>
       <c r="B18">
+        <v>-0.05637652233143964</v>
+      </c>
+      <c r="C18">
         <v>-0.01368334572099198</v>
-      </c>
-      <c r="C18">
-        <v>0.005073474931147182</v>
       </c>
       <c r="D18">
         <v>0.1327547835977203</v>
       </c>
       <c r="E18">
+        <v>0.003728235631388943</v>
+      </c>
+      <c r="F18">
+        <v>0.005073474931147182</v>
+      </c>
+      <c r="G18">
         <v>0.0006311143984220943</v>
       </c>
-      <c r="F18">
-        <v>-1.715706272397441</v>
-      </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.1992396503410898</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.002209896940407801</v>
-      </c>
-      <c r="I18">
-        <v>-0.05637652233143964</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1429,28 +1429,28 @@
         <v>25</v>
       </c>
       <c r="B19">
+        <v>-0.04817425688323151</v>
+      </c>
+      <c r="C19">
         <v>0.0008782995136361951</v>
-      </c>
-      <c r="C19">
-        <v>-0.00997237933479056</v>
       </c>
       <c r="D19">
         <v>0.134994992190288</v>
       </c>
       <c r="E19">
+        <v>0.004553435077885892</v>
+      </c>
+      <c r="F19">
+        <v>-0.00997237933479056</v>
+      </c>
+      <c r="G19">
         <v>0.0008894477317554252</v>
       </c>
-      <c r="F19">
-        <v>-1.714881072950944</v>
-      </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.2060268349398795</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.002301960571042766</v>
-      </c>
-      <c r="I19">
-        <v>-0.04817425688323151</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>26</v>
       </c>
       <c r="B20">
+        <v>-0.04984095582755232</v>
+      </c>
+      <c r="C20">
         <v>0.008805955745319512</v>
-      </c>
-      <c r="C20">
-        <v>-0.02244196221151196</v>
       </c>
       <c r="D20">
         <v>0.1353082676987745</v>
       </c>
       <c r="E20">
+        <v>0.005336553020902557</v>
+      </c>
+      <c r="F20">
+        <v>-0.02244196221151196</v>
+      </c>
+      <c r="G20">
         <v>0.002956114398422091</v>
       </c>
-      <c r="F20">
-        <v>-1.714097955007928</v>
-      </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.2287613413762619</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.001212361001790402</v>
-      </c>
-      <c r="I20">
-        <v>-0.04984095582755232</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>27</v>
       </c>
       <c r="B21">
+        <v>-0.05272067197434271</v>
+      </c>
+      <c r="C21">
         <v>0.006660803999882205</v>
-      </c>
-      <c r="C21">
-        <v>-0.1031305656494172</v>
       </c>
       <c r="D21">
         <v>0.1383054986468437</v>
       </c>
       <c r="E21">
+        <v>0.004052896584907073</v>
+      </c>
+      <c r="F21">
+        <v>-0.1031305656494172</v>
+      </c>
+      <c r="G21">
         <v>0.003781114398422094</v>
       </c>
-      <c r="F21">
-        <v>-1.715381611443923</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2179072244859377</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.001229176015870198</v>
-      </c>
-      <c r="I21">
-        <v>-0.05272067197434271</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>28</v>
       </c>
       <c r="B22">
+        <v>-0.06271368458419868</v>
+      </c>
+      <c r="C22">
         <v>-0.008026242074173257</v>
-      </c>
-      <c r="C22">
-        <v>-0.1062295066469767</v>
       </c>
       <c r="D22">
         <v>0.1391227034853921</v>
       </c>
       <c r="E22">
+        <v>0.0008234008269362488</v>
+      </c>
+      <c r="F22">
+        <v>-0.1062295066469767</v>
+      </c>
+      <c r="G22">
         <v>0.003422781065088759</v>
       </c>
-      <c r="F22">
-        <v>-1.718611107201894</v>
-      </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2066621523856664</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.001760338322890525</v>
-      </c>
-      <c r="I22">
-        <v>-0.06271368458419868</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1545,28 +1545,28 @@
         <v>29</v>
       </c>
       <c r="B23">
+        <v>-0.08063682978820141</v>
+      </c>
+      <c r="C23">
         <v>-0.01503838981498011</v>
-      </c>
-      <c r="C23">
-        <v>-0.180555698025378</v>
       </c>
       <c r="D23">
         <v>0.138447702867734</v>
       </c>
       <c r="E23">
+        <v>0.002655387211994242</v>
+      </c>
+      <c r="F23">
+        <v>-0.180555698025378</v>
+      </c>
+      <c r="G23">
         <v>0.002089447731755427</v>
       </c>
-      <c r="F23">
-        <v>-1.716779120816836</v>
-      </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1959954865188545</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.005418051949499464</v>
-      </c>
-      <c r="I23">
-        <v>-0.08063682978820141</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1574,28 +1574,28 @@
         <v>30</v>
       </c>
       <c r="B24">
+        <v>-0.08896735650875609</v>
+      </c>
+      <c r="C24">
         <v>-0.04256230315297482</v>
-      </c>
-      <c r="C24">
-        <v>-0.1340557716654045</v>
       </c>
       <c r="D24">
         <v>0.1414330977400358</v>
       </c>
       <c r="E24">
+        <v>0.004409893197230652</v>
+      </c>
+      <c r="F24">
+        <v>-0.1340557716654045</v>
+      </c>
+      <c r="G24">
         <v>0.001214447731755426</v>
       </c>
-      <c r="F24">
-        <v>-1.7150246148316</v>
-      </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.1956430056836203</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-0.004387538380722639</v>
-      </c>
-      <c r="I24">
-        <v>-0.08896735650875609</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>31</v>
       </c>
       <c r="B25">
+        <v>-0.108639468805781</v>
+      </c>
+      <c r="C25">
         <v>-0.0398468012981018</v>
-      </c>
-      <c r="C25">
-        <v>-0.03968072682879242</v>
       </c>
       <c r="D25">
         <v>0.1327571714956477</v>
       </c>
       <c r="E25">
+        <v>0.00225238077858717</v>
+      </c>
+      <c r="F25">
+        <v>-0.03968072682879242</v>
+      </c>
+      <c r="G25">
         <v>-0.001218885601577905</v>
       </c>
-      <c r="F25">
-        <v>-1.717182127250243</v>
-      </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.1514688477049448</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.005494056321506185</v>
-      </c>
-      <c r="I25">
-        <v>-0.108639468805781</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1632,28 +1632,28 @@
         <v>32</v>
       </c>
       <c r="B26">
+        <v>-0.1025797779496531</v>
+      </c>
+      <c r="C26">
         <v>-0.04694894262323809</v>
-      </c>
-      <c r="C26">
-        <v>0.006561772449908077</v>
       </c>
       <c r="D26">
         <v>0.1462240586681922</v>
       </c>
       <c r="E26">
+        <v>0.006791408412976463</v>
+      </c>
+      <c r="F26">
+        <v>0.006561772449908077</v>
+      </c>
+      <c r="G26">
         <v>-0.005002218934911241</v>
       </c>
-      <c r="F26">
-        <v>-1.712643099615854</v>
-      </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.1553214443867903</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.001227498947704081</v>
-      </c>
-      <c r="I26">
-        <v>-0.1025797779496531</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1661,28 +1661,28 @@
         <v>33</v>
       </c>
       <c r="B27">
+        <v>-0.1013966947106102</v>
+      </c>
+      <c r="C27">
         <v>-0.02880671934747077</v>
-      </c>
-      <c r="C27">
-        <v>0.09708923858109131</v>
       </c>
       <c r="D27">
         <v>0.1497156866559273</v>
       </c>
       <c r="E27">
+        <v>0.004619425068114557</v>
+      </c>
+      <c r="F27">
+        <v>0.09708923858109131</v>
+      </c>
+      <c r="G27">
         <v>-0.00397721893491124</v>
       </c>
-      <c r="F27">
-        <v>-1.714815082960716</v>
-      </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.1639956159160114</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.002958478901443356</v>
-      </c>
-      <c r="I27">
-        <v>-0.1013966947106102</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1690,28 +1690,28 @@
         <v>34</v>
       </c>
       <c r="B28">
+        <v>-0.1063783804386529</v>
+      </c>
+      <c r="C28">
         <v>-0.02037192981896647</v>
-      </c>
-      <c r="C28">
-        <v>0.1395623836980668</v>
       </c>
       <c r="D28">
         <v>0.152123920456857</v>
       </c>
       <c r="E28">
+        <v>0.00437116386169093</v>
+      </c>
+      <c r="F28">
+        <v>0.1395623836980668</v>
+      </c>
+      <c r="G28">
         <v>-0.002077218934911239</v>
       </c>
-      <c r="F28">
-        <v>-1.715063344167139</v>
-      </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.1623136369311107</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.0004307483100873307</v>
-      </c>
-      <c r="I28">
-        <v>-0.1063783804386529</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1719,28 +1719,28 @@
         <v>35</v>
       </c>
       <c r="B29">
+        <v>-0.1018998176840671</v>
+      </c>
+      <c r="C29">
         <v>0.004952898529332499</v>
-      </c>
-      <c r="C29">
-        <v>0.1717673935921544</v>
       </c>
       <c r="D29">
         <v>0.1630209050433273</v>
       </c>
       <c r="E29">
+        <v>0.00143148841028321</v>
+      </c>
+      <c r="F29">
+        <v>0.1717673935921544</v>
+      </c>
+      <c r="G29">
         <v>-0.004027218934911241</v>
       </c>
-      <c r="F29">
-        <v>-1.718003019618547</v>
-      </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.1783003098258193</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-0.00496396868828391</v>
-      </c>
-      <c r="I29">
-        <v>-0.1018998176840671</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1748,28 +1748,28 @@
         <v>36</v>
       </c>
       <c r="B30">
+        <v>-0.09418736540015615</v>
+      </c>
+      <c r="C30">
         <v>-0.01775787478838047</v>
-      </c>
-      <c r="C30">
-        <v>0.2250996304129833</v>
       </c>
       <c r="D30">
         <v>0.164908745280083</v>
       </c>
       <c r="E30">
+        <v>0.02065626458016948</v>
+      </c>
+      <c r="F30">
+        <v>0.2250996304129833</v>
+      </c>
+      <c r="G30">
         <v>-0.006010552268244573</v>
       </c>
-      <c r="F30">
-        <v>-1.698778243448661</v>
-      </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.199921844193006</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.003099364062254256</v>
-      </c>
-      <c r="I30">
-        <v>-0.09418736540015615</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1777,28 +1777,28 @@
         <v>37</v>
       </c>
       <c r="B31">
+        <v>-0.08383088988324205</v>
+      </c>
+      <c r="C31">
         <v>-0.02318218339909851</v>
-      </c>
-      <c r="C31">
-        <v>0.2392089815291891</v>
       </c>
       <c r="D31">
         <v>0.1783799593678062</v>
       </c>
       <c r="E31">
+        <v>0.001742746035071107</v>
+      </c>
+      <c r="F31">
+        <v>0.2392089815291891</v>
+      </c>
+      <c r="G31">
         <v>-0.005177218934911241</v>
       </c>
-      <c r="F31">
-        <v>-1.717691761993759</v>
-      </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.2112567147726416</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.004642053646442041</v>
-      </c>
-      <c r="I31">
-        <v>-0.08383088988324205</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B32">
+        <v>-0.08038515307165506</v>
+      </c>
+      <c r="C32">
         <v>-0.01579530338454953</v>
-      </c>
-      <c r="C32">
-        <v>0.23634634276039</v>
       </c>
       <c r="D32">
         <v>0.1883142170180419</v>
       </c>
       <c r="E32">
+        <v>0.001575808372545151</v>
+      </c>
+      <c r="F32">
+        <v>0.23634634276039</v>
+      </c>
+      <c r="G32">
         <v>-0.004052218934911242</v>
       </c>
-      <c r="F32">
-        <v>-1.717858699656285</v>
-      </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.2212183776111729</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.002642387148418518</v>
-      </c>
-      <c r="I32">
-        <v>-0.08038515307165506</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1835,28 +1835,28 @@
         <v>39</v>
       </c>
       <c r="B33">
+        <v>-0.06976007870495859</v>
+      </c>
+      <c r="C33">
         <v>-0.03137746962107446</v>
-      </c>
-      <c r="C33">
-        <v>0.2667665579286602</v>
       </c>
       <c r="D33">
         <v>0.2065659348437499</v>
       </c>
       <c r="E33">
+        <v>0.005602467663869437</v>
+      </c>
+      <c r="F33">
+        <v>0.2667665579286602</v>
+      </c>
+      <c r="G33">
         <v>-0.002443885601577907</v>
       </c>
-      <c r="F33">
-        <v>-1.713832040364961</v>
-      </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.2669221543931037</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.003233608861822607</v>
-      </c>
-      <c r="I33">
-        <v>-0.06976007870495859</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1864,28 +1864,28 @@
         <v>40</v>
       </c>
       <c r="B34">
+        <v>-0.06007040264421848</v>
+      </c>
+      <c r="C34">
         <v>-0.01920692253323707</v>
-      </c>
-      <c r="C34">
-        <v>0.2946477622969903</v>
       </c>
       <c r="D34">
         <v>0.2193279792832108</v>
       </c>
       <c r="E34">
+        <v>0.002852636045337286</v>
+      </c>
+      <c r="F34">
+        <v>0.2946477622969903</v>
+      </c>
+      <c r="G34">
         <v>-0.0003522189349112401</v>
       </c>
-      <c r="F34">
-        <v>-1.716581871983493</v>
-      </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.3079146369652701</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.003377456623643355</v>
-      </c>
-      <c r="I34">
-        <v>-0.06007040264421848</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1893,28 +1893,28 @@
         <v>41</v>
       </c>
       <c r="B35">
+        <v>-0.05695598124999934</v>
+      </c>
+      <c r="C35">
         <v>0.0167085563102039</v>
-      </c>
-      <c r="C35">
-        <v>0.2371323133081447</v>
       </c>
       <c r="D35">
         <v>0.2136249644168449</v>
       </c>
       <c r="E35">
+        <v>0.002656201034277805</v>
+      </c>
+      <c r="F35">
+        <v>0.2371323133081447</v>
+      </c>
+      <c r="G35">
         <v>0.001906114398422096</v>
       </c>
-      <c r="F35">
-        <v>-1.716778306994552</v>
-      </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.3425641303086486</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.002034657056205485</v>
-      </c>
-      <c r="I35">
-        <v>-0.05695598124999934</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1922,28 +1922,28 @@
         <v>42</v>
       </c>
       <c r="B36">
+        <v>-0.05868970279947838</v>
+      </c>
+      <c r="C36">
         <v>0.03092447899041369</v>
-      </c>
-      <c r="C36">
-        <v>0.1889536304155524</v>
       </c>
       <c r="D36">
         <v>0.212017658713064</v>
       </c>
       <c r="E36">
+        <v>0.004868043541748001</v>
+      </c>
+      <c r="F36">
+        <v>0.1889536304155524</v>
+      </c>
+      <c r="G36">
         <v>0.006206114398422091</v>
       </c>
-      <c r="F36">
-        <v>-1.714566464487082</v>
-      </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.3541676147210007</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.003379847229984584</v>
-      </c>
-      <c r="I36">
-        <v>-0.05868970279947838</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1951,28 +1951,28 @@
         <v>43</v>
       </c>
       <c r="B37">
+        <v>-0.05542134855360947</v>
+      </c>
+      <c r="C37">
         <v>0.03308922742713213</v>
-      </c>
-      <c r="C37">
-        <v>0.1348206431142032</v>
       </c>
       <c r="D37">
         <v>0.2040109923314084</v>
       </c>
       <c r="E37">
+        <v>0.003824299029905253</v>
+      </c>
+      <c r="F37">
+        <v>0.1348206431142032</v>
+      </c>
+      <c r="G37">
         <v>0.004147781065088759</v>
       </c>
-      <c r="F37">
-        <v>-1.715610208998925</v>
-      </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.3569374014129103</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.01384148499553323</v>
-      </c>
-      <c r="I37">
-        <v>-0.05542134855360947</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1980,28 +1980,28 @@
         <v>44</v>
       </c>
       <c r="B38">
+        <v>-0.05970310785280786</v>
+      </c>
+      <c r="C38">
         <v>0.01508640307204537</v>
-      </c>
-      <c r="C38">
-        <v>0.05368642038724669</v>
       </c>
       <c r="D38">
         <v>0.190239673390117</v>
       </c>
       <c r="E38">
+        <v>0.002046098695041387</v>
+      </c>
+      <c r="F38">
+        <v>0.05368642038724669</v>
+      </c>
+      <c r="G38">
         <v>0.004439447731755428</v>
       </c>
-      <c r="F38">
-        <v>-1.717388409333789</v>
-      </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.3506186008450092</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.01210105576433169</v>
-      </c>
-      <c r="I38">
-        <v>-0.05970310785280786</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2009,28 +2009,28 @@
         <v>45</v>
       </c>
       <c r="B39">
+        <v>-0.07097210499054585</v>
+      </c>
+      <c r="C39">
         <v>-0.004770751529072938</v>
-      </c>
-      <c r="C39">
-        <v>0.003870307183637678</v>
       </c>
       <c r="D39">
         <v>0.1891561622378259</v>
       </c>
       <c r="E39">
+        <v>0.0117988686995624</v>
+      </c>
+      <c r="F39">
+        <v>0.003870307183637678</v>
+      </c>
+      <c r="G39">
         <v>0.005781114398422096</v>
       </c>
-      <c r="F39">
-        <v>-1.707635639329268</v>
-      </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.3434267576827263</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.02667211247564211</v>
-      </c>
-      <c r="I39">
-        <v>-0.07097210499054585</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2038,28 +2038,28 @@
         <v>46</v>
       </c>
       <c r="B40">
+        <v>-0.06994313178968703</v>
+      </c>
+      <c r="C40">
         <v>-0.04131460238669143</v>
-      </c>
-      <c r="C40">
-        <v>-0.03472940100943944</v>
       </c>
       <c r="D40">
         <v>0.1886227744701223</v>
       </c>
       <c r="E40">
+        <v>0.01202172613696609</v>
+      </c>
+      <c r="F40">
+        <v>-0.03472940100943944</v>
+      </c>
+      <c r="G40">
         <v>0.00587278106508876</v>
       </c>
-      <c r="F40">
-        <v>-1.707412781891864</v>
-      </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.3266197149887384</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.02133381728900336</v>
-      </c>
-      <c r="I40">
-        <v>-0.06994313178968703</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2067,28 +2067,28 @@
         <v>47</v>
       </c>
       <c r="B41">
+        <v>-0.09176721023969359</v>
+      </c>
+      <c r="C41">
         <v>-0.06748837995630455</v>
-      </c>
-      <c r="C41">
-        <v>-0.1806130553803431</v>
       </c>
       <c r="D41">
         <v>0.1690695206585495</v>
       </c>
       <c r="E41">
+        <v>0.008584957983794583</v>
+      </c>
+      <c r="F41">
+        <v>-0.1806130553803431</v>
+      </c>
+      <c r="G41">
         <v>0.003797781065088759</v>
       </c>
-      <c r="F41">
-        <v>-1.710849550045036</v>
-      </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.2935229764840814</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.02045627555547864</v>
-      </c>
-      <c r="I41">
-        <v>-0.09176721023969359</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2096,28 +2096,28 @@
         <v>48</v>
       </c>
       <c r="B42">
+        <v>-0.1268446715321585</v>
+      </c>
+      <c r="C42">
         <v>-0.1470231589960968</v>
-      </c>
-      <c r="C42">
-        <v>-0.2494906698084307</v>
       </c>
       <c r="D42">
         <v>0.1727419175571683</v>
       </c>
       <c r="E42">
+        <v>0.0003162149543075917</v>
+      </c>
+      <c r="F42">
+        <v>-0.2494906698084307</v>
+      </c>
+      <c r="G42">
         <v>-0.00022721893491124</v>
       </c>
-      <c r="F42">
-        <v>-1.719118293074523</v>
-      </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.2253510737561282</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.02320527467137618</v>
-      </c>
-      <c r="I42">
-        <v>-0.1268446715321585</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2125,28 +2125,28 @@
         <v>49</v>
       </c>
       <c r="B43">
+        <v>-0.13227453621688</v>
+      </c>
+      <c r="C43">
         <v>-0.1952174134940718</v>
-      </c>
-      <c r="C43">
-        <v>-0.2329415056631579</v>
       </c>
       <c r="D43">
         <v>0.1841664664200104</v>
       </c>
       <c r="E43">
+        <v>0.0001837078577370584</v>
+      </c>
+      <c r="F43">
+        <v>-0.2329415056631579</v>
+      </c>
+      <c r="G43">
         <v>-0.001118885601577907</v>
       </c>
-      <c r="F43">
-        <v>-1.719250800171093</v>
-      </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.1942610560539002</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.006421150302684036</v>
-      </c>
-      <c r="I43">
-        <v>-0.13227453621688</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2154,28 +2154,28 @@
         <v>50</v>
       </c>
       <c r="B44">
+        <v>-0.1164141391634272</v>
+      </c>
+      <c r="C44">
         <v>-0.19392647796783</v>
-      </c>
-      <c r="C44">
-        <v>-0.171464536393489</v>
       </c>
       <c r="D44">
         <v>0.1926049654042279</v>
       </c>
       <c r="E44">
+        <v>0.004964767171121631</v>
+      </c>
+      <c r="F44">
+        <v>-0.171464536393489</v>
+      </c>
+      <c r="G44">
         <v>0.001222781065088762</v>
       </c>
-      <c r="F44">
-        <v>-1.714469740857709</v>
-      </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.1977754692550961</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.007314520434264565</v>
-      </c>
-      <c r="I44">
-        <v>-0.1164141391634272</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2183,28 +2183,28 @@
         <v>51</v>
       </c>
       <c r="B45">
+        <v>-0.1036985887250159</v>
+      </c>
+      <c r="C45">
         <v>-0.1782735508614764</v>
-      </c>
-      <c r="C45">
-        <v>-0.1335165015845918</v>
       </c>
       <c r="D45">
         <v>0.198041652819736</v>
       </c>
       <c r="E45">
+        <v>0.00539414725228019</v>
+      </c>
+      <c r="F45">
+        <v>-0.1335165015845918</v>
+      </c>
+      <c r="G45">
         <v>-0.0005355522682445706</v>
       </c>
-      <c r="F45">
-        <v>-1.71404036077655</v>
-      </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.2019765024800888</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.005506512259928214</v>
-      </c>
-      <c r="I45">
-        <v>-0.1036985887250159</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2212,28 +2212,28 @@
         <v>52</v>
       </c>
       <c r="B46">
+        <v>-0.08798819869808971</v>
+      </c>
+      <c r="C46">
         <v>-0.155937074046849</v>
-      </c>
-      <c r="C46">
-        <v>-0.04088298130231749</v>
       </c>
       <c r="D46">
         <v>0.21298242946837</v>
       </c>
       <c r="E46">
+        <v>0.007150364799742103</v>
+      </c>
+      <c r="F46">
+        <v>-0.04088298130231749</v>
+      </c>
+      <c r="G46">
         <v>-0.002310552268244573</v>
       </c>
-      <c r="F46">
-        <v>-1.712284143229088</v>
-      </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.2155265193021689</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.002312253721415697</v>
-      </c>
-      <c r="I46">
-        <v>-0.08798819869808971</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2241,28 +2241,28 @@
         <v>53</v>
       </c>
       <c r="B47">
+        <v>-0.09159246915690877</v>
+      </c>
+      <c r="C47">
         <v>-0.1681648618550096</v>
-      </c>
-      <c r="C47">
-        <v>-0.01670845498041107</v>
       </c>
       <c r="D47">
         <v>0.2173560206232175</v>
       </c>
       <c r="E47">
+        <v>0.004824799363488818</v>
+      </c>
+      <c r="F47">
+        <v>-0.01670845498041107</v>
+      </c>
+      <c r="G47">
         <v>-0.001710552268244573</v>
       </c>
-      <c r="F47">
-        <v>-1.714609708665341</v>
-      </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.2228463284645397</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.00167986131849091</v>
-      </c>
-      <c r="I47">
-        <v>-0.09159246915690877</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2270,28 +2270,28 @@
         <v>54</v>
       </c>
       <c r="B48">
+        <v>-0.08601031688942085</v>
+      </c>
+      <c r="C48">
         <v>-0.1813640623283937</v>
-      </c>
-      <c r="C48">
-        <v>-0.03829559743781896</v>
       </c>
       <c r="D48">
         <v>0.2229335424646628</v>
       </c>
       <c r="E48">
+        <v>0.008489139029281089</v>
+      </c>
+      <c r="F48">
+        <v>-0.03829559743781896</v>
+      </c>
+      <c r="G48">
         <v>-0.00172721893491124</v>
       </c>
-      <c r="F48">
-        <v>-1.710945368999549</v>
-      </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.2396482467438048</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.005290021055279264</v>
-      </c>
-      <c r="I48">
-        <v>-0.08601031688942085</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2299,28 +2299,28 @@
         <v>55</v>
       </c>
       <c r="B49">
+        <v>-0.09044907347914544</v>
+      </c>
+      <c r="C49">
         <v>-0.1696649444395617</v>
-      </c>
-      <c r="C49">
-        <v>0.07740033524780721</v>
       </c>
       <c r="D49">
         <v>0.2315611213969033</v>
       </c>
       <c r="E49">
+        <v>0.006186600200094683</v>
+      </c>
+      <c r="F49">
+        <v>0.07740033524780721</v>
+      </c>
+      <c r="G49">
         <v>-0.002918885601577909</v>
       </c>
-      <c r="F49">
-        <v>-1.713247907828735</v>
-      </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.2548180885965126</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.008440202723775275</v>
-      </c>
-      <c r="I49">
-        <v>-0.09044907347914544</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2328,28 +2328,28 @@
         <v>56</v>
       </c>
       <c r="B50">
+        <v>-0.08612921603374746</v>
+      </c>
+      <c r="C50">
         <v>-0.1621058467227806</v>
-      </c>
-      <c r="C50">
-        <v>0.1025739285833369</v>
       </c>
       <c r="D50">
         <v>0.2389732377012557</v>
       </c>
       <c r="E50">
+        <v>0.006516907633148305</v>
+      </c>
+      <c r="F50">
+        <v>0.1025739285833369</v>
+      </c>
+      <c r="G50">
         <v>-0.00302721893491124</v>
       </c>
-      <c r="F50">
-        <v>-1.712917600395682</v>
-      </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.288535577600749</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.005339461121625927</v>
-      </c>
-      <c r="I50">
-        <v>-0.08612921603374746</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2357,28 +2357,28 @@
         <v>57</v>
       </c>
       <c r="B51">
+        <v>-0.06665104541754374</v>
+      </c>
+      <c r="C51">
         <v>-0.1161084444509172</v>
-      </c>
-      <c r="C51">
-        <v>0.2064096290093236</v>
       </c>
       <c r="D51">
         <v>0.2396922705909845</v>
       </c>
       <c r="E51">
+        <v>0.008059923301578264</v>
+      </c>
+      <c r="F51">
+        <v>0.2064096290093236</v>
+      </c>
+      <c r="G51">
         <v>-0.002502218934911241</v>
       </c>
-      <c r="F51">
-        <v>-1.711374584727252</v>
-      </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.3120793026925179</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.007221760502728663</v>
-      </c>
-      <c r="I51">
-        <v>-0.06665104541754374</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2386,28 +2386,28 @@
         <v>58</v>
       </c>
       <c r="B52">
+        <v>-0.06076238912642173</v>
+      </c>
+      <c r="C52">
         <v>-0.1183739448635322</v>
-      </c>
-      <c r="C52">
-        <v>0.1982518766243837</v>
       </c>
       <c r="D52">
         <v>0.2442878807663718</v>
       </c>
       <c r="E52">
+        <v>0.004052896584907295</v>
+      </c>
+      <c r="F52">
+        <v>0.1982518766243837</v>
+      </c>
+      <c r="G52">
         <v>-0.0008605522682445747</v>
       </c>
-      <c r="F52">
-        <v>-1.715381611443923</v>
-      </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.3283549415787341</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.004146028884767844</v>
-      </c>
-      <c r="I52">
-        <v>-0.06076238912642173</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2415,28 +2415,28 @@
         <v>59</v>
       </c>
       <c r="B53">
+        <v>-0.05121018845222469</v>
+      </c>
+      <c r="C53">
         <v>-0.1024920279639792</v>
-      </c>
-      <c r="C53">
-        <v>0.1806157725008202</v>
       </c>
       <c r="D53">
         <v>0.254748051391843</v>
       </c>
       <c r="E53">
+        <v>0.007408279454420052</v>
+      </c>
+      <c r="F53">
+        <v>0.1806157725008202</v>
+      </c>
+      <c r="G53">
         <v>0.0006727810650887581</v>
       </c>
-      <c r="F53">
-        <v>-1.71202622857441</v>
-      </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.3571966837080094</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>0.008848947560124059</v>
-      </c>
-      <c r="I53">
-        <v>-0.05121018845222469</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2444,28 +2444,28 @@
         <v>60</v>
       </c>
       <c r="B54">
+        <v>-0.05822395587328622</v>
+      </c>
+      <c r="C54">
         <v>-0.1226079737931705</v>
-      </c>
-      <c r="C54">
-        <v>0.1812927459362594</v>
       </c>
       <c r="D54">
         <v>0.2561277290688779</v>
       </c>
       <c r="E54">
+        <v>0.007651754918351605</v>
+      </c>
+      <c r="F54">
+        <v>0.1812927459362594</v>
+      </c>
+      <c r="G54">
         <v>0.001381114398422095</v>
       </c>
-      <c r="F54">
-        <v>-1.711782753110479</v>
-      </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.362572160600342</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>0.003099484019333193</v>
-      </c>
-      <c r="I54">
-        <v>-0.05822395587328622</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2473,28 +2473,28 @@
         <v>61</v>
       </c>
       <c r="B55">
+        <v>-0.03419485194939087</v>
+      </c>
+      <c r="C55">
         <v>-0.0323509145952478</v>
-      </c>
-      <c r="C55">
-        <v>0.2237455460019104</v>
       </c>
       <c r="D55">
         <v>0.272915175595037</v>
       </c>
       <c r="E55">
+        <v>0.01188784347883002</v>
+      </c>
+      <c r="F55">
+        <v>0.2237455460019104</v>
+      </c>
+      <c r="G55">
         <v>0.001589447731755426</v>
       </c>
-      <c r="F55">
-        <v>-1.70754666455</v>
-      </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.439243272610538</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.008985044360656008</v>
-      </c>
-      <c r="I55">
-        <v>-0.03419485194939087</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2502,28 +2502,28 @@
         <v>62</v>
       </c>
       <c r="B56">
+        <v>-0.02734123956807233</v>
+      </c>
+      <c r="C56">
         <v>-0.01369273382906751</v>
-      </c>
-      <c r="C56">
-        <v>0.2329484735299499</v>
       </c>
       <c r="D56">
         <v>0.2726920572927187</v>
       </c>
       <c r="E56">
+        <v>0.00687974868251443</v>
+      </c>
+      <c r="F56">
+        <v>0.2329484735299499</v>
+      </c>
+      <c r="G56">
         <v>0.003681114398422091</v>
       </c>
-      <c r="F56">
-        <v>-1.712554759346316</v>
-      </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.4695385532777534</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.009843802975208987</v>
-      </c>
-      <c r="I56">
-        <v>-0.02734123956807233</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2531,28 +2531,28 @@
         <v>63</v>
       </c>
       <c r="B57">
+        <v>-0.02157492143512751</v>
+      </c>
+      <c r="C57">
         <v>-0.009726383342795492</v>
-      </c>
-      <c r="C57">
-        <v>0.2248566514624191</v>
       </c>
       <c r="D57">
         <v>0.2761230442708489</v>
       </c>
       <c r="E57">
+        <v>0.01041219684385567</v>
+      </c>
+      <c r="F57">
+        <v>0.2248566514624191</v>
+      </c>
+      <c r="G57">
         <v>0.006822781065088759</v>
       </c>
-      <c r="F57">
-        <v>-1.709022311184974</v>
-      </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.4969035620265219</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0.01100445695723357</v>
-      </c>
-      <c r="I57">
-        <v>-0.02157492143512751</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2560,28 +2560,28 @@
         <v>64</v>
       </c>
       <c r="B58">
+        <v>-0.01753817481251785</v>
+      </c>
+      <c r="C58">
         <v>-0.02940893915505932</v>
-      </c>
-      <c r="C58">
-        <v>0.1967029182390414</v>
       </c>
       <c r="D58">
         <v>0.2768545695969546</v>
       </c>
       <c r="E58">
+        <v>0.007797229219542878</v>
+      </c>
+      <c r="F58">
+        <v>0.1967029182390414</v>
+      </c>
+      <c r="G58">
         <v>0.008856114398422097</v>
       </c>
-      <c r="F58">
-        <v>-1.711637278809287</v>
-      </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.5144570251697411</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.00674299509255411</v>
-      </c>
-      <c r="I58">
-        <v>-0.01753817481251785</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2589,28 +2589,28 @@
         <v>65</v>
       </c>
       <c r="B59">
+        <v>-0.03039593966340526</v>
+      </c>
+      <c r="C59">
         <v>-0.002548068270258899</v>
-      </c>
-      <c r="C59">
-        <v>0.1737939528201338</v>
       </c>
       <c r="D59">
         <v>0.2722573971435143</v>
       </c>
       <c r="E59">
+        <v>0.003728235631388943</v>
+      </c>
+      <c r="F59">
+        <v>0.1737939528201338</v>
+      </c>
+      <c r="G59">
         <v>0.008839447731755426</v>
       </c>
-      <c r="F59">
-        <v>-1.715706272397441</v>
-      </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.5069949387951933</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.01881887578001513</v>
-      </c>
-      <c r="I59">
-        <v>-0.03039593966340526</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2618,28 +2618,28 @@
         <v>66</v>
       </c>
       <c r="B60">
+        <v>-0.02397131545692854</v>
+      </c>
+      <c r="C60">
         <v>0.01772182290283263</v>
-      </c>
-      <c r="C60">
-        <v>0.1571160427117837</v>
       </c>
       <c r="D60">
         <v>0.2775430699115331</v>
       </c>
       <c r="E60">
+        <v>0.009249504235096106</v>
+      </c>
+      <c r="F60">
+        <v>0.1571160427117837</v>
+      </c>
+      <c r="G60">
         <v>0.00958111439842209</v>
       </c>
-      <c r="F60">
-        <v>-1.710185003793734</v>
-      </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.5331245705505792</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.01195606933328892</v>
-      </c>
-      <c r="I60">
-        <v>-0.02397131545692854</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2647,28 +2647,28 @@
         <v>67</v>
       </c>
       <c r="B61">
+        <v>-0.02562542276536472</v>
+      </c>
+      <c r="C61">
         <v>0.0107364444202409</v>
-      </c>
-      <c r="C61">
-        <v>0.1133389985000015</v>
       </c>
       <c r="D61">
         <v>0.2752613246928846</v>
       </c>
       <c r="E61">
+        <v>0.006282971262773806</v>
+      </c>
+      <c r="F61">
+        <v>0.1133389985000015</v>
+      </c>
+      <c r="G61">
         <v>0.01500611439842209</v>
       </c>
-      <c r="F61">
-        <v>-1.713151536766056</v>
-      </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.5306656756695283</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>0.01042527083676243</v>
-      </c>
-      <c r="I61">
-        <v>-0.02562542276536472</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2676,28 +2676,28 @@
         <v>68</v>
       </c>
       <c r="B62">
+        <v>-0.02919610977472331</v>
+      </c>
+      <c r="C62">
         <v>-0.01334202962944691</v>
-      </c>
-      <c r="C62">
-        <v>0.02967113921345721</v>
       </c>
       <c r="D62">
         <v>0.26943236251517</v>
       </c>
       <c r="E62">
+        <v>0.006483106910936487</v>
+      </c>
+      <c r="F62">
+        <v>0.02967113921345721</v>
+      </c>
+      <c r="G62">
         <v>0.0187811143984221</v>
       </c>
-      <c r="F62">
-        <v>-1.712951401117894</v>
-      </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.5371538431251777</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>0.01614504272567347</v>
-      </c>
-      <c r="I62">
-        <v>-0.02919610977472331</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2705,28 +2705,28 @@
         <v>69</v>
       </c>
       <c r="B63">
+        <v>-0.05061629935365319</v>
+      </c>
+      <c r="C63">
         <v>-0.04346624028436758</v>
-      </c>
-      <c r="C63">
-        <v>-0.1787470038085273</v>
       </c>
       <c r="D63">
         <v>0.2429376078619598</v>
       </c>
       <c r="E63">
+        <v>0.008639815929159333</v>
+      </c>
+      <c r="F63">
+        <v>-0.1787470038085273</v>
+      </c>
+      <c r="G63">
         <v>0.009439447731755429</v>
       </c>
-      <c r="F63">
-        <v>-1.710794692099671</v>
-      </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.4811652971717528</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.01878417121890581</v>
-      </c>
-      <c r="I63">
-        <v>-0.05061629935365319</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2734,28 +2734,28 @@
         <v>70</v>
       </c>
       <c r="B64">
+        <v>-0.05969749662367096</v>
+      </c>
+      <c r="C64">
         <v>-0.0615907356567971</v>
-      </c>
-      <c r="C64">
-        <v>-0.1662039108946711</v>
       </c>
       <c r="D64">
         <v>0.2496206453703351</v>
       </c>
       <c r="E64">
+        <v>0.009217192955405162</v>
+      </c>
+      <c r="F64">
+        <v>-0.1662039108946711</v>
+      </c>
+      <c r="G64">
         <v>0.008281114398422095</v>
       </c>
-      <c r="F64">
-        <v>-1.710217315073425</v>
-      </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.4842647226283026</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0.006427293902910363</v>
-      </c>
-      <c r="I64">
-        <v>-0.05969749662367096</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2763,28 +2763,28 @@
         <v>71</v>
       </c>
       <c r="B65">
+        <v>-0.04224378628490122</v>
+      </c>
+      <c r="C65">
         <v>-0.04637297988959402</v>
-      </c>
-      <c r="C65">
-        <v>-0.07622765910598339</v>
       </c>
       <c r="D65">
         <v>0.2593765216065602</v>
       </c>
       <c r="E65">
+        <v>0.01352544059432007</v>
+      </c>
+      <c r="F65">
+        <v>-0.07622765910598339</v>
+      </c>
+      <c r="G65">
         <v>0.0194311143984221</v>
       </c>
-      <c r="F65">
-        <v>-1.70590906743451</v>
-      </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.5017640334408719</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0.01238034871045097</v>
-      </c>
-      <c r="I65">
-        <v>-0.04224378628490122</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2792,28 +2792,28 @@
         <v>72</v>
       </c>
       <c r="B66">
+        <v>-0.03995343429258824</v>
+      </c>
+      <c r="C66">
         <v>-0.06156400474932951</v>
-      </c>
-      <c r="C66">
-        <v>-0.09777661557406336</v>
       </c>
       <c r="D66">
         <v>0.2601794576057661</v>
       </c>
       <c r="E66">
+        <v>0.010625449128327</v>
+      </c>
+      <c r="F66">
+        <v>-0.09777661557406336</v>
+      </c>
+      <c r="G66">
         <v>0.02137278106508876</v>
       </c>
-      <c r="F66">
-        <v>-1.708809058900503</v>
-      </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.5141305108005838</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.02184347303112406</v>
-      </c>
-      <c r="I66">
-        <v>-0.03995343429258824</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2821,28 +2821,28 @@
         <v>73</v>
       </c>
       <c r="B67">
+        <v>-0.03695323796383754</v>
+      </c>
+      <c r="C67">
         <v>-0.08003782176279997</v>
-      </c>
-      <c r="C67">
-        <v>-0.1356720988105762</v>
       </c>
       <c r="D67">
         <v>0.2571203845784793</v>
       </c>
       <c r="E67">
+        <v>0.007447854375797791</v>
+      </c>
+      <c r="F67">
+        <v>-0.1356720988105762</v>
+      </c>
+      <c r="G67">
         <v>0.02266444773175542</v>
       </c>
-      <c r="F67">
-        <v>-1.711986653653032</v>
-      </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.5308294167393557</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.0107377660025802</v>
-      </c>
-      <c r="I67">
-        <v>-0.03695323796383754</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2850,28 +2850,28 @@
         <v>74</v>
       </c>
       <c r="B68">
+        <v>-0.04388547362431705</v>
+      </c>
+      <c r="C68">
         <v>-0.1053062611275826</v>
-      </c>
-      <c r="C68">
-        <v>-0.2190250778842335</v>
       </c>
       <c r="D68">
         <v>0.2576951439341757</v>
       </c>
       <c r="E68">
+        <v>0.008434911587588944</v>
+      </c>
+      <c r="F68">
+        <v>-0.2190250778842335</v>
+      </c>
+      <c r="G68">
         <v>0.02303111439842209</v>
       </c>
-      <c r="F68">
-        <v>-1.710999596441241</v>
-      </c>
-      <c r="G68">
+      <c r="H68">
         <v>0.551351375585698</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>0.0118261759094675</v>
-      </c>
-      <c r="I68">
-        <v>-0.04388547362431705</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2879,28 +2879,28 @@
         <v>75</v>
       </c>
       <c r="B69">
+        <v>-0.06203112431323454</v>
+      </c>
+      <c r="C69">
         <v>-0.1098096374676044</v>
-      </c>
-      <c r="C69">
-        <v>-0.3308752642597623</v>
       </c>
       <c r="D69">
         <v>0.2467341652570951</v>
       </c>
       <c r="E69">
+        <v>0.002386243016696021</v>
+      </c>
+      <c r="F69">
+        <v>-0.3308752642597623</v>
+      </c>
+      <c r="G69">
         <v>0.01477278106508876</v>
       </c>
-      <c r="F69">
-        <v>-1.717048265012134</v>
-      </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.5719421383261576</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>0.009008406896813653</v>
-      </c>
-      <c r="I69">
-        <v>-0.06203112431323454</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2908,28 +2908,28 @@
         <v>76</v>
       </c>
       <c r="B70">
+        <v>-0.08981993901211904</v>
+      </c>
+      <c r="C70">
         <v>-0.1640941795658708</v>
-      </c>
-      <c r="C70">
-        <v>-0.3930987514793509</v>
       </c>
       <c r="D70">
         <v>0.2503427843228629</v>
       </c>
       <c r="E70">
+        <v>0.00349587386352016</v>
+      </c>
+      <c r="F70">
+        <v>-0.3930987514793509</v>
+      </c>
+      <c r="G70">
         <v>0.01743111439842209</v>
       </c>
-      <c r="F70">
-        <v>-1.71593863416531</v>
-      </c>
-      <c r="G70">
+      <c r="H70">
         <v>0.544578995103655</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.00393730145030608</v>
-      </c>
-      <c r="I70">
-        <v>-0.08981993901211904</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2937,28 +2937,28 @@
         <v>77</v>
       </c>
       <c r="B71">
+        <v>-0.08603928640822023</v>
+      </c>
+      <c r="C71">
         <v>-0.1584484752031511</v>
-      </c>
-      <c r="C71">
-        <v>-0.4279988931022771</v>
       </c>
       <c r="D71">
         <v>0.2508170447408276</v>
       </c>
       <c r="E71">
+        <v>-0.000974063782192747</v>
+      </c>
+      <c r="F71">
+        <v>-0.4279988931022771</v>
+      </c>
+      <c r="G71">
         <v>0.01644778106508876</v>
       </c>
-      <c r="F71">
-        <v>-1.720408571811023</v>
-      </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.5052220687927118</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.002783341042460868</v>
-      </c>
-      <c r="I71">
-        <v>-0.08603928640822023</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2966,28 +2966,28 @@
         <v>78</v>
       </c>
       <c r="B72">
+        <v>-0.09762948934320326</v>
+      </c>
+      <c r="C72">
         <v>-0.1788617687814531</v>
-      </c>
-      <c r="C72">
-        <v>-0.4343239490238275</v>
       </c>
       <c r="D72">
         <v>0.2555885932500499</v>
       </c>
       <c r="E72">
+        <v>0.002292448091678534</v>
+      </c>
+      <c r="F72">
+        <v>-0.4343239490238275</v>
+      </c>
+      <c r="G72">
         <v>0.008689447731755428</v>
       </c>
-      <c r="F72">
-        <v>-1.717142059937152</v>
-      </c>
-      <c r="G72">
+      <c r="H72">
         <v>0.4680934380722892</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.00314326200375698</v>
-      </c>
-      <c r="I72">
-        <v>-0.09762948934320326</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2995,28 +2995,28 @@
         <v>79</v>
       </c>
       <c r="B73">
+        <v>-0.1091330119847167</v>
+      </c>
+      <c r="C73">
         <v>-0.1996499221971698</v>
-      </c>
-      <c r="C73">
-        <v>-0.366430252446313</v>
       </c>
       <c r="D73">
         <v>0.2705422924262799</v>
       </c>
       <c r="E73">
+        <v>-0.00329984651298928</v>
+      </c>
+      <c r="F73">
+        <v>-0.366430252446313</v>
+      </c>
+      <c r="G73">
         <v>0.005164447731755428</v>
       </c>
-      <c r="F73">
-        <v>-1.722734354541819</v>
-      </c>
-      <c r="G73">
+      <c r="H73">
         <v>0.4445643859451032</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.001589293964903099</v>
-      </c>
-      <c r="I73">
-        <v>-0.1091330119847167</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3024,28 +3024,28 @@
         <v>80</v>
       </c>
       <c r="B74">
+        <v>-0.09896455768970247</v>
+      </c>
+      <c r="C74">
         <v>-0.1838601007578393</v>
-      </c>
-      <c r="C74">
-        <v>-0.2117488820096778</v>
       </c>
       <c r="D74">
         <v>0.2776460250919324</v>
       </c>
       <c r="E74">
+        <v>0.001181791880519622</v>
+      </c>
+      <c r="F74">
+        <v>-0.2117488820096778</v>
+      </c>
+      <c r="G74">
         <v>0.005664447731755428</v>
       </c>
-      <c r="F74">
-        <v>-1.718252716148311</v>
-      </c>
-      <c r="G74">
+      <c r="H74">
         <v>0.4233919778393016</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>-0.00448085026636052</v>
-      </c>
-      <c r="I74">
-        <v>-0.09896455768970247</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3053,28 +3053,28 @@
         <v>81</v>
       </c>
       <c r="B75">
+        <v>-0.08015158534022815</v>
+      </c>
+      <c r="C75">
         <v>-0.1911067017542623</v>
-      </c>
-      <c r="C75">
-        <v>-0.1024826271683539</v>
       </c>
       <c r="D75">
         <v>0.2947341954279326</v>
       </c>
       <c r="E75">
+        <v>-0.001825370939963012</v>
+      </c>
+      <c r="F75">
+        <v>-0.1024826271683539</v>
+      </c>
+      <c r="G75">
         <v>0.006389447731755425</v>
       </c>
-      <c r="F75">
-        <v>-1.721259878968793</v>
-      </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.4327017491248855</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>-0.00594815177771762</v>
-      </c>
-      <c r="I75">
-        <v>-0.08015158534022815</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3082,28 +3082,28 @@
         <v>82</v>
       </c>
       <c r="B76">
+        <v>-0.06204183790744411</v>
+      </c>
+      <c r="C76">
         <v>-0.1581766402531699</v>
-      </c>
-      <c r="C76">
-        <v>-0.01095568469253827</v>
       </c>
       <c r="D76">
         <v>0.3095130712469576</v>
       </c>
       <c r="E76">
+        <v>-0.003127905995123992</v>
+      </c>
+      <c r="F76">
+        <v>-0.01095568469253827</v>
+      </c>
+      <c r="G76">
         <v>0.008247781065088762</v>
       </c>
-      <c r="F76">
-        <v>-1.722562414023954</v>
-      </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.4738966134163709</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0.000331724268201888</v>
-      </c>
-      <c r="I76">
-        <v>-0.06204183790744411</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3111,28 +3111,28 @@
         <v>83</v>
       </c>
       <c r="B77">
+        <v>-0.04761110427585358</v>
+      </c>
+      <c r="C77">
         <v>-0.1418675664733751</v>
-      </c>
-      <c r="C77">
-        <v>0.02773626698723142</v>
       </c>
       <c r="D77">
         <v>0.3223063275936751</v>
       </c>
       <c r="E77">
+        <v>-0.0003850982439966514</v>
+      </c>
+      <c r="F77">
+        <v>0.02773626698723142</v>
+      </c>
+      <c r="G77">
         <v>0.007397781065088758</v>
       </c>
-      <c r="F77">
-        <v>-1.719819606272827</v>
-      </c>
-      <c r="G77">
+      <c r="H77">
         <v>0.5338376202348112</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>-0.003185643039401548</v>
-      </c>
-      <c r="I77">
-        <v>-0.04761110427585358</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3140,28 +3140,28 @@
         <v>84</v>
       </c>
       <c r="B78">
+        <v>-0.03403424652596287</v>
+      </c>
+      <c r="C78">
         <v>-0.09218772744874579</v>
-      </c>
-      <c r="C78">
-        <v>0.05081814281388564</v>
       </c>
       <c r="D78">
         <v>0.3267173780620305</v>
       </c>
       <c r="E78">
+        <v>-0.00328045005712293</v>
+      </c>
+      <c r="F78">
+        <v>0.05081814281388564</v>
+      </c>
+      <c r="G78">
         <v>0.00832278106508876</v>
       </c>
-      <c r="F78">
-        <v>-1.722714958085953</v>
-      </c>
-      <c r="G78">
+      <c r="H78">
         <v>0.5617311586437346</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>-0.002146484918040642</v>
-      </c>
-      <c r="I78">
-        <v>-0.03403424652596287</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3169,28 +3169,28 @@
         <v>85</v>
       </c>
       <c r="B79">
+        <v>-0.0284298343695446</v>
+      </c>
+      <c r="C79">
         <v>-0.06936015919098201</v>
-      </c>
-      <c r="C79">
-        <v>0.06670940456505292</v>
       </c>
       <c r="D79">
         <v>0.3384285322650338</v>
       </c>
       <c r="E79">
+        <v>-0.002949396609184774</v>
+      </c>
+      <c r="F79">
+        <v>0.06670940456505292</v>
+      </c>
+      <c r="G79">
         <v>0.009889447731755428</v>
       </c>
-      <c r="F79">
-        <v>-1.722383904638015</v>
-      </c>
-      <c r="G79">
+      <c r="H79">
         <v>0.6078740432064427</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>-0.0005529253342917931</v>
-      </c>
-      <c r="I79">
-        <v>-0.0284298343695446</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3198,28 +3198,28 @@
         <v>86</v>
       </c>
       <c r="B80">
+        <v>-0.02585670723868594</v>
+      </c>
+      <c r="C80">
         <v>-0.05373211483930689</v>
-      </c>
-      <c r="C80">
-        <v>0.05453023159793524</v>
       </c>
       <c r="D80">
         <v>0.3434236287816033</v>
       </c>
       <c r="E80">
+        <v>-0.002236360513809011</v>
+      </c>
+      <c r="F80">
+        <v>0.05453023159793524</v>
+      </c>
+      <c r="G80">
         <v>0.01119778106508876</v>
       </c>
-      <c r="F80">
-        <v>-1.721670868542639</v>
-      </c>
-      <c r="G80">
+      <c r="H80">
         <v>0.6376631181102717</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>-0.001209702544341213</v>
-      </c>
-      <c r="I80">
-        <v>-0.02585670723868594</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3227,28 +3227,28 @@
         <v>87</v>
       </c>
       <c r="B81">
+        <v>-0.02194115380110873</v>
+      </c>
+      <c r="C81">
         <v>-0.0394621950987534</v>
-      </c>
-      <c r="C81">
-        <v>0.05251771135453431</v>
       </c>
       <c r="D81">
         <v>0.3535088003697147</v>
       </c>
       <c r="E81">
+        <v>-0.006196063579999656</v>
+      </c>
+      <c r="F81">
+        <v>0.05251771135453431</v>
+      </c>
+      <c r="G81">
         <v>0.007406114398422097</v>
       </c>
-      <c r="F81">
-        <v>-1.72563057160883</v>
-      </c>
-      <c r="G81">
+      <c r="H81">
         <v>0.6586655978907512</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>-0.00414852049481867</v>
-      </c>
-      <c r="I81">
-        <v>-0.02194115380110873</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3256,28 +3256,28 @@
         <v>88</v>
       </c>
       <c r="B82">
+        <v>-0.0225641912047374</v>
+      </c>
+      <c r="C82">
         <v>-0.02638949193653879</v>
-      </c>
-      <c r="C82">
-        <v>0.04724409003925523</v>
       </c>
       <c r="D82">
         <v>0.3679629312882158</v>
       </c>
       <c r="E82">
+        <v>-0.00390409319771442</v>
+      </c>
+      <c r="F82">
+        <v>0.04724409003925523</v>
+      </c>
+      <c r="G82">
         <v>0.005856114398422095</v>
       </c>
-      <c r="F82">
-        <v>-1.723338601226545</v>
-      </c>
-      <c r="G82">
+      <c r="H82">
         <v>0.6679055136015526</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>0.001983585975351814</v>
-      </c>
-      <c r="I82">
-        <v>-0.0225641912047374</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3285,28 +3285,28 @@
         <v>89</v>
       </c>
       <c r="B83">
+        <v>-0.01343457999500153</v>
+      </c>
+      <c r="C83">
         <v>-0.009929108542133063</v>
-      </c>
-      <c r="C83">
-        <v>0.05269633784237993</v>
       </c>
       <c r="D83">
         <v>0.3746364255952139</v>
       </c>
       <c r="E83">
+        <v>-0.003192130339688315</v>
+      </c>
+      <c r="F83">
+        <v>0.05269633784237993</v>
+      </c>
+      <c r="G83">
         <v>0.004047781065088759</v>
       </c>
-      <c r="F83">
-        <v>-1.722626638368518</v>
-      </c>
-      <c r="G83">
+      <c r="H83">
         <v>0.6797278187669997</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>-0.003352242254161248</v>
-      </c>
-      <c r="I83">
-        <v>-0.01343457999500153</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3314,28 +3314,28 @@
         <v>90</v>
       </c>
       <c r="B84">
+        <v>-0.008704903819212184</v>
+      </c>
+      <c r="C84">
         <v>-0.003248956333303292</v>
-      </c>
-      <c r="C84">
-        <v>0.06255657627092059</v>
       </c>
       <c r="D84">
         <v>0.3908162857800375</v>
       </c>
       <c r="E84">
+        <v>-0.004396322868455449</v>
+      </c>
+      <c r="F84">
+        <v>0.06255657627092059</v>
+      </c>
+      <c r="G84">
         <v>0.003164447731755426</v>
       </c>
-      <c r="F84">
-        <v>-1.723830830897286</v>
-      </c>
-      <c r="G84">
+      <c r="H84">
         <v>0.661613987136791</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>-0.002974578938602918</v>
-      </c>
-      <c r="I84">
-        <v>-0.008704903819212184</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3343,28 +3343,28 @@
         <v>91</v>
       </c>
       <c r="B85">
+        <v>-0.0002404135023343912</v>
+      </c>
+      <c r="C85">
         <v>-0.003097945010080566</v>
-      </c>
-      <c r="C85">
-        <v>0.08312795354731328</v>
       </c>
       <c r="D85">
         <v>0.3901094679511297</v>
       </c>
       <c r="E85">
+        <v>-0.004820702371529506</v>
+      </c>
+      <c r="F85">
+        <v>0.08312795354731328</v>
+      </c>
+      <c r="G85">
         <v>0.003314447731755427</v>
       </c>
-      <c r="F85">
-        <v>-1.72425521040036</v>
-      </c>
-      <c r="G85">
+      <c r="H85">
         <v>0.675782003108905</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>-0.006018793835489917</v>
-      </c>
-      <c r="I85">
-        <v>-0.0002404135023343912</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3372,28 +3372,28 @@
         <v>92</v>
       </c>
       <c r="B86">
+        <v>-0.00279309933218963</v>
+      </c>
+      <c r="C86">
         <v>-0.007058311749706905</v>
-      </c>
-      <c r="C86">
-        <v>0.120196306125397</v>
       </c>
       <c r="D86">
         <v>0.3935038992035866</v>
       </c>
       <c r="E86">
+        <v>-0.005988256489977218</v>
+      </c>
+      <c r="F86">
+        <v>0.120196306125397</v>
+      </c>
+      <c r="G86">
         <v>0.002639447731755425</v>
       </c>
-      <c r="F86">
-        <v>-1.725422764518807</v>
-      </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.6570318717620456</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>-0.004205054820925419</v>
-      </c>
-      <c r="I86">
-        <v>-0.00279309933218963</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3401,28 +3401,28 @@
         <v>93</v>
       </c>
       <c r="B87">
+        <v>-0.003820142784805469</v>
+      </c>
+      <c r="C87">
         <v>-0.0009897828078230739</v>
-      </c>
-      <c r="C87">
-        <v>0.1715293140777536</v>
       </c>
       <c r="D87">
         <v>0.4012768005482457</v>
       </c>
       <c r="E87">
+        <v>-0.008260585948897415</v>
+      </c>
+      <c r="F87">
+        <v>0.1715293140777536</v>
+      </c>
+      <c r="G87">
         <v>0.0007477810650887602</v>
       </c>
-      <c r="F87">
-        <v>-1.727695093977728</v>
-      </c>
-      <c r="G87">
+      <c r="H87">
         <v>0.6288788222960804</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>-0.00690430898355659</v>
-      </c>
-      <c r="I87">
-        <v>-0.003820142784805469</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3430,28 +3430,28 @@
         <v>94</v>
       </c>
       <c r="B88">
+        <v>-0.00075648064170597</v>
+      </c>
+      <c r="C88">
         <v>0.001095073612582022</v>
-      </c>
-      <c r="C88">
-        <v>0.1837329965424921</v>
       </c>
       <c r="D88">
         <v>0.4156229348398579</v>
       </c>
       <c r="E88">
+        <v>-0.007523016277528683</v>
+      </c>
+      <c r="F88">
+        <v>0.1837329965424921</v>
+      </c>
+      <c r="G88">
         <v>-0.0007938856015779067</v>
       </c>
-      <c r="F88">
-        <v>-1.726957524306359</v>
-      </c>
-      <c r="G88">
+      <c r="H88">
         <v>0.6112706429317596</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>-0.006026685881876987</v>
-      </c>
-      <c r="I88">
-        <v>-0.00075648064170597</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3459,28 +3459,28 @@
         <v>95</v>
       </c>
       <c r="B89">
+        <v>0.003618241583406068</v>
+      </c>
+      <c r="C89">
         <v>-0.005140932857569287</v>
-      </c>
-      <c r="C89">
-        <v>0.1790487519788515</v>
       </c>
       <c r="D89">
         <v>0.419025460172449</v>
       </c>
       <c r="E89">
+        <v>-0.004938088753307557</v>
+      </c>
+      <c r="F89">
+        <v>0.1790487519788515</v>
+      </c>
+      <c r="G89">
         <v>-0.001218885601577908</v>
       </c>
-      <c r="F89">
-        <v>-1.724372596782138</v>
-      </c>
-      <c r="G89">
+      <c r="H89">
         <v>0.6183962654673607</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>-0.001802491195862338</v>
-      </c>
-      <c r="I89">
-        <v>0.003618241583406068</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3488,28 +3488,28 @@
         <v>96</v>
       </c>
       <c r="B90">
+        <v>0.01319091183926169</v>
+      </c>
+      <c r="C90">
         <v>0.02768176257424626</v>
-      </c>
-      <c r="C90">
-        <v>0.1729030366994415</v>
       </c>
       <c r="D90">
         <v>0.4159824783121744</v>
       </c>
       <c r="E90">
+        <v>-0.004977821133051197</v>
+      </c>
+      <c r="F90">
+        <v>0.1729030366994415</v>
+      </c>
+      <c r="G90">
         <v>-0.0007605522682445753</v>
       </c>
-      <c r="F90">
-        <v>-1.724412329161881</v>
-      </c>
-      <c r="G90">
+      <c r="H90">
         <v>0.5871559625278868</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>-0.004196504169096166</v>
-      </c>
-      <c r="I90">
-        <v>0.01319091183926169</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3517,28 +3517,28 @@
         <v>97</v>
       </c>
       <c r="B91">
+        <v>0.01560452042759808</v>
+      </c>
+      <c r="C91">
         <v>0.02502141046073959</v>
-      </c>
-      <c r="C91">
-        <v>0.174425415361851</v>
       </c>
       <c r="D91">
         <v>0.4266787213677925</v>
       </c>
       <c r="E91">
+        <v>-0.00538329060394468</v>
+      </c>
+      <c r="F91">
+        <v>0.174425415361851</v>
+      </c>
+      <c r="G91">
         <v>-0.0004605522682445753</v>
       </c>
-      <c r="F91">
-        <v>-1.724817798632775</v>
-      </c>
-      <c r="G91">
+      <c r="H91">
         <v>0.6080432628880219</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>-0.003927817751569635</v>
-      </c>
-      <c r="I91">
-        <v>0.01560452042759808</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3546,28 +3546,28 @@
         <v>98</v>
       </c>
       <c r="B92">
+        <v>0.02016390109234267</v>
+      </c>
+      <c r="C92">
         <v>0.01999320091686407</v>
-      </c>
-      <c r="C92">
-        <v>0.1688138413122742</v>
       </c>
       <c r="D92">
         <v>0.4351688573967296</v>
       </c>
       <c r="E92">
+        <v>-0.004325738401895396</v>
+      </c>
+      <c r="F92">
+        <v>0.1688138413122742</v>
+      </c>
+      <c r="G92">
         <v>0.0005061143984220941</v>
       </c>
-      <c r="F92">
-        <v>-1.723760246430726</v>
-      </c>
-      <c r="G92">
+      <c r="H92">
         <v>0.6370613830037293</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>-0.0004645088376387611</v>
-      </c>
-      <c r="I92">
-        <v>0.02016390109234267</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3575,28 +3575,28 @@
         <v>99</v>
       </c>
       <c r="B93">
+        <v>0.03008207804424945</v>
+      </c>
+      <c r="C93">
         <v>0.03824310520003464</v>
-      </c>
-      <c r="C93">
-        <v>0.1713357627716627</v>
       </c>
       <c r="D93">
         <v>0.4351481139695847</v>
       </c>
       <c r="E93">
+        <v>-0.001127339246581449</v>
+      </c>
+      <c r="F93">
+        <v>0.1713357627716627</v>
+      </c>
+      <c r="G93">
         <v>5.61143984220934e-05</v>
       </c>
-      <c r="F93">
-        <v>-1.720561847275412</v>
-      </c>
-      <c r="G93">
+      <c r="H93">
         <v>0.6323954814701951</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>-0.005201685556723007</v>
-      </c>
-      <c r="I93">
-        <v>0.03008207804424945</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3604,28 +3604,28 @@
         <v>100</v>
       </c>
       <c r="B94">
+        <v>0.03512859223207254</v>
+      </c>
+      <c r="C94">
         <v>0.02215040084529848</v>
-      </c>
-      <c r="C94">
-        <v>0.1467374234559404</v>
       </c>
       <c r="D94">
         <v>0.4489426434642043</v>
       </c>
       <c r="E94">
+        <v>-0.006949438067446046</v>
+      </c>
+      <c r="F94">
+        <v>0.1467374234559404</v>
+      </c>
+      <c r="G94">
         <v>-0.000293885601577908</v>
       </c>
-      <c r="F94">
-        <v>-1.726383946096276</v>
-      </c>
-      <c r="G94">
+      <c r="H94">
         <v>0.6371847233414574</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>-0.001123223123000778</v>
-      </c>
-      <c r="I94">
-        <v>0.03512859223207254</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3633,28 +3633,28 @@
         <v>101</v>
       </c>
       <c r="B95">
+        <v>0.04054399020347255</v>
+      </c>
+      <c r="C95">
         <v>0.05048720587113553</v>
-      </c>
-      <c r="C95">
-        <v>0.152186602461124</v>
       </c>
       <c r="D95">
         <v>0.4537815398790022</v>
       </c>
       <c r="E95">
+        <v>-0.000562234901512049</v>
+      </c>
+      <c r="F95">
+        <v>0.152186602461124</v>
+      </c>
+      <c r="G95">
         <v>0.00092278106508876</v>
       </c>
-      <c r="F95">
-        <v>-1.719996742930342</v>
-      </c>
-      <c r="G95">
+      <c r="H95">
         <v>0.6592387298908395</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>-0.001004692110399269</v>
-      </c>
-      <c r="I95">
-        <v>0.04054399020347255</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3662,28 +3662,28 @@
         <v>102</v>
       </c>
       <c r="B96">
+        <v>0.04432232015984638</v>
+      </c>
+      <c r="C96">
         <v>0.04690028886266125</v>
-      </c>
-      <c r="C96">
-        <v>0.1503366212688588</v>
       </c>
       <c r="D96">
         <v>0.459639671187801</v>
       </c>
       <c r="E96">
+        <v>-0.003135520845202045</v>
+      </c>
+      <c r="F96">
+        <v>0.1503366212688588</v>
+      </c>
+      <c r="G96">
         <v>0.002922781065088762</v>
       </c>
-      <c r="F96">
-        <v>-1.722570028874032</v>
-      </c>
-      <c r="G96">
+      <c r="H96">
         <v>0.6619490813341491</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.0009827971327531267</v>
-      </c>
-      <c r="I96">
-        <v>0.04432232015984638</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3691,28 +3691,28 @@
         <v>103</v>
       </c>
       <c r="B97">
+        <v>0.0513896313165958</v>
+      </c>
+      <c r="C97">
         <v>0.05190225607831815</v>
-      </c>
-      <c r="C97">
-        <v>0.156956979501599</v>
       </c>
       <c r="D97">
         <v>0.4690852294769114</v>
       </c>
       <c r="E97">
+        <v>-6.458040621167872e-05</v>
+      </c>
+      <c r="F97">
+        <v>0.156956979501599</v>
+      </c>
+      <c r="G97">
         <v>0.004714447731755425</v>
       </c>
-      <c r="F97">
-        <v>-1.719499088435042</v>
-      </c>
-      <c r="G97">
+      <c r="H97">
         <v>0.6701201984491787</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>-0.001251607107350112</v>
-      </c>
-      <c r="I97">
-        <v>0.0513896313165958</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3720,28 +3720,28 @@
         <v>104</v>
       </c>
       <c r="B98">
+        <v>0.05887792995158803</v>
+      </c>
+      <c r="C98">
         <v>0.04131732677454206</v>
-      </c>
-      <c r="C98">
-        <v>0.1476735730151315</v>
       </c>
       <c r="D98">
         <v>0.4699922153083453</v>
       </c>
       <c r="E98">
+        <v>-0.001221441002475643</v>
+      </c>
+      <c r="F98">
+        <v>0.1476735730151315</v>
+      </c>
+      <c r="G98">
         <v>0.006747781065088757</v>
       </c>
-      <c r="F98">
-        <v>-1.720655949031306</v>
-      </c>
-      <c r="G98">
+      <c r="H98">
         <v>0.6841921846474692</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0.0008254749597904117</v>
-      </c>
-      <c r="I98">
-        <v>0.05887792995158803</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3749,28 +3749,28 @@
         <v>105</v>
       </c>
       <c r="B99">
+        <v>0.05817148176857456</v>
+      </c>
+      <c r="C99">
         <v>0.04235874306439377</v>
-      </c>
-      <c r="C99">
-        <v>0.1151750751477119</v>
       </c>
       <c r="D99">
         <v>0.4725160706026936</v>
       </c>
       <c r="E99">
+        <v>-0.003711542746808483</v>
+      </c>
+      <c r="F99">
+        <v>0.1151750751477119</v>
+      </c>
+      <c r="G99">
         <v>0.006422781065088755</v>
       </c>
-      <c r="F99">
-        <v>-1.723146050775639</v>
-      </c>
-      <c r="G99">
+      <c r="H99">
         <v>0.6960564146885453</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0.001822801306255733</v>
-      </c>
-      <c r="I99">
-        <v>0.05817148176857456</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3778,28 +3778,28 @@
         <v>106</v>
       </c>
       <c r="B100">
+        <v>0.05501993788725557</v>
+      </c>
+      <c r="C100">
         <v>0.05719483669813501</v>
-      </c>
-      <c r="C100">
-        <v>0.1021737027984431</v>
       </c>
       <c r="D100">
         <v>0.479708089538029</v>
       </c>
       <c r="E100">
+        <v>-0.002072912333729604</v>
+      </c>
+      <c r="F100">
+        <v>0.1021737027984431</v>
+      </c>
+      <c r="G100">
         <v>0.005006114398422095</v>
       </c>
-      <c r="F100">
-        <v>-1.72150742036256</v>
-      </c>
-      <c r="G100">
+      <c r="H100">
         <v>0.7221160344400834</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>-0.00228959762009145</v>
-      </c>
-      <c r="I100">
-        <v>0.05501993788725557</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3807,28 +3807,28 @@
         <v>107</v>
       </c>
       <c r="B101">
+        <v>0.05266749475058496</v>
+      </c>
+      <c r="C101">
         <v>0.05983062505372369</v>
-      </c>
-      <c r="C101">
-        <v>0.07846429524888432</v>
       </c>
       <c r="D101">
         <v>0.4820656104363508</v>
       </c>
       <c r="E101">
+        <v>-0.0004795627848471432</v>
+      </c>
+      <c r="F101">
+        <v>0.07846429524888432</v>
+      </c>
+      <c r="G101">
         <v>0.004531114398422091</v>
       </c>
-      <c r="F101">
-        <v>-1.719914070813677</v>
-      </c>
-      <c r="G101">
+      <c r="H101">
         <v>0.7050702526480261</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>-0.004152223472631051</v>
-      </c>
-      <c r="I101">
-        <v>0.05266749475058496</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3836,28 +3836,28 @@
         <v>108</v>
       </c>
       <c r="B102">
+        <v>0.04942442539472358</v>
+      </c>
+      <c r="C102">
         <v>0.06658492182830136</v>
-      </c>
-      <c r="C102">
-        <v>0.08079862975393759</v>
       </c>
       <c r="D102">
         <v>0.4821430080649427</v>
       </c>
       <c r="E102">
+        <v>0.0007308106571283553</v>
+      </c>
+      <c r="F102">
+        <v>0.08079862975393759</v>
+      </c>
+      <c r="G102">
         <v>0.00479778106508876</v>
       </c>
-      <c r="F102">
-        <v>-1.718703697371702</v>
-      </c>
-      <c r="G102">
+      <c r="H102">
         <v>0.7102389595470395</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>0.001973475263865992</v>
-      </c>
-      <c r="I102">
-        <v>0.04942442539472358</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3865,28 +3865,28 @@
         <v>109</v>
       </c>
       <c r="B103">
+        <v>0.05250965322053691</v>
+      </c>
+      <c r="C103">
         <v>0.03497162075085915</v>
-      </c>
-      <c r="C103">
-        <v>0.03930154417638931</v>
       </c>
       <c r="D103">
         <v>0.4833779048306144</v>
       </c>
       <c r="E103">
+        <v>-0.001704501768796074</v>
+      </c>
+      <c r="F103">
+        <v>0.03930154417638931</v>
+      </c>
+      <c r="G103">
         <v>0.004764447731755427</v>
       </c>
-      <c r="F103">
-        <v>-1.721139009797626</v>
-      </c>
-      <c r="G103">
+      <c r="H103">
         <v>0.6907656499063144</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>0.002285359499561273</v>
-      </c>
-      <c r="I103">
-        <v>0.05250965322053691</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3894,28 +3894,28 @@
         <v>110</v>
       </c>
       <c r="B104">
+        <v>0.04718942917464464</v>
+      </c>
+      <c r="C104">
         <v>0.01624443269371075</v>
-      </c>
-      <c r="C104">
-        <v>-0.02138454624548025</v>
       </c>
       <c r="D104">
         <v>0.4851689272187993</v>
       </c>
       <c r="E104">
+        <v>-0.002770105135772106</v>
+      </c>
+      <c r="F104">
+        <v>-0.02138454624548025</v>
+      </c>
+      <c r="G104">
         <v>0.004089447731755425</v>
       </c>
-      <c r="F104">
-        <v>-1.722204613164602</v>
-      </c>
-      <c r="G104">
+      <c r="H104">
         <v>0.6946735002772408</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>-0.0003991226882816227</v>
-      </c>
-      <c r="I104">
-        <v>0.04718942917464464</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3923,28 +3923,28 @@
         <v>111</v>
       </c>
       <c r="B105">
+        <v>0.03620018277495163</v>
+      </c>
+      <c r="C105">
         <v>-0.01241102750402576</v>
-      </c>
-      <c r="C105">
-        <v>-0.08098937762466996</v>
       </c>
       <c r="D105">
         <v>0.4752702435362197</v>
       </c>
       <c r="E105">
+        <v>-0.004132338655551038</v>
+      </c>
+      <c r="F105">
+        <v>-0.08098937762466996</v>
+      </c>
+      <c r="G105">
         <v>0.002872781065088757</v>
       </c>
-      <c r="F105">
-        <v>-1.723566846684381</v>
-      </c>
-      <c r="G105">
+      <c r="H105">
         <v>0.6726907907116537</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>-0.0003915384586088925</v>
-      </c>
-      <c r="I105">
-        <v>0.03620018277495163</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3952,28 +3952,28 @@
         <v>112</v>
       </c>
       <c r="B106">
+        <v>0.02626462993225376</v>
+      </c>
+      <c r="C106">
         <v>-0.0544339048491939</v>
-      </c>
-      <c r="C106">
-        <v>-0.1446105686394317</v>
       </c>
       <c r="D106">
         <v>0.4688834038545262</v>
       </c>
       <c r="E106">
+        <v>-0.00482423859400124</v>
+      </c>
+      <c r="F106">
+        <v>-0.1446105686394317</v>
+      </c>
+      <c r="G106">
         <v>0.0004561143984220927</v>
       </c>
-      <c r="F106">
-        <v>-1.724258746622831</v>
-      </c>
-      <c r="G106">
+      <c r="H106">
         <v>0.6444434741747367</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>0.002095725939262166</v>
-      </c>
-      <c r="I106">
-        <v>0.02626462993225376</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3981,28 +3981,28 @@
         <v>113</v>
       </c>
       <c r="B107">
+        <v>0.02412983155609005</v>
+      </c>
+      <c r="C107">
         <v>-0.07657502597353988</v>
-      </c>
-      <c r="C107">
-        <v>-0.1233120589877794</v>
       </c>
       <c r="D107">
         <v>0.4755600843026522</v>
       </c>
       <c r="E107">
+        <v>-0.002000534537249432</v>
+      </c>
+      <c r="F107">
+        <v>-0.1233120589877794</v>
+      </c>
+      <c r="G107">
         <v>-0.0007022189349112414</v>
       </c>
-      <c r="F107">
-        <v>-1.72143504256608</v>
-      </c>
-      <c r="G107">
+      <c r="H107">
         <v>0.6329202270696728</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>-0.003677036365615166</v>
-      </c>
-      <c r="I107">
-        <v>0.02412983155609005</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4010,28 +4010,28 @@
         <v>114</v>
       </c>
       <c r="B108">
+        <v>0.03048878618913742</v>
+      </c>
+      <c r="C108">
         <v>-0.09375094379087112</v>
-      </c>
-      <c r="C108">
-        <v>-0.08503532086427334</v>
       </c>
       <c r="D108">
         <v>0.4774423189713297</v>
       </c>
       <c r="E108">
+        <v>-0.004292669072042255</v>
+      </c>
+      <c r="F108">
+        <v>-0.08503532086427334</v>
+      </c>
+      <c r="G108">
         <v>-0.001160552268244576</v>
       </c>
-      <c r="F108">
-        <v>-1.723727177100872</v>
-      </c>
-      <c r="G108">
+      <c r="H108">
         <v>0.6208823890700854</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>-0.001390841581055341</v>
-      </c>
-      <c r="I108">
-        <v>0.03048878618913742</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4039,28 +4039,28 @@
         <v>115</v>
       </c>
       <c r="B109">
+        <v>0.03016006073052502</v>
+      </c>
+      <c r="C109">
         <v>-0.1074436795974745</v>
-      </c>
-      <c r="C109">
-        <v>-0.06627175498264393</v>
       </c>
       <c r="D109">
         <v>0.4738011692905939</v>
       </c>
       <c r="E109">
+        <v>-0.006223544358178479</v>
+      </c>
+      <c r="F109">
+        <v>-0.06627175498264393</v>
+      </c>
+      <c r="G109">
         <v>-0.00325221893491124</v>
       </c>
-      <c r="F109">
-        <v>-1.725658052387009</v>
-      </c>
-      <c r="G109">
+      <c r="H109">
         <v>0.6127440923399146</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>-0.005889856352204121</v>
-      </c>
-      <c r="I109">
-        <v>0.03016006073052502</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4068,28 +4068,28 @@
         <v>116</v>
       </c>
       <c r="B110">
+        <v>0.02925908868833726</v>
+      </c>
+      <c r="C110">
         <v>-0.1174952821909001</v>
-      </c>
-      <c r="C110">
-        <v>-0.01862710969254344</v>
       </c>
       <c r="D110">
         <v>0.4879293469020656</v>
       </c>
       <c r="E110">
+        <v>-0.005623991795749095</v>
+      </c>
+      <c r="F110">
+        <v>-0.01862710969254344</v>
+      </c>
+      <c r="G110">
         <v>-0.004868885601577907</v>
       </c>
-      <c r="F110">
-        <v>-1.725058499824579</v>
-      </c>
-      <c r="G110">
+      <c r="H110">
         <v>0.606215293599595</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>-0.004429768912785065</v>
-      </c>
-      <c r="I110">
-        <v>0.02925908868833726</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4097,28 +4097,28 @@
         <v>117</v>
       </c>
       <c r="B111">
+        <v>0.03491439982076372</v>
+      </c>
+      <c r="C111">
         <v>-0.1205794039693008</v>
-      </c>
-      <c r="C111">
-        <v>0.01657888646059558</v>
       </c>
       <c r="D111">
         <v>0.4914303791203181</v>
       </c>
       <c r="E111">
+        <v>-0.004724350129357536</v>
+      </c>
+      <c r="F111">
+        <v>0.01657888646059558</v>
+      </c>
+      <c r="G111">
         <v>-0.005402218934911241</v>
       </c>
-      <c r="F111">
-        <v>-1.724158858158188</v>
-      </c>
-      <c r="G111">
+      <c r="H111">
         <v>0.642877226674476</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>-0.005313681120976682</v>
-      </c>
-      <c r="I111">
-        <v>0.03491439982076372</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4126,28 +4126,28 @@
         <v>118</v>
       </c>
       <c r="B112">
+        <v>0.03325074184366317</v>
+      </c>
+      <c r="C112">
         <v>-0.1361171300597162</v>
-      </c>
-      <c r="C112">
-        <v>0.01649250300004823</v>
       </c>
       <c r="D112">
         <v>0.4986487210543529</v>
       </c>
       <c r="E112">
+        <v>-0.005075113896255779</v>
+      </c>
+      <c r="F112">
+        <v>0.01649250300004823</v>
+      </c>
+      <c r="G112">
         <v>-0.006893885601577907</v>
       </c>
-      <c r="F112">
-        <v>-1.724509621925086</v>
-      </c>
-      <c r="G112">
+      <c r="H112">
         <v>0.6602834378431899</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>-0.004898784206946389</v>
-      </c>
-      <c r="I112">
-        <v>0.03325074184366317</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4155,28 +4155,28 @@
         <v>119</v>
       </c>
       <c r="B113">
+        <v>0.03543152754463197</v>
+      </c>
+      <c r="C113">
         <v>-0.1362334416691145</v>
-      </c>
-      <c r="C113">
-        <v>0.0466211435614321</v>
       </c>
       <c r="D113">
         <v>0.5071481560908828</v>
       </c>
       <c r="E113">
+        <v>-0.005419661514494212</v>
+      </c>
+      <c r="F113">
+        <v>0.0466211435614321</v>
+      </c>
+      <c r="G113">
         <v>-0.00692721893491124</v>
       </c>
-      <c r="F113">
-        <v>-1.724854169543324</v>
-      </c>
-      <c r="G113">
+      <c r="H113">
         <v>0.6870375637640613</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>-0.003476034837060432</v>
-      </c>
-      <c r="I113">
-        <v>0.03543152754463197</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4184,28 +4184,28 @@
         <v>120</v>
       </c>
       <c r="B114">
+        <v>0.04156473893310508</v>
+      </c>
+      <c r="C114">
         <v>-0.1187455380303678</v>
-      </c>
-      <c r="C114">
-        <v>0.04878888589643005</v>
       </c>
       <c r="D114">
         <v>0.5081857621501342</v>
       </c>
       <c r="E114">
+        <v>-0.003626547904875455</v>
+      </c>
+      <c r="F114">
+        <v>0.04878888589643005</v>
+      </c>
+      <c r="G114">
         <v>-0.007202218934911242</v>
       </c>
-      <c r="F114">
-        <v>-1.723061055933706</v>
-      </c>
-      <c r="G114">
+      <c r="H114">
         <v>0.6904312749023118</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>-0.001761970463668711</v>
-      </c>
-      <c r="I114">
-        <v>0.04156473893310508</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4213,28 +4213,28 @@
         <v>121</v>
       </c>
       <c r="B115">
+        <v>0.04926156333798781</v>
+      </c>
+      <c r="C115">
         <v>-0.09920220661011298</v>
-      </c>
-      <c r="C115">
-        <v>0.05796926901790567</v>
       </c>
       <c r="D115">
         <v>0.5147059911861285</v>
       </c>
       <c r="E115">
+        <v>-0.006102777411486205</v>
+      </c>
+      <c r="F115">
+        <v>0.05796926901790567</v>
+      </c>
+      <c r="G115">
         <v>-0.007185552268244574</v>
       </c>
-      <c r="F115">
-        <v>-1.725537285440316</v>
-      </c>
-      <c r="G115">
+      <c r="H115">
         <v>0.7145066733142889</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>-0.004686471916230112</v>
-      </c>
-      <c r="I115">
-        <v>0.04926156333798781</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4242,28 +4242,28 @@
         <v>122</v>
       </c>
       <c r="B116">
+        <v>0.05244573966843147</v>
+      </c>
+      <c r="C116">
         <v>-0.08377159173513621</v>
-      </c>
-      <c r="C116">
-        <v>0.08934215661946965</v>
       </c>
       <c r="D116">
         <v>0.5229315910257766</v>
       </c>
       <c r="E116">
+        <v>-0.005527204674409781</v>
+      </c>
+      <c r="F116">
+        <v>0.08934215661946965</v>
+      </c>
+      <c r="G116">
         <v>-0.007093885601577906</v>
       </c>
-      <c r="F116">
-        <v>-1.72496171270324</v>
-      </c>
-      <c r="G116">
+      <c r="H116">
         <v>0.7228388728571105</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>-0.005136023671042317</v>
-      </c>
-      <c r="I116">
-        <v>0.05244573966843147</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4271,28 +4271,28 @@
         <v>123</v>
       </c>
       <c r="B117">
+        <v>0.05920750890472837</v>
+      </c>
+      <c r="C117">
         <v>-0.06904010027180393</v>
-      </c>
-      <c r="C117">
-        <v>0.1357277710454117</v>
       </c>
       <c r="D117">
         <v>0.5289678927874188</v>
       </c>
       <c r="E117">
+        <v>-0.004363725195960367</v>
+      </c>
+      <c r="F117">
+        <v>0.1357277710454117</v>
+      </c>
+      <c r="G117">
         <v>-0.00695221893491124</v>
       </c>
-      <c r="F117">
-        <v>-1.723798233224791</v>
-      </c>
-      <c r="G117">
+      <c r="H117">
         <v>0.7610322244463887</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>-0.005171387451263826</v>
-      </c>
-      <c r="I117">
-        <v>0.05920750890472837</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4300,28 +4300,28 @@
         <v>124</v>
       </c>
       <c r="B118">
+        <v>0.0641480373975174</v>
+      </c>
+      <c r="C118">
         <v>-0.06923134970234518</v>
-      </c>
-      <c r="C118">
-        <v>0.1527750320711858</v>
       </c>
       <c r="D118">
         <v>0.5376258022544742</v>
       </c>
       <c r="E118">
+        <v>-0.003817504700844488</v>
+      </c>
+      <c r="F118">
+        <v>0.1527750320711858</v>
+      </c>
+      <c r="G118">
         <v>-0.006493885601577907</v>
       </c>
-      <c r="F118">
-        <v>-1.723252012729675</v>
-      </c>
-      <c r="G118">
+      <c r="H118">
         <v>0.7686222426123832</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>-0.004983424496079409</v>
-      </c>
-      <c r="I118">
-        <v>0.0641480373975174</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4329,28 +4329,28 @@
         <v>125</v>
       </c>
       <c r="B119">
+        <v>0.08100993785159494</v>
+      </c>
+      <c r="C119">
         <v>-0.03268077051514135</v>
-      </c>
-      <c r="C119">
-        <v>0.1837179406845664</v>
       </c>
       <c r="D119">
         <v>0.542577175097541</v>
       </c>
       <c r="E119">
+        <v>-0.006230997850250908</v>
+      </c>
+      <c r="F119">
+        <v>0.1837179406845664</v>
+      </c>
+      <c r="G119">
         <v>-0.004635552268244574</v>
       </c>
-      <c r="F119">
-        <v>-1.725665505879081</v>
-      </c>
-      <c r="G119">
+      <c r="H119">
         <v>0.78632114399554</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>-0.00476890277658098</v>
-      </c>
-      <c r="I119">
-        <v>0.08100993785159494</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4358,28 +4358,28 @@
         <v>126</v>
       </c>
       <c r="B120">
+        <v>0.08523006246669818</v>
+      </c>
+      <c r="C120">
         <v>-0.02246242845945984</v>
-      </c>
-      <c r="C120">
-        <v>0.1704641849324533</v>
       </c>
       <c r="D120">
         <v>0.5470313137882221</v>
       </c>
       <c r="E120">
+        <v>-0.005082122022177582</v>
+      </c>
+      <c r="F120">
+        <v>0.1704641849324533</v>
+      </c>
+      <c r="G120">
         <v>-0.003410552268244575</v>
       </c>
-      <c r="F120">
-        <v>-1.724516630051008</v>
-      </c>
-      <c r="G120">
+      <c r="H120">
         <v>0.8021611241048152</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>-0.001277019882313596</v>
-      </c>
-      <c r="I120">
-        <v>0.08523006246669818</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4387,28 +4387,28 @@
         <v>127</v>
       </c>
       <c r="B121">
+        <v>0.09263054126617654</v>
+      </c>
+      <c r="C121">
         <v>-0.01232774556495604</v>
-      </c>
-      <c r="C121">
-        <v>0.1547842792926879</v>
       </c>
       <c r="D121">
         <v>0.5541865726983382</v>
       </c>
       <c r="E121">
+        <v>-0.00337232742189294</v>
+      </c>
+      <c r="F121">
+        <v>0.1547842792926879</v>
+      </c>
+      <c r="G121">
         <v>-0.001402218934911241</v>
       </c>
-      <c r="F121">
-        <v>-1.722806835450723</v>
-      </c>
-      <c r="G121">
+      <c r="H121">
         <v>0.8426403317144588</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>-0.005498927529911818</v>
-      </c>
-      <c r="I121">
-        <v>0.09263054126617654</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4416,28 +4416,28 @@
         <v>128</v>
       </c>
       <c r="B122">
+        <v>0.09556896489175015</v>
+      </c>
+      <c r="C122">
         <v>-0.0171246034437084</v>
-      </c>
-      <c r="C122">
-        <v>0.1307506724235603</v>
       </c>
       <c r="D122">
         <v>0.5543549879496035</v>
       </c>
       <c r="E122">
+        <v>-0.005168181570657094</v>
+      </c>
+      <c r="F122">
+        <v>0.1307506724235603</v>
+      </c>
+      <c r="G122">
         <v>-0.0002605522682445731</v>
       </c>
-      <c r="F122">
-        <v>-1.724602689599487</v>
-      </c>
-      <c r="G122">
+      <c r="H122">
         <v>0.8812310725164467</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>-0.004362455624508372</v>
-      </c>
-      <c r="I122">
-        <v>0.09556896489175015</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4445,28 +4445,28 @@
         <v>129</v>
       </c>
       <c r="B123">
+        <v>0.08608601774150815</v>
+      </c>
+      <c r="C123">
         <v>-0.0192355102310899</v>
-      </c>
-      <c r="C123">
-        <v>0.09623951711295753</v>
       </c>
       <c r="D123">
         <v>0.5604988775394633</v>
       </c>
       <c r="E123">
+        <v>-0.00491760315781783</v>
+      </c>
+      <c r="F123">
+        <v>0.09623951711295753</v>
+      </c>
+      <c r="G123">
         <v>-0.0006105522682445744</v>
       </c>
-      <c r="F123">
-        <v>-1.724352111186648</v>
-      </c>
-      <c r="G123">
+      <c r="H123">
         <v>0.8861650047210405</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>-0.005491412836018001</v>
-      </c>
-      <c r="I123">
-        <v>0.08608601774150815</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4474,28 +4474,28 @@
         <v>130</v>
       </c>
       <c r="B124">
+        <v>0.08657869353772174</v>
+      </c>
+      <c r="C124">
         <v>-0.003679654805896711</v>
-      </c>
-      <c r="C124">
-        <v>0.1243916664122073</v>
       </c>
       <c r="D124">
         <v>0.5666076899195822</v>
       </c>
       <c r="E124">
+        <v>-0.002675137956862439</v>
+      </c>
+      <c r="F124">
+        <v>0.1243916664122073</v>
+      </c>
+      <c r="G124">
         <v>-0.001185552268244574</v>
       </c>
-      <c r="F124">
-        <v>-1.722109645985693</v>
-      </c>
-      <c r="G124">
+      <c r="H124">
         <v>0.8903006757395477</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>-0.006051513338180265</v>
-      </c>
-      <c r="I124">
-        <v>0.08657869353772174</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4503,28 +4503,28 @@
         <v>131</v>
       </c>
       <c r="B125">
+        <v>0.08732402466158096</v>
+      </c>
+      <c r="C125">
         <v>0.006766406246987662</v>
-      </c>
-      <c r="C125">
-        <v>0.1440280347395282</v>
       </c>
       <c r="D125">
         <v>0.5706754185864993</v>
       </c>
       <c r="E125">
+        <v>-0.003879135640677401</v>
+      </c>
+      <c r="F125">
+        <v>0.1440280347395282</v>
+      </c>
+      <c r="G125">
         <v>-0.001452218934911239</v>
       </c>
-      <c r="F125">
-        <v>-1.723313643669508</v>
-      </c>
-      <c r="G125">
+      <c r="H125">
         <v>0.9075602190434973</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>-0.007058183211618158</v>
-      </c>
-      <c r="I125">
-        <v>0.08732402466158096</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4532,28 +4532,28 @@
         <v>132</v>
       </c>
       <c r="B126">
+        <v>0.07854421184211535</v>
+      </c>
+      <c r="C126">
         <v>0.008591475406404939</v>
-      </c>
-      <c r="C126">
-        <v>0.1678346697061146</v>
       </c>
       <c r="D126">
         <v>0.577334845339001</v>
       </c>
       <c r="E126">
+        <v>-0.003652452869201983</v>
+      </c>
+      <c r="F126">
+        <v>0.1678346697061146</v>
+      </c>
+      <c r="G126">
         <v>-0.002277218934911241</v>
       </c>
-      <c r="F126">
-        <v>-1.723086960898032</v>
-      </c>
-      <c r="G126">
+      <c r="H126">
         <v>0.9298160746827024</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>-0.005129396180564122</v>
-      </c>
-      <c r="I126">
-        <v>0.07854421184211535</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4561,28 +4561,28 @@
         <v>133</v>
       </c>
       <c r="B127">
+        <v>0.09757438296966026</v>
+      </c>
+      <c r="C127">
         <v>0.02982740539037931</v>
-      </c>
-      <c r="C127">
-        <v>0.2067545453150226</v>
       </c>
       <c r="D127">
         <v>0.5856412066066614</v>
       </c>
       <c r="E127">
+        <v>-0.001483358542118641</v>
+      </c>
+      <c r="F127">
+        <v>0.2067545453150226</v>
+      </c>
+      <c r="G127">
         <v>-0.002052218934911242</v>
       </c>
-      <c r="F127">
-        <v>-1.720917866570949</v>
-      </c>
-      <c r="G127">
+      <c r="H127">
         <v>0.9556239536034443</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>-0.00566838263779706</v>
-      </c>
-      <c r="I127">
-        <v>0.09757438296966026</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4590,28 +4590,28 @@
         <v>134</v>
       </c>
       <c r="B128">
+        <v>0.1043952876797776</v>
+      </c>
+      <c r="C128">
         <v>0.04355242481044631</v>
-      </c>
-      <c r="C128">
-        <v>0.2010630045424744</v>
       </c>
       <c r="D128">
         <v>0.589158573171523</v>
       </c>
       <c r="E128">
+        <v>-0.00267997084873225</v>
+      </c>
+      <c r="F128">
+        <v>0.2010630045424744</v>
+      </c>
+      <c r="G128">
         <v>-0.001860552268244574</v>
       </c>
-      <c r="F128">
-        <v>-1.722114478877562</v>
-      </c>
-      <c r="G128">
+      <c r="H128">
         <v>0.9855307941419733</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>-0.005270766158521895</v>
-      </c>
-      <c r="I128">
-        <v>0.1043952876797776</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4619,28 +4619,28 @@
         <v>135</v>
       </c>
       <c r="B129">
+        <v>0.1076383728693378</v>
+      </c>
+      <c r="C129">
         <v>0.05861897877632925</v>
-      </c>
-      <c r="C129">
-        <v>0.1878791380889986</v>
       </c>
       <c r="D129">
         <v>0.5944237165826012</v>
       </c>
       <c r="E129">
+        <v>-0.002206536502926315</v>
+      </c>
+      <c r="F129">
+        <v>0.1878791380889986</v>
+      </c>
+      <c r="G129">
         <v>-0.002160552268244574</v>
       </c>
-      <c r="F129">
-        <v>-1.721641044531756</v>
-      </c>
-      <c r="G129">
+      <c r="H129">
         <v>1.009063205978593</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>-0.004331186688213024</v>
-      </c>
-      <c r="I129">
-        <v>0.1076383728693378</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4648,28 +4648,28 @@
         <v>136</v>
       </c>
       <c r="B130">
+        <v>0.110588138763438</v>
+      </c>
+      <c r="C130">
         <v>0.05144682643732247</v>
-      </c>
-      <c r="C130">
-        <v>0.1866313647910518</v>
       </c>
       <c r="D130">
         <v>0.6005316944554524</v>
       </c>
       <c r="E130">
+        <v>-0.001205539561301617</v>
+      </c>
+      <c r="F130">
+        <v>0.1866313647910518</v>
+      </c>
+      <c r="G130">
         <v>-0.001952218934911241</v>
       </c>
-      <c r="F130">
-        <v>-1.720640047590132</v>
-      </c>
-      <c r="G130">
+      <c r="H130">
         <v>1.029498467387875</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>-0.003119706572793085</v>
-      </c>
-      <c r="I130">
-        <v>0.110588138763438</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4677,28 +4677,28 @@
         <v>137</v>
       </c>
       <c r="B131">
+        <v>0.1176141933419603</v>
+      </c>
+      <c r="C131">
         <v>0.07641229783143641</v>
-      </c>
-      <c r="C131">
-        <v>0.196912930941715</v>
       </c>
       <c r="D131">
         <v>0.60300093635355</v>
       </c>
       <c r="E131">
+        <v>-0.003181574529723974</v>
+      </c>
+      <c r="F131">
+        <v>0.196912930941715</v>
+      </c>
+      <c r="G131">
         <v>-0.001985552268244574</v>
       </c>
-      <c r="F131">
-        <v>-1.722616082558554</v>
-      </c>
-      <c r="G131">
+      <c r="H131">
         <v>1.051796933275437</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>-0.005501153310185686</v>
-      </c>
-      <c r="I131">
-        <v>0.1176141933419603</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4706,28 +4706,28 @@
         <v>138</v>
       </c>
       <c r="B132">
+        <v>0.1187777629894455</v>
+      </c>
+      <c r="C132">
         <v>0.08196234085403319</v>
-      </c>
-      <c r="C132">
-        <v>0.198926463373863</v>
       </c>
       <c r="D132">
         <v>0.6166647128141229</v>
       </c>
       <c r="E132">
+        <v>-0.000854306501576552</v>
+      </c>
+      <c r="F132">
+        <v>0.198926463373863</v>
+      </c>
+      <c r="G132">
         <v>-0.001985552268244574</v>
       </c>
-      <c r="F132">
-        <v>-1.720288814530407</v>
-      </c>
-      <c r="G132">
+      <c r="H132">
         <v>1.0991005444677</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>-0.006373796920946135</v>
-      </c>
-      <c r="I132">
-        <v>0.1187777629894455</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4735,28 +4735,28 @@
         <v>139</v>
       </c>
       <c r="B133">
+        <v>0.1293656147375981</v>
+      </c>
+      <c r="C133">
         <v>0.07926812375080952</v>
-      </c>
-      <c r="C133">
-        <v>0.2060920555698784</v>
       </c>
       <c r="D133">
         <v>0.6241644257863403</v>
       </c>
       <c r="E133">
+        <v>0.000876013777387474</v>
+      </c>
+      <c r="F133">
+        <v>0.2060920555698784</v>
+      </c>
+      <c r="G133">
         <v>-0.00187721893491124</v>
       </c>
-      <c r="F133">
-        <v>-1.718558494251443</v>
-      </c>
-      <c r="G133">
+      <c r="H133">
         <v>1.104494333891809</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>-0.00659122006270701</v>
-      </c>
-      <c r="I133">
-        <v>0.1293656147375981</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4764,28 +4764,28 @@
         <v>140</v>
       </c>
       <c r="B134">
+        <v>0.1287406375629856</v>
+      </c>
+      <c r="C134">
         <v>0.09415452079871779</v>
-      </c>
-      <c r="C134">
-        <v>0.2244598967089066</v>
       </c>
       <c r="D134">
         <v>0.6328953759307732</v>
       </c>
       <c r="E134">
+        <v>-0.001604470963869698</v>
+      </c>
+      <c r="F134">
+        <v>0.2244598967089066</v>
+      </c>
+      <c r="G134">
         <v>-0.001968885601577906</v>
       </c>
-      <c r="F134">
-        <v>-1.7210389789927</v>
-      </c>
-      <c r="G134">
+      <c r="H134">
         <v>1.13533227628317</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>-0.008036713333206486</v>
-      </c>
-      <c r="I134">
-        <v>0.1287406375629856</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4793,28 +4793,28 @@
         <v>141</v>
       </c>
       <c r="B135">
+        <v>0.1246373861195886</v>
+      </c>
+      <c r="C135">
         <v>0.1057330355899271</v>
-      </c>
-      <c r="C135">
-        <v>0.2492188163164251</v>
       </c>
       <c r="D135">
         <v>0.6461480242705795</v>
       </c>
       <c r="E135">
+        <v>-0.001696834817742044</v>
+      </c>
+      <c r="F135">
+        <v>0.2492188163164251</v>
+      </c>
+      <c r="G135">
         <v>-0.002160552268244574</v>
       </c>
-      <c r="F135">
-        <v>-1.721131342846572</v>
-      </c>
-      <c r="G135">
+      <c r="H135">
         <v>1.163224539868831</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>-0.008775651513184763</v>
-      </c>
-      <c r="I135">
-        <v>0.1246373861195886</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4822,28 +4822,28 @@
         <v>142</v>
       </c>
       <c r="B136">
+        <v>0.1259117710650677</v>
+      </c>
+      <c r="C136">
         <v>0.1276889591995423</v>
-      </c>
-      <c r="C136">
-        <v>0.2731674337414134</v>
       </c>
       <c r="D136">
         <v>0.6553362816279833</v>
       </c>
       <c r="E136">
+        <v>-0.002552266948026983</v>
+      </c>
+      <c r="F136">
+        <v>0.2731674337414134</v>
+      </c>
+      <c r="G136">
         <v>-0.002543885601577908</v>
       </c>
-      <c r="F136">
-        <v>-1.721986774976857</v>
-      </c>
-      <c r="G136">
+      <c r="H136">
         <v>1.169952014680766</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>-0.00627419593117034</v>
-      </c>
-      <c r="I136">
-        <v>0.1259117710650677</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4851,28 +4851,28 @@
         <v>143</v>
       </c>
       <c r="B137">
+        <v>0.1307586237232825</v>
+      </c>
+      <c r="C137">
         <v>0.1481929936689827</v>
-      </c>
-      <c r="C137">
-        <v>0.2939452135923792</v>
       </c>
       <c r="D137">
         <v>0.6657410475533219</v>
       </c>
       <c r="E137">
+        <v>-0.003133277383781852</v>
+      </c>
+      <c r="F137">
+        <v>0.2939452135923792</v>
+      </c>
+      <c r="G137">
         <v>-0.003968885601577906</v>
       </c>
-      <c r="F137">
-        <v>-1.722567785412612</v>
-      </c>
-      <c r="G137">
+      <c r="H137">
         <v>1.197479337507973</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>-0.008195707208688724</v>
-      </c>
-      <c r="I137">
-        <v>0.1307586237232825</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4880,28 +4880,28 @@
         <v>144</v>
       </c>
       <c r="B138">
+        <v>0.1284166003306635</v>
+      </c>
+      <c r="C138">
         <v>0.1471232789777973</v>
-      </c>
-      <c r="C138">
-        <v>0.2988874553822463</v>
       </c>
       <c r="D138">
         <v>0.6719292006423898</v>
       </c>
       <c r="E138">
+        <v>-0.001944891800912252</v>
+      </c>
+      <c r="F138">
+        <v>0.2988874553822463</v>
+      </c>
+      <c r="G138">
         <v>-0.003585552268244573</v>
       </c>
-      <c r="F138">
-        <v>-1.721379399829742</v>
-      </c>
-      <c r="G138">
+      <c r="H138">
         <v>1.211509075153582</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>-0.005941114882622551</v>
-      </c>
-      <c r="I138">
-        <v>0.1284166003306635</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4909,28 +4909,28 @@
         <v>145</v>
       </c>
       <c r="B139">
+        <v>0.1323457417278298</v>
+      </c>
+      <c r="C139">
         <v>0.1679143726780035</v>
-      </c>
-      <c r="C139">
-        <v>0.3046151633400758</v>
       </c>
       <c r="D139">
         <v>0.6847072019219591</v>
       </c>
       <c r="E139">
+        <v>-0.001782594433591267</v>
+      </c>
+      <c r="F139">
+        <v>0.3046151633400758</v>
+      </c>
+      <c r="G139">
         <v>-0.003468885601577907</v>
       </c>
-      <c r="F139">
-        <v>-1.721217102462421</v>
-      </c>
-      <c r="G139">
+      <c r="H139">
         <v>1.238811376013807</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>-0.005220972550670716</v>
-      </c>
-      <c r="I139">
-        <v>0.1323457417278298</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4938,28 +4938,28 @@
         <v>146</v>
       </c>
       <c r="B140">
+        <v>0.1387579967968287</v>
+      </c>
+      <c r="C140">
         <v>0.1790776392738031</v>
-      </c>
-      <c r="C140">
-        <v>0.3077619019075586</v>
       </c>
       <c r="D140">
         <v>0.6921753775421702</v>
       </c>
       <c r="E140">
+        <v>-0.00137983505813829</v>
+      </c>
+      <c r="F140">
+        <v>0.3077619019075586</v>
+      </c>
+      <c r="G140">
         <v>-0.002977218934911242</v>
       </c>
-      <c r="F140">
-        <v>-1.720814343086968</v>
-      </c>
-      <c r="G140">
+      <c r="H140">
         <v>1.259620686022522</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>-0.005631291878223138</v>
-      </c>
-      <c r="I140">
-        <v>0.1387579967968287</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4967,28 +4967,28 @@
         <v>147</v>
       </c>
       <c r="B141">
+        <v>0.1400196812952381</v>
+      </c>
+      <c r="C141">
         <v>0.1962798881621568</v>
-      </c>
-      <c r="C141">
-        <v>0.3168774458323478</v>
       </c>
       <c r="D141">
         <v>0.7015020516071906</v>
       </c>
       <c r="E141">
+        <v>-0.003425842864186979</v>
+      </c>
+      <c r="F141">
+        <v>0.3168774458323478</v>
+      </c>
+      <c r="G141">
         <v>-0.001993885601577908</v>
       </c>
-      <c r="F141">
-        <v>-1.722860350893017</v>
-      </c>
-      <c r="G141">
+      <c r="H141">
         <v>1.259169926448515</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>-0.005759852037626573</v>
-      </c>
-      <c r="I141">
-        <v>0.1400196812952381</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4996,28 +4996,28 @@
         <v>148</v>
       </c>
       <c r="B142">
+        <v>0.1332923282198535</v>
+      </c>
+      <c r="C142">
         <v>0.1959478087395578</v>
-      </c>
-      <c r="C142">
-        <v>0.3131262189120134</v>
       </c>
       <c r="D142">
         <v>0.7033802204468289</v>
       </c>
       <c r="E142">
+        <v>-0.001552524261174771</v>
+      </c>
+      <c r="F142">
+        <v>0.3131262189120134</v>
+      </c>
+      <c r="G142">
         <v>-0.0008022189349112391</v>
       </c>
-      <c r="F142">
-        <v>-1.720987032290005</v>
-      </c>
-      <c r="G142">
+      <c r="H142">
         <v>1.278724184483213</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>-0.001009879611215731</v>
-      </c>
-      <c r="I142">
-        <v>0.1332923282198535</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5025,28 +5025,28 @@
         <v>149</v>
       </c>
       <c r="B143">
+        <v>0.1338667186620057</v>
+      </c>
+      <c r="C143">
         <v>0.1876205767805101</v>
-      </c>
-      <c r="C143">
-        <v>0.3009687842649074</v>
       </c>
       <c r="D143">
         <v>0.7065898577534631</v>
       </c>
       <c r="E143">
+        <v>-0.0009284337652971323</v>
+      </c>
+      <c r="F143">
+        <v>0.3009687842649074</v>
+      </c>
+      <c r="G143">
         <v>-0.0003188856015779052</v>
       </c>
-      <c r="F143">
-        <v>-1.720362941794127</v>
-      </c>
-      <c r="G143">
+      <c r="H143">
         <v>1.31004252755265</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>-0.004710482658327792</v>
-      </c>
-      <c r="I143">
-        <v>0.1338667186620057</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5054,28 +5054,28 @@
         <v>150</v>
       </c>
       <c r="B144">
+        <v>0.1285191655168663</v>
+      </c>
+      <c r="C144">
         <v>0.1845767598552662</v>
-      </c>
-      <c r="C144">
-        <v>0.2771478817461768</v>
       </c>
       <c r="D144">
         <v>0.7129975540802449</v>
       </c>
       <c r="E144">
+        <v>-0.001744254896390263</v>
+      </c>
+      <c r="F144">
+        <v>0.2771478817461768</v>
+      </c>
+      <c r="G144">
         <v>0.0004394477317554261</v>
       </c>
-      <c r="F144">
-        <v>-1.72117876292522</v>
-      </c>
-      <c r="G144">
+      <c r="H144">
         <v>1.312173864543545</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>-0.005557526826288012</v>
-      </c>
-      <c r="I144">
-        <v>0.1285191655168663</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5083,28 +5083,28 @@
         <v>151</v>
       </c>
       <c r="B145">
+        <v>0.1193885243140724</v>
+      </c>
+      <c r="C145">
         <v>0.1819864407378151</v>
-      </c>
-      <c r="C145">
-        <v>0.2750449510094084</v>
       </c>
       <c r="D145">
         <v>0.7183702916195971</v>
       </c>
       <c r="E145">
+        <v>-0.000193287099408657</v>
+      </c>
+      <c r="F145">
+        <v>0.2750449510094084</v>
+      </c>
+      <c r="G145">
         <v>0.0004394477317554261</v>
       </c>
-      <c r="F145">
-        <v>-1.719627795128239</v>
-      </c>
-      <c r="G145">
+      <c r="H145">
         <v>1.311330705169594</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>-0.005859916996109377</v>
-      </c>
-      <c r="I145">
-        <v>0.1193885243140724</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5112,28 +5112,28 @@
         <v>152</v>
       </c>
       <c r="B146">
+        <v>0.1100024443609389</v>
+      </c>
+      <c r="C146">
         <v>0.1768086575392023</v>
-      </c>
-      <c r="C146">
-        <v>0.2779365366517723</v>
       </c>
       <c r="D146">
         <v>0.7199554774350578</v>
       </c>
       <c r="E146">
+        <v>-0.002169306994968057</v>
+      </c>
+      <c r="F146">
+        <v>0.2779365366517723</v>
+      </c>
+      <c r="G146">
         <v>-0.002560552268244573</v>
       </c>
-      <c r="F146">
-        <v>-1.721603815023798</v>
-      </c>
-      <c r="G146">
+      <c r="H146">
         <v>1.297925106877761</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>-0.002838781197333213</v>
-      </c>
-      <c r="I146">
-        <v>0.1100024443609389</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5141,28 +5141,28 @@
         <v>153</v>
       </c>
       <c r="B147">
+        <v>0.1016529583631831</v>
+      </c>
+      <c r="C147">
         <v>0.1784420466156853</v>
-      </c>
-      <c r="C147">
-        <v>0.2886218064572068</v>
       </c>
       <c r="D147">
         <v>0.7194973584704365</v>
       </c>
       <c r="E147">
+        <v>-0.001561493283293103</v>
+      </c>
+      <c r="F147">
+        <v>0.2886218064572068</v>
+      </c>
+      <c r="G147">
         <v>-0.00545221893491124</v>
       </c>
-      <c r="F147">
-        <v>-1.720996001312123</v>
-      </c>
-      <c r="G147">
+      <c r="H147">
         <v>1.258501496978334</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>-0.002358087620792532</v>
-      </c>
-      <c r="I147">
-        <v>0.1016529583631831</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5170,28 +5170,28 @@
         <v>154</v>
       </c>
       <c r="B148">
+        <v>0.09372789823558669</v>
+      </c>
+      <c r="C148">
         <v>0.1642913332409436</v>
-      </c>
-      <c r="C148">
-        <v>0.2898658871025726</v>
       </c>
       <c r="D148">
         <v>0.7207084586636623</v>
       </c>
       <c r="E148">
+        <v>-0.004618317738323963</v>
+      </c>
+      <c r="F148">
+        <v>0.2898658871025726</v>
+      </c>
+      <c r="G148">
         <v>-0.006677218934911241</v>
       </c>
-      <c r="F148">
-        <v>-1.724052825767154</v>
-      </c>
-      <c r="G148">
+      <c r="H148">
         <v>1.237595882557548</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>-0.007364942888491705</v>
-      </c>
-      <c r="I148">
-        <v>0.09372789823558669</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5199,28 +5199,28 @@
         <v>155</v>
       </c>
       <c r="B149">
+        <v>0.07852270959129459</v>
+      </c>
+      <c r="C149">
         <v>0.1590682357355045</v>
-      </c>
-      <c r="C149">
-        <v>0.2771112952764403</v>
       </c>
       <c r="D149">
         <v>0.734328382939462</v>
       </c>
       <c r="E149">
+        <v>-0.003755332489080299</v>
+      </c>
+      <c r="F149">
+        <v>0.2771112952764403</v>
+      </c>
+      <c r="G149">
         <v>-0.009835552268244573</v>
       </c>
-      <c r="F149">
-        <v>-1.72318984051791</v>
-      </c>
-      <c r="G149">
+      <c r="H149">
         <v>1.198616144026924</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>-0.005418553219751538</v>
-      </c>
-      <c r="I149">
-        <v>0.07852270959129459</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5228,28 +5228,28 @@
         <v>156</v>
       </c>
       <c r="B150">
+        <v>0.07683857408689931</v>
+      </c>
+      <c r="C150">
         <v>0.1510019300402314</v>
-      </c>
-      <c r="C150">
-        <v>0.2992622841259163</v>
       </c>
       <c r="D150">
         <v>0.7352799579768932</v>
       </c>
       <c r="E150">
+        <v>-0.006062999187424889</v>
+      </c>
+      <c r="F150">
+        <v>0.2992622841259163</v>
+      </c>
+      <c r="G150">
         <v>-0.01029388560157791</v>
       </c>
-      <c r="F150">
-        <v>-1.725497507216255</v>
-      </c>
-      <c r="G150">
+      <c r="H150">
         <v>1.161893072386969</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>-0.009165526251971251</v>
-      </c>
-      <c r="I150">
-        <v>0.07683857408689931</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5257,28 +5257,28 @@
         <v>157</v>
       </c>
       <c r="B151">
+        <v>0.08025353201693264</v>
+      </c>
+      <c r="C151">
         <v>0.1342305467204045</v>
-      </c>
-      <c r="C151">
-        <v>0.3193926697275185</v>
       </c>
       <c r="D151">
         <v>0.7386350636932941</v>
       </c>
       <c r="E151">
+        <v>-0.004521254458290514</v>
+      </c>
+      <c r="F151">
+        <v>0.3193926697275185</v>
+      </c>
+      <c r="G151">
         <v>-0.01031055226824457</v>
       </c>
-      <c r="F151">
-        <v>-1.723955762487121</v>
-      </c>
-      <c r="G151">
+      <c r="H151">
         <v>1.143690496175942</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>-0.004213660375242562</v>
-      </c>
-      <c r="I151">
-        <v>0.08025353201693264</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5286,28 +5286,28 @@
         <v>158</v>
       </c>
       <c r="B152">
+        <v>0.07401299671708106</v>
+      </c>
+      <c r="C152">
         <v>0.1309790970245285</v>
-      </c>
-      <c r="C152">
-        <v>0.3212271626620407</v>
       </c>
       <c r="D152">
         <v>0.7411716413513032</v>
       </c>
       <c r="E152">
+        <v>-0.002122748097590133</v>
+      </c>
+      <c r="F152">
+        <v>0.3212271626620407</v>
+      </c>
+      <c r="G152">
         <v>-0.01049388560157791</v>
       </c>
-      <c r="F152">
-        <v>-1.72155725612642</v>
-      </c>
-      <c r="G152">
+      <c r="H152">
         <v>1.135687846817869</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>-0.006852505560648809</v>
-      </c>
-      <c r="I152">
-        <v>0.07401299671708106</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5315,28 +5315,28 @@
         <v>159</v>
       </c>
       <c r="B153">
+        <v>0.06862455452951233</v>
+      </c>
+      <c r="C153">
         <v>0.1223365840815287</v>
-      </c>
-      <c r="C153">
-        <v>0.333903755172023</v>
       </c>
       <c r="D153">
         <v>0.7415895514939574</v>
       </c>
       <c r="E153">
+        <v>-0.0022055062083571</v>
+      </c>
+      <c r="F153">
+        <v>0.333903755172023</v>
+      </c>
+      <c r="G153">
         <v>-0.01126888560157791</v>
       </c>
-      <c r="F153">
-        <v>-1.721640014237187</v>
-      </c>
-      <c r="G153">
+      <c r="H153">
         <v>1.11987188053453</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>-0.005254054856794583</v>
-      </c>
-      <c r="I153">
-        <v>0.06862455452951233</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5344,28 +5344,28 @@
         <v>160</v>
       </c>
       <c r="B154">
+        <v>0.05928840320488549</v>
+      </c>
+      <c r="C154">
         <v>0.1122800809626051</v>
-      </c>
-      <c r="C154">
-        <v>0.3367269448637549</v>
       </c>
       <c r="D154">
         <v>0.7395735907030319</v>
       </c>
       <c r="E154">
+        <v>-0.004468280601466723</v>
+      </c>
+      <c r="F154">
+        <v>0.3367269448637549</v>
+      </c>
+      <c r="G154">
         <v>-0.01171055226824457</v>
       </c>
-      <c r="F154">
-        <v>-1.723902788630297</v>
-      </c>
-      <c r="G154">
+      <c r="H154">
         <v>1.106069931323661</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>-0.004276160394020729</v>
-      </c>
-      <c r="I154">
-        <v>0.05928840320488549</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5373,28 +5373,28 @@
         <v>161</v>
       </c>
       <c r="B155">
+        <v>0.04995310996550284</v>
+      </c>
+      <c r="C155">
         <v>0.117356566949991</v>
-      </c>
-      <c r="C155">
-        <v>0.3586008692660414</v>
       </c>
       <c r="D155">
         <v>0.7454678635575203</v>
       </c>
       <c r="E155">
+        <v>-0.006903083505307517</v>
+      </c>
+      <c r="F155">
+        <v>0.3586008692660414</v>
+      </c>
+      <c r="G155">
         <v>-0.01200221893491124</v>
       </c>
-      <c r="F155">
-        <v>-1.726337591534138</v>
-      </c>
-      <c r="G155">
+      <c r="H155">
         <v>1.128503834364474</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>-0.00818154006896959</v>
-      </c>
-      <c r="I155">
-        <v>0.04995310996550284</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5402,28 +5402,28 @@
         <v>162</v>
       </c>
       <c r="B156">
+        <v>0.04873393202940512</v>
+      </c>
+      <c r="C156">
         <v>0.1271179770616426</v>
-      </c>
-      <c r="C156">
-        <v>0.4053644395173572</v>
       </c>
       <c r="D156">
         <v>0.7563130558461166</v>
       </c>
       <c r="E156">
+        <v>-0.005407663136674923</v>
+      </c>
+      <c r="F156">
+        <v>0.4053644395173572</v>
+      </c>
+      <c r="G156">
         <v>-0.01227721893491124</v>
       </c>
-      <c r="F156">
-        <v>-1.724842171165505</v>
-      </c>
-      <c r="G156">
+      <c r="H156">
         <v>1.14752685264511</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>-0.005890849755452671</v>
-      </c>
-      <c r="I156">
-        <v>0.04873393202940512</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5431,28 +5431,28 @@
         <v>163</v>
       </c>
       <c r="B157">
+        <v>0.05899824881379567</v>
+      </c>
+      <c r="C157">
         <v>0.1191448224807946</v>
-      </c>
-      <c r="C157">
-        <v>0.4272819960425407</v>
       </c>
       <c r="D157">
         <v>0.7584981829173314</v>
       </c>
       <c r="E157">
+        <v>-0.008455076427776287</v>
+      </c>
+      <c r="F157">
+        <v>0.4272819960425407</v>
+      </c>
+      <c r="G157">
         <v>-0.01231055226824457</v>
       </c>
-      <c r="F157">
-        <v>-1.727889584456606</v>
-      </c>
-      <c r="G157">
+      <c r="H157">
         <v>1.151071478328889</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>-0.006322360330883342</v>
-      </c>
-      <c r="I157">
-        <v>0.05899824881379567</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5460,28 +5460,28 @@
         <v>164</v>
       </c>
       <c r="B158">
+        <v>0.06611728538820483</v>
+      </c>
+      <c r="C158">
         <v>0.1328488056442542</v>
-      </c>
-      <c r="C158">
-        <v>0.4343666990404405</v>
       </c>
       <c r="D158">
         <v>0.7696423685174394</v>
       </c>
       <c r="E158">
+        <v>-0.006530146767138223</v>
+      </c>
+      <c r="F158">
+        <v>0.4343666990404405</v>
+      </c>
+      <c r="G158">
         <v>-0.01231055226824457</v>
       </c>
-      <c r="F158">
-        <v>-1.725964654795968</v>
-      </c>
-      <c r="G158">
+      <c r="H158">
         <v>1.15494876249174</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>-0.0002760222905520641</v>
-      </c>
-      <c r="I158">
-        <v>0.06611728538820483</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5489,28 +5489,28 @@
         <v>165</v>
       </c>
       <c r="B159">
+        <v>0.06704202201419962</v>
+      </c>
+      <c r="C159">
         <v>0.1336221946673009</v>
-      </c>
-      <c r="C159">
-        <v>0.476739198420014</v>
       </c>
       <c r="D159">
         <v>0.7741296965786435</v>
       </c>
       <c r="E159">
+        <v>-0.00463242498751012</v>
+      </c>
+      <c r="F159">
+        <v>0.476739198420014</v>
+      </c>
+      <c r="G159">
         <v>-0.01191055226824457</v>
       </c>
-      <c r="F159">
-        <v>-1.72406693301634</v>
-      </c>
-      <c r="G159">
+      <c r="H159">
         <v>1.169572678224545</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>-0.001604124114637223</v>
-      </c>
-      <c r="I159">
-        <v>0.06704202201419962</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5518,28 +5518,28 @@
         <v>166</v>
       </c>
       <c r="B160">
+        <v>0.06614568174653979</v>
+      </c>
+      <c r="C160">
         <v>0.1437742565161401</v>
-      </c>
-      <c r="C160">
-        <v>0.4815205806903498</v>
       </c>
       <c r="D160">
         <v>0.7805726657485108</v>
       </c>
       <c r="E160">
+        <v>-0.004041090414648696</v>
+      </c>
+      <c r="F160">
+        <v>0.4815205806903498</v>
+      </c>
+      <c r="G160">
         <v>-0.01088555226824457</v>
       </c>
-      <c r="F160">
-        <v>-1.723475598443479</v>
-      </c>
-      <c r="G160">
+      <c r="H160">
         <v>1.190956478977909</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>-0.003232404942724415</v>
-      </c>
-      <c r="I160">
-        <v>0.06614568174653979</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5547,28 +5547,28 @@
         <v>167</v>
       </c>
       <c r="B161">
+        <v>0.05945027615641063</v>
+      </c>
+      <c r="C161">
         <v>0.1577004118517223</v>
-      </c>
-      <c r="C161">
-        <v>0.4766425663602556</v>
       </c>
       <c r="D161">
         <v>0.7877359817232841</v>
       </c>
       <c r="E161">
+        <v>-0.005354148214849442</v>
+      </c>
+      <c r="F161">
+        <v>0.4766425663602556</v>
+      </c>
+      <c r="G161">
         <v>-0.009585552268244575</v>
       </c>
-      <c r="F161">
-        <v>-1.72478865624368</v>
-      </c>
-      <c r="G161">
+      <c r="H161">
         <v>1.207739260661905</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>-0.0001110513578819698</v>
-      </c>
-      <c r="I161">
-        <v>0.05945027615641063</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5576,28 +5576,28 @@
         <v>168</v>
       </c>
       <c r="B162">
+        <v>0.05975825470438201</v>
+      </c>
+      <c r="C162">
         <v>0.153019459827782</v>
-      </c>
-      <c r="C162">
-        <v>0.5001346380067595</v>
       </c>
       <c r="D162">
         <v>0.7917619914622445</v>
       </c>
       <c r="E162">
+        <v>-0.005388838290004994</v>
+      </c>
+      <c r="F162">
+        <v>0.5001346380067595</v>
+      </c>
+      <c r="G162">
         <v>-0.008260552268244573</v>
       </c>
-      <c r="F162">
-        <v>-1.724823346318835</v>
-      </c>
-      <c r="G162">
+      <c r="H162">
         <v>1.219590199815855</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>-0.0009605765441263407</v>
-      </c>
-      <c r="I162">
-        <v>0.05975825470438201</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5605,28 +5605,28 @@
         <v>169</v>
       </c>
       <c r="B163">
+        <v>0.05900440721736366</v>
+      </c>
+      <c r="C163">
         <v>0.1875397857687762</v>
-      </c>
-      <c r="C163">
-        <v>0.5427633697978971</v>
       </c>
       <c r="D163">
         <v>0.7992746018376042</v>
       </c>
       <c r="E163">
+        <v>-0.004176499417748747</v>
+      </c>
+      <c r="F163">
+        <v>0.5427633697978971</v>
+      </c>
+      <c r="G163">
         <v>-0.007443885601577907</v>
       </c>
-      <c r="F163">
-        <v>-1.723611007446579</v>
-      </c>
-      <c r="G163">
+      <c r="H163">
         <v>1.229275925276343</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>-0.002899851263923609</v>
-      </c>
-      <c r="I163">
-        <v>0.05900440721736366</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5634,28 +5634,28 @@
         <v>170</v>
       </c>
       <c r="B164">
+        <v>0.06405191311467417</v>
+      </c>
+      <c r="C164">
         <v>0.1903013415006559</v>
-      </c>
-      <c r="C164">
-        <v>0.5565222848921429</v>
       </c>
       <c r="D164">
         <v>0.8055769837804783</v>
       </c>
       <c r="E164">
+        <v>-0.003195944651366823</v>
+      </c>
+      <c r="F164">
+        <v>0.5565222848921429</v>
+      </c>
+      <c r="G164">
         <v>-0.006202218934911241</v>
       </c>
-      <c r="F164">
-        <v>-1.722630452680197</v>
-      </c>
-      <c r="G164">
+      <c r="H164">
         <v>1.240349451921534</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>-0.0005582460213054367</v>
-      </c>
-      <c r="I164">
-        <v>0.06405191311467417</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5663,28 +5663,28 @@
         <v>171</v>
       </c>
       <c r="B165">
+        <v>0.07122255049241621</v>
+      </c>
+      <c r="C165">
         <v>0.2121910122350699</v>
-      </c>
-      <c r="C165">
-        <v>0.5506904682059997</v>
       </c>
       <c r="D165">
         <v>0.804051301889773</v>
       </c>
       <c r="E165">
+        <v>-0.002443481601447662</v>
+      </c>
+      <c r="F165">
+        <v>0.5506904682059997</v>
+      </c>
+      <c r="G165">
         <v>-0.005035552268244575</v>
       </c>
-      <c r="F165">
-        <v>-1.721877989630278</v>
-      </c>
-      <c r="G165">
+      <c r="H165">
         <v>1.249677383569889</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>-0.001050443508258831</v>
-      </c>
-      <c r="I165">
-        <v>0.07122255049241621</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5692,28 +5692,28 @@
         <v>172</v>
       </c>
       <c r="B166">
+        <v>0.07591410437396018</v>
+      </c>
+      <c r="C166">
         <v>0.2361973013789854</v>
-      </c>
-      <c r="C166">
-        <v>0.5475484906937726</v>
       </c>
       <c r="D166">
         <v>0.8133149903238031</v>
       </c>
       <c r="E166">
+        <v>-0.001306964672540179</v>
+      </c>
+      <c r="F166">
+        <v>0.5475484906937726</v>
+      </c>
+      <c r="G166">
         <v>-0.003618885601577906</v>
       </c>
-      <c r="F166">
-        <v>-1.72074147270137</v>
-      </c>
-      <c r="G166">
+      <c r="H166">
         <v>1.279190962333257</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>-0.002041986297046933</v>
-      </c>
-      <c r="I166">
-        <v>0.07591410437396018</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5721,28 +5721,28 @@
         <v>173</v>
       </c>
       <c r="B167">
+        <v>0.08080690044971472</v>
+      </c>
+      <c r="C167">
         <v>0.2347460244555269</v>
-      </c>
-      <c r="C167">
-        <v>0.5150809905494098</v>
       </c>
       <c r="D167">
         <v>0.8167544899928441</v>
       </c>
       <c r="E167">
+        <v>-0.0002048381782798429</v>
+      </c>
+      <c r="F167">
+        <v>0.5150809905494098</v>
+      </c>
+      <c r="G167">
         <v>-0.002843885601577908</v>
       </c>
-      <c r="F167">
-        <v>-1.71963934620711</v>
-      </c>
-      <c r="G167">
+      <c r="H167">
         <v>1.287062254040712</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>-0.0008130951472625162</v>
-      </c>
-      <c r="I167">
-        <v>0.08080690044971472</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5750,28 +5750,28 @@
         <v>174</v>
       </c>
       <c r="B168">
+        <v>0.08479850105760267</v>
+      </c>
+      <c r="C168">
         <v>0.2323748714703296</v>
-      </c>
-      <c r="C168">
-        <v>0.4602742923552849</v>
       </c>
       <c r="D168">
         <v>0.8205048394085508</v>
       </c>
       <c r="E168">
+        <v>-0.001512927357647598</v>
+      </c>
+      <c r="F168">
+        <v>0.4602742923552849</v>
+      </c>
+      <c r="G168">
         <v>-0.002335552268244575</v>
       </c>
-      <c r="F168">
-        <v>-1.720947435386478</v>
-      </c>
-      <c r="G168">
+      <c r="H168">
         <v>1.307671726077469</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>-0.007044833979557958</v>
-      </c>
-      <c r="I168">
-        <v>0.08479850105760267</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5779,28 +5779,28 @@
         <v>175</v>
       </c>
       <c r="B169">
+        <v>0.08008841427209168</v>
+      </c>
+      <c r="C169">
         <v>0.2396892742192072</v>
-      </c>
-      <c r="C169">
-        <v>0.4019462373947933</v>
       </c>
       <c r="D169">
         <v>0.8277140995582468</v>
       </c>
       <c r="E169">
+        <v>-0.001607042143770688</v>
+      </c>
+      <c r="F169">
+        <v>0.4019462373947933</v>
+      </c>
+      <c r="G169">
         <v>-0.002343885601577908</v>
       </c>
-      <c r="F169">
-        <v>-1.721041550172601</v>
-      </c>
-      <c r="G169">
+      <c r="H169">
         <v>1.296591764099183</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>-0.007833256586015353</v>
-      </c>
-      <c r="I169">
-        <v>0.08008841427209168</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_20070521.xlsx
+++ b/data/data_20070521.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
+    <t>i_nom_obs</t>
+  </si>
+  <si>
+    <t>h_winf_obs</t>
+  </si>
+  <si>
+    <t>rc_obs</t>
+  </si>
+  <si>
+    <t>rri_obs</t>
+  </si>
+  <si>
+    <t>hwr_pd_obs</t>
+  </si>
+  <si>
+    <t>hp_r_obs</t>
+  </si>
+  <si>
+    <t>c_winf_obs</t>
+  </si>
+  <si>
+    <t>hwc_pd_obs</t>
+  </si>
+  <si>
     <t>rbi_obs</t>
   </si>
   <si>
-    <t>h_winf_obs</t>
-  </si>
-  <si>
-    <t>rc_obs</t>
-  </si>
-  <si>
-    <t>rri_obs</t>
-  </si>
-  <si>
     <t>pi_dm_obs</t>
-  </si>
-  <si>
-    <t>hp_r_obs</t>
-  </si>
-  <si>
-    <t>hwr_pd_obs</t>
-  </si>
-  <si>
-    <t>c_winf_obs</t>
-  </si>
-  <si>
-    <t>hwc_pd_obs</t>
-  </si>
-  <si>
-    <t>i_nom_obs</t>
   </si>
   <si>
     <t>1965Q1</t>
@@ -948,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.00487721893491124</v>
       </c>
       <c r="C2">
         <v>0.002605860244852907</v>
@@ -960,22 +960,22 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.005070171983789834</v>
+        <v>-0.05974195605997308</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.05974195605997308</v>
+        <v>-0.0009119575261320127</v>
       </c>
       <c r="I2">
-        <v>-0.0009119575261320127</v>
+        <v>-0.1378916811257551</v>
       </c>
       <c r="J2">
-        <v>-0.1378916811257551</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-0.00487721893491124</v>
+        <v>-0.005070171983789834</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.03310989323116154</v>
+        <v>-0.004918885601577907</v>
       </c>
       <c r="C3">
         <v>0.002418978770842437</v>
@@ -995,22 +995,22 @@
         <v>0.004013873191387241</v>
       </c>
       <c r="F3">
-        <v>-0.008270685490852131</v>
+        <v>-0.06118443043085142</v>
       </c>
       <c r="G3">
         <v>-0.0008603692948724317</v>
       </c>
       <c r="H3">
-        <v>-0.06118443043085142</v>
+        <v>-0.002292668405374976</v>
       </c>
       <c r="I3">
-        <v>-0.002292668405374976</v>
+        <v>-0.131823052952579</v>
       </c>
       <c r="J3">
-        <v>-0.131823052952579</v>
+        <v>0.03310989323116154</v>
       </c>
       <c r="K3">
-        <v>-0.004918885601577907</v>
+        <v>-0.008270685490852131</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1018,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.06655510364400818</v>
+        <v>-0.004935552268244573</v>
       </c>
       <c r="C4">
         <v>-0.004953476407430126</v>
@@ -1030,22 +1030,22 @@
         <v>0.004700013105478185</v>
       </c>
       <c r="F4">
-        <v>-0.005197139405548829</v>
+        <v>-0.0483510384067827</v>
       </c>
       <c r="G4">
         <v>-0.004794284675047611</v>
       </c>
       <c r="H4">
-        <v>-0.0483510384067827</v>
+        <v>-0.001108966924117627</v>
       </c>
       <c r="I4">
-        <v>-0.001108966924117627</v>
+        <v>-0.1253182811366025</v>
       </c>
       <c r="J4">
-        <v>-0.1253182811366025</v>
+        <v>0.06655510364400818</v>
       </c>
       <c r="K4">
-        <v>-0.004935552268244573</v>
+        <v>-0.005197139405548829</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1053,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1049907028122163</v>
+        <v>-0.004185552268244573</v>
       </c>
       <c r="C5">
         <v>0.002154795355425319</v>
@@ -1065,22 +1065,22 @@
         <v>-0.02088793357275698</v>
       </c>
       <c r="F5">
-        <v>-0.006457685284641241</v>
+        <v>-0.02952782989373259</v>
       </c>
       <c r="G5">
         <v>0.01742989744559598</v>
       </c>
       <c r="H5">
-        <v>-0.02952782989373259</v>
+        <v>3.82168657977796e-05</v>
       </c>
       <c r="I5">
-        <v>3.82168657977796e-05</v>
+        <v>-0.1133235973856395</v>
       </c>
       <c r="J5">
-        <v>-0.1133235973856395</v>
+        <v>0.1049907028122163</v>
       </c>
       <c r="K5">
-        <v>-0.004185552268244573</v>
+        <v>-0.006457685284641241</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1088,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1449957358715634</v>
+        <v>-0.00307721893491124</v>
       </c>
       <c r="C6">
         <v>0.0009753637171132958</v>
@@ -1100,22 +1100,22 @@
         <v>-0.0008281674284029705</v>
       </c>
       <c r="F6">
-        <v>-0.00571953761772242</v>
+        <v>-0.01405061028272684</v>
       </c>
       <c r="G6">
         <v>0.00578788114107831</v>
       </c>
       <c r="H6">
-        <v>-0.01405061028272684</v>
+        <v>-0.003798617186546028</v>
       </c>
       <c r="I6">
-        <v>-0.003798617186546028</v>
+        <v>-0.09411148718533147</v>
       </c>
       <c r="J6">
-        <v>-0.09411148718533147</v>
+        <v>0.1449957358715634</v>
       </c>
       <c r="K6">
-        <v>-0.00307721893491124</v>
+        <v>-0.00571953761772242</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1123,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.1575887865583807</v>
+        <v>-0.003135552268244574</v>
       </c>
       <c r="C7">
         <v>0.01267604276981918</v>
@@ -1135,22 +1135,22 @@
         <v>-0.08750809738398146</v>
       </c>
       <c r="F7">
-        <v>0.001315115869377997</v>
+        <v>-0.03477406579487759</v>
       </c>
       <c r="G7">
         <v>0.03583307184071305</v>
       </c>
       <c r="H7">
-        <v>-0.03477406579487759</v>
+        <v>-0.001396893417221568</v>
       </c>
       <c r="I7">
-        <v>-0.001396893417221568</v>
+        <v>-0.08267759164871169</v>
       </c>
       <c r="J7">
-        <v>-0.08267759164871169</v>
+        <v>0.1575887865583807</v>
       </c>
       <c r="K7">
-        <v>-0.003135552268244574</v>
+        <v>0.001315115869377997</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1158,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1665478619416669</v>
+        <v>-0.001993885601577908</v>
       </c>
       <c r="C8">
         <v>0.002487182602600977</v>
@@ -1170,22 +1170,22 @@
         <v>-0.1235107297039058</v>
       </c>
       <c r="F8">
-        <v>-0.00119325630990424</v>
+        <v>-0.02920719399818843</v>
       </c>
       <c r="G8">
         <v>0.0118949320184516</v>
       </c>
       <c r="H8">
-        <v>-0.02920719399818843</v>
+        <v>0.000933934705682626</v>
       </c>
       <c r="I8">
-        <v>0.000933934705682626</v>
+        <v>-0.08074456592972235</v>
       </c>
       <c r="J8">
-        <v>-0.08074456592972235</v>
+        <v>0.1665478619416669</v>
       </c>
       <c r="K8">
-        <v>-0.001993885601577908</v>
+        <v>-0.00119325630990424</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1193,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1610440935242217</v>
+        <v>-0.00157721893491124</v>
       </c>
       <c r="C9">
         <v>-0.001524267413178983</v>
@@ -1205,22 +1205,22 @@
         <v>-0.2368623890378379</v>
       </c>
       <c r="F9">
-        <v>0.002710368808246993</v>
+        <v>-0.05205733338636261</v>
       </c>
       <c r="G9">
         <v>0.02395902927803473</v>
       </c>
       <c r="H9">
-        <v>-0.05205733338636261</v>
+        <v>-0.00161108255597372</v>
       </c>
       <c r="I9">
-        <v>-0.00161108255597372</v>
+        <v>-0.07704085865848764</v>
       </c>
       <c r="J9">
-        <v>-0.07704085865848764</v>
+        <v>0.1610440935242217</v>
       </c>
       <c r="K9">
-        <v>-0.00157721893491124</v>
+        <v>0.002710368808246993</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1228,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.1364910006434288</v>
+        <v>-0.003318885601577908</v>
       </c>
       <c r="C10">
         <v>0.002175277575152488</v>
@@ -1240,22 +1240,22 @@
         <v>-0.2707498717028072</v>
       </c>
       <c r="F10">
-        <v>-0.004049847712216665</v>
+        <v>-0.05461327890611833</v>
       </c>
       <c r="G10">
         <v>0.02672099966555264</v>
       </c>
       <c r="H10">
-        <v>-0.05461327890611833</v>
+        <v>-0.001703320582030344</v>
       </c>
       <c r="I10">
-        <v>-0.001703320582030344</v>
+        <v>-0.08461389187546331</v>
       </c>
       <c r="J10">
-        <v>-0.08461389187546331</v>
+        <v>0.1364910006434288</v>
       </c>
       <c r="K10">
-        <v>-0.003318885601577908</v>
+        <v>-0.004049847712216665</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1263,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1293116317923602</v>
+        <v>-0.00545221893491124</v>
       </c>
       <c r="C11">
         <v>0.004797035904259537</v>
@@ -1275,22 +1275,22 @@
         <v>-0.1672538098798002</v>
       </c>
       <c r="F11">
-        <v>-0.003258125008858187</v>
+        <v>-0.0867731811838397</v>
       </c>
       <c r="G11">
         <v>0.01300489242766056</v>
       </c>
       <c r="H11">
-        <v>-0.0867731811838397</v>
+        <v>-0.001793812049736132</v>
       </c>
       <c r="I11">
-        <v>-0.001793812049736132</v>
+        <v>-0.09169674856798382</v>
       </c>
       <c r="J11">
-        <v>-0.09169674856798382</v>
+        <v>0.1293116317923602</v>
       </c>
       <c r="K11">
-        <v>-0.00545221893491124</v>
+        <v>-0.003258125008858187</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1298,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1192093903648743</v>
+        <v>-0.003852218934911241</v>
       </c>
       <c r="C12">
         <v>0.01276193042333909</v>
@@ -1310,22 +1310,22 @@
         <v>-0.1228567096467623</v>
       </c>
       <c r="F12">
-        <v>-0.0003183346312108318</v>
+        <v>-0.06747169285322252</v>
       </c>
       <c r="G12">
         <v>0.004192172273147055</v>
       </c>
       <c r="H12">
-        <v>-0.06747169285322252</v>
+        <v>0.002773979728247699</v>
       </c>
       <c r="I12">
-        <v>0.002773979728247699</v>
+        <v>-0.08593827052604608</v>
       </c>
       <c r="J12">
-        <v>-0.08593827052604608</v>
+        <v>0.1192093903648743</v>
       </c>
       <c r="K12">
-        <v>-0.003852218934911241</v>
+        <v>-0.0003183346312108318</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1333,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1348249358539428</v>
+        <v>-0.002718885601577908</v>
       </c>
       <c r="C13">
         <v>0.007752710991385112</v>
@@ -1345,22 +1345,22 @@
         <v>-0.07094047108654333</v>
       </c>
       <c r="F13">
-        <v>0.0002735085344833296</v>
+        <v>-0.05944139117232416</v>
       </c>
       <c r="G13">
         <v>0.01813497294993027</v>
       </c>
       <c r="H13">
-        <v>-0.05944139117232416</v>
+        <v>0.001433581093113345</v>
       </c>
       <c r="I13">
-        <v>0.001433581093113345</v>
+        <v>-0.08056348226536825</v>
       </c>
       <c r="J13">
-        <v>-0.08056348226536825</v>
+        <v>0.1348249358539428</v>
       </c>
       <c r="K13">
-        <v>-0.002718885601577908</v>
+        <v>0.0002735085344833296</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1368,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.1622721365564637</v>
+        <v>-0.001977218934911242</v>
       </c>
       <c r="C14">
         <v>0.01177044076289782</v>
@@ -1380,22 +1380,22 @@
         <v>-0.0685774226470377</v>
       </c>
       <c r="F14">
-        <v>0.001212087458664029</v>
+        <v>-0.08773183384580763</v>
       </c>
       <c r="G14">
         <v>0.03060650847171353</v>
       </c>
       <c r="H14">
-        <v>-0.08773183384580763</v>
+        <v>0.004666188307965868</v>
       </c>
       <c r="I14">
-        <v>0.004666188307965868</v>
+        <v>-0.07579937400353431</v>
       </c>
       <c r="J14">
-        <v>-0.07579937400353431</v>
+        <v>0.1622721365564637</v>
       </c>
       <c r="K14">
-        <v>-0.001977218934911242</v>
+        <v>0.001212087458664029</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1403,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1414574749173809</v>
+        <v>-0.0008022189349112408</v>
       </c>
       <c r="C15">
         <v>0.002694782094981227</v>
@@ -1415,22 +1415,22 @@
         <v>-0.04733499799507612</v>
       </c>
       <c r="F15">
-        <v>0.002120914560766301</v>
+        <v>-0.05775203815216469</v>
       </c>
       <c r="G15">
         <v>0.0268452108543803</v>
       </c>
       <c r="H15">
-        <v>-0.05775203815216469</v>
+        <v>0.003304745478403792</v>
       </c>
       <c r="I15">
-        <v>0.003304745478403792</v>
+        <v>-0.06984169806798191</v>
       </c>
       <c r="J15">
-        <v>-0.06984169806798191</v>
+        <v>0.1414574749173809</v>
       </c>
       <c r="K15">
-        <v>-0.0008022189349112408</v>
+        <v>0.002120914560766301</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1502763275464361</v>
+        <v>-0.001610552268244575</v>
       </c>
       <c r="C16">
         <v>0.005892458165409429</v>
@@ -1450,22 +1450,22 @@
         <v>-0.03332695839862421</v>
       </c>
       <c r="F16">
-        <v>-0.002154206480636184</v>
+        <v>-0.05495259024215023</v>
       </c>
       <c r="G16">
         <v>0.01986836254929158</v>
       </c>
       <c r="H16">
-        <v>-0.05495259024215023</v>
+        <v>0.003095617214575441</v>
       </c>
       <c r="I16">
-        <v>0.003095617214575441</v>
+        <v>-0.06256657287002243</v>
       </c>
       <c r="J16">
-        <v>-0.06256657287002243</v>
+        <v>0.1502763275464361</v>
       </c>
       <c r="K16">
-        <v>-0.001610552268244575</v>
+        <v>-0.002154206480636184</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1473,7 +1473,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.1748419937364174</v>
+        <v>-0.0006355522682445734</v>
       </c>
       <c r="C17">
         <v>0.009754261222060499</v>
@@ -1485,22 +1485,22 @@
         <v>-0.02571214117168363</v>
       </c>
       <c r="F17">
-        <v>0.004838491504195413</v>
+        <v>-0.04700228844775231</v>
       </c>
       <c r="G17">
         <v>0.03531270146566523</v>
       </c>
       <c r="H17">
-        <v>-0.04700228844775231</v>
+        <v>0.005052237103388235</v>
       </c>
       <c r="I17">
-        <v>0.005052237103388235</v>
+        <v>-0.05665087035422056</v>
       </c>
       <c r="J17">
-        <v>-0.05665087035422056</v>
+        <v>0.1748419937364174</v>
       </c>
       <c r="K17">
-        <v>-0.0006355522682445734</v>
+        <v>0.004838491504195413</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1508,7 +1508,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.1992396503410898</v>
+        <v>0.0006311143984220943</v>
       </c>
       <c r="C18">
         <v>0.006889816577390327</v>
@@ -1520,22 +1520,22 @@
         <v>0.005073474931147182</v>
       </c>
       <c r="F18">
-        <v>0.002209896940407801</v>
+        <v>-0.01368334572099198</v>
       </c>
       <c r="G18">
         <v>0.05956269484223586</v>
       </c>
       <c r="H18">
-        <v>-0.01368334572099198</v>
+        <v>0.003728235631388943</v>
       </c>
       <c r="I18">
-        <v>0.003728235631388943</v>
+        <v>-0.05637652233143964</v>
       </c>
       <c r="J18">
-        <v>-0.05637652233143964</v>
+        <v>0.1992396503410898</v>
       </c>
       <c r="K18">
-        <v>0.0006311143984220943</v>
+        <v>0.002209896940407801</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1543,7 +1543,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.2060268349398795</v>
+        <v>0.0008894477317554252</v>
       </c>
       <c r="C19">
         <v>0.02477375593175027</v>
@@ -1555,22 +1555,22 @@
         <v>-0.00997237933479056</v>
       </c>
       <c r="F19">
-        <v>0.002301960571042766</v>
+        <v>0.0008782995136361951</v>
       </c>
       <c r="G19">
         <v>0.06201879164613544</v>
       </c>
       <c r="H19">
-        <v>0.0008782995136361951</v>
+        <v>0.004553435077885892</v>
       </c>
       <c r="I19">
-        <v>0.004553435077885892</v>
+        <v>-0.04817425688323151</v>
       </c>
       <c r="J19">
-        <v>-0.04817425688323151</v>
+        <v>0.2060268349398795</v>
       </c>
       <c r="K19">
-        <v>0.0008894477317554252</v>
+        <v>0.002301960571042766</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1578,7 +1578,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2287613413762619</v>
+        <v>0.002956114398422091</v>
       </c>
       <c r="C20">
         <v>0.01056486623800604</v>
@@ -1590,22 +1590,22 @@
         <v>-0.02244196221151196</v>
       </c>
       <c r="F20">
-        <v>0.001212361001790402</v>
+        <v>0.008805955745319512</v>
       </c>
       <c r="G20">
         <v>0.05854825514638284</v>
       </c>
       <c r="H20">
-        <v>0.008805955745319512</v>
+        <v>0.005336553020902557</v>
       </c>
       <c r="I20">
-        <v>0.005336553020902557</v>
+        <v>-0.04984095582755232</v>
       </c>
       <c r="J20">
-        <v>-0.04984095582755232</v>
+        <v>0.2287613413762619</v>
       </c>
       <c r="K20">
-        <v>0.002956114398422091</v>
+        <v>0.001212361001790402</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1613,7 +1613,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.2179072244859377</v>
+        <v>0.003781114398422094</v>
       </c>
       <c r="C21">
         <v>0.0153484102690156</v>
@@ -1625,22 +1625,22 @@
         <v>-0.1031305656494172</v>
       </c>
       <c r="F21">
-        <v>0.001229176015870198</v>
+        <v>0.006660803999882205</v>
       </c>
       <c r="G21">
         <v>0.06179367640056654</v>
       </c>
       <c r="H21">
-        <v>0.006660803999882205</v>
+        <v>0.004052896584907073</v>
       </c>
       <c r="I21">
-        <v>0.004052896584907073</v>
+        <v>-0.05272067197434271</v>
       </c>
       <c r="J21">
-        <v>-0.05272067197434271</v>
+        <v>0.2179072244859377</v>
       </c>
       <c r="K21">
-        <v>0.003781114398422094</v>
+        <v>0.001229176015870198</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1648,7 +1648,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.2066621523856664</v>
+        <v>0.003422781065088759</v>
       </c>
       <c r="C22">
         <v>0.0124765248396839</v>
@@ -1660,22 +1660,22 @@
         <v>-0.1062295066469767</v>
       </c>
       <c r="F22">
-        <v>0.001760338322890525</v>
+        <v>-0.008026242074173257</v>
       </c>
       <c r="G22">
         <v>0.044122596306573</v>
       </c>
       <c r="H22">
-        <v>-0.008026242074173257</v>
+        <v>0.0008234008269362488</v>
       </c>
       <c r="I22">
-        <v>0.0008234008269362488</v>
+        <v>-0.06271368458419868</v>
       </c>
       <c r="J22">
-        <v>-0.06271368458419868</v>
+        <v>0.2066621523856664</v>
       </c>
       <c r="K22">
-        <v>0.003422781065088759</v>
+        <v>0.001760338322890525</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1683,7 +1683,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1959954865188545</v>
+        <v>0.002089447731755427</v>
       </c>
       <c r="C23">
         <v>0.01050324348686685</v>
@@ -1695,22 +1695,22 @@
         <v>-0.180555698025378</v>
       </c>
       <c r="F23">
-        <v>0.005418051949499464</v>
+        <v>-0.01503838981498011</v>
       </c>
       <c r="G23">
         <v>0.06302142363888896</v>
       </c>
       <c r="H23">
-        <v>-0.01503838981498011</v>
+        <v>0.002655387211994242</v>
       </c>
       <c r="I23">
-        <v>0.002655387211994242</v>
+        <v>-0.08063682978820141</v>
       </c>
       <c r="J23">
-        <v>-0.08063682978820141</v>
+        <v>0.1959954865188545</v>
       </c>
       <c r="K23">
-        <v>0.002089447731755427</v>
+        <v>0.005418051949499464</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1718,7 +1718,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1956430056836203</v>
+        <v>0.001214447731755426</v>
       </c>
       <c r="C24">
         <v>0.01770682710185926</v>
@@ -1730,22 +1730,22 @@
         <v>-0.1340557716654045</v>
       </c>
       <c r="F24">
-        <v>-0.004387538380722639</v>
+        <v>-0.04256230315297482</v>
       </c>
       <c r="G24">
         <v>0.03160966015172617</v>
       </c>
       <c r="H24">
-        <v>-0.04256230315297482</v>
+        <v>0.004409893197230652</v>
       </c>
       <c r="I24">
-        <v>0.004409893197230652</v>
+        <v>-0.08896735650875609</v>
       </c>
       <c r="J24">
-        <v>-0.08896735650875609</v>
+        <v>0.1956430056836203</v>
       </c>
       <c r="K24">
-        <v>0.001214447731755426</v>
+        <v>-0.004387538380722639</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1753,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.1514688477049448</v>
+        <v>-0.001218885601577905</v>
       </c>
       <c r="C25">
         <v>0.005359672157332827</v>
@@ -1765,22 +1765,22 @@
         <v>-0.03968072682879242</v>
       </c>
       <c r="F25">
-        <v>0.005494056321506185</v>
+        <v>-0.0398468012981018</v>
       </c>
       <c r="G25">
         <v>0.03040756937663602</v>
       </c>
       <c r="H25">
-        <v>-0.0398468012981018</v>
+        <v>0.00225238077858717</v>
       </c>
       <c r="I25">
-        <v>0.00225238077858717</v>
+        <v>-0.108639468805781</v>
       </c>
       <c r="J25">
-        <v>-0.108639468805781</v>
+        <v>0.1514688477049448</v>
       </c>
       <c r="K25">
-        <v>-0.001218885601577905</v>
+        <v>0.005494056321506185</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1788,7 +1788,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.1553214443867903</v>
+        <v>-0.005002218934911241</v>
       </c>
       <c r="C26">
         <v>0.01178472335711714</v>
@@ -1800,22 +1800,22 @@
         <v>0.006561772449908077</v>
       </c>
       <c r="F26">
-        <v>0.001227498947704081</v>
+        <v>-0.04694894262323809</v>
       </c>
       <c r="G26">
         <v>0.03985164293938714</v>
       </c>
       <c r="H26">
-        <v>-0.04694894262323809</v>
+        <v>0.006791408412976463</v>
       </c>
       <c r="I26">
-        <v>0.006791408412976463</v>
+        <v>-0.1025797779496531</v>
       </c>
       <c r="J26">
-        <v>-0.1025797779496531</v>
+        <v>0.1553214443867903</v>
       </c>
       <c r="K26">
-        <v>-0.005002218934911241</v>
+        <v>0.001227498947704081</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1823,7 +1823,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.1639956159160114</v>
+        <v>-0.00397721893491124</v>
       </c>
       <c r="C27">
         <v>0.01322516231070673</v>
@@ -1835,22 +1835,22 @@
         <v>0.09708923858109131</v>
       </c>
       <c r="F27">
-        <v>0.002958478901443356</v>
+        <v>-0.02880671934747077</v>
       </c>
       <c r="G27">
         <v>0.05356999320809186</v>
       </c>
       <c r="H27">
-        <v>-0.02880671934747077</v>
+        <v>0.004619425068114557</v>
       </c>
       <c r="I27">
-        <v>0.004619425068114557</v>
+        <v>-0.1013966947106102</v>
       </c>
       <c r="J27">
-        <v>-0.1013966947106102</v>
+        <v>0.1639956159160114</v>
       </c>
       <c r="K27">
-        <v>-0.00397721893491124</v>
+        <v>0.002958478901443356</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1858,7 +1858,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.1623136369311107</v>
+        <v>-0.002077218934911239</v>
       </c>
       <c r="C28">
         <v>0.009461033908423153</v>
@@ -1870,22 +1870,22 @@
         <v>0.1395623836980668</v>
       </c>
       <c r="F28">
-        <v>0.0004307483100873307</v>
+        <v>-0.02037192981896647</v>
       </c>
       <c r="G28">
         <v>0.05666658698420379</v>
       </c>
       <c r="H28">
-        <v>-0.02037192981896647</v>
+        <v>0.00437116386169093</v>
       </c>
       <c r="I28">
-        <v>0.00437116386169093</v>
+        <v>-0.1063783804386529</v>
       </c>
       <c r="J28">
-        <v>-0.1063783804386529</v>
+        <v>0.1623136369311107</v>
       </c>
       <c r="K28">
-        <v>-0.002077218934911239</v>
+        <v>0.0004307483100873307</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1893,7 +1893,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.1783003098258193</v>
+        <v>-0.004027218934911241</v>
       </c>
       <c r="C29">
         <v>0.003403574133120677</v>
@@ -1905,22 +1905,22 @@
         <v>0.1717673935921544</v>
       </c>
       <c r="F29">
-        <v>-0.00496396868828391</v>
+        <v>0.004952898529332499</v>
       </c>
       <c r="G29">
         <v>0.06499966365099474</v>
       </c>
       <c r="H29">
-        <v>0.004952898529332499</v>
+        <v>0.00143148841028321</v>
       </c>
       <c r="I29">
-        <v>0.00143148841028321</v>
+        <v>-0.1018998176840671</v>
       </c>
       <c r="J29">
-        <v>-0.1018998176840671</v>
+        <v>0.1783003098258193</v>
       </c>
       <c r="K29">
-        <v>-0.004027218934911241</v>
+        <v>-0.00496396868828391</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1928,7 +1928,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.199921844193006</v>
+        <v>-0.006010552268244573</v>
       </c>
       <c r="C30">
         <v>0.01060200847565599</v>
@@ -1940,22 +1940,22 @@
         <v>0.2250996304129833</v>
       </c>
       <c r="F30">
-        <v>0.003099364062254256</v>
+        <v>-0.01775787478838047</v>
       </c>
       <c r="G30">
         <v>0.07123130764275099</v>
       </c>
       <c r="H30">
-        <v>-0.01775787478838047</v>
+        <v>0.02065626458016948</v>
       </c>
       <c r="I30">
-        <v>0.02065626458016948</v>
+        <v>-0.09418736540015615</v>
       </c>
       <c r="J30">
-        <v>-0.09418736540015615</v>
+        <v>0.199921844193006</v>
       </c>
       <c r="K30">
-        <v>-0.006010552268244573</v>
+        <v>0.003099364062254256</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1963,7 +1963,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.2112567147726416</v>
+        <v>-0.005177218934911241</v>
       </c>
       <c r="C31">
         <v>0.004099900518059339</v>
@@ -1975,22 +1975,22 @@
         <v>0.2392089815291891</v>
       </c>
       <c r="F31">
-        <v>-0.004642053646442041</v>
+        <v>-0.02318218339909851</v>
       </c>
       <c r="G31">
         <v>0.07282135257985123</v>
       </c>
       <c r="H31">
-        <v>-0.02318218339909851</v>
+        <v>0.001742746035071107</v>
       </c>
       <c r="I31">
-        <v>0.001742746035071107</v>
+        <v>-0.08383088988324205</v>
       </c>
       <c r="J31">
-        <v>-0.08383088988324205</v>
+        <v>0.2112567147726416</v>
       </c>
       <c r="K31">
-        <v>-0.005177218934911241</v>
+        <v>-0.004642053646442041</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1998,7 +1998,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.2212183776111729</v>
+        <v>-0.004052218934911242</v>
       </c>
       <c r="C32">
         <v>-0.002113874487652514</v>
@@ -2010,22 +2010,22 @@
         <v>0.23634634276039</v>
       </c>
       <c r="F32">
-        <v>-0.002642387148418518</v>
+        <v>-0.01579530338454953</v>
       </c>
       <c r="G32">
         <v>0.08435119044522332</v>
       </c>
       <c r="H32">
-        <v>-0.01579530338454953</v>
+        <v>0.001575808372545151</v>
       </c>
       <c r="I32">
-        <v>0.001575808372545151</v>
+        <v>-0.08038515307165506</v>
       </c>
       <c r="J32">
-        <v>-0.08038515307165506</v>
+        <v>0.2212183776111729</v>
       </c>
       <c r="K32">
-        <v>-0.004052218934911242</v>
+        <v>-0.002642387148418518</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2033,7 +2033,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.2669221543931037</v>
+        <v>-0.002443885601577907</v>
       </c>
       <c r="C33">
         <v>0.01315364677333978</v>
@@ -2045,22 +2045,22 @@
         <v>0.2667665579286602</v>
       </c>
       <c r="F33">
-        <v>-0.003233608861822607</v>
+        <v>-0.03137746962107446</v>
       </c>
       <c r="G33">
         <v>0.1135450643325915</v>
       </c>
       <c r="H33">
-        <v>-0.03137746962107446</v>
+        <v>0.005602467663869437</v>
       </c>
       <c r="I33">
-        <v>0.005602467663869437</v>
+        <v>-0.06976007870495859</v>
       </c>
       <c r="J33">
-        <v>-0.06976007870495859</v>
+        <v>0.2669221543931037</v>
       </c>
       <c r="K33">
-        <v>-0.002443885601577907</v>
+        <v>-0.003233608861822607</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2068,7 +2068,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.3079146369652701</v>
+        <v>-0.0003522189349112401</v>
       </c>
       <c r="C34">
         <v>0.008563963679435491</v>
@@ -2080,22 +2080,22 @@
         <v>0.2946477622969903</v>
       </c>
       <c r="F34">
-        <v>-0.003377456623643355</v>
+        <v>-0.01920692253323707</v>
       </c>
       <c r="G34">
         <v>0.1135221408794957</v>
       </c>
       <c r="H34">
-        <v>-0.01920692253323707</v>
+        <v>0.002852636045337286</v>
       </c>
       <c r="I34">
-        <v>0.002852636045337286</v>
+        <v>-0.06007040264421848</v>
       </c>
       <c r="J34">
-        <v>-0.06007040264421848</v>
+        <v>0.3079146369652701</v>
       </c>
       <c r="K34">
-        <v>-0.0003522189349112401</v>
+        <v>-0.003377456623643355</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2103,7 +2103,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.3425641303086486</v>
+        <v>0.001906114398422096</v>
       </c>
       <c r="C35">
         <v>-0.006573718043900025</v>
@@ -2115,22 +2115,22 @@
         <v>0.2371323133081447</v>
       </c>
       <c r="F35">
-        <v>0.002034657056205485</v>
+        <v>0.0167085563102039</v>
       </c>
       <c r="G35">
         <v>0.1360674863798776</v>
       </c>
       <c r="H35">
-        <v>0.0167085563102039</v>
+        <v>0.002656201034277805</v>
       </c>
       <c r="I35">
-        <v>0.002656201034277805</v>
+        <v>-0.05695598124999934</v>
       </c>
       <c r="J35">
-        <v>-0.05695598124999934</v>
+        <v>0.3425641303086486</v>
       </c>
       <c r="K35">
-        <v>0.001906114398422096</v>
+        <v>0.002034657056205485</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2138,7 +2138,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.3541676147210007</v>
+        <v>0.006206114398422091</v>
       </c>
       <c r="C36">
         <v>0.0002119658468706966</v>
@@ -2150,22 +2150,22 @@
         <v>0.1889536304155524</v>
       </c>
       <c r="F36">
-        <v>0.003379847229984584</v>
+        <v>0.03092447899041369</v>
       </c>
       <c r="G36">
         <v>0.1561681699529293</v>
       </c>
       <c r="H36">
-        <v>0.03092447899041369</v>
+        <v>0.004868043541748001</v>
       </c>
       <c r="I36">
-        <v>0.004868043541748001</v>
+        <v>-0.05868970279947838</v>
       </c>
       <c r="J36">
-        <v>-0.05868970279947838</v>
+        <v>0.3541676147210007</v>
       </c>
       <c r="K36">
-        <v>0.006206114398422091</v>
+        <v>0.003379847229984584</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2173,7 +2173,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.3569374014129103</v>
+        <v>0.004147781065088759</v>
       </c>
       <c r="C37">
         <v>0.006769397721857726</v>
@@ -2185,22 +2185,22 @@
         <v>0.1348206431142032</v>
       </c>
       <c r="F37">
-        <v>0.01384148499553323</v>
+        <v>0.03308922742713213</v>
       </c>
       <c r="G37">
         <v>0.1491110854775711</v>
       </c>
       <c r="H37">
-        <v>0.03308922742713213</v>
+        <v>0.003824299029905253</v>
       </c>
       <c r="I37">
-        <v>0.003824299029905253</v>
+        <v>-0.05542134855360947</v>
       </c>
       <c r="J37">
-        <v>-0.05542134855360947</v>
+        <v>0.3569374014129103</v>
       </c>
       <c r="K37">
-        <v>0.004147781065088759</v>
+        <v>0.01384148499553323</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2208,7 +2208,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.3506186008450092</v>
+        <v>0.004439447731755428</v>
       </c>
       <c r="C38">
         <v>-0.0006638183994278311</v>
@@ -2220,22 +2220,22 @@
         <v>0.05368642038724669</v>
       </c>
       <c r="F38">
-        <v>0.01210105576433169</v>
+        <v>0.01508640307204537</v>
       </c>
       <c r="G38">
         <v>0.148713061830357</v>
       </c>
       <c r="H38">
-        <v>0.01508640307204537</v>
+        <v>0.002046098695041387</v>
       </c>
       <c r="I38">
-        <v>0.002046098695041387</v>
+        <v>-0.05970310785280786</v>
       </c>
       <c r="J38">
-        <v>-0.05970310785280786</v>
+        <v>0.3506186008450092</v>
       </c>
       <c r="K38">
-        <v>0.004439447731755428</v>
+        <v>0.01210105576433169</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2243,7 +2243,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.3434267576827263</v>
+        <v>0.005781114398422096</v>
       </c>
       <c r="C39">
         <v>0.006811192920205964</v>
@@ -2255,22 +2255,22 @@
         <v>0.003870307183637678</v>
       </c>
       <c r="F39">
-        <v>0.02667211247564211</v>
+        <v>-0.004770751529072938</v>
       </c>
       <c r="G39">
         <v>0.1333187662001977</v>
       </c>
       <c r="H39">
-        <v>-0.004770751529072938</v>
+        <v>0.0117988686995624</v>
       </c>
       <c r="I39">
-        <v>0.0117988686995624</v>
+        <v>-0.07097210499054585</v>
       </c>
       <c r="J39">
-        <v>-0.07097210499054585</v>
+        <v>0.3434267576827263</v>
       </c>
       <c r="K39">
-        <v>0.005781114398422096</v>
+        <v>0.02667211247564211</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2278,7 +2278,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.3266197149887384</v>
+        <v>0.00587278106508876</v>
       </c>
       <c r="C40">
         <v>0.01861534414607505</v>
@@ -2290,22 +2290,22 @@
         <v>-0.03472940100943944</v>
       </c>
       <c r="F40">
-        <v>0.02133381728900336</v>
+        <v>-0.04131460238669143</v>
       </c>
       <c r="G40">
         <v>0.1277928424727216</v>
       </c>
       <c r="H40">
-        <v>-0.04131460238669143</v>
+        <v>0.01202172613696609</v>
       </c>
       <c r="I40">
-        <v>0.01202172613696609</v>
+        <v>-0.06994313178968703</v>
       </c>
       <c r="J40">
-        <v>-0.06994313178968703</v>
+        <v>0.3266197149887384</v>
       </c>
       <c r="K40">
-        <v>0.00587278106508876</v>
+        <v>0.02133381728900336</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2313,7 +2313,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.2935229764840814</v>
+        <v>0.003797781065088759</v>
       </c>
       <c r="C41">
         <v>0.0116288538566183</v>
@@ -2325,22 +2325,22 @@
         <v>-0.1806130553803431</v>
       </c>
       <c r="F41">
-        <v>0.02045627555547864</v>
+        <v>-0.06748837995630455</v>
       </c>
       <c r="G41">
         <v>0.1225376127910494</v>
       </c>
       <c r="H41">
-        <v>-0.06748837995630455</v>
+        <v>0.008584957983794583</v>
       </c>
       <c r="I41">
-        <v>0.008584957983794583</v>
+        <v>-0.09176721023969359</v>
       </c>
       <c r="J41">
-        <v>-0.09176721023969359</v>
+        <v>0.2935229764840814</v>
       </c>
       <c r="K41">
-        <v>0.003797781065088759</v>
+        <v>0.02045627555547864</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2348,7 +2348,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.2253510737561282</v>
+        <v>-0.00022721893491124</v>
       </c>
       <c r="C42">
         <v>0.008112119893204626</v>
@@ -2360,22 +2360,22 @@
         <v>-0.2494906698084307</v>
       </c>
       <c r="F42">
-        <v>0.02320527467137618</v>
+        <v>-0.1470231589960968</v>
       </c>
       <c r="G42">
         <v>0.1279416113167959</v>
       </c>
       <c r="H42">
-        <v>-0.1470231589960968</v>
+        <v>0.0003162149543075917</v>
       </c>
       <c r="I42">
-        <v>0.0003162149543075917</v>
+        <v>-0.1268446715321585</v>
       </c>
       <c r="J42">
-        <v>-0.1268446715321585</v>
+        <v>0.2253510737561282</v>
       </c>
       <c r="K42">
-        <v>-0.00022721893491124</v>
+        <v>0.02320527467137618</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2383,7 +2383,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.1942610560539002</v>
+        <v>-0.001118885601577907</v>
       </c>
       <c r="C43">
         <v>0.006761589093490925</v>
@@ -2395,22 +2395,22 @@
         <v>-0.2329415056631579</v>
       </c>
       <c r="F43">
-        <v>0.006421150302684036</v>
+        <v>-0.1952174134940718</v>
       </c>
       <c r="G43">
         <v>0.126182728360723</v>
       </c>
       <c r="H43">
-        <v>-0.1952174134940718</v>
+        <v>0.0001837078577370584</v>
       </c>
       <c r="I43">
-        <v>0.0001837078577370584</v>
+        <v>-0.13227453621688</v>
       </c>
       <c r="J43">
-        <v>-0.13227453621688</v>
+        <v>0.1942610560539002</v>
       </c>
       <c r="K43">
-        <v>-0.001118885601577907</v>
+        <v>0.006421150302684036</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2418,7 +2418,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.1977754692550961</v>
+        <v>0.001222781065088762</v>
       </c>
       <c r="C44">
         <v>-0.001828453234740981</v>
@@ -2430,22 +2430,22 @@
         <v>-0.171464536393489</v>
       </c>
       <c r="F44">
-        <v>0.007314520434264565</v>
+        <v>-0.19392647796783</v>
       </c>
       <c r="G44">
         <v>0.118828124841986</v>
       </c>
       <c r="H44">
-        <v>-0.19392647796783</v>
+        <v>0.004964767171121631</v>
       </c>
       <c r="I44">
-        <v>0.004964767171121631</v>
+        <v>-0.1164141391634272</v>
       </c>
       <c r="J44">
-        <v>-0.1164141391634272</v>
+        <v>0.1977754692550961</v>
       </c>
       <c r="K44">
-        <v>0.001222781065088762</v>
+        <v>0.007314520434264565</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2453,7 +2453,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0.2019765024800888</v>
+        <v>-0.0005355522682445706</v>
       </c>
       <c r="C45">
         <v>-0.005310283411889851</v>
@@ -2465,22 +2465,22 @@
         <v>-0.1335165015845918</v>
       </c>
       <c r="F45">
-        <v>0.005506512259928214</v>
+        <v>-0.1782735508614764</v>
       </c>
       <c r="G45">
         <v>0.1309778737599834</v>
       </c>
       <c r="H45">
-        <v>-0.1782735508614764</v>
+        <v>0.00539414725228019</v>
       </c>
       <c r="I45">
-        <v>0.00539414725228019</v>
+        <v>-0.1036985887250159</v>
       </c>
       <c r="J45">
-        <v>-0.1036985887250159</v>
+        <v>0.2019765024800888</v>
       </c>
       <c r="K45">
-        <v>-0.0005355522682445706</v>
+        <v>0.005506512259928214</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2488,7 +2488,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.2155265193021689</v>
+        <v>-0.002310552268244573</v>
       </c>
       <c r="C46">
         <v>0.001396233184950222</v>
@@ -2500,22 +2500,22 @@
         <v>-0.04088298130231749</v>
       </c>
       <c r="F46">
-        <v>0.002312253721415697</v>
+        <v>-0.155937074046849</v>
       </c>
       <c r="G46">
         <v>0.1370022582932342</v>
       </c>
       <c r="H46">
-        <v>-0.155937074046849</v>
+        <v>0.007150364799742103</v>
       </c>
       <c r="I46">
-        <v>0.007150364799742103</v>
+        <v>-0.08798819869808971</v>
       </c>
       <c r="J46">
-        <v>-0.08798819869808971</v>
+        <v>0.2155265193021689</v>
       </c>
       <c r="K46">
-        <v>-0.002310552268244573</v>
+        <v>0.002312253721415697</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2523,7 +2523,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.2228463284645397</v>
+        <v>-0.001710552268244573</v>
       </c>
       <c r="C47">
         <v>0.01067460253589994</v>
@@ -2535,22 +2535,22 @@
         <v>-0.01670845498041107</v>
       </c>
       <c r="F47">
-        <v>0.00167986131849091</v>
+        <v>-0.1681648618550096</v>
       </c>
       <c r="G47">
         <v>0.1560443053386998</v>
       </c>
       <c r="H47">
-        <v>-0.1681648618550096</v>
+        <v>0.004824799363488818</v>
       </c>
       <c r="I47">
-        <v>0.004824799363488818</v>
+        <v>-0.09159246915690877</v>
       </c>
       <c r="J47">
-        <v>-0.09159246915690877</v>
+        <v>0.2228463284645397</v>
       </c>
       <c r="K47">
-        <v>-0.001710552268244573</v>
+        <v>0.00167986131849091</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2558,7 +2558,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.2396482467438048</v>
+        <v>-0.00172721893491124</v>
       </c>
       <c r="C48">
         <v>0.006524850561753479</v>
@@ -2570,22 +2570,22 @@
         <v>-0.03829559743781896</v>
       </c>
       <c r="F48">
-        <v>0.005290021055279264</v>
+        <v>-0.1813640623283937</v>
       </c>
       <c r="G48">
         <v>0.1706107663709482</v>
       </c>
       <c r="H48">
-        <v>-0.1813640623283937</v>
+        <v>0.008489139029281089</v>
       </c>
       <c r="I48">
-        <v>0.008489139029281089</v>
+        <v>-0.08601031688942085</v>
       </c>
       <c r="J48">
-        <v>-0.08601031688942085</v>
+        <v>0.2396482467438048</v>
       </c>
       <c r="K48">
-        <v>-0.00172721893491124</v>
+        <v>0.005290021055279264</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2593,7 +2593,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2548180885965126</v>
+        <v>-0.002918885601577909</v>
       </c>
       <c r="C49">
         <v>0.005310554418955369</v>
@@ -2605,22 +2605,22 @@
         <v>0.07740033524780721</v>
       </c>
       <c r="F49">
-        <v>0.008440202723775275</v>
+        <v>-0.1696649444395617</v>
       </c>
       <c r="G49">
         <v>0.1692341947814292</v>
       </c>
       <c r="H49">
-        <v>-0.1696649444395617</v>
+        <v>0.006186600200094683</v>
       </c>
       <c r="I49">
-        <v>0.006186600200094683</v>
+        <v>-0.09044907347914544</v>
       </c>
       <c r="J49">
-        <v>-0.09044907347914544</v>
+        <v>0.2548180885965126</v>
       </c>
       <c r="K49">
-        <v>-0.002918885601577909</v>
+        <v>0.008440202723775275</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2628,7 +2628,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0.288535577600749</v>
+        <v>-0.00302721893491124</v>
       </c>
       <c r="C50">
         <v>0.003256410707871669</v>
@@ -2640,22 +2640,22 @@
         <v>0.1025739285833369</v>
       </c>
       <c r="F50">
-        <v>0.005339461121625927</v>
+        <v>-0.1621058467227806</v>
       </c>
       <c r="G50">
         <v>0.1902703673309889</v>
       </c>
       <c r="H50">
-        <v>-0.1621058467227806</v>
+        <v>0.006516907633148305</v>
       </c>
       <c r="I50">
-        <v>0.006516907633148305</v>
+        <v>-0.08612921603374746</v>
       </c>
       <c r="J50">
-        <v>-0.08612921603374746</v>
+        <v>0.288535577600749</v>
       </c>
       <c r="K50">
-        <v>-0.00302721893491124</v>
+        <v>0.005339461121625927</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2663,7 +2663,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0.3120793026925179</v>
+        <v>-0.002502218934911241</v>
       </c>
       <c r="C51">
         <v>-0.005361135609986713</v>
@@ -2675,22 +2675,22 @@
         <v>0.2064096290093236</v>
       </c>
       <c r="F51">
-        <v>0.007221760502728663</v>
+        <v>-0.1161084444509172</v>
       </c>
       <c r="G51">
         <v>0.2082066255211679</v>
       </c>
       <c r="H51">
-        <v>-0.1161084444509172</v>
+        <v>0.008059923301578264</v>
       </c>
       <c r="I51">
-        <v>0.008059923301578264</v>
+        <v>-0.06665104541754374</v>
       </c>
       <c r="J51">
-        <v>-0.06665104541754374</v>
+        <v>0.3120793026925179</v>
       </c>
       <c r="K51">
-        <v>-0.002502218934911241</v>
+        <v>0.007221760502728663</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2698,7 +2698,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.3283549415787341</v>
+        <v>-0.0008605522682445747</v>
       </c>
       <c r="C52">
         <v>-0.000983425412586416</v>
@@ -2710,22 +2710,22 @@
         <v>0.1982518766243837</v>
       </c>
       <c r="F52">
-        <v>0.004146028884767844</v>
+        <v>-0.1183739448635322</v>
       </c>
       <c r="G52">
         <v>0.213482949746423</v>
       </c>
       <c r="H52">
-        <v>-0.1183739448635322</v>
+        <v>0.004052896584907295</v>
       </c>
       <c r="I52">
-        <v>0.004052896584907295</v>
+        <v>-0.06076238912642173</v>
       </c>
       <c r="J52">
-        <v>-0.06076238912642173</v>
+        <v>0.3283549415787341</v>
       </c>
       <c r="K52">
-        <v>-0.0008605522682445747</v>
+        <v>0.004146028884767844</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2733,7 +2733,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0.3571966837080094</v>
+        <v>0.0006727810650887581</v>
       </c>
       <c r="C53">
         <v>0.003695667693649516</v>
@@ -2745,22 +2745,22 @@
         <v>0.1806157725008202</v>
       </c>
       <c r="F53">
-        <v>0.008848947560124059</v>
+        <v>-0.1024920279639792</v>
       </c>
       <c r="G53">
         <v>0.2526613612405235</v>
       </c>
       <c r="H53">
-        <v>-0.1024920279639792</v>
+        <v>0.007408279454420052</v>
       </c>
       <c r="I53">
-        <v>0.007408279454420052</v>
+        <v>-0.05121018845222469</v>
       </c>
       <c r="J53">
-        <v>-0.05121018845222469</v>
+        <v>0.3571966837080094</v>
       </c>
       <c r="K53">
-        <v>0.0006727810650887581</v>
+        <v>0.008848947560124059</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2768,7 +2768,7 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>0.362572160600342</v>
+        <v>0.001381114398422095</v>
       </c>
       <c r="C54">
         <v>0.007317030535595657</v>
@@ -2780,22 +2780,22 @@
         <v>0.1812927459362594</v>
       </c>
       <c r="F54">
-        <v>0.003099484019333193</v>
+        <v>-0.1226079737931705</v>
       </c>
       <c r="G54">
         <v>0.2542241445678016</v>
       </c>
       <c r="H54">
-        <v>-0.1226079737931705</v>
+        <v>0.007651754918351605</v>
       </c>
       <c r="I54">
-        <v>0.007651754918351605</v>
+        <v>-0.05822395587328622</v>
       </c>
       <c r="J54">
-        <v>-0.05822395587328622</v>
+        <v>0.362572160600342</v>
       </c>
       <c r="K54">
-        <v>0.001381114398422095</v>
+        <v>0.003099484019333193</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2803,7 +2803,7 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>0.439243272610538</v>
+        <v>0.001589447731755426</v>
       </c>
       <c r="C55">
         <v>0.01240194458663549</v>
@@ -2815,22 +2815,22 @@
         <v>0.2237455460019104</v>
       </c>
       <c r="F55">
-        <v>0.008985044360656008</v>
+        <v>-0.0323509145952478</v>
       </c>
       <c r="G55">
         <v>0.2763819445593606</v>
       </c>
       <c r="H55">
-        <v>-0.0323509145952478</v>
+        <v>0.01188784347883002</v>
       </c>
       <c r="I55">
-        <v>0.01188784347883002</v>
+        <v>-0.03419485194939087</v>
       </c>
       <c r="J55">
-        <v>-0.03419485194939087</v>
+        <v>0.439243272610538</v>
       </c>
       <c r="K55">
-        <v>0.001589447731755426</v>
+        <v>0.008985044360656008</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2838,7 +2838,7 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>0.4695385532777534</v>
+        <v>0.003681114398422091</v>
       </c>
       <c r="C56">
         <v>0.009011189436682696</v>
@@ -2850,22 +2850,22 @@
         <v>0.2329484735299499</v>
       </c>
       <c r="F56">
-        <v>0.009843802975208987</v>
+        <v>-0.01369273382906751</v>
       </c>
       <c r="G56">
         <v>0.2992811592694868</v>
       </c>
       <c r="H56">
-        <v>-0.01369273382906751</v>
+        <v>0.00687974868251443</v>
       </c>
       <c r="I56">
-        <v>0.00687974868251443</v>
+        <v>-0.02734123956807233</v>
       </c>
       <c r="J56">
-        <v>-0.02734123956807233</v>
+        <v>0.4695385532777534</v>
       </c>
       <c r="K56">
-        <v>0.003681114398422091</v>
+        <v>0.009843802975208987</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2873,7 +2873,7 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>0.4969035620265219</v>
+        <v>0.006822781065088759</v>
       </c>
       <c r="C57">
         <v>0.004208001342173948</v>
@@ -2885,22 +2885,22 @@
         <v>0.2248566514624191</v>
       </c>
       <c r="F57">
-        <v>0.01100445695723357</v>
+        <v>-0.009726383342795492</v>
       </c>
       <c r="G57">
         <v>0.3102040445465013</v>
       </c>
       <c r="H57">
-        <v>-0.009726383342795492</v>
+        <v>0.01041219684385567</v>
       </c>
       <c r="I57">
-        <v>0.01041219684385567</v>
+        <v>-0.02157492143512751</v>
       </c>
       <c r="J57">
-        <v>-0.02157492143512751</v>
+        <v>0.4969035620265219</v>
       </c>
       <c r="K57">
-        <v>0.006822781065088759</v>
+        <v>0.01100445695723357</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2908,7 +2908,7 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>0.5144570251697411</v>
+        <v>0.008856114398422097</v>
       </c>
       <c r="C58">
         <v>0.00713251507267668</v>
@@ -2920,22 +2920,22 @@
         <v>0.1967029182390414</v>
       </c>
       <c r="F58">
-        <v>0.00674299509255411</v>
+        <v>-0.02940893915505932</v>
       </c>
       <c r="G58">
         <v>0.3214809837341731</v>
       </c>
       <c r="H58">
-        <v>-0.02940893915505932</v>
+        <v>0.007797229219542878</v>
       </c>
       <c r="I58">
-        <v>0.007797229219542878</v>
+        <v>-0.01753817481251785</v>
       </c>
       <c r="J58">
-        <v>-0.01753817481251785</v>
+        <v>0.5144570251697411</v>
       </c>
       <c r="K58">
-        <v>0.008856114398422097</v>
+        <v>0.00674299509255411</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2943,7 +2943,7 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>0.5069949387951933</v>
+        <v>0.008839447731755426</v>
       </c>
       <c r="C59">
         <v>0.008350754052145502</v>
@@ -2955,22 +2955,22 @@
         <v>0.1737939528201338</v>
       </c>
       <c r="F59">
-        <v>0.01881887578001513</v>
+        <v>-0.002548068270258899</v>
       </c>
       <c r="G59">
         <v>0.3485376826806451</v>
       </c>
       <c r="H59">
-        <v>-0.002548068270258899</v>
+        <v>0.003728235631388943</v>
       </c>
       <c r="I59">
-        <v>0.003728235631388943</v>
+        <v>-0.03039593966340526</v>
       </c>
       <c r="J59">
-        <v>-0.03039593966340526</v>
+        <v>0.5069949387951933</v>
       </c>
       <c r="K59">
-        <v>0.008839447731755426</v>
+        <v>0.01881887578001513</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2978,7 +2978,7 @@
         <v>68</v>
       </c>
       <c r="B60">
-        <v>0.5331245705505792</v>
+        <v>0.00958111439842209</v>
       </c>
       <c r="C60">
         <v>0.007218986707293849</v>
@@ -2990,22 +2990,22 @@
         <v>0.1571160427117837</v>
       </c>
       <c r="F60">
-        <v>0.01195606933328892</v>
+        <v>0.01772182290283263</v>
       </c>
       <c r="G60">
         <v>0.341436800536372</v>
       </c>
       <c r="H60">
-        <v>0.01772182290283263</v>
+        <v>0.009249504235096106</v>
       </c>
       <c r="I60">
-        <v>0.009249504235096106</v>
+        <v>-0.02397131545692854</v>
       </c>
       <c r="J60">
-        <v>-0.02397131545692854</v>
+        <v>0.5331245705505792</v>
       </c>
       <c r="K60">
-        <v>0.00958111439842209</v>
+        <v>0.01195606933328892</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3013,7 +3013,7 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>0.5306656756695283</v>
+        <v>0.01500611439842209</v>
       </c>
       <c r="C61">
         <v>0.003902272331407972</v>
@@ -3025,22 +3025,22 @@
         <v>0.1133389985000015</v>
       </c>
       <c r="F61">
-        <v>0.01042527083676243</v>
+        <v>0.0107364444202409</v>
       </c>
       <c r="G61">
         <v>0.3600322408782611</v>
       </c>
       <c r="H61">
-        <v>0.0107364444202409</v>
+        <v>0.006282971262773806</v>
       </c>
       <c r="I61">
-        <v>0.006282971262773806</v>
+        <v>-0.02562542276536472</v>
       </c>
       <c r="J61">
-        <v>-0.02562542276536472</v>
+        <v>0.5306656756695283</v>
       </c>
       <c r="K61">
-        <v>0.01500611439842209</v>
+        <v>0.01042527083676243</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3048,7 +3048,7 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>0.5371538431251777</v>
+        <v>0.0187811143984221</v>
       </c>
       <c r="C62">
         <v>0.0007289594897337583</v>
@@ -3060,22 +3060,22 @@
         <v>0.02967113921345721</v>
       </c>
       <c r="F62">
-        <v>0.01614504272567347</v>
+        <v>-0.01334202962944691</v>
       </c>
       <c r="G62">
         <v>0.3532997210790328</v>
       </c>
       <c r="H62">
-        <v>-0.01334202962944691</v>
+        <v>0.006483106910936487</v>
       </c>
       <c r="I62">
-        <v>0.006483106910936487</v>
+        <v>-0.02919610977472331</v>
       </c>
       <c r="J62">
-        <v>-0.02919610977472331</v>
+        <v>0.5371538431251777</v>
       </c>
       <c r="K62">
-        <v>0.0187811143984221</v>
+        <v>0.01614504272567347</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3083,7 +3083,7 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>0.4811652971717528</v>
+        <v>0.009439447731755429</v>
       </c>
       <c r="C63">
         <v>0.01580148515690974</v>
@@ -3095,22 +3095,22 @@
         <v>-0.1787470038085273</v>
       </c>
       <c r="F63">
-        <v>0.01878417121890581</v>
+        <v>-0.04346624028436758</v>
       </c>
       <c r="G63">
         <v>0.3410098129774835</v>
       </c>
       <c r="H63">
-        <v>-0.04346624028436758</v>
+        <v>0.008639815929159333</v>
       </c>
       <c r="I63">
-        <v>0.008639815929159333</v>
+        <v>-0.05061629935365319</v>
       </c>
       <c r="J63">
-        <v>-0.05061629935365319</v>
+        <v>0.4811652971717528</v>
       </c>
       <c r="K63">
-        <v>0.009439447731755429</v>
+        <v>0.01878417121890581</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3118,7 +3118,7 @@
         <v>72</v>
       </c>
       <c r="B64">
-        <v>0.4842647226283026</v>
+        <v>0.008281114398422095</v>
       </c>
       <c r="C64">
         <v>0.009475705377550967</v>
@@ -3130,22 +3130,22 @@
         <v>-0.1662039108946711</v>
       </c>
       <c r="F64">
-        <v>0.006427293902910363</v>
+        <v>-0.0615907356567971</v>
       </c>
       <c r="G64">
         <v>0.3484409825135469</v>
       </c>
       <c r="H64">
-        <v>-0.0615907356567971</v>
+        <v>0.009217192955405162</v>
       </c>
       <c r="I64">
-        <v>0.009217192955405162</v>
+        <v>-0.05969749662367096</v>
       </c>
       <c r="J64">
-        <v>-0.05969749662367096</v>
+        <v>0.4842647226283026</v>
       </c>
       <c r="K64">
-        <v>0.008281114398422095</v>
+        <v>0.006427293902910363</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3153,7 +3153,7 @@
         <v>73</v>
       </c>
       <c r="B65">
-        <v>0.5017640334408719</v>
+        <v>0.0194311143984221</v>
       </c>
       <c r="C65">
         <v>0.0114710848364468</v>
@@ -3165,22 +3165,22 @@
         <v>-0.07622765910598339</v>
       </c>
       <c r="F65">
-        <v>0.01238034871045097</v>
+        <v>-0.04637297988959402</v>
       </c>
       <c r="G65">
         <v>0.3344767846527539</v>
       </c>
       <c r="H65">
-        <v>-0.04637297988959402</v>
+        <v>0.01352544059432007</v>
       </c>
       <c r="I65">
-        <v>0.01352544059432007</v>
+        <v>-0.04224378628490122</v>
       </c>
       <c r="J65">
-        <v>-0.04224378628490122</v>
+        <v>0.5017640334408719</v>
       </c>
       <c r="K65">
-        <v>0.0194311143984221</v>
+        <v>0.01238034871045097</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3188,7 +3188,7 @@
         <v>74</v>
       </c>
       <c r="B66">
-        <v>0.5141305108005838</v>
+        <v>0.02137278106508876</v>
       </c>
       <c r="C66">
         <v>0.009959697710497459</v>
@@ -3200,22 +3200,22 @@
         <v>-0.09777661557406336</v>
       </c>
       <c r="F66">
-        <v>0.02184347303112406</v>
+        <v>-0.06156400474932951</v>
       </c>
       <c r="G66">
         <v>0.3476270617448438</v>
       </c>
       <c r="H66">
-        <v>-0.06156400474932951</v>
+        <v>0.010625449128327</v>
       </c>
       <c r="I66">
-        <v>0.010625449128327</v>
+        <v>-0.03995343429258824</v>
       </c>
       <c r="J66">
-        <v>-0.03995343429258824</v>
+        <v>0.5141305108005838</v>
       </c>
       <c r="K66">
-        <v>0.02137278106508876</v>
+        <v>0.02184347303112406</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3223,7 +3223,7 @@
         <v>75</v>
       </c>
       <c r="B67">
-        <v>0.5308294167393557</v>
+        <v>0.02266444773175542</v>
       </c>
       <c r="C67">
         <v>0.007540121194323377</v>
@@ -3235,22 +3235,22 @@
         <v>-0.1356720988105762</v>
       </c>
       <c r="F67">
-        <v>0.0107377660025802</v>
+        <v>-0.08003782176279997</v>
       </c>
       <c r="G67">
         <v>0.3420441982040161</v>
       </c>
       <c r="H67">
-        <v>-0.08003782176279997</v>
+        <v>0.007447854375797791</v>
       </c>
       <c r="I67">
-        <v>0.007447854375797791</v>
+        <v>-0.03695323796383754</v>
       </c>
       <c r="J67">
-        <v>-0.03695323796383754</v>
+        <v>0.5308294167393557</v>
       </c>
       <c r="K67">
-        <v>0.02266444773175542</v>
+        <v>0.0107377660025802</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3258,7 +3258,7 @@
         <v>76</v>
       </c>
       <c r="B68">
-        <v>0.551351375585698</v>
+        <v>0.02303111439842209</v>
       </c>
       <c r="C68">
         <v>0.01624966131927666</v>
@@ -3270,22 +3270,22 @@
         <v>-0.2190250778842335</v>
       </c>
       <c r="F68">
-        <v>0.0118261759094675</v>
+        <v>-0.1053062611275826</v>
       </c>
       <c r="G68">
         <v>0.3210869675088238</v>
       </c>
       <c r="H68">
-        <v>-0.1053062611275826</v>
+        <v>0.008434911587588944</v>
       </c>
       <c r="I68">
-        <v>0.008434911587588944</v>
+        <v>-0.04388547362431705</v>
       </c>
       <c r="J68">
-        <v>-0.04388547362431705</v>
+        <v>0.551351375585698</v>
       </c>
       <c r="K68">
-        <v>0.02303111439842209</v>
+        <v>0.0118261759094675</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3293,7 +3293,7 @@
         <v>77</v>
       </c>
       <c r="B69">
-        <v>0.5719421383261576</v>
+        <v>0.01477278106508876</v>
       </c>
       <c r="C69">
         <v>0.01237972906178378</v>
@@ -3305,22 +3305,22 @@
         <v>-0.3308752642597623</v>
       </c>
       <c r="F69">
-        <v>0.009008406896813653</v>
+        <v>-0.1098096374676044</v>
       </c>
       <c r="G69">
         <v>0.3100146730493785</v>
       </c>
       <c r="H69">
-        <v>-0.1098096374676044</v>
+        <v>0.002386243016696021</v>
       </c>
       <c r="I69">
-        <v>0.002386243016696021</v>
+        <v>-0.06203112431323454</v>
       </c>
       <c r="J69">
-        <v>-0.06203112431323454</v>
+        <v>0.5719421383261576</v>
       </c>
       <c r="K69">
-        <v>0.01477278106508876</v>
+        <v>0.009008406896813653</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3328,7 +3328,7 @@
         <v>78</v>
       </c>
       <c r="B70">
-        <v>0.544578995103655</v>
+        <v>0.01743111439842209</v>
       </c>
       <c r="C70">
         <v>0.01521212848695333</v>
@@ -3340,22 +3340,22 @@
         <v>-0.3930987514793509</v>
       </c>
       <c r="F70">
-        <v>0.00393730145030608</v>
+        <v>-0.1640941795658708</v>
       </c>
       <c r="G70">
         <v>0.3201492138930113</v>
       </c>
       <c r="H70">
-        <v>-0.1640941795658708</v>
+        <v>0.00349587386352016</v>
       </c>
       <c r="I70">
-        <v>0.00349587386352016</v>
+        <v>-0.08981993901211904</v>
       </c>
       <c r="J70">
-        <v>-0.08981993901211904</v>
+        <v>0.544578995103655</v>
       </c>
       <c r="K70">
-        <v>0.01743111439842209</v>
+        <v>0.00393730145030608</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3363,7 +3363,7 @@
         <v>79</v>
       </c>
       <c r="B71">
-        <v>0.5052220687927118</v>
+        <v>0.01644778106508876</v>
       </c>
       <c r="C71">
         <v>-0.005357595906011894</v>
@@ -3375,22 +3375,22 @@
         <v>-0.4279988931022771</v>
       </c>
       <c r="F71">
-        <v>0.002783341042460868</v>
+        <v>-0.1584484752031511</v>
       </c>
       <c r="G71">
         <v>0.3036371088161962</v>
       </c>
       <c r="H71">
-        <v>-0.1584484752031511</v>
+        <v>-0.000974063782192747</v>
       </c>
       <c r="I71">
-        <v>-0.000974063782192747</v>
+        <v>-0.08603928640822023</v>
       </c>
       <c r="J71">
-        <v>-0.08603928640822023</v>
+        <v>0.5052220687927118</v>
       </c>
       <c r="K71">
-        <v>0.01644778106508876</v>
+        <v>0.002783341042460868</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3398,7 +3398,7 @@
         <v>80</v>
       </c>
       <c r="B72">
-        <v>0.4680934380722892</v>
+        <v>0.008689447731755428</v>
       </c>
       <c r="C72">
         <v>0.001245475539849026</v>
@@ -3410,22 +3410,22 @@
         <v>-0.4343239490238275</v>
       </c>
       <c r="F72">
-        <v>0.00314326200375698</v>
+        <v>-0.1788617687814531</v>
       </c>
       <c r="G72">
         <v>0.2821034666139187</v>
       </c>
       <c r="H72">
-        <v>-0.1788617687814531</v>
+        <v>0.002292448091678534</v>
       </c>
       <c r="I72">
-        <v>0.002292448091678534</v>
+        <v>-0.09762948934320326</v>
       </c>
       <c r="J72">
-        <v>-0.09762948934320326</v>
+        <v>0.4680934380722892</v>
       </c>
       <c r="K72">
-        <v>0.008689447731755428</v>
+        <v>0.00314326200375698</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3433,7 +3433,7 @@
         <v>81</v>
       </c>
       <c r="B73">
-        <v>0.4445643859451032</v>
+        <v>0.005164447731755428</v>
       </c>
       <c r="C73">
         <v>0.001687330359366777</v>
@@ -3445,22 +3445,22 @@
         <v>-0.366430252446313</v>
       </c>
       <c r="F73">
-        <v>0.001589293964903099</v>
+        <v>-0.1996499221971698</v>
       </c>
       <c r="G73">
         <v>0.2620372554450532</v>
       </c>
       <c r="H73">
-        <v>-0.1996499221971698</v>
+        <v>-0.00329984651298928</v>
       </c>
       <c r="I73">
-        <v>-0.00329984651298928</v>
+        <v>-0.1091330119847167</v>
       </c>
       <c r="J73">
-        <v>-0.1091330119847167</v>
+        <v>0.4445643859451032</v>
       </c>
       <c r="K73">
-        <v>0.005164447731755428</v>
+        <v>0.001589293964903099</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3468,7 +3468,7 @@
         <v>82</v>
       </c>
       <c r="B74">
-        <v>0.4233919778393016</v>
+        <v>0.005664447731755428</v>
       </c>
       <c r="C74">
         <v>5.792096010129658e-05</v>
@@ -3480,22 +3480,22 @@
         <v>-0.2117488820096778</v>
       </c>
       <c r="F74">
-        <v>-0.00448085026636052</v>
+        <v>-0.1838601007578393</v>
       </c>
       <c r="G74">
         <v>0.2828808997519088</v>
       </c>
       <c r="H74">
-        <v>-0.1838601007578393</v>
+        <v>0.001181791880519622</v>
       </c>
       <c r="I74">
-        <v>0.001181791880519622</v>
+        <v>-0.09896455768970247</v>
       </c>
       <c r="J74">
-        <v>-0.09896455768970247</v>
+        <v>0.4233919778393016</v>
       </c>
       <c r="K74">
-        <v>0.005664447731755428</v>
+        <v>-0.00448085026636052</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3503,7 +3503,7 @@
         <v>83</v>
       </c>
       <c r="B75">
-        <v>0.4327017491248855</v>
+        <v>0.006389447731755425</v>
       </c>
       <c r="C75">
         <v>-0.01321496035102695</v>
@@ -3515,22 +3515,22 @@
         <v>-0.1024826271683539</v>
       </c>
       <c r="F75">
-        <v>-0.00594815177771762</v>
+        <v>-0.1911067017542623</v>
       </c>
       <c r="G75">
         <v>0.2819837120247579</v>
       </c>
       <c r="H75">
-        <v>-0.1911067017542623</v>
+        <v>-0.001825370939963012</v>
       </c>
       <c r="I75">
-        <v>-0.001825370939963012</v>
+        <v>-0.08015158534022815</v>
       </c>
       <c r="J75">
-        <v>-0.08015158534022815</v>
+        <v>0.4327017491248855</v>
       </c>
       <c r="K75">
-        <v>0.006389447731755425</v>
+        <v>-0.00594815177771762</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3538,7 +3538,7 @@
         <v>84</v>
       </c>
       <c r="B76">
-        <v>0.4738966134163709</v>
+        <v>0.008247781065088762</v>
       </c>
       <c r="C76">
         <v>-0.009688745314952753</v>
@@ -3550,22 +3550,22 @@
         <v>-0.01095568469253827</v>
       </c>
       <c r="F76">
-        <v>0.000331724268201888</v>
+        <v>-0.1581766402531699</v>
       </c>
       <c r="G76">
         <v>0.2883763047606264</v>
       </c>
       <c r="H76">
-        <v>-0.1581766402531699</v>
+        <v>-0.003127905995123992</v>
       </c>
       <c r="I76">
-        <v>-0.003127905995123992</v>
+        <v>-0.06204183790744411</v>
       </c>
       <c r="J76">
-        <v>-0.06204183790744411</v>
+        <v>0.4738966134163709</v>
       </c>
       <c r="K76">
-        <v>0.008247781065088762</v>
+        <v>0.000331724268201888</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3573,7 +3573,7 @@
         <v>85</v>
       </c>
       <c r="B77">
-        <v>0.5338376202348112</v>
+        <v>0.007397781065088758</v>
       </c>
       <c r="C77">
         <v>-0.005301721181599741</v>
@@ -3585,22 +3585,22 @@
         <v>0.02773626698723142</v>
       </c>
       <c r="F77">
-        <v>-0.003185643039401548</v>
+        <v>-0.1418675664733751</v>
       </c>
       <c r="G77">
         <v>0.2824308930143034</v>
       </c>
       <c r="H77">
-        <v>-0.1418675664733751</v>
+        <v>-0.0003850982439966514</v>
       </c>
       <c r="I77">
-        <v>-0.0003850982439966514</v>
+        <v>-0.04761110427585358</v>
       </c>
       <c r="J77">
-        <v>-0.04761110427585358</v>
+        <v>0.5338376202348112</v>
       </c>
       <c r="K77">
-        <v>0.007397781065088758</v>
+        <v>-0.003185643039401548</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3608,7 +3608,7 @@
         <v>86</v>
       </c>
       <c r="B78">
-        <v>0.5617311586437346</v>
+        <v>0.00832278106508876</v>
       </c>
       <c r="C78">
         <v>-0.004755437473773241</v>
@@ -3620,22 +3620,22 @@
         <v>0.05081814281388564</v>
       </c>
       <c r="F78">
-        <v>-0.002146484918040642</v>
+        <v>-0.09218772744874579</v>
       </c>
       <c r="G78">
         <v>0.2843949287226336</v>
       </c>
       <c r="H78">
-        <v>-0.09218772744874579</v>
+        <v>-0.00328045005712293</v>
       </c>
       <c r="I78">
-        <v>-0.00328045005712293</v>
+        <v>-0.03403424652596287</v>
       </c>
       <c r="J78">
-        <v>-0.03403424652596287</v>
+        <v>0.5617311586437346</v>
       </c>
       <c r="K78">
-        <v>0.00832278106508876</v>
+        <v>-0.002146484918040642</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3643,7 +3643,7 @@
         <v>87</v>
       </c>
       <c r="B79">
-        <v>0.6078740432064427</v>
+        <v>0.009889447731755428</v>
       </c>
       <c r="C79">
         <v>-0.005661349535626772</v>
@@ -3655,22 +3655,22 @@
         <v>0.06670940456505292</v>
       </c>
       <c r="F79">
-        <v>-0.0005529253342917931</v>
+        <v>-0.06936015919098201</v>
       </c>
       <c r="G79">
         <v>0.2978441215894911</v>
       </c>
       <c r="H79">
-        <v>-0.06936015919098201</v>
+        <v>-0.002949396609184774</v>
       </c>
       <c r="I79">
-        <v>-0.002949396609184774</v>
+        <v>-0.0284298343695446</v>
       </c>
       <c r="J79">
-        <v>-0.0284298343695446</v>
+        <v>0.6078740432064427</v>
       </c>
       <c r="K79">
-        <v>0.009889447731755428</v>
+        <v>-0.0005529253342917931</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3678,7 +3678,7 @@
         <v>88</v>
       </c>
       <c r="B80">
-        <v>0.6376631181102717</v>
+        <v>0.01119778106508876</v>
       </c>
       <c r="C80">
         <v>-0.008852776768813988</v>
@@ -3690,22 +3690,22 @@
         <v>0.05453023159793524</v>
       </c>
       <c r="F80">
-        <v>-0.001209702544341213</v>
+        <v>-0.05373211483930689</v>
       </c>
       <c r="G80">
         <v>0.2985996133737975</v>
       </c>
       <c r="H80">
-        <v>-0.05373211483930689</v>
+        <v>-0.002236360513809011</v>
       </c>
       <c r="I80">
-        <v>-0.002236360513809011</v>
+        <v>-0.02585670723868594</v>
       </c>
       <c r="J80">
-        <v>-0.02585670723868594</v>
+        <v>0.6376631181102717</v>
       </c>
       <c r="K80">
-        <v>0.01119778106508876</v>
+        <v>-0.001209702544341213</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3713,7 +3713,7 @@
         <v>89</v>
       </c>
       <c r="B81">
-        <v>0.6586655978907512</v>
+        <v>0.007406114398422097</v>
       </c>
       <c r="C81">
         <v>-0.01000750518113477</v>
@@ -3725,22 +3725,22 @@
         <v>0.05251771135453431</v>
       </c>
       <c r="F81">
-        <v>-0.00414852049481867</v>
+        <v>-0.0394621950987534</v>
       </c>
       <c r="G81">
         <v>0.3043583209143045</v>
       </c>
       <c r="H81">
-        <v>-0.0394621950987534</v>
+        <v>-0.006196063579999656</v>
       </c>
       <c r="I81">
-        <v>-0.006196063579999656</v>
+        <v>-0.02194115380110873</v>
       </c>
       <c r="J81">
-        <v>-0.02194115380110873</v>
+        <v>0.6586655978907512</v>
       </c>
       <c r="K81">
-        <v>0.007406114398422097</v>
+        <v>-0.00414852049481867</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3748,7 +3748,7 @@
         <v>90</v>
       </c>
       <c r="B82">
-        <v>0.6679055136015526</v>
+        <v>0.005856114398422095</v>
       </c>
       <c r="C82">
         <v>-0.0005761439637758901</v>
@@ -3760,22 +3760,22 @@
         <v>0.04724409003925523</v>
       </c>
       <c r="F82">
-        <v>0.001983585975351814</v>
+        <v>-0.02638949193653879</v>
       </c>
       <c r="G82">
         <v>0.2889610183612268</v>
       </c>
       <c r="H82">
-        <v>-0.02638949193653879</v>
+        <v>-0.00390409319771442</v>
       </c>
       <c r="I82">
-        <v>-0.00390409319771442</v>
+        <v>-0.0225641912047374</v>
       </c>
       <c r="J82">
-        <v>-0.0225641912047374</v>
+        <v>0.6679055136015526</v>
       </c>
       <c r="K82">
-        <v>0.005856114398422095</v>
+        <v>0.001983585975351814</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3783,7 +3783,7 @@
         <v>91</v>
       </c>
       <c r="B83">
-        <v>0.6797278187669997</v>
+        <v>0.004047781065088759</v>
       </c>
       <c r="C83">
         <v>-0.01115825329431283</v>
@@ -3795,22 +3795,22 @@
         <v>0.05269633784237993</v>
       </c>
       <c r="F83">
-        <v>-0.003352242254161248</v>
+        <v>-0.009929108542133063</v>
       </c>
       <c r="G83">
         <v>0.2767236257902518</v>
       </c>
       <c r="H83">
-        <v>-0.009929108542133063</v>
+        <v>-0.003192130339688315</v>
       </c>
       <c r="I83">
-        <v>-0.003192130339688315</v>
+        <v>-0.01343457999500153</v>
       </c>
       <c r="J83">
-        <v>-0.01343457999500153</v>
+        <v>0.6797278187669997</v>
       </c>
       <c r="K83">
-        <v>0.004047781065088759</v>
+        <v>-0.003352242254161248</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3818,7 +3818,7 @@
         <v>92</v>
       </c>
       <c r="B84">
-        <v>0.661613987136791</v>
+        <v>0.003164447731755426</v>
       </c>
       <c r="C84">
         <v>-0.006899907611735503</v>
@@ -3830,22 +3830,22 @@
         <v>0.06255657627092059</v>
       </c>
       <c r="F84">
-        <v>-0.002974578938602918</v>
+        <v>-0.003248956333303292</v>
       </c>
       <c r="G84">
         <v>0.2662381388535451</v>
       </c>
       <c r="H84">
-        <v>-0.003248956333303292</v>
+        <v>-0.004396322868455449</v>
       </c>
       <c r="I84">
-        <v>-0.004396322868455449</v>
+        <v>-0.008704903819212184</v>
       </c>
       <c r="J84">
-        <v>-0.008704903819212184</v>
+        <v>0.661613987136791</v>
       </c>
       <c r="K84">
-        <v>0.003164447731755426</v>
+        <v>-0.002974578938602918</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3853,7 +3853,7 @@
         <v>93</v>
       </c>
       <c r="B85">
-        <v>0.675782003108905</v>
+        <v>0.003314447731755427</v>
       </c>
       <c r="C85">
         <v>-0.009177214016174964</v>
@@ -3865,22 +3865,22 @@
         <v>0.08312795354731328</v>
       </c>
       <c r="F85">
-        <v>-0.006018793835489917</v>
+        <v>-0.003097945010080566</v>
       </c>
       <c r="G85">
         <v>0.2803306033529407</v>
       </c>
       <c r="H85">
-        <v>-0.003097945010080566</v>
+        <v>-0.004820702371529506</v>
       </c>
       <c r="I85">
-        <v>-0.004820702371529506</v>
+        <v>-0.0002404135023343912</v>
       </c>
       <c r="J85">
-        <v>-0.0002404135023343912</v>
+        <v>0.675782003108905</v>
       </c>
       <c r="K85">
-        <v>0.003314447731755427</v>
+        <v>-0.006018793835489917</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3888,7 +3888,7 @@
         <v>94</v>
       </c>
       <c r="B86">
-        <v>0.6570318717620456</v>
+        <v>0.002639447731755425</v>
       </c>
       <c r="C86">
         <v>-0.01313929257245069</v>
@@ -3900,22 +3900,22 @@
         <v>0.120196306125397</v>
       </c>
       <c r="F86">
-        <v>-0.004205054820925419</v>
+        <v>-0.007058311749706905</v>
       </c>
       <c r="G86">
         <v>0.2817808205274186</v>
       </c>
       <c r="H86">
-        <v>-0.007058311749706905</v>
+        <v>-0.005988256489977218</v>
       </c>
       <c r="I86">
-        <v>-0.005988256489977218</v>
+        <v>-0.00279309933218963</v>
       </c>
       <c r="J86">
-        <v>-0.00279309933218963</v>
+        <v>0.6570318717620456</v>
       </c>
       <c r="K86">
-        <v>0.002639447731755425</v>
+        <v>-0.004205054820925419</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3923,7 +3923,7 @@
         <v>95</v>
       </c>
       <c r="B87">
-        <v>0.6288788222960804</v>
+        <v>0.0007477810650887602</v>
       </c>
       <c r="C87">
         <v>-0.003819806587860266</v>
@@ -3935,22 +3935,22 @@
         <v>0.1715293140777536</v>
       </c>
       <c r="F87">
-        <v>-0.00690430898355659</v>
+        <v>-0.0009897828078230739</v>
       </c>
       <c r="G87">
         <v>0.3046599958563264</v>
       </c>
       <c r="H87">
-        <v>-0.0009897828078230739</v>
+        <v>-0.008260585948897415</v>
       </c>
       <c r="I87">
-        <v>-0.008260585948897415</v>
+        <v>-0.003820142784805469</v>
       </c>
       <c r="J87">
-        <v>-0.003820142784805469</v>
+        <v>0.6288788222960804</v>
       </c>
       <c r="K87">
-        <v>0.0007477810650887602</v>
+        <v>-0.00690430898355659</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3958,7 +3958,7 @@
         <v>96</v>
       </c>
       <c r="B88">
-        <v>0.6112706429317596</v>
+        <v>-0.0007938856015779067</v>
       </c>
       <c r="C88">
         <v>-0.004711139162082403</v>
@@ -3970,22 +3970,22 @@
         <v>0.1837329965424921</v>
       </c>
       <c r="F88">
-        <v>-0.006026685881876987</v>
+        <v>0.001095073612582022</v>
       </c>
       <c r="G88">
         <v>0.3159148480303677</v>
       </c>
       <c r="H88">
-        <v>0.001095073612582022</v>
+        <v>-0.007523016277528683</v>
       </c>
       <c r="I88">
-        <v>-0.007523016277528683</v>
+        <v>-0.00075648064170597</v>
       </c>
       <c r="J88">
-        <v>-0.00075648064170597</v>
+        <v>0.6112706429317596</v>
       </c>
       <c r="K88">
-        <v>-0.0007938856015779067</v>
+        <v>-0.006026685881876987</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3993,7 +3993,7 @@
         <v>97</v>
       </c>
       <c r="B89">
-        <v>0.6183962654673607</v>
+        <v>-0.001218885601577908</v>
       </c>
       <c r="C89">
         <v>0.003541775660845379</v>
@@ -4005,22 +4005,22 @@
         <v>0.1790487519788515</v>
       </c>
       <c r="F89">
-        <v>-0.001802491195862338</v>
+        <v>-0.005140932857569287</v>
       </c>
       <c r="G89">
         <v>0.3004062797285753</v>
       </c>
       <c r="H89">
-        <v>-0.005140932857569287</v>
+        <v>-0.004938088753307557</v>
       </c>
       <c r="I89">
-        <v>-0.004938088753307557</v>
+        <v>0.003618241583406068</v>
       </c>
       <c r="J89">
-        <v>0.003618241583406068</v>
+        <v>0.6183962654673607</v>
       </c>
       <c r="K89">
-        <v>-0.001218885601577908</v>
+        <v>-0.001802491195862338</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4028,7 +4028,7 @@
         <v>98</v>
       </c>
       <c r="B90">
-        <v>0.5871559625278868</v>
+        <v>-0.0007605522682445753</v>
       </c>
       <c r="C90">
         <v>-0.01612652186332283</v>
@@ -4040,22 +4040,22 @@
         <v>0.1729030366994415</v>
       </c>
       <c r="F90">
-        <v>-0.004196504169096166</v>
+        <v>0.02768176257424626</v>
       </c>
       <c r="G90">
         <v>0.3198137017808753</v>
       </c>
       <c r="H90">
-        <v>0.02768176257424626</v>
+        <v>-0.004977821133051197</v>
       </c>
       <c r="I90">
-        <v>-0.004977821133051197</v>
+        <v>0.01319091183926169</v>
       </c>
       <c r="J90">
-        <v>0.01319091183926169</v>
+        <v>0.5871559625278868</v>
       </c>
       <c r="K90">
-        <v>-0.0007605522682445753</v>
+        <v>-0.004196504169096166</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4063,7 +4063,7 @@
         <v>99</v>
       </c>
       <c r="B91">
-        <v>0.6080432628880219</v>
+        <v>-0.0004605522682445753</v>
       </c>
       <c r="C91">
         <v>-0.003165927437922735</v>
@@ -4075,22 +4075,22 @@
         <v>0.174425415361851</v>
       </c>
       <c r="F91">
-        <v>-0.003927817751569635</v>
+        <v>0.02502141046073959</v>
       </c>
       <c r="G91">
         <v>0.3324858165736838</v>
       </c>
       <c r="H91">
-        <v>0.02502141046073959</v>
+        <v>-0.00538329060394468</v>
       </c>
       <c r="I91">
-        <v>-0.00538329060394468</v>
+        <v>0.01560452042759808</v>
       </c>
       <c r="J91">
-        <v>0.01560452042759808</v>
+        <v>0.6080432628880219</v>
       </c>
       <c r="K91">
-        <v>-0.0004605522682445753</v>
+        <v>-0.003927817751569635</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4098,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="B92">
-        <v>0.6370613830037293</v>
+        <v>0.0005061143984220941</v>
       </c>
       <c r="C92">
         <v>-0.01033509506426819</v>
@@ -4110,22 +4110,22 @@
         <v>0.1688138413122742</v>
       </c>
       <c r="F92">
-        <v>-0.0004645088376387611</v>
+        <v>0.01999320091686407</v>
       </c>
       <c r="G92">
         <v>0.3375047237108525</v>
       </c>
       <c r="H92">
-        <v>0.01999320091686407</v>
+        <v>-0.004325738401895396</v>
       </c>
       <c r="I92">
-        <v>-0.004325738401895396</v>
+        <v>0.02016390109234267</v>
       </c>
       <c r="J92">
-        <v>0.02016390109234267</v>
+        <v>0.6370613830037293</v>
       </c>
       <c r="K92">
-        <v>0.0005061143984220941</v>
+        <v>-0.0004645088376387611</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4133,7 +4133,7 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>0.6323954814701951</v>
+        <v>5.61143984220934e-05</v>
       </c>
       <c r="C93">
         <v>-0.004869784177639249</v>
@@ -4145,22 +4145,22 @@
         <v>0.1713357627716627</v>
       </c>
       <c r="F93">
-        <v>-0.005201685556723007</v>
+        <v>0.03824310520003464</v>
       </c>
       <c r="G93">
         <v>0.337451328326544</v>
       </c>
       <c r="H93">
-        <v>0.03824310520003464</v>
+        <v>-0.001127339246581449</v>
       </c>
       <c r="I93">
-        <v>-0.001127339246581449</v>
+        <v>0.03008207804424945</v>
       </c>
       <c r="J93">
-        <v>0.03008207804424945</v>
+        <v>0.6323954814701951</v>
       </c>
       <c r="K93">
-        <v>5.61143984220934e-05</v>
+        <v>-0.005201685556723007</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4168,7 +4168,7 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>0.6371847233414574</v>
+        <v>-0.000293885601577908</v>
       </c>
       <c r="C94">
         <v>-0.0008544744988625251</v>
@@ -4180,22 +4180,22 @@
         <v>0.1467374234559404</v>
       </c>
       <c r="F94">
-        <v>-0.001123223123000778</v>
+        <v>0.02215040084529848</v>
       </c>
       <c r="G94">
         <v>0.3428923064764337</v>
       </c>
       <c r="H94">
-        <v>0.02215040084529848</v>
+        <v>-0.006949438067446046</v>
       </c>
       <c r="I94">
-        <v>-0.006949438067446046</v>
+        <v>0.03512859223207254</v>
       </c>
       <c r="J94">
-        <v>0.03512859223207254</v>
+        <v>0.6371847233414574</v>
       </c>
       <c r="K94">
-        <v>-0.000293885601577908</v>
+        <v>-0.001123223123000778</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4203,7 +4203,7 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>0.6592387298908395</v>
+        <v>0.00092278106508876</v>
       </c>
       <c r="C95">
         <v>-0.003098026959561486</v>
@@ -4215,22 +4215,22 @@
         <v>0.152186602461124</v>
       </c>
       <c r="F95">
-        <v>-0.001004692110399269</v>
+        <v>0.05048720587113553</v>
       </c>
       <c r="G95">
         <v>0.338575472217776</v>
       </c>
       <c r="H95">
-        <v>0.05048720587113553</v>
+        <v>-0.000562234901512049</v>
       </c>
       <c r="I95">
-        <v>-0.000562234901512049</v>
+        <v>0.04054399020347255</v>
       </c>
       <c r="J95">
-        <v>0.04054399020347255</v>
+        <v>0.6592387298908395</v>
       </c>
       <c r="K95">
-        <v>0.00092278106508876</v>
+        <v>-0.001004692110399269</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4238,7 +4238,7 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>0.6619490813341491</v>
+        <v>0.002922781065088762</v>
       </c>
       <c r="C96">
         <v>-0.001570962815485823</v>
@@ -4250,22 +4250,22 @@
         <v>0.1503366212688588</v>
       </c>
       <c r="F96">
-        <v>0.0009827971327531267</v>
+        <v>0.04690028886266125</v>
       </c>
       <c r="G96">
         <v>0.3398038969032331</v>
       </c>
       <c r="H96">
-        <v>0.04690028886266125</v>
+        <v>-0.003135520845202045</v>
       </c>
       <c r="I96">
-        <v>-0.003135520845202045</v>
+        <v>0.04432232015984638</v>
       </c>
       <c r="J96">
-        <v>0.04432232015984638</v>
+        <v>0.6619490813341491</v>
       </c>
       <c r="K96">
-        <v>0.002922781065088762</v>
+        <v>0.0009827971327531267</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4273,7 +4273,7 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>0.6701201984491787</v>
+        <v>0.004714447731755425</v>
       </c>
       <c r="C97">
         <v>-0.005344283428893006</v>
@@ -4285,22 +4285,22 @@
         <v>0.156956979501599</v>
       </c>
       <c r="F97">
-        <v>-0.001251607107350112</v>
+        <v>0.05190225607831815</v>
       </c>
       <c r="G97">
         <v>0.330042981125153</v>
       </c>
       <c r="H97">
-        <v>0.05190225607831815</v>
+        <v>-6.458040621167872e-05</v>
       </c>
       <c r="I97">
-        <v>-6.458040621167872e-05</v>
+        <v>0.0513896313165958</v>
       </c>
       <c r="J97">
-        <v>0.0513896313165958</v>
+        <v>0.6701201984491787</v>
       </c>
       <c r="K97">
-        <v>0.004714447731755425</v>
+        <v>-0.001251607107350112</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4308,7 +4308,7 @@
         <v>106</v>
       </c>
       <c r="B98">
-        <v>0.6841921846474692</v>
+        <v>0.006747781065088757</v>
       </c>
       <c r="C98">
         <v>0.0008900852218614343</v>
@@ -4320,22 +4320,22 @@
         <v>0.1476735730151315</v>
       </c>
       <c r="F98">
-        <v>0.0008254749597904117</v>
+        <v>0.04131732677454206</v>
       </c>
       <c r="G98">
         <v>0.3405904315773458</v>
       </c>
       <c r="H98">
-        <v>0.04131732677454206</v>
+        <v>-0.001221441002475643</v>
       </c>
       <c r="I98">
-        <v>-0.001221441002475643</v>
+        <v>0.05887792995158803</v>
       </c>
       <c r="J98">
-        <v>0.05887792995158803</v>
+        <v>0.6841921846474692</v>
       </c>
       <c r="K98">
-        <v>0.006747781065088757</v>
+        <v>0.0008254749597904117</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4343,7 +4343,7 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>0.6960564146885453</v>
+        <v>0.006422781065088755</v>
       </c>
       <c r="C99">
         <v>-0.002087308629560716</v>
@@ -4355,22 +4355,22 @@
         <v>0.1151750751477119</v>
       </c>
       <c r="F99">
-        <v>0.001822801306255733</v>
+        <v>0.04235874306439377</v>
       </c>
       <c r="G99">
         <v>0.3479186203228147</v>
       </c>
       <c r="H99">
-        <v>0.04235874306439377</v>
+        <v>-0.003711542746808483</v>
       </c>
       <c r="I99">
-        <v>-0.003711542746808483</v>
+        <v>0.05817148176857456</v>
       </c>
       <c r="J99">
-        <v>0.05817148176857456</v>
+        <v>0.6960564146885453</v>
       </c>
       <c r="K99">
-        <v>0.006422781065088755</v>
+        <v>0.001822801306255733</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4378,7 +4378,7 @@
         <v>108</v>
       </c>
       <c r="B100">
-        <v>0.7221160344400834</v>
+        <v>0.005006114398422095</v>
       </c>
       <c r="C100">
         <v>-0.00396027877198676</v>
@@ -4390,22 +4390,22 @@
         <v>0.1021737027984431</v>
       </c>
       <c r="F100">
-        <v>-0.00228959762009145</v>
+        <v>0.05719483669813501</v>
       </c>
       <c r="G100">
         <v>0.3410771631571818</v>
       </c>
       <c r="H100">
-        <v>0.05719483669813501</v>
+        <v>-0.002072912333729604</v>
       </c>
       <c r="I100">
-        <v>-0.002072912333729604</v>
+        <v>0.05501993788725557</v>
       </c>
       <c r="J100">
-        <v>0.05501993788725557</v>
+        <v>0.7221160344400834</v>
       </c>
       <c r="K100">
-        <v>0.005006114398422095</v>
+        <v>-0.00228959762009145</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4413,7 +4413,7 @@
         <v>109</v>
       </c>
       <c r="B101">
-        <v>0.7050702526480261</v>
+        <v>0.004531114398422091</v>
       </c>
       <c r="C101">
         <v>0.0005556570678717822</v>
@@ -4425,22 +4425,22 @@
         <v>0.07846429524888432</v>
       </c>
       <c r="F101">
-        <v>-0.004152223472631051</v>
+        <v>0.05983062505372369</v>
       </c>
       <c r="G101">
         <v>0.3306487270765237</v>
       </c>
       <c r="H101">
-        <v>0.05983062505372369</v>
+        <v>-0.0004795627848471432</v>
       </c>
       <c r="I101">
-        <v>-0.0004795627848471432</v>
+        <v>0.05266749475058496</v>
       </c>
       <c r="J101">
-        <v>0.05266749475058496</v>
+        <v>0.7050702526480261</v>
       </c>
       <c r="K101">
-        <v>0.004531114398422091</v>
+        <v>-0.004152223472631051</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4448,7 +4448,7 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>0.7102389595470395</v>
+        <v>0.00479778106508876</v>
       </c>
       <c r="C102">
         <v>0.001670497667754654</v>
@@ -4460,22 +4460,22 @@
         <v>0.08079862975393759</v>
       </c>
       <c r="F102">
-        <v>0.001973475263865992</v>
+        <v>0.06658492182830136</v>
       </c>
       <c r="G102">
         <v>0.3411666610400989</v>
       </c>
       <c r="H102">
-        <v>0.06658492182830136</v>
+        <v>0.0007308106571283553</v>
       </c>
       <c r="I102">
-        <v>0.0007308106571283553</v>
+        <v>0.04942442539472358</v>
       </c>
       <c r="J102">
-        <v>0.04942442539472358</v>
+        <v>0.7102389595470395</v>
       </c>
       <c r="K102">
-        <v>0.00479778106508876</v>
+        <v>0.001973475263865992</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4483,7 +4483,7 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>0.6907656499063144</v>
+        <v>0.004764447731755427</v>
       </c>
       <c r="C103">
         <v>-0.007914332795264403</v>
@@ -4495,22 +4495,22 @@
         <v>0.03930154417638931</v>
       </c>
       <c r="F103">
-        <v>0.002285359499561273</v>
+        <v>0.03497162075085915</v>
       </c>
       <c r="G103">
         <v>0.3189974549785513</v>
       </c>
       <c r="H103">
-        <v>0.03497162075085915</v>
+        <v>-0.001704501768796074</v>
       </c>
       <c r="I103">
-        <v>-0.001704501768796074</v>
+        <v>0.05250965322053691</v>
       </c>
       <c r="J103">
-        <v>0.05250965322053691</v>
+        <v>0.6907656499063144</v>
       </c>
       <c r="K103">
-        <v>0.004764447731755427</v>
+        <v>0.002285359499561273</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4518,7 +4518,7 @@
         <v>112</v>
       </c>
       <c r="B104">
-        <v>0.6946735002772408</v>
+        <v>0.004089447731755425</v>
       </c>
       <c r="C104">
         <v>-0.006683972899391679</v>
@@ -4530,22 +4530,22 @@
         <v>-0.02138454624548025</v>
       </c>
       <c r="F104">
-        <v>-0.0003991226882816227</v>
+        <v>0.01624443269371075</v>
       </c>
       <c r="G104">
         <v>0.3245770372743639</v>
       </c>
       <c r="H104">
-        <v>0.01624443269371075</v>
+        <v>-0.002770105135772106</v>
       </c>
       <c r="I104">
-        <v>-0.002770105135772106</v>
+        <v>0.04718942917464464</v>
       </c>
       <c r="J104">
-        <v>0.04718942917464464</v>
+        <v>0.6946735002772408</v>
       </c>
       <c r="K104">
-        <v>0.004089447731755425</v>
+        <v>-0.0003991226882816227</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4553,7 +4553,7 @@
         <v>113</v>
       </c>
       <c r="B105">
-        <v>0.6726907907116537</v>
+        <v>0.002872781065088757</v>
       </c>
       <c r="C105">
         <v>-0.005963436417209169</v>
@@ -4565,22 +4565,22 @@
         <v>-0.08098937762466996</v>
       </c>
       <c r="F105">
-        <v>-0.0003915384586088925</v>
+        <v>-0.01241102750402576</v>
       </c>
       <c r="G105">
         <v>0.3051231327348425</v>
       </c>
       <c r="H105">
-        <v>-0.01241102750402576</v>
+        <v>-0.004132338655551038</v>
       </c>
       <c r="I105">
-        <v>-0.004132338655551038</v>
+        <v>0.03620018277495163</v>
       </c>
       <c r="J105">
-        <v>0.03620018277495163</v>
+        <v>0.6726907907116537</v>
       </c>
       <c r="K105">
-        <v>0.002872781065088757</v>
+        <v>-0.0003915384586088925</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4588,7 +4588,7 @@
         <v>114</v>
       </c>
       <c r="B106">
-        <v>0.6444434741747367</v>
+        <v>0.0004561143984220927</v>
       </c>
       <c r="C106">
         <v>-0.003049104545053995</v>
@@ -4600,22 +4600,22 @@
         <v>-0.1446105686394317</v>
       </c>
       <c r="F106">
-        <v>0.002095725939262166</v>
+        <v>-0.0544339048491939</v>
       </c>
       <c r="G106">
         <v>0.2974805852376712</v>
       </c>
       <c r="H106">
-        <v>-0.0544339048491939</v>
+        <v>-0.00482423859400124</v>
       </c>
       <c r="I106">
-        <v>-0.00482423859400124</v>
+        <v>0.02626462993225376</v>
       </c>
       <c r="J106">
-        <v>0.02626462993225376</v>
+        <v>0.6444434741747367</v>
       </c>
       <c r="K106">
-        <v>0.0004561143984220927</v>
+        <v>0.002095725939262166</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4623,7 +4623,7 @@
         <v>115</v>
       </c>
       <c r="B107">
-        <v>0.6329202270696728</v>
+        <v>-0.0007022189349112414</v>
       </c>
       <c r="C107">
         <v>-0.009935310742481742</v>
@@ -4635,22 +4635,22 @@
         <v>-0.1233120589877794</v>
       </c>
       <c r="F107">
-        <v>-0.003677036365615166</v>
+        <v>-0.07657502597353988</v>
       </c>
       <c r="G107">
         <v>0.3115134544910585</v>
       </c>
       <c r="H107">
-        <v>-0.07657502597353988</v>
+        <v>-0.002000534537249432</v>
       </c>
       <c r="I107">
-        <v>-0.002000534537249432</v>
+        <v>0.02412983155609005</v>
       </c>
       <c r="J107">
-        <v>0.02412983155609005</v>
+        <v>0.6329202270696728</v>
       </c>
       <c r="K107">
-        <v>-0.0007022189349112414</v>
+        <v>-0.003677036365615166</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4658,7 +4658,7 @@
         <v>116</v>
       </c>
       <c r="B108">
-        <v>0.6208823890700854</v>
+        <v>-0.001160552268244576</v>
       </c>
       <c r="C108">
         <v>-0.0101809749365411</v>
@@ -4670,22 +4670,22 @@
         <v>-0.08503532086427334</v>
       </c>
       <c r="F108">
-        <v>-0.001390841581055341</v>
+        <v>-0.09375094379087112</v>
       </c>
       <c r="G108">
         <v>0.3125069212551442</v>
       </c>
       <c r="H108">
-        <v>-0.09375094379087112</v>
+        <v>-0.004292669072042255</v>
       </c>
       <c r="I108">
-        <v>-0.004292669072042255</v>
+        <v>0.03048878618913742</v>
       </c>
       <c r="J108">
-        <v>0.03048878618913742</v>
+        <v>0.6208823890700854</v>
       </c>
       <c r="K108">
-        <v>-0.001160552268244576</v>
+        <v>-0.001390841581055341</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4693,7 +4693,7 @@
         <v>117</v>
       </c>
       <c r="B109">
-        <v>0.6127440923399146</v>
+        <v>-0.00325221893491124</v>
       </c>
       <c r="C109">
         <v>-0.00896286273087751</v>
@@ -4705,22 +4705,22 @@
         <v>-0.06627175498264393</v>
       </c>
       <c r="F109">
-        <v>-0.005889856352204121</v>
+        <v>-0.1074436795974745</v>
       </c>
       <c r="G109">
         <v>0.2863975319179641</v>
       </c>
       <c r="H109">
-        <v>-0.1074436795974745</v>
+        <v>-0.006223544358178479</v>
       </c>
       <c r="I109">
-        <v>-0.006223544358178479</v>
+        <v>0.03016006073052502</v>
       </c>
       <c r="J109">
-        <v>0.03016006073052502</v>
+        <v>0.6127440923399146</v>
       </c>
       <c r="K109">
-        <v>-0.00325221893491124</v>
+        <v>-0.005889856352204121</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4728,7 +4728,7 @@
         <v>118</v>
       </c>
       <c r="B110">
-        <v>0.606215293599595</v>
+        <v>-0.004868885601577907</v>
       </c>
       <c r="C110">
         <v>-0.007267197801346294</v>
@@ -4740,22 +4740,22 @@
         <v>-0.01862710969254344</v>
       </c>
       <c r="F110">
-        <v>-0.004429768912785065</v>
+        <v>-0.1174952821909001</v>
       </c>
       <c r="G110">
         <v>0.2887884743545167</v>
       </c>
       <c r="H110">
-        <v>-0.1174952821909001</v>
+        <v>-0.005623991795749095</v>
       </c>
       <c r="I110">
-        <v>-0.005623991795749095</v>
+        <v>0.02925908868833726</v>
       </c>
       <c r="J110">
-        <v>0.02925908868833726</v>
+        <v>0.606215293599595</v>
       </c>
       <c r="K110">
-        <v>-0.004868885601577907</v>
+        <v>-0.004429768912785065</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4763,7 +4763,7 @@
         <v>119</v>
       </c>
       <c r="B111">
-        <v>0.642877226674476</v>
+        <v>-0.005402218934911241</v>
       </c>
       <c r="C111">
         <v>-0.005832653682355384</v>
@@ -4775,22 +4775,22 @@
         <v>0.01657888646059558</v>
       </c>
       <c r="F111">
-        <v>-0.005313681120976682</v>
+        <v>-0.1205794039693008</v>
       </c>
       <c r="G111">
         <v>0.2849711006897684</v>
       </c>
       <c r="H111">
-        <v>-0.1205794039693008</v>
+        <v>-0.004724350129357536</v>
       </c>
       <c r="I111">
-        <v>-0.004724350129357536</v>
+        <v>0.03491439982076372</v>
       </c>
       <c r="J111">
-        <v>0.03491439982076372</v>
+        <v>0.642877226674476</v>
       </c>
       <c r="K111">
-        <v>-0.005402218934911241</v>
+        <v>-0.005313681120976682</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4798,7 +4798,7 @@
         <v>120</v>
       </c>
       <c r="B112">
-        <v>0.6602834378431899</v>
+        <v>-0.006893885601577907</v>
       </c>
       <c r="C112">
         <v>-0.0121244369443538</v>
@@ -4810,22 +4810,22 @@
         <v>0.01649250300004823</v>
       </c>
       <c r="F112">
-        <v>-0.004898784206946389</v>
+        <v>-0.1361171300597162</v>
       </c>
       <c r="G112">
         <v>0.2825040556355597</v>
       </c>
       <c r="H112">
-        <v>-0.1361171300597162</v>
+        <v>-0.005075113896255779</v>
       </c>
       <c r="I112">
-        <v>-0.005075113896255779</v>
+        <v>0.03325074184366317</v>
       </c>
       <c r="J112">
-        <v>0.03325074184366317</v>
+        <v>0.6602834378431899</v>
       </c>
       <c r="K112">
-        <v>-0.006893885601577907</v>
+        <v>-0.004898784206946389</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4833,7 +4833,7 @@
         <v>121</v>
       </c>
       <c r="B113">
-        <v>0.6870375637640613</v>
+        <v>-0.00692721893491124</v>
       </c>
       <c r="C113">
         <v>-0.00537510464622112</v>
@@ -4845,22 +4845,22 @@
         <v>0.0466211435614321</v>
       </c>
       <c r="F113">
-        <v>-0.003476034837060432</v>
+        <v>-0.1362334416691145</v>
       </c>
       <c r="G113">
         <v>0.3029601796905811</v>
       </c>
       <c r="H113">
-        <v>-0.1362334416691145</v>
+        <v>-0.005419661514494212</v>
       </c>
       <c r="I113">
-        <v>-0.005419661514494212</v>
+        <v>0.03543152754463197</v>
       </c>
       <c r="J113">
-        <v>0.03543152754463197</v>
+        <v>0.6870375637640613</v>
       </c>
       <c r="K113">
-        <v>-0.00692721893491124</v>
+        <v>-0.003476034837060432</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4868,7 +4868,7 @@
         <v>122</v>
       </c>
       <c r="B114">
-        <v>0.6904312749023118</v>
+        <v>-0.007202218934911242</v>
       </c>
       <c r="C114">
         <v>-0.006364380259314042</v>
@@ -4880,22 +4880,22 @@
         <v>0.04878888589643005</v>
       </c>
       <c r="F114">
-        <v>-0.001761970463668711</v>
+        <v>-0.1187455380303678</v>
       </c>
       <c r="G114">
         <v>0.2904231252100836</v>
       </c>
       <c r="H114">
-        <v>-0.1187455380303678</v>
+        <v>-0.003626547904875455</v>
       </c>
       <c r="I114">
-        <v>-0.003626547904875455</v>
+        <v>0.04156473893310508</v>
       </c>
       <c r="J114">
-        <v>0.04156473893310508</v>
+        <v>0.6904312749023118</v>
       </c>
       <c r="K114">
-        <v>-0.007202218934911242</v>
+        <v>-0.001761970463668711</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4903,7 +4903,7 @@
         <v>123</v>
       </c>
       <c r="B115">
-        <v>0.7145066733142889</v>
+        <v>-0.007185552268244574</v>
       </c>
       <c r="C115">
         <v>-0.006149298277774853</v>
@@ -4915,22 +4915,22 @@
         <v>0.05796926901790567</v>
       </c>
       <c r="F115">
-        <v>-0.004686471916230112</v>
+        <v>-0.09920220661011298</v>
       </c>
       <c r="G115">
         <v>0.319937662883043</v>
       </c>
       <c r="H115">
-        <v>-0.09920220661011298</v>
+        <v>-0.006102777411486205</v>
       </c>
       <c r="I115">
-        <v>-0.006102777411486205</v>
+        <v>0.04926156333798781</v>
       </c>
       <c r="J115">
-        <v>0.04926156333798781</v>
+        <v>0.7145066733142889</v>
       </c>
       <c r="K115">
-        <v>-0.007185552268244574</v>
+        <v>-0.004686471916230112</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4938,7 +4938,7 @@
         <v>124</v>
       </c>
       <c r="B116">
-        <v>0.7228388728571105</v>
+        <v>-0.007093885601577906</v>
       </c>
       <c r="C116">
         <v>-0.008544493935295185</v>
@@ -4950,22 +4950,22 @@
         <v>0.08934215661946965</v>
       </c>
       <c r="F116">
-        <v>-0.005136023671042317</v>
+        <v>-0.08377159173513621</v>
       </c>
       <c r="G116">
         <v>0.3125981470455133</v>
       </c>
       <c r="H116">
-        <v>-0.08377159173513621</v>
+        <v>-0.005527204674409781</v>
       </c>
       <c r="I116">
-        <v>-0.005527204674409781</v>
+        <v>0.05244573966843147</v>
       </c>
       <c r="J116">
-        <v>0.05244573966843147</v>
+        <v>0.7228388728571105</v>
       </c>
       <c r="K116">
-        <v>-0.007093885601577906</v>
+        <v>-0.005136023671042317</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4973,7 +4973,7 @@
         <v>125</v>
       </c>
       <c r="B117">
-        <v>0.7610322244463887</v>
+        <v>-0.00695221893491124</v>
       </c>
       <c r="C117">
         <v>-0.006187240572292221</v>
@@ -4985,22 +4985,22 @@
         <v>0.1357277710454117</v>
       </c>
       <c r="F117">
-        <v>-0.005171387451263826</v>
+        <v>-0.06904010027180393</v>
       </c>
       <c r="G117">
         <v>0.306962033383801</v>
       </c>
       <c r="H117">
-        <v>-0.06904010027180393</v>
+        <v>-0.004363725195960367</v>
       </c>
       <c r="I117">
-        <v>-0.004363725195960367</v>
+        <v>0.05920750890472837</v>
       </c>
       <c r="J117">
-        <v>0.05920750890472837</v>
+        <v>0.7610322244463887</v>
       </c>
       <c r="K117">
-        <v>-0.00695221893491124</v>
+        <v>-0.005171387451263826</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -5008,7 +5008,7 @@
         <v>126</v>
       </c>
       <c r="B118">
-        <v>0.7686222426123832</v>
+        <v>-0.006493885601577907</v>
       </c>
       <c r="C118">
         <v>-0.00574201492704304</v>
@@ -5020,22 +5020,22 @@
         <v>0.1527750320711858</v>
       </c>
       <c r="F118">
-        <v>-0.004983424496079409</v>
+        <v>-0.06923134970234518</v>
       </c>
       <c r="G118">
         <v>0.3487241043982338</v>
       </c>
       <c r="H118">
-        <v>-0.06923134970234518</v>
+        <v>-0.003817504700844488</v>
       </c>
       <c r="I118">
-        <v>-0.003817504700844488</v>
+        <v>0.0641480373975174</v>
       </c>
       <c r="J118">
-        <v>0.0641480373975174</v>
+        <v>0.7686222426123832</v>
       </c>
       <c r="K118">
-        <v>-0.006493885601577907</v>
+        <v>-0.004983424496079409</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -5043,7 +5043,7 @@
         <v>127</v>
       </c>
       <c r="B119">
-        <v>0.78632114399554</v>
+        <v>-0.004635552268244574</v>
       </c>
       <c r="C119">
         <v>-0.004137395997099804</v>
@@ -5055,22 +5055,22 @@
         <v>0.1837179406845664</v>
       </c>
       <c r="F119">
-        <v>-0.00476890277658098</v>
+        <v>-0.03268077051514135</v>
       </c>
       <c r="G119">
         <v>0.352342840720103</v>
       </c>
       <c r="H119">
-        <v>-0.03268077051514135</v>
+        <v>-0.006230997850250908</v>
       </c>
       <c r="I119">
-        <v>-0.006230997850250908</v>
+        <v>0.08100993785159494</v>
       </c>
       <c r="J119">
-        <v>0.08100993785159494</v>
+        <v>0.78632114399554</v>
       </c>
       <c r="K119">
-        <v>-0.004635552268244574</v>
+        <v>-0.00476890277658098</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5078,7 +5078,7 @@
         <v>128</v>
       </c>
       <c r="B120">
-        <v>0.8021611241048152</v>
+        <v>-0.003410552268244575</v>
       </c>
       <c r="C120">
         <v>-0.002566536678971078</v>
@@ -5090,22 +5090,22 @@
         <v>0.1704641849324533</v>
       </c>
       <c r="F120">
-        <v>-0.001277019882313596</v>
+        <v>-0.02246242845945984</v>
       </c>
       <c r="G120">
         <v>0.3476634116574649</v>
       </c>
       <c r="H120">
-        <v>-0.02246242845945984</v>
+        <v>-0.005082122022177582</v>
       </c>
       <c r="I120">
-        <v>-0.005082122022177582</v>
+        <v>0.08523006246669818</v>
       </c>
       <c r="J120">
-        <v>0.08523006246669818</v>
+        <v>0.8021611241048152</v>
       </c>
       <c r="K120">
-        <v>-0.003410552268244575</v>
+        <v>-0.001277019882313596</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5113,7 +5113,7 @@
         <v>129</v>
       </c>
       <c r="B121">
-        <v>0.8426403317144588</v>
+        <v>-0.001402218934911241</v>
       </c>
       <c r="C121">
         <v>-0.00332772042189974</v>
@@ -5125,22 +5125,22 @@
         <v>0.1547842792926879</v>
       </c>
       <c r="F121">
-        <v>-0.005498927529911818</v>
+        <v>-0.01232774556495604</v>
       </c>
       <c r="G121">
         <v>0.3487743762976653</v>
       </c>
       <c r="H121">
-        <v>-0.01232774556495604</v>
+        <v>-0.00337232742189294</v>
       </c>
       <c r="I121">
-        <v>-0.00337232742189294</v>
+        <v>0.09263054126617654</v>
       </c>
       <c r="J121">
-        <v>0.09263054126617654</v>
+        <v>0.8426403317144588</v>
       </c>
       <c r="K121">
-        <v>-0.001402218934911241</v>
+        <v>-0.005498927529911818</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5148,7 +5148,7 @@
         <v>130</v>
       </c>
       <c r="B122">
-        <v>0.8812310725164467</v>
+        <v>-0.0002605522682445731</v>
       </c>
       <c r="C122">
         <v>-0.01138769002814019</v>
@@ -5160,22 +5160,22 @@
         <v>0.1307506724235603</v>
       </c>
       <c r="F122">
-        <v>-0.004362455624508372</v>
+        <v>-0.0171246034437084</v>
       </c>
       <c r="G122">
         <v>0.348726478271386</v>
       </c>
       <c r="H122">
-        <v>-0.0171246034437084</v>
+        <v>-0.005168181570657094</v>
       </c>
       <c r="I122">
-        <v>-0.005168181570657094</v>
+        <v>0.09556896489175015</v>
       </c>
       <c r="J122">
-        <v>0.09556896489175015</v>
+        <v>0.8812310725164467</v>
       </c>
       <c r="K122">
-        <v>-0.0002605522682445731</v>
+        <v>-0.004362455624508372</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5183,7 +5183,7 @@
         <v>131</v>
       </c>
       <c r="B123">
-        <v>0.8861650047210405</v>
+        <v>-0.0006105522682445744</v>
       </c>
       <c r="C123">
         <v>0.0007031996420135168</v>
@@ -5195,22 +5195,22 @@
         <v>0.09623951711295753</v>
       </c>
       <c r="F123">
-        <v>-0.005491412836018001</v>
+        <v>-0.0192355102310899</v>
       </c>
       <c r="G123">
         <v>0.3529054844394781</v>
       </c>
       <c r="H123">
-        <v>-0.0192355102310899</v>
+        <v>-0.00491760315781783</v>
       </c>
       <c r="I123">
-        <v>-0.00491760315781783</v>
+        <v>0.08608601774150815</v>
       </c>
       <c r="J123">
-        <v>0.08608601774150815</v>
+        <v>0.8861650047210405</v>
       </c>
       <c r="K123">
-        <v>-0.0006105522682445744</v>
+        <v>-0.005491412836018001</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5218,7 +5218,7 @@
         <v>132</v>
       </c>
       <c r="B124">
-        <v>0.8903006757395477</v>
+        <v>-0.001185552268244574</v>
       </c>
       <c r="C124">
         <v>-0.00573083155894746</v>
@@ -5230,22 +5230,22 @@
         <v>0.1243916664122073</v>
       </c>
       <c r="F124">
-        <v>-0.006051513338180265</v>
+        <v>-0.003679654805896711</v>
       </c>
       <c r="G124">
         <v>0.3575839338028726</v>
       </c>
       <c r="H124">
-        <v>-0.003679654805896711</v>
+        <v>-0.002675137956862439</v>
       </c>
       <c r="I124">
-        <v>-0.002675137956862439</v>
+        <v>0.08657869353772174</v>
       </c>
       <c r="J124">
-        <v>0.08657869353772174</v>
+        <v>0.8903006757395477</v>
       </c>
       <c r="K124">
-        <v>-0.001185552268244574</v>
+        <v>-0.006051513338180265</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5253,7 +5253,7 @@
         <v>133</v>
       </c>
       <c r="B125">
-        <v>0.9075602190434973</v>
+        <v>-0.001452218934911239</v>
       </c>
       <c r="C125">
         <v>-0.008455548946427718</v>
@@ -5265,22 +5265,22 @@
         <v>0.1440280347395282</v>
       </c>
       <c r="F125">
-        <v>-0.007058183211618158</v>
+        <v>0.006766406246987662</v>
       </c>
       <c r="G125">
         <v>0.3383633310679882</v>
       </c>
       <c r="H125">
-        <v>0.006766406246987662</v>
+        <v>-0.003879135640677401</v>
       </c>
       <c r="I125">
-        <v>-0.003879135640677401</v>
+        <v>0.08732402466158096</v>
       </c>
       <c r="J125">
-        <v>0.08732402466158096</v>
+        <v>0.9075602190434973</v>
       </c>
       <c r="K125">
-        <v>-0.001452218934911239</v>
+        <v>-0.007058183211618158</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5288,7 +5288,7 @@
         <v>134</v>
       </c>
       <c r="B126">
-        <v>0.9298160746827024</v>
+        <v>-0.002277218934911241</v>
       </c>
       <c r="C126">
         <v>-0.004209889577489547</v>
@@ -5300,22 +5300,22 @@
         <v>0.1678346697061146</v>
       </c>
       <c r="F126">
-        <v>-0.005129396180564122</v>
+        <v>0.008591475406404939</v>
       </c>
       <c r="G126">
         <v>0.3698866436252126</v>
       </c>
       <c r="H126">
-        <v>0.008591475406404939</v>
+        <v>-0.003652452869201983</v>
       </c>
       <c r="I126">
-        <v>-0.003652452869201983</v>
+        <v>0.07854421184211535</v>
       </c>
       <c r="J126">
-        <v>0.07854421184211535</v>
+        <v>0.9298160746827024</v>
       </c>
       <c r="K126">
-        <v>-0.002277218934911241</v>
+        <v>-0.005129396180564122</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5323,7 +5323,7 @@
         <v>135</v>
       </c>
       <c r="B127">
-        <v>0.9556239536034443</v>
+        <v>-0.002052218934911242</v>
       </c>
       <c r="C127">
         <v>-0.004701590543088243</v>
@@ -5335,22 +5335,22 @@
         <v>0.2067545453150226</v>
       </c>
       <c r="F127">
-        <v>-0.00566838263779706</v>
+        <v>0.02982740539037931</v>
       </c>
       <c r="G127">
         <v>0.3633844554593885</v>
       </c>
       <c r="H127">
-        <v>0.02982740539037931</v>
+        <v>-0.001483358542118641</v>
       </c>
       <c r="I127">
-        <v>-0.001483358542118641</v>
+        <v>0.09757438296966026</v>
       </c>
       <c r="J127">
-        <v>0.09757438296966026</v>
+        <v>0.9556239536034443</v>
       </c>
       <c r="K127">
-        <v>-0.002052218934911242</v>
+        <v>-0.00566838263779706</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5358,7 +5358,7 @@
         <v>136</v>
       </c>
       <c r="B128">
-        <v>0.9855307941419733</v>
+        <v>-0.001860552268244574</v>
       </c>
       <c r="C128">
         <v>-0.0007817389517208138</v>
@@ -5370,22 +5370,22 @@
         <v>0.2010630045424744</v>
       </c>
       <c r="F128">
-        <v>-0.005270766158521895</v>
+        <v>0.04355242481044631</v>
       </c>
       <c r="G128">
         <v>0.3806092853192574</v>
       </c>
       <c r="H128">
-        <v>0.04355242481044631</v>
+        <v>-0.00267997084873225</v>
       </c>
       <c r="I128">
-        <v>-0.00267997084873225</v>
+        <v>0.1043952876797776</v>
       </c>
       <c r="J128">
-        <v>0.1043952876797776</v>
+        <v>0.9855307941419733</v>
       </c>
       <c r="K128">
-        <v>-0.001860552268244574</v>
+        <v>-0.005270766158521895</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5393,7 +5393,7 @@
         <v>137</v>
       </c>
       <c r="B129">
-        <v>1.009063205978593</v>
+        <v>-0.002160552268244574</v>
       </c>
       <c r="C129">
         <v>-0.005682388116582806</v>
@@ -5405,22 +5405,22 @@
         <v>0.1878791380889986</v>
       </c>
       <c r="F129">
-        <v>-0.004331186688213024</v>
+        <v>0.05861897877632925</v>
       </c>
       <c r="G129">
         <v>0.3532010691941534</v>
       </c>
       <c r="H129">
-        <v>0.05861897877632925</v>
+        <v>-0.002206536502926315</v>
       </c>
       <c r="I129">
-        <v>-0.002206536502926315</v>
+        <v>0.1076383728693378</v>
       </c>
       <c r="J129">
-        <v>0.1076383728693378</v>
+        <v>1.009063205978593</v>
       </c>
       <c r="K129">
-        <v>-0.002160552268244574</v>
+        <v>-0.004331186688213024</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5428,7 +5428,7 @@
         <v>138</v>
       </c>
       <c r="B130">
-        <v>1.029498467387875</v>
+        <v>-0.001952218934911241</v>
       </c>
       <c r="C130">
         <v>0.002509385434350784</v>
@@ -5440,22 +5440,22 @@
         <v>0.1866313647910518</v>
       </c>
       <c r="F130">
-        <v>-0.003119706572793085</v>
+        <v>0.05144682643732247</v>
       </c>
       <c r="G130">
         <v>0.3623186025775221</v>
       </c>
       <c r="H130">
-        <v>0.05144682643732247</v>
+        <v>-0.001205539561301617</v>
       </c>
       <c r="I130">
-        <v>-0.001205539561301617</v>
+        <v>0.110588138763438</v>
       </c>
       <c r="J130">
-        <v>0.110588138763438</v>
+        <v>1.029498467387875</v>
       </c>
       <c r="K130">
-        <v>-0.001952218934911241</v>
+        <v>-0.003119706572793085</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5463,7 +5463,7 @@
         <v>139</v>
       </c>
       <c r="B131">
-        <v>1.051796933275437</v>
+        <v>-0.001985552268244574</v>
       </c>
       <c r="C131">
         <v>-0.004714932033380328</v>
@@ -5475,22 +5475,22 @@
         <v>0.196912930941715</v>
       </c>
       <c r="F131">
-        <v>-0.005501153310185686</v>
+        <v>0.07641229783143641</v>
       </c>
       <c r="G131">
         <v>0.3765463185019892</v>
       </c>
       <c r="H131">
-        <v>0.07641229783143641</v>
+        <v>-0.003181574529723974</v>
       </c>
       <c r="I131">
-        <v>-0.003181574529723974</v>
+        <v>0.1176141933419603</v>
       </c>
       <c r="J131">
-        <v>0.1176141933419603</v>
+        <v>1.051796933275437</v>
       </c>
       <c r="K131">
-        <v>-0.001985552268244574</v>
+        <v>-0.005501153310185686</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5498,7 +5498,7 @@
         <v>140</v>
       </c>
       <c r="B132">
-        <v>1.0991005444677</v>
+        <v>-0.001985552268244574</v>
       </c>
       <c r="C132">
         <v>-0.002418988464998075</v>
@@ -5510,22 +5510,22 @@
         <v>0.198926463373863</v>
       </c>
       <c r="F132">
-        <v>-0.006373796920946135</v>
+        <v>0.08196234085403319</v>
       </c>
       <c r="G132">
         <v>0.3693544635693455</v>
       </c>
       <c r="H132">
-        <v>0.08196234085403319</v>
+        <v>-0.000854306501576552</v>
       </c>
       <c r="I132">
-        <v>-0.000854306501576552</v>
+        <v>0.1187777629894455</v>
       </c>
       <c r="J132">
-        <v>0.1187777629894455</v>
+        <v>1.0991005444677</v>
       </c>
       <c r="K132">
-        <v>-0.001985552268244574</v>
+        <v>-0.006373796920946135</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5533,7 +5533,7 @@
         <v>141</v>
       </c>
       <c r="B133">
-        <v>1.104494333891809</v>
+        <v>-0.00187721893491124</v>
       </c>
       <c r="C133">
         <v>-0.0001830481505448976</v>
@@ -5545,22 +5545,22 @@
         <v>0.2060920555698784</v>
       </c>
       <c r="F133">
-        <v>-0.00659122006270701</v>
+        <v>0.07926812375080952</v>
       </c>
       <c r="G133">
         <v>0.36087107494548</v>
       </c>
       <c r="H133">
-        <v>0.07926812375080952</v>
+        <v>0.000876013777387474</v>
       </c>
       <c r="I133">
-        <v>0.000876013777387474</v>
+        <v>0.1293656147375981</v>
       </c>
       <c r="J133">
-        <v>0.1293656147375981</v>
+        <v>1.104494333891809</v>
       </c>
       <c r="K133">
-        <v>-0.00187721893491124</v>
+        <v>-0.00659122006270701</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5568,7 +5568,7 @@
         <v>142</v>
       </c>
       <c r="B134">
-        <v>1.13533227628317</v>
+        <v>-0.001968885601577906</v>
       </c>
       <c r="C134">
         <v>-0.00258886236511088</v>
@@ -5580,22 +5580,22 @@
         <v>0.2244598967089066</v>
       </c>
       <c r="F134">
-        <v>-0.008036713333206486</v>
+        <v>0.09415452079871779</v>
       </c>
       <c r="G134">
         <v>0.3847964344546242</v>
       </c>
       <c r="H134">
-        <v>0.09415452079871779</v>
+        <v>-0.001604470963869698</v>
       </c>
       <c r="I134">
-        <v>-0.001604470963869698</v>
+        <v>0.1287406375629856</v>
       </c>
       <c r="J134">
-        <v>0.1287406375629856</v>
+        <v>1.13533227628317</v>
       </c>
       <c r="K134">
-        <v>-0.001968885601577906</v>
+        <v>-0.008036713333206486</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5603,7 +5603,7 @@
         <v>143</v>
       </c>
       <c r="B135">
-        <v>1.163224539868831</v>
+        <v>-0.002160552268244574</v>
       </c>
       <c r="C135">
         <v>-0.003900574988027841</v>
@@ -5615,22 +5615,22 @@
         <v>0.2492188163164251</v>
       </c>
       <c r="F135">
-        <v>-0.008775651513184763</v>
+        <v>0.1057330355899271</v>
       </c>
       <c r="G135">
         <v>0.375681851092203</v>
       </c>
       <c r="H135">
-        <v>0.1057330355899271</v>
+        <v>-0.001696834817742044</v>
       </c>
       <c r="I135">
-        <v>-0.001696834817742044</v>
+        <v>0.1246373861195886</v>
       </c>
       <c r="J135">
-        <v>0.1246373861195886</v>
+        <v>1.163224539868831</v>
       </c>
       <c r="K135">
-        <v>-0.002160552268244574</v>
+        <v>-0.008775651513184763</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5638,7 +5638,7 @@
         <v>144</v>
       </c>
       <c r="B136">
-        <v>1.169952014680766</v>
+        <v>-0.002543885601577908</v>
       </c>
       <c r="C136">
         <v>-0.002313188943330071</v>
@@ -5650,22 +5650,22 @@
         <v>0.2731674337414134</v>
       </c>
       <c r="F136">
-        <v>-0.00627419593117034</v>
+        <v>0.1276889591995423</v>
       </c>
       <c r="G136">
         <v>0.3902672949009908</v>
       </c>
       <c r="H136">
-        <v>0.1276889591995423</v>
+        <v>-0.002552266948026983</v>
       </c>
       <c r="I136">
-        <v>-0.002552266948026983</v>
+        <v>0.1259117710650677</v>
       </c>
       <c r="J136">
-        <v>0.1259117710650677</v>
+        <v>1.169952014680766</v>
       </c>
       <c r="K136">
-        <v>-0.002543885601577908</v>
+        <v>-0.00627419593117034</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5673,7 +5673,7 @@
         <v>145</v>
       </c>
       <c r="B137">
-        <v>1.197479337507973</v>
+        <v>-0.003968885601577906</v>
       </c>
       <c r="C137">
         <v>-0.002390738675490413</v>
@@ -5685,22 +5685,22 @@
         <v>0.2939452135923792</v>
       </c>
       <c r="F137">
-        <v>-0.008195707208688724</v>
+        <v>0.1481929936689827</v>
       </c>
       <c r="G137">
         <v>0.3993678738517409</v>
       </c>
       <c r="H137">
-        <v>0.1481929936689827</v>
+        <v>-0.003133277383781852</v>
       </c>
       <c r="I137">
-        <v>-0.003133277383781852</v>
+        <v>0.1307586237232825</v>
       </c>
       <c r="J137">
-        <v>0.1307586237232825</v>
+        <v>1.197479337507973</v>
       </c>
       <c r="K137">
-        <v>-0.003968885601577906</v>
+        <v>-0.008195707208688724</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5708,7 +5708,7 @@
         <v>146</v>
       </c>
       <c r="B138">
-        <v>1.211509075153582</v>
+        <v>-0.003585552268244573</v>
       </c>
       <c r="C138">
         <v>-0.005894017610363646</v>
@@ -5720,22 +5720,22 @@
         <v>0.2988874553822463</v>
       </c>
       <c r="F138">
-        <v>-0.005941114882622551</v>
+        <v>0.1471232789777973</v>
       </c>
       <c r="G138">
         <v>0.4103424767172894</v>
       </c>
       <c r="H138">
-        <v>0.1471232789777973</v>
+        <v>-0.001944891800912252</v>
       </c>
       <c r="I138">
-        <v>-0.001944891800912252</v>
+        <v>0.1284166003306635</v>
       </c>
       <c r="J138">
-        <v>0.1284166003306635</v>
+        <v>1.211509075153582</v>
       </c>
       <c r="K138">
-        <v>-0.003585552268244573</v>
+        <v>-0.005941114882622551</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5743,7 +5743,7 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>1.238811376013807</v>
+        <v>-0.003468885601577907</v>
       </c>
       <c r="C139">
         <v>0.001483632737291161</v>
@@ -5755,22 +5755,22 @@
         <v>0.3046151633400758</v>
       </c>
       <c r="F139">
-        <v>-0.005220972550670716</v>
+        <v>0.1679143726780035</v>
       </c>
       <c r="G139">
         <v>0.4286864422125147</v>
       </c>
       <c r="H139">
-        <v>0.1679143726780035</v>
+        <v>-0.001782594433591267</v>
       </c>
       <c r="I139">
-        <v>-0.001782594433591267</v>
+        <v>0.1323457417278298</v>
       </c>
       <c r="J139">
-        <v>0.1323457417278298</v>
+        <v>1.238811376013807</v>
       </c>
       <c r="K139">
-        <v>-0.003468885601577907</v>
+        <v>-0.005220972550670716</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5778,7 +5778,7 @@
         <v>148</v>
       </c>
       <c r="B140">
-        <v>1.259620686022522</v>
+        <v>-0.002977218934911242</v>
       </c>
       <c r="C140">
         <v>-0.003213822235777122</v>
@@ -5790,22 +5790,22 @@
         <v>0.3077619019075586</v>
       </c>
       <c r="F140">
-        <v>-0.005631291878223138</v>
+        <v>0.1790776392738031</v>
       </c>
       <c r="G140">
         <v>0.4293047359139303</v>
       </c>
       <c r="H140">
-        <v>0.1790776392738031</v>
+        <v>-0.00137983505813829</v>
       </c>
       <c r="I140">
-        <v>-0.00137983505813829</v>
+        <v>0.1387579967968287</v>
       </c>
       <c r="J140">
-        <v>0.1387579967968287</v>
+        <v>1.259620686022522</v>
       </c>
       <c r="K140">
-        <v>-0.002977218934911242</v>
+        <v>-0.005631291878223138</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5813,7 +5813,7 @@
         <v>149</v>
       </c>
       <c r="B141">
-        <v>1.259169926448515</v>
+        <v>-0.001993885601577908</v>
       </c>
       <c r="C141">
         <v>-0.001119786947455483</v>
@@ -5825,22 +5825,22 @@
         <v>0.3168774458323478</v>
       </c>
       <c r="F141">
-        <v>-0.005759852037626573</v>
+        <v>0.1962798881621568</v>
       </c>
       <c r="G141">
         <v>0.4259335331658331</v>
       </c>
       <c r="H141">
-        <v>0.1962798881621568</v>
+        <v>-0.003425842864186979</v>
       </c>
       <c r="I141">
-        <v>-0.003425842864186979</v>
+        <v>0.1400196812952381</v>
       </c>
       <c r="J141">
-        <v>0.1400196812952381</v>
+        <v>1.259169926448515</v>
       </c>
       <c r="K141">
-        <v>-0.001993885601577908</v>
+        <v>-0.005759852037626573</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5848,7 +5848,7 @@
         <v>150</v>
       </c>
       <c r="B142">
-        <v>1.278724184483213</v>
+        <v>-0.0008022189349112391</v>
       </c>
       <c r="C142">
         <v>-0.001025664654451943</v>
@@ -5860,22 +5860,22 @@
         <v>0.3131262189120134</v>
       </c>
       <c r="F142">
-        <v>-0.001009879611215731</v>
+        <v>0.1959478087395578</v>
       </c>
       <c r="G142">
         <v>0.4354638685666463</v>
       </c>
       <c r="H142">
-        <v>0.1959478087395578</v>
+        <v>-0.001552524261174771</v>
       </c>
       <c r="I142">
-        <v>-0.001552524261174771</v>
+        <v>0.1332923282198535</v>
       </c>
       <c r="J142">
-        <v>0.1332923282198535</v>
+        <v>1.278724184483213</v>
       </c>
       <c r="K142">
-        <v>-0.0008022189349112391</v>
+        <v>-0.001009879611215731</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5883,7 +5883,7 @@
         <v>151</v>
       </c>
       <c r="B143">
-        <v>1.31004252755265</v>
+        <v>-0.0003188856015779052</v>
       </c>
       <c r="C143">
         <v>-0.0001680723007304284</v>
@@ -5895,22 +5895,22 @@
         <v>0.3009687842649074</v>
       </c>
       <c r="F143">
-        <v>-0.004710482658327792</v>
+        <v>0.1876205767805101</v>
       </c>
       <c r="G143">
         <v>0.4337314701010504</v>
       </c>
       <c r="H143">
-        <v>0.1876205767805101</v>
+        <v>-0.0009284337652971323</v>
       </c>
       <c r="I143">
-        <v>-0.0009284337652971323</v>
+        <v>0.1338667186620057</v>
       </c>
       <c r="J143">
-        <v>0.1338667186620057</v>
+        <v>1.31004252755265</v>
       </c>
       <c r="K143">
-        <v>-0.0003188856015779052</v>
+        <v>-0.004710482658327792</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5918,7 +5918,7 @@
         <v>152</v>
       </c>
       <c r="B144">
-        <v>1.312173864543545</v>
+        <v>0.0004394477317554261</v>
       </c>
       <c r="C144">
         <v>-0.001236401245795906</v>
@@ -5930,22 +5930,22 @@
         <v>0.2771478817461768</v>
       </c>
       <c r="F144">
-        <v>-0.005557526826288012</v>
+        <v>0.1845767598552662</v>
       </c>
       <c r="G144">
         <v>0.4474571094044255</v>
       </c>
       <c r="H144">
-        <v>0.1845767598552662</v>
+        <v>-0.001744254896390263</v>
       </c>
       <c r="I144">
-        <v>-0.001744254896390263</v>
+        <v>0.1285191655168663</v>
       </c>
       <c r="J144">
-        <v>0.1285191655168663</v>
+        <v>1.312173864543545</v>
       </c>
       <c r="K144">
-        <v>0.0004394477317554261</v>
+        <v>-0.005557526826288012</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5953,7 +5953,7 @@
         <v>153</v>
       </c>
       <c r="B145">
-        <v>1.311330705169594</v>
+        <v>0.0004394477317554261</v>
       </c>
       <c r="C145">
         <v>-0.0005821396049447668</v>
@@ -5965,22 +5965,22 @@
         <v>0.2750449510094084</v>
       </c>
       <c r="F145">
-        <v>-0.005859916996109377</v>
+        <v>0.1819864407378151</v>
       </c>
       <c r="G145">
         <v>0.4494491416590857</v>
       </c>
       <c r="H145">
-        <v>0.1819864407378151</v>
+        <v>-0.000193287099408657</v>
       </c>
       <c r="I145">
-        <v>-0.000193287099408657</v>
+        <v>0.1193885243140724</v>
       </c>
       <c r="J145">
-        <v>0.1193885243140724</v>
+        <v>1.311330705169594</v>
       </c>
       <c r="K145">
-        <v>0.0004394477317554261</v>
+        <v>-0.005859916996109377</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5988,7 +5988,7 @@
         <v>154</v>
       </c>
       <c r="B146">
-        <v>1.297925106877761</v>
+        <v>-0.002560552268244573</v>
       </c>
       <c r="C146">
         <v>-0.002739907815552303</v>
@@ -6000,22 +6000,22 @@
         <v>0.2779365366517723</v>
       </c>
       <c r="F146">
-        <v>-0.002838781197333213</v>
+        <v>0.1768086575392023</v>
       </c>
       <c r="G146">
         <v>0.4523012818896922</v>
       </c>
       <c r="H146">
-        <v>0.1768086575392023</v>
+        <v>-0.002169306994968057</v>
       </c>
       <c r="I146">
-        <v>-0.002169306994968057</v>
+        <v>0.1100024443609389</v>
       </c>
       <c r="J146">
-        <v>0.1100024443609389</v>
+        <v>1.297925106877761</v>
       </c>
       <c r="K146">
-        <v>-0.002560552268244573</v>
+        <v>-0.002838781197333213</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -6023,7 +6023,7 @@
         <v>155</v>
       </c>
       <c r="B147">
-        <v>1.258501496978334</v>
+        <v>-0.00545221893491124</v>
       </c>
       <c r="C147">
         <v>-0.01041337430270258</v>
@@ -6035,22 +6035,22 @@
         <v>0.2886218064572068</v>
       </c>
       <c r="F147">
-        <v>-0.002358087620792532</v>
+        <v>0.1784420466156853</v>
       </c>
       <c r="G147">
         <v>0.4507163938065378</v>
       </c>
       <c r="H147">
-        <v>0.1784420466156853</v>
+        <v>-0.001561493283293103</v>
       </c>
       <c r="I147">
-        <v>-0.001561493283293103</v>
+        <v>0.1016529583631831</v>
       </c>
       <c r="J147">
-        <v>0.1016529583631831</v>
+        <v>1.258501496978334</v>
       </c>
       <c r="K147">
-        <v>-0.00545221893491124</v>
+        <v>-0.002358087620792532</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -6058,7 +6058,7 @@
         <v>156</v>
       </c>
       <c r="B148">
-        <v>1.237595882557548</v>
+        <v>-0.006677218934911241</v>
       </c>
       <c r="C148">
         <v>-0.005774410344549809</v>
@@ -6070,22 +6070,22 @@
         <v>0.2898658871025726</v>
       </c>
       <c r="F148">
-        <v>-0.007364942888491705</v>
+        <v>0.1642913332409436</v>
       </c>
       <c r="G148">
         <v>0.4592463831615691</v>
       </c>
       <c r="H148">
-        <v>0.1642913332409436</v>
+        <v>-0.004618317738323963</v>
       </c>
       <c r="I148">
-        <v>-0.004618317738323963</v>
+        <v>0.09372789823558669</v>
       </c>
       <c r="J148">
-        <v>0.09372789823558669</v>
+        <v>1.237595882557548</v>
       </c>
       <c r="K148">
-        <v>-0.006677218934911241</v>
+        <v>-0.007364942888491705</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -6093,7 +6093,7 @@
         <v>157</v>
       </c>
       <c r="B149">
-        <v>1.198616144026924</v>
+        <v>-0.009835552268244573</v>
       </c>
       <c r="C149">
         <v>-0.003411995453004048</v>
@@ -6105,22 +6105,22 @@
         <v>0.2771112952764403</v>
       </c>
       <c r="F149">
-        <v>-0.005418553219751538</v>
+        <v>0.1590682357355045</v>
       </c>
       <c r="G149">
         <v>0.4682566995235639</v>
       </c>
       <c r="H149">
-        <v>0.1590682357355045</v>
+        <v>-0.003755332489080299</v>
       </c>
       <c r="I149">
-        <v>-0.003755332489080299</v>
+        <v>0.07852270959129459</v>
       </c>
       <c r="J149">
-        <v>0.07852270959129459</v>
+        <v>1.198616144026924</v>
       </c>
       <c r="K149">
-        <v>-0.009835552268244573</v>
+        <v>-0.005418553219751538</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -6128,7 +6128,7 @@
         <v>158</v>
       </c>
       <c r="B150">
-        <v>1.161893072386969</v>
+        <v>-0.01029388560157791</v>
       </c>
       <c r="C150">
         <v>-0.002014078385892595</v>
@@ -6140,22 +6140,22 @@
         <v>0.2992622841259163</v>
       </c>
       <c r="F150">
-        <v>-0.009165526251971251</v>
+        <v>0.1510019300402314</v>
       </c>
       <c r="G150">
         <v>0.4907921202806492</v>
       </c>
       <c r="H150">
-        <v>0.1510019300402314</v>
+        <v>-0.006062999187424889</v>
       </c>
       <c r="I150">
-        <v>-0.006062999187424889</v>
+        <v>0.07683857408689931</v>
       </c>
       <c r="J150">
-        <v>0.07683857408689931</v>
+        <v>1.161893072386969</v>
       </c>
       <c r="K150">
-        <v>-0.01029388560157791</v>
+        <v>-0.009165526251971251</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -6163,7 +6163,7 @@
         <v>159</v>
       </c>
       <c r="B151">
-        <v>1.143690496175942</v>
+        <v>-0.01031055226824457</v>
       </c>
       <c r="C151">
         <v>-0.004987634803670118</v>
@@ -6175,22 +6175,22 @@
         <v>0.3193926697275185</v>
       </c>
       <c r="F151">
-        <v>-0.004213660375242562</v>
+        <v>0.1342305467204045</v>
       </c>
       <c r="G151">
         <v>0.4908069183594857</v>
       </c>
       <c r="H151">
-        <v>0.1342305467204045</v>
+        <v>-0.004521254458290514</v>
       </c>
       <c r="I151">
-        <v>-0.004521254458290514</v>
+        <v>0.08025353201693264</v>
       </c>
       <c r="J151">
-        <v>0.08025353201693264</v>
+        <v>1.143690496175942</v>
       </c>
       <c r="K151">
-        <v>-0.01031055226824457</v>
+        <v>-0.004213660375242562</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -6198,7 +6198,7 @@
         <v>160</v>
       </c>
       <c r="B152">
-        <v>1.135687846817869</v>
+        <v>-0.01049388560157791</v>
       </c>
       <c r="C152">
         <v>-0.002152428738021874</v>
@@ -6210,22 +6210,22 @@
         <v>0.3212271626620407</v>
       </c>
       <c r="F152">
-        <v>-0.006852505560648809</v>
+        <v>0.1309790970245285</v>
       </c>
       <c r="G152">
         <v>0.4798810020932273</v>
       </c>
       <c r="H152">
-        <v>0.1309790970245285</v>
+        <v>-0.002122748097590133</v>
       </c>
       <c r="I152">
-        <v>-0.002122748097590133</v>
+        <v>0.07401299671708106</v>
       </c>
       <c r="J152">
-        <v>0.07401299671708106</v>
+        <v>1.135687846817869</v>
       </c>
       <c r="K152">
-        <v>-0.01049388560157791</v>
+        <v>-0.006852505560648809</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -6233,7 +6233,7 @@
         <v>161</v>
       </c>
       <c r="B153">
-        <v>1.11987188053453</v>
+        <v>-0.01126888560157791</v>
       </c>
       <c r="C153">
         <v>-0.004011537151433955</v>
@@ -6245,22 +6245,22 @@
         <v>0.333903755172023</v>
       </c>
       <c r="F153">
-        <v>-0.005254054856794583</v>
+        <v>0.1223365840815287</v>
       </c>
       <c r="G153">
         <v>0.5149383601397528</v>
       </c>
       <c r="H153">
-        <v>0.1223365840815287</v>
+        <v>-0.0022055062083571</v>
       </c>
       <c r="I153">
-        <v>-0.0022055062083571</v>
+        <v>0.06862455452951233</v>
       </c>
       <c r="J153">
-        <v>0.06862455452951233</v>
+        <v>1.11987188053453</v>
       </c>
       <c r="K153">
-        <v>-0.01126888560157791</v>
+        <v>-0.005254054856794583</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -6268,7 +6268,7 @@
         <v>162</v>
       </c>
       <c r="B154">
-        <v>1.106069931323661</v>
+        <v>-0.01171055226824457</v>
       </c>
       <c r="C154">
         <v>-0.006185769242983166</v>
@@ -6280,22 +6280,22 @@
         <v>0.3367269448637549</v>
       </c>
       <c r="F154">
-        <v>-0.004276160394020729</v>
+        <v>0.1122800809626051</v>
       </c>
       <c r="G154">
         <v>0.516032323267821</v>
       </c>
       <c r="H154">
-        <v>0.1122800809626051</v>
+        <v>-0.004468280601466723</v>
       </c>
       <c r="I154">
-        <v>-0.004468280601466723</v>
+        <v>0.05928840320488549</v>
       </c>
       <c r="J154">
-        <v>0.05928840320488549</v>
+        <v>1.106069931323661</v>
       </c>
       <c r="K154">
-        <v>-0.01171055226824457</v>
+        <v>-0.004276160394020729</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -6303,7 +6303,7 @@
         <v>163</v>
       </c>
       <c r="B155">
-        <v>1.128503834364474</v>
+        <v>-0.01200221893491124</v>
       </c>
       <c r="C155">
         <v>-0.003745582571275743</v>
@@ -6315,22 +6315,22 @@
         <v>0.3586008692660414</v>
       </c>
       <c r="F155">
-        <v>-0.00818154006896959</v>
+        <v>0.117356566949991</v>
       </c>
       <c r="G155">
         <v>0.5186352101554346</v>
       </c>
       <c r="H155">
-        <v>0.117356566949991</v>
+        <v>-0.006903083505307517</v>
       </c>
       <c r="I155">
-        <v>-0.006903083505307517</v>
+        <v>0.04995310996550284</v>
       </c>
       <c r="J155">
-        <v>0.04995310996550284</v>
+        <v>1.128503834364474</v>
       </c>
       <c r="K155">
-        <v>-0.01200221893491124</v>
+        <v>-0.00818154006896959</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -6338,7 +6338,7 @@
         <v>164</v>
       </c>
       <c r="B156">
-        <v>1.14752685264511</v>
+        <v>-0.01227721893491124</v>
       </c>
       <c r="C156">
         <v>-0.00975252471982976</v>
@@ -6350,22 +6350,22 @@
         <v>0.4053644395173572</v>
       </c>
       <c r="F156">
-        <v>-0.005890849755452671</v>
+        <v>0.1271179770616426</v>
       </c>
       <c r="G156">
         <v>0.5445176223714421</v>
       </c>
       <c r="H156">
-        <v>0.1271179770616426</v>
+        <v>-0.005407663136674923</v>
       </c>
       <c r="I156">
-        <v>-0.005407663136674923</v>
+        <v>0.04873393202940512</v>
       </c>
       <c r="J156">
-        <v>0.04873393202940512</v>
+        <v>1.14752685264511</v>
       </c>
       <c r="K156">
-        <v>-0.01227721893491124</v>
+        <v>-0.005890849755452671</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -6373,7 +6373,7 @@
         <v>165</v>
       </c>
       <c r="B157">
-        <v>1.151071478328889</v>
+        <v>-0.01231055226824457</v>
       </c>
       <c r="C157">
         <v>-0.009579167081463526</v>
@@ -6385,22 +6385,22 @@
         <v>0.4272819960425407</v>
       </c>
       <c r="F157">
-        <v>-0.006322360330883342</v>
+        <v>0.1191448224807946</v>
       </c>
       <c r="G157">
         <v>0.5576545960720276</v>
       </c>
       <c r="H157">
-        <v>0.1191448224807946</v>
+        <v>-0.008455076427776287</v>
       </c>
       <c r="I157">
-        <v>-0.008455076427776287</v>
+        <v>0.05899824881379567</v>
       </c>
       <c r="J157">
-        <v>0.05899824881379567</v>
+        <v>1.151071478328889</v>
       </c>
       <c r="K157">
-        <v>-0.01231055226824457</v>
+        <v>-0.006322360330883342</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -6408,7 +6408,7 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>1.15494876249174</v>
+        <v>-0.01231055226824457</v>
       </c>
       <c r="C158">
         <v>-0.003996025105588354</v>
@@ -6420,22 +6420,22 @@
         <v>0.4343666990404405</v>
       </c>
       <c r="F158">
-        <v>-0.0002760222905520641</v>
+        <v>0.1328488056442542</v>
       </c>
       <c r="G158">
         <v>0.5799477991638939</v>
       </c>
       <c r="H158">
-        <v>0.1328488056442542</v>
+        <v>-0.006530146767138223</v>
       </c>
       <c r="I158">
-        <v>-0.006530146767138223</v>
+        <v>0.06611728538820483</v>
       </c>
       <c r="J158">
-        <v>0.06611728538820483</v>
+        <v>1.15494876249174</v>
       </c>
       <c r="K158">
-        <v>-0.01231055226824457</v>
+        <v>-0.0002760222905520641</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -6443,7 +6443,7 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>1.169572678224545</v>
+        <v>-0.01191055226824457</v>
       </c>
       <c r="C159">
         <v>-0.008550689887232035</v>
@@ -6455,22 +6455,22 @@
         <v>0.476739198420014</v>
       </c>
       <c r="F159">
-        <v>-0.001604124114637223</v>
+        <v>0.1336221946673009</v>
       </c>
       <c r="G159">
         <v>0.5778823785183289</v>
       </c>
       <c r="H159">
-        <v>0.1336221946673009</v>
+        <v>-0.00463242498751012</v>
       </c>
       <c r="I159">
-        <v>-0.00463242498751012</v>
+        <v>0.06704202201419962</v>
       </c>
       <c r="J159">
-        <v>0.06704202201419962</v>
+        <v>1.169572678224545</v>
       </c>
       <c r="K159">
-        <v>-0.01191055226824457</v>
+        <v>-0.001604124114637223</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6478,7 +6478,7 @@
         <v>168</v>
       </c>
       <c r="B160">
-        <v>1.190956478977909</v>
+        <v>-0.01088555226824457</v>
       </c>
       <c r="C160">
         <v>-0.009077087090488347</v>
@@ -6490,22 +6490,22 @@
         <v>0.4815205806903498</v>
       </c>
       <c r="F160">
-        <v>-0.003232404942724415</v>
+        <v>0.1437742565161401</v>
       </c>
       <c r="G160">
         <v>0.6041408403098599</v>
       </c>
       <c r="H160">
-        <v>0.1437742565161401</v>
+        <v>-0.004041090414648696</v>
       </c>
       <c r="I160">
-        <v>-0.004041090414648696</v>
+        <v>0.06614568174653979</v>
       </c>
       <c r="J160">
-        <v>0.06614568174653979</v>
+        <v>1.190956478977909</v>
       </c>
       <c r="K160">
-        <v>-0.01088555226824457</v>
+        <v>-0.003232404942724415</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6513,7 +6513,7 @@
         <v>169</v>
       </c>
       <c r="B161">
-        <v>1.207739260661905</v>
+        <v>-0.009585552268244575</v>
       </c>
       <c r="C161">
         <v>-0.00873568765199392</v>
@@ -6525,22 +6525,22 @@
         <v>0.4766425663602556</v>
       </c>
       <c r="F161">
-        <v>-0.0001110513578819698</v>
+        <v>0.1577004118517223</v>
       </c>
       <c r="G161">
         <v>0.5972283192215824</v>
       </c>
       <c r="H161">
-        <v>0.1577004118517223</v>
+        <v>-0.005354148214849442</v>
       </c>
       <c r="I161">
-        <v>-0.005354148214849442</v>
+        <v>0.05945027615641063</v>
       </c>
       <c r="J161">
-        <v>0.05945027615641063</v>
+        <v>1.207739260661905</v>
       </c>
       <c r="K161">
-        <v>-0.009585552268244575</v>
+        <v>-0.0001110513578819698</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6548,7 +6548,7 @@
         <v>170</v>
       </c>
       <c r="B162">
-        <v>1.219590199815855</v>
+        <v>-0.008260552268244573</v>
       </c>
       <c r="C162">
         <v>-0.01029447160460359</v>
@@ -6560,22 +6560,22 @@
         <v>0.5001346380067595</v>
       </c>
       <c r="F162">
-        <v>-0.0009605765441263407</v>
+        <v>0.153019459827782</v>
       </c>
       <c r="G162">
         <v>0.6047239577243838</v>
       </c>
       <c r="H162">
-        <v>0.153019459827782</v>
+        <v>-0.005388838290004994</v>
       </c>
       <c r="I162">
-        <v>-0.005388838290004994</v>
+        <v>0.05975825470438201</v>
       </c>
       <c r="J162">
-        <v>0.05975825470438201</v>
+        <v>1.219590199815855</v>
       </c>
       <c r="K162">
-        <v>-0.008260552268244573</v>
+        <v>-0.0009605765441263407</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6583,7 +6583,7 @@
         <v>171</v>
       </c>
       <c r="B163">
-        <v>1.229275925276343</v>
+        <v>-0.007443885601577907</v>
       </c>
       <c r="C163">
         <v>-0.007194439401281474</v>
@@ -6595,22 +6595,22 @@
         <v>0.5427633697978971</v>
       </c>
       <c r="F163">
-        <v>-0.002899851263923609</v>
+        <v>0.1875397857687762</v>
       </c>
       <c r="G163">
         <v>0.6260877601484702</v>
       </c>
       <c r="H163">
-        <v>0.1875397857687762</v>
+        <v>-0.004176499417748747</v>
       </c>
       <c r="I163">
-        <v>-0.004176499417748747</v>
+        <v>0.05900440721736366</v>
       </c>
       <c r="J163">
-        <v>0.05900440721736366</v>
+        <v>1.229275925276343</v>
       </c>
       <c r="K163">
-        <v>-0.007443885601577907</v>
+        <v>-0.002899851263923609</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6618,7 +6618,7 @@
         <v>172</v>
       </c>
       <c r="B164">
-        <v>1.240349451921534</v>
+        <v>-0.006202218934911241</v>
       </c>
       <c r="C164">
         <v>-0.004643572273119036</v>
@@ -6630,22 +6630,22 @@
         <v>0.5565222848921429</v>
       </c>
       <c r="F164">
-        <v>-0.0005582460213054367</v>
+        <v>0.1903013415006559</v>
       </c>
       <c r="G164">
         <v>0.6394500282503062</v>
       </c>
       <c r="H164">
-        <v>0.1903013415006559</v>
+        <v>-0.003195944651366823</v>
       </c>
       <c r="I164">
-        <v>-0.003195944651366823</v>
+        <v>0.06405191311467417</v>
       </c>
       <c r="J164">
-        <v>0.06405191311467417</v>
+        <v>1.240349451921534</v>
       </c>
       <c r="K164">
-        <v>-0.006202218934911241</v>
+        <v>-0.0005582460213054367</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6653,7 +6653,7 @@
         <v>173</v>
       </c>
       <c r="B165">
-        <v>1.249677383569889</v>
+        <v>-0.005035552268244575</v>
       </c>
       <c r="C165">
         <v>-0.006725168455465193</v>
@@ -6665,22 +6665,22 @@
         <v>0.5506904682059997</v>
       </c>
       <c r="F165">
-        <v>-0.001050443508258831</v>
+        <v>0.2121910122350699</v>
       </c>
       <c r="G165">
         <v>0.6557252239209399</v>
       </c>
       <c r="H165">
-        <v>0.2121910122350699</v>
+        <v>-0.002443481601447662</v>
       </c>
       <c r="I165">
-        <v>-0.002443481601447662</v>
+        <v>0.07122255049241621</v>
       </c>
       <c r="J165">
-        <v>0.07122255049241621</v>
+        <v>1.249677383569889</v>
       </c>
       <c r="K165">
-        <v>-0.005035552268244575</v>
+        <v>-0.001050443508258831</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6688,7 +6688,7 @@
         <v>174</v>
       </c>
       <c r="B166">
-        <v>1.279190962333257</v>
+        <v>-0.003618885601577906</v>
       </c>
       <c r="C166">
         <v>-0.008439936975535214</v>
@@ -6700,22 +6700,22 @@
         <v>0.5475484906937726</v>
       </c>
       <c r="F166">
-        <v>-0.002041986297046933</v>
+        <v>0.2361973013789854</v>
       </c>
       <c r="G166">
         <v>0.650559232948004</v>
       </c>
       <c r="H166">
-        <v>0.2361973013789854</v>
+        <v>-0.001306964672540179</v>
       </c>
       <c r="I166">
-        <v>-0.001306964672540179</v>
+        <v>0.07591410437396018</v>
       </c>
       <c r="J166">
-        <v>0.07591410437396018</v>
+        <v>1.279190962333257</v>
       </c>
       <c r="K166">
-        <v>-0.003618885601577906</v>
+        <v>-0.002041986297046933</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6723,7 +6723,7 @@
         <v>175</v>
       </c>
       <c r="B167">
-        <v>1.287062254040712</v>
+        <v>-0.002843885601577908</v>
       </c>
       <c r="C167">
         <v>-0.0008619348025524463</v>
@@ -6735,22 +6735,22 @@
         <v>0.5150809905494098</v>
       </c>
       <c r="F167">
-        <v>-0.0008130951472625162</v>
+        <v>0.2347460244555269</v>
       </c>
       <c r="G167">
         <v>0.6574941905648108</v>
       </c>
       <c r="H167">
-        <v>0.2347460244555269</v>
+        <v>-0.0002048381782798429</v>
       </c>
       <c r="I167">
-        <v>-0.0002048381782798429</v>
+        <v>0.08080690044971472</v>
       </c>
       <c r="J167">
-        <v>0.08080690044971472</v>
+        <v>1.287062254040712</v>
       </c>
       <c r="K167">
-        <v>-0.002843885601577908</v>
+        <v>-0.0008130951472625162</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6758,7 +6758,7 @@
         <v>176</v>
       </c>
       <c r="B168">
-        <v>1.307671726077469</v>
+        <v>-0.002335552268244575</v>
       </c>
       <c r="C168">
         <v>0.003842027965179438</v>
@@ -6770,22 +6770,22 @@
         <v>0.4602742923552849</v>
       </c>
       <c r="F168">
-        <v>-0.007044833979557958</v>
+        <v>0.2323748714703296</v>
       </c>
       <c r="G168">
         <v>0.6468568487693944</v>
       </c>
       <c r="H168">
-        <v>0.2323748714703296</v>
+        <v>-0.001512927357647598</v>
       </c>
       <c r="I168">
-        <v>-0.001512927357647598</v>
+        <v>0.08479850105760267</v>
       </c>
       <c r="J168">
-        <v>0.08479850105760267</v>
+        <v>1.307671726077469</v>
       </c>
       <c r="K168">
-        <v>-0.002335552268244575</v>
+        <v>-0.007044833979557958</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6793,7 +6793,7 @@
         <v>177</v>
       </c>
       <c r="B169">
-        <v>1.296591764099183</v>
+        <v>-0.002343885601577908</v>
       </c>
       <c r="C169">
         <v>0.000191486107574055</v>
@@ -6805,19 +6805,19 @@
         <v>0.4019462373947933</v>
       </c>
       <c r="F169">
+        <v>0.2396892742192072</v>
+      </c>
+      <c r="H169">
+        <v>-0.001607042143770688</v>
+      </c>
+      <c r="I169">
+        <v>0.08008841427209168</v>
+      </c>
+      <c r="J169">
+        <v>1.296591764099183</v>
+      </c>
+      <c r="K169">
         <v>-0.007833256586015353</v>
-      </c>
-      <c r="H169">
-        <v>0.2396892742192072</v>
-      </c>
-      <c r="I169">
-        <v>-0.001607042143770688</v>
-      </c>
-      <c r="J169">
-        <v>0.08008841427209168</v>
-      </c>
-      <c r="K169">
-        <v>-0.002343885601577908</v>
       </c>
     </row>
   </sheetData>
